--- a/firebase_data_from_spyOOC.xlsx
+++ b/firebase_data_from_spyOOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="522">
   <si>
     <t>date</t>
   </si>
@@ -1571,6 +1571,15 @@
   </si>
   <si>
     <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>2025-07-02</t>
+  </si>
+  <si>
+    <t>2025-07-03</t>
+  </si>
+  <si>
+    <t>2025-07-07</t>
   </si>
 </sst>
 </file>
@@ -1928,7 +1937,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G514"/>
+  <dimension ref="A1:G517"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13737,7 +13746,13 @@
       <c r="B514" t="s">
         <v>518</v>
       </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
       <c r="D514">
+        <v>0</v>
+      </c>
+      <c r="E514">
         <v>0</v>
       </c>
       <c r="F514">
@@ -13745,6 +13760,69 @@
       </c>
       <c r="G514">
         <v>0.28</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7">
+      <c r="A515" s="1">
+        <v>513</v>
+      </c>
+      <c r="B515" t="s">
+        <v>519</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+      <c r="D515">
+        <v>1</v>
+      </c>
+      <c r="E515">
+        <v>1</v>
+      </c>
+      <c r="F515">
+        <v>0</v>
+      </c>
+      <c r="G515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7">
+      <c r="A516" s="1">
+        <v>514</v>
+      </c>
+      <c r="B516" t="s">
+        <v>520</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+      <c r="D516">
+        <v>0</v>
+      </c>
+      <c r="E516">
+        <v>0</v>
+      </c>
+      <c r="F516">
+        <v>0.62</v>
+      </c>
+      <c r="G516">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7">
+      <c r="A517" s="1">
+        <v>515</v>
+      </c>
+      <c r="B517" t="s">
+        <v>521</v>
+      </c>
+      <c r="D517">
+        <v>0</v>
+      </c>
+      <c r="F517">
+        <v>0.7</v>
+      </c>
+      <c r="G517">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyOOC.xlsx
+++ b/firebase_data_from_spyOOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="578">
   <si>
     <t>date</t>
   </si>
@@ -1640,6 +1640,24 @@
   </si>
   <si>
     <t>2025-08-01</t>
+  </si>
+  <si>
+    <t>2025-08-04</t>
+  </si>
+  <si>
+    <t>2025-08-05</t>
+  </si>
+  <si>
+    <t>2025-08-06</t>
+  </si>
+  <si>
+    <t>2025-08-07</t>
+  </si>
+  <si>
+    <t>2025-08-08</t>
+  </si>
+  <si>
+    <t>2025-08-11</t>
   </si>
   <si>
     <t>96.00</t>
@@ -2087,7 +2105,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H536"/>
+  <dimension ref="A1:H542"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2139,7 +2157,7 @@
         <v>0.96</v>
       </c>
       <c r="H2" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2165,7 +2183,7 @@
         <v>0.98</v>
       </c>
       <c r="H3" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2191,7 +2209,7 @@
         <v>0.4</v>
       </c>
       <c r="H4" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2217,7 +2235,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H5" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2243,7 +2261,7 @@
         <v>0.22</v>
       </c>
       <c r="H6" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2269,7 +2287,7 @@
         <v>0.18</v>
       </c>
       <c r="H7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2295,7 +2313,7 @@
         <v>0.78</v>
       </c>
       <c r="H8" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2321,7 +2339,7 @@
         <v>0.36</v>
       </c>
       <c r="H9" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2347,7 +2365,7 @@
         <v>0.66</v>
       </c>
       <c r="H10" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2373,7 +2391,7 @@
         <v>0.32</v>
       </c>
       <c r="H11" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2399,7 +2417,7 @@
         <v>0.7</v>
       </c>
       <c r="H12" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2425,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2451,7 +2469,7 @@
         <v>0.92</v>
       </c>
       <c r="H14" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2477,7 +2495,7 @@
         <v>0.7</v>
       </c>
       <c r="H15" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2503,7 +2521,7 @@
         <v>0.3</v>
       </c>
       <c r="H16" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2529,7 +2547,7 @@
         <v>0.3</v>
       </c>
       <c r="H17" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2555,7 +2573,7 @@
         <v>0.02</v>
       </c>
       <c r="H18" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2581,7 +2599,7 @@
         <v>0.72</v>
       </c>
       <c r="H19" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2607,7 +2625,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2633,7 +2651,7 @@
         <v>0.98</v>
       </c>
       <c r="H21" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2659,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2685,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2711,7 +2729,7 @@
         <v>0.32</v>
       </c>
       <c r="H24" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2737,7 +2755,7 @@
         <v>0.26</v>
       </c>
       <c r="H25" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2763,7 +2781,7 @@
         <v>0.34</v>
       </c>
       <c r="H26" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2789,7 +2807,7 @@
         <v>0.04</v>
       </c>
       <c r="H27" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2815,7 +2833,7 @@
         <v>0.02</v>
       </c>
       <c r="H28" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2841,7 +2859,7 @@
         <v>0.84</v>
       </c>
       <c r="H29" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2867,7 +2885,7 @@
         <v>0.96</v>
       </c>
       <c r="H30" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2893,7 +2911,7 @@
         <v>0.8</v>
       </c>
       <c r="H31" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2919,7 +2937,7 @@
         <v>0.92</v>
       </c>
       <c r="H32" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2945,7 +2963,7 @@
         <v>0.98</v>
       </c>
       <c r="H33" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2971,7 +2989,7 @@
         <v>0.98</v>
       </c>
       <c r="H34" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2997,7 +3015,7 @@
         <v>0.46</v>
       </c>
       <c r="H35" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3023,7 +3041,7 @@
         <v>0.2</v>
       </c>
       <c r="H36" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3049,7 +3067,7 @@
         <v>0.3</v>
       </c>
       <c r="H37" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3075,7 +3093,7 @@
         <v>0.04</v>
       </c>
       <c r="H38" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3101,7 +3119,7 @@
         <v>0.68</v>
       </c>
       <c r="H39" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3127,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3153,7 +3171,7 @@
         <v>0.34</v>
       </c>
       <c r="H41" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3179,7 +3197,7 @@
         <v>0.34</v>
       </c>
       <c r="H42" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3205,7 +3223,7 @@
         <v>0.44</v>
       </c>
       <c r="H43" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3231,7 +3249,7 @@
         <v>0.36</v>
       </c>
       <c r="H44" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3257,7 +3275,7 @@
         <v>0.58</v>
       </c>
       <c r="H45" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3283,7 +3301,7 @@
         <v>0.72</v>
       </c>
       <c r="H46" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3309,7 +3327,7 @@
         <v>0.74</v>
       </c>
       <c r="H47" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3335,7 +3353,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H48" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3361,7 +3379,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H49" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3387,7 +3405,7 @@
         <v>0.96</v>
       </c>
       <c r="H50" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3413,7 +3431,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3439,7 +3457,7 @@
         <v>0.96</v>
       </c>
       <c r="H52" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3465,7 +3483,7 @@
         <v>0.74</v>
       </c>
       <c r="H53" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3491,7 +3509,7 @@
         <v>0.74</v>
       </c>
       <c r="H54" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3517,7 +3535,7 @@
         <v>0.14</v>
       </c>
       <c r="H55" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3543,7 +3561,7 @@
         <v>0.86</v>
       </c>
       <c r="H56" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3569,7 +3587,7 @@
         <v>0.12</v>
       </c>
       <c r="H57" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3595,7 +3613,7 @@
         <v>0.1</v>
       </c>
       <c r="H58" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3621,7 +3639,7 @@
         <v>0.84</v>
       </c>
       <c r="H59" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3647,7 +3665,7 @@
         <v>0.74</v>
       </c>
       <c r="H60" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3673,7 +3691,7 @@
         <v>0.76</v>
       </c>
       <c r="H61" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3699,7 +3717,7 @@
         <v>0.66</v>
       </c>
       <c r="H62" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3725,7 +3743,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H63" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3751,7 +3769,7 @@
         <v>0.74</v>
       </c>
       <c r="H64" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3777,7 +3795,7 @@
         <v>0.6</v>
       </c>
       <c r="H65" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3803,7 +3821,7 @@
         <v>0.2</v>
       </c>
       <c r="H66" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3829,7 +3847,7 @@
         <v>0.06</v>
       </c>
       <c r="H67" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3855,7 +3873,7 @@
         <v>0.98</v>
       </c>
       <c r="H68" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3881,7 +3899,7 @@
         <v>0.38</v>
       </c>
       <c r="H69" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3907,7 +3925,7 @@
         <v>0.02</v>
       </c>
       <c r="H70" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3933,7 +3951,7 @@
         <v>0.8</v>
       </c>
       <c r="H71" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3959,7 +3977,7 @@
         <v>0.7</v>
       </c>
       <c r="H72" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3985,7 +4003,7 @@
         <v>0.72</v>
       </c>
       <c r="H73" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4011,7 +4029,7 @@
         <v>0.2</v>
       </c>
       <c r="H74" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4037,7 +4055,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H75" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4063,7 +4081,7 @@
         <v>0.38</v>
       </c>
       <c r="H76" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4089,7 +4107,7 @@
         <v>0.08</v>
       </c>
       <c r="H77" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4115,7 +4133,7 @@
         <v>0.06</v>
       </c>
       <c r="H78" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4141,7 +4159,7 @@
         <v>0.96</v>
       </c>
       <c r="H79" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4167,7 +4185,7 @@
         <v>0.6</v>
       </c>
       <c r="H80" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4193,7 +4211,7 @@
         <v>0.92</v>
       </c>
       <c r="H81" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4219,7 +4237,7 @@
         <v>0.9</v>
       </c>
       <c r="H82" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4245,7 +4263,7 @@
         <v>0.08</v>
       </c>
       <c r="H83" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4271,7 +4289,7 @@
         <v>0.74</v>
       </c>
       <c r="H84" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4297,7 +4315,7 @@
         <v>0.28</v>
       </c>
       <c r="H85" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4323,7 +4341,7 @@
         <v>0.42</v>
       </c>
       <c r="H86" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4349,7 +4367,7 @@
         <v>0.9</v>
       </c>
       <c r="H87" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4375,7 +4393,7 @@
         <v>0.98</v>
       </c>
       <c r="H88" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4401,7 +4419,7 @@
         <v>0.74</v>
       </c>
       <c r="H89" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4427,7 +4445,7 @@
         <v>0.22</v>
       </c>
       <c r="H90" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4453,7 +4471,7 @@
         <v>0.74</v>
       </c>
       <c r="H91" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4479,7 +4497,7 @@
         <v>0.68</v>
       </c>
       <c r="H92" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4505,7 +4523,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4531,7 +4549,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H94" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4557,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4583,7 +4601,7 @@
         <v>0.76</v>
       </c>
       <c r="H96" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4609,7 +4627,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H97" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4635,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4661,7 +4679,7 @@
         <v>0.96</v>
       </c>
       <c r="H99" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4687,7 +4705,7 @@
         <v>0.88</v>
       </c>
       <c r="H100" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4713,7 +4731,7 @@
         <v>0.82</v>
       </c>
       <c r="H101" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4739,7 +4757,7 @@
         <v>0.24</v>
       </c>
       <c r="H102" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4765,7 +4783,7 @@
         <v>0.7</v>
       </c>
       <c r="H103" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4791,7 +4809,7 @@
         <v>0.28</v>
       </c>
       <c r="H104" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4817,7 +4835,7 @@
         <v>0.3</v>
       </c>
       <c r="H105" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4843,7 +4861,7 @@
         <v>0.24</v>
       </c>
       <c r="H106" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4869,7 +4887,7 @@
         <v>0.86</v>
       </c>
       <c r="H107" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4895,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4921,7 +4939,7 @@
         <v>0.28</v>
       </c>
       <c r="H109" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4947,7 +4965,7 @@
         <v>0.98</v>
       </c>
       <c r="H110" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4973,7 +4991,7 @@
         <v>0.26</v>
       </c>
       <c r="H111" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4999,7 +5017,7 @@
         <v>0.44</v>
       </c>
       <c r="H112" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5025,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5051,7 +5069,7 @@
         <v>0.98</v>
       </c>
       <c r="H114" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5077,7 +5095,7 @@
         <v>0.04</v>
       </c>
       <c r="H115" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5103,7 +5121,7 @@
         <v>0.06</v>
       </c>
       <c r="H116" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5129,7 +5147,7 @@
         <v>0.22</v>
       </c>
       <c r="H117" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5155,7 +5173,7 @@
         <v>0.24</v>
       </c>
       <c r="H118" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5181,7 +5199,7 @@
         <v>0.3</v>
       </c>
       <c r="H119" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5207,7 +5225,7 @@
         <v>0.34</v>
       </c>
       <c r="H120" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5233,7 +5251,7 @@
         <v>0.32</v>
       </c>
       <c r="H121" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5259,7 +5277,7 @@
         <v>0.04</v>
       </c>
       <c r="H122" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5285,7 +5303,7 @@
         <v>0.06</v>
       </c>
       <c r="H123" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5311,7 +5329,7 @@
         <v>0.04</v>
       </c>
       <c r="H124" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5337,7 +5355,7 @@
         <v>0.96</v>
       </c>
       <c r="H125" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5363,7 +5381,7 @@
         <v>0.66</v>
       </c>
       <c r="H126" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5389,7 +5407,7 @@
         <v>0.04</v>
       </c>
       <c r="H127" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5415,7 +5433,7 @@
         <v>0.9</v>
       </c>
       <c r="H128" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5441,7 +5459,7 @@
         <v>0.84</v>
       </c>
       <c r="H129" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5467,7 +5485,7 @@
         <v>0.34</v>
       </c>
       <c r="H130" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5493,7 +5511,7 @@
         <v>0.64</v>
       </c>
       <c r="H131" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5519,7 +5537,7 @@
         <v>0.04</v>
       </c>
       <c r="H132" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5545,7 +5563,7 @@
         <v>0.86</v>
       </c>
       <c r="H133" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5571,7 +5589,7 @@
         <v>0.9</v>
       </c>
       <c r="H134" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5597,7 +5615,7 @@
         <v>0.52</v>
       </c>
       <c r="H135" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5623,7 +5641,7 @@
         <v>0.42</v>
       </c>
       <c r="H136" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5649,7 +5667,7 @@
         <v>0.76</v>
       </c>
       <c r="H137" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5675,7 +5693,7 @@
         <v>0.06</v>
       </c>
       <c r="H138" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5701,7 +5719,7 @@
         <v>0.98</v>
       </c>
       <c r="H139" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5727,7 +5745,7 @@
         <v>0.28</v>
       </c>
       <c r="H140" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5753,7 +5771,7 @@
         <v>0.16</v>
       </c>
       <c r="H141" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5779,7 +5797,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5805,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5831,7 +5849,7 @@
         <v>0.66</v>
       </c>
       <c r="H144" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5857,7 +5875,7 @@
         <v>0.42</v>
       </c>
       <c r="H145" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5883,7 +5901,7 @@
         <v>0.32</v>
       </c>
       <c r="H146" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5909,7 +5927,7 @@
         <v>0.34</v>
       </c>
       <c r="H147" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5935,7 +5953,7 @@
         <v>0.02</v>
       </c>
       <c r="H148" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5961,7 +5979,7 @@
         <v>0.16</v>
       </c>
       <c r="H149" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5987,7 +6005,7 @@
         <v>0.76</v>
       </c>
       <c r="H150" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6013,7 +6031,7 @@
         <v>0.24</v>
       </c>
       <c r="H151" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6039,7 +6057,7 @@
         <v>0.04</v>
       </c>
       <c r="H152" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6065,7 +6083,7 @@
         <v>0.3</v>
       </c>
       <c r="H153" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6091,7 +6109,7 @@
         <v>0.98</v>
       </c>
       <c r="H154" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6117,7 +6135,7 @@
         <v>0.76</v>
       </c>
       <c r="H155" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6143,7 +6161,7 @@
         <v>0.28</v>
       </c>
       <c r="H156" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6169,7 +6187,7 @@
         <v>0.84</v>
       </c>
       <c r="H157" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6195,7 +6213,7 @@
         <v>0.64</v>
       </c>
       <c r="H158" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6221,7 +6239,7 @@
         <v>0.32</v>
       </c>
       <c r="H159" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6247,7 +6265,7 @@
         <v>0.72</v>
       </c>
       <c r="H160" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6273,7 +6291,7 @@
         <v>0.3</v>
       </c>
       <c r="H161" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6299,7 +6317,7 @@
         <v>0.68</v>
       </c>
       <c r="H162" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6325,7 +6343,7 @@
         <v>0.32</v>
       </c>
       <c r="H163" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6351,7 +6369,7 @@
         <v>0.72</v>
       </c>
       <c r="H164" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6377,7 +6395,7 @@
         <v>0.36</v>
       </c>
       <c r="H165" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6403,7 +6421,7 @@
         <v>0.86</v>
       </c>
       <c r="H166" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6429,7 +6447,7 @@
         <v>0.58</v>
       </c>
       <c r="H167" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6455,7 +6473,7 @@
         <v>0.78</v>
       </c>
       <c r="H168" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6481,7 +6499,7 @@
         <v>0.98</v>
       </c>
       <c r="H169" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6507,7 +6525,7 @@
         <v>0.86</v>
       </c>
       <c r="H170" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6533,7 +6551,7 @@
         <v>0.08</v>
       </c>
       <c r="H171" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6559,7 +6577,7 @@
         <v>0.88</v>
       </c>
       <c r="H172" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6585,7 +6603,7 @@
         <v>0.68</v>
       </c>
       <c r="H173" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6611,7 +6629,7 @@
         <v>0.74</v>
       </c>
       <c r="H174" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6637,7 +6655,7 @@
         <v>0.58</v>
       </c>
       <c r="H175" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6663,7 +6681,7 @@
         <v>0.22</v>
       </c>
       <c r="H176" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6689,7 +6707,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6715,7 +6733,7 @@
         <v>0.64</v>
       </c>
       <c r="H178" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6741,7 +6759,7 @@
         <v>0.26</v>
       </c>
       <c r="H179" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6767,7 +6785,7 @@
         <v>0.6</v>
       </c>
       <c r="H180" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6793,7 +6811,7 @@
         <v>0.98</v>
       </c>
       <c r="H181" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6819,7 +6837,7 @@
         <v>0.3517053405853769</v>
       </c>
       <c r="H182" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6845,7 +6863,7 @@
         <v>0.84</v>
       </c>
       <c r="H183" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6871,7 +6889,7 @@
         <v>0.48</v>
       </c>
       <c r="H184" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6897,7 +6915,7 @@
         <v>0.08</v>
       </c>
       <c r="H185" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6923,7 +6941,7 @@
         <v>0.6</v>
       </c>
       <c r="H186" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6949,7 +6967,7 @@
         <v>0.9</v>
       </c>
       <c r="H187" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6975,7 +6993,7 @@
         <v>0.8</v>
       </c>
       <c r="H188" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7001,7 +7019,7 @@
         <v>0.34</v>
       </c>
       <c r="H189" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7027,7 +7045,7 @@
         <v>0.16</v>
       </c>
       <c r="H190" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7053,7 +7071,7 @@
         <v>0.1</v>
       </c>
       <c r="H191" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7079,7 +7097,7 @@
         <v>0.7</v>
       </c>
       <c r="H192" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7105,7 +7123,7 @@
         <v>0.72</v>
       </c>
       <c r="H193" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7131,7 +7149,7 @@
         <v>0.04</v>
       </c>
       <c r="H194" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7157,7 +7175,7 @@
         <v>0.008304498269896196</v>
       </c>
       <c r="H195" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7183,7 +7201,7 @@
         <v>0.26</v>
       </c>
       <c r="H196" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7209,7 +7227,7 @@
         <v>0.4</v>
       </c>
       <c r="H197" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7235,7 +7253,7 @@
         <v>0.64</v>
       </c>
       <c r="H198" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7261,7 +7279,7 @@
         <v>0.24</v>
       </c>
       <c r="H199" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7287,7 +7305,7 @@
         <v>0.4</v>
       </c>
       <c r="H200" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7313,7 +7331,7 @@
         <v>0.32</v>
       </c>
       <c r="H201" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7339,7 +7357,7 @@
         <v>0.38</v>
       </c>
       <c r="H202" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7365,7 +7383,7 @@
         <v>0.72</v>
       </c>
       <c r="H203" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7391,7 +7409,7 @@
         <v>0.68</v>
       </c>
       <c r="H204" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7417,7 +7435,7 @@
         <v>0.32</v>
       </c>
       <c r="H205" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7443,7 +7461,7 @@
         <v>0.32</v>
       </c>
       <c r="H206" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7469,7 +7487,7 @@
         <v>0.2</v>
       </c>
       <c r="H207" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7495,7 +7513,7 @@
         <v>0.3</v>
       </c>
       <c r="H208" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7521,7 +7539,7 @@
         <v>0.78</v>
       </c>
       <c r="H209" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7547,7 +7565,7 @@
         <v>0.26</v>
       </c>
       <c r="H210" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7573,7 +7591,7 @@
         <v>0.32</v>
       </c>
       <c r="H211" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7599,7 +7617,7 @@
         <v>0.3</v>
       </c>
       <c r="H212" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7625,7 +7643,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H213" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7651,7 +7669,7 @@
         <v>0.88</v>
       </c>
       <c r="H214" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7677,7 +7695,7 @@
         <v>0.74</v>
       </c>
       <c r="H215" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7703,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7729,7 +7747,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7755,7 +7773,7 @@
         <v>0.2</v>
       </c>
       <c r="H218" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7781,7 +7799,7 @@
         <v>0.22</v>
       </c>
       <c r="H219" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7807,7 +7825,7 @@
         <v>0.78</v>
       </c>
       <c r="H220" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7833,7 +7851,7 @@
         <v>0.98</v>
       </c>
       <c r="H221" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7859,7 +7877,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7885,7 +7903,7 @@
         <v>0.4381603474151185</v>
       </c>
       <c r="H223" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7911,7 +7929,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H224" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7937,7 +7955,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H225" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7963,7 +7981,7 @@
         <v>0.58</v>
       </c>
       <c r="H226" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7989,7 +8007,7 @@
         <v>0.14</v>
       </c>
       <c r="H227" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8015,7 +8033,7 @@
         <v>0.18</v>
       </c>
       <c r="H228" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8041,7 +8059,7 @@
         <v>0.02</v>
       </c>
       <c r="H229" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8067,7 +8085,7 @@
         <v>0.02</v>
       </c>
       <c r="H230" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8093,7 +8111,7 @@
         <v>0.98</v>
       </c>
       <c r="H231" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8119,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8145,7 +8163,7 @@
         <v>0.04</v>
       </c>
       <c r="H233" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8171,7 +8189,7 @@
         <v>0.88</v>
       </c>
       <c r="H234" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8197,7 +8215,7 @@
         <v>0.62</v>
       </c>
       <c r="H235" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8223,7 +8241,7 @@
         <v>0.14</v>
       </c>
       <c r="H236" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8249,7 +8267,7 @@
         <v>0.66</v>
       </c>
       <c r="H237" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8275,7 +8293,7 @@
         <v>0.92</v>
       </c>
       <c r="H238" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8301,7 +8319,7 @@
         <v>0.38</v>
       </c>
       <c r="H239" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8327,7 +8345,7 @@
         <v>0.4</v>
       </c>
       <c r="H240" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8353,7 +8371,7 @@
         <v>0.1</v>
       </c>
       <c r="H241" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8379,7 +8397,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8405,7 +8423,7 @@
         <v>0.04</v>
       </c>
       <c r="H243" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8431,7 +8449,7 @@
         <v>0.96</v>
       </c>
       <c r="H244" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8457,7 +8475,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8483,7 +8501,7 @@
         <v>0.28</v>
       </c>
       <c r="H246" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8509,7 +8527,7 @@
         <v>0.96</v>
       </c>
       <c r="H247" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8535,7 +8553,7 @@
         <v>0.04</v>
       </c>
       <c r="H248" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8561,7 +8579,7 @@
         <v>0.4</v>
       </c>
       <c r="H249" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8587,7 +8605,7 @@
         <v>0.78</v>
       </c>
       <c r="H250" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8613,7 +8631,7 @@
         <v>0.62</v>
       </c>
       <c r="H251" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8639,7 +8657,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8665,7 +8683,7 @@
         <v>0.46</v>
       </c>
       <c r="H253" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8691,7 +8709,7 @@
         <v>0.4</v>
       </c>
       <c r="H254" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8717,7 +8735,7 @@
         <v>0.14</v>
       </c>
       <c r="H255" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8743,7 +8761,7 @@
         <v>0.72</v>
       </c>
       <c r="H256" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8769,7 +8787,7 @@
         <v>0.8</v>
       </c>
       <c r="H257" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8795,7 +8813,7 @@
         <v>0.88</v>
       </c>
       <c r="H258" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8821,7 +8839,7 @@
         <v>0.02</v>
       </c>
       <c r="H259" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8847,7 +8865,7 @@
         <v>0.26</v>
       </c>
       <c r="H260" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8873,7 +8891,7 @@
         <v>0.4</v>
       </c>
       <c r="H261" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8899,7 +8917,7 @@
         <v>0.74</v>
       </c>
       <c r="H262" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8925,7 +8943,7 @@
         <v>0.08</v>
       </c>
       <c r="H263" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8951,7 +8969,7 @@
         <v>0.96</v>
       </c>
       <c r="H264" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8977,7 +8995,7 @@
         <v>0.96</v>
       </c>
       <c r="H265" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9003,7 +9021,7 @@
         <v>0.4</v>
       </c>
       <c r="H266" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9029,7 +9047,7 @@
         <v>0.28</v>
       </c>
       <c r="H267" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9055,7 +9073,7 @@
         <v>0.12</v>
       </c>
       <c r="H268" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9081,7 +9099,7 @@
         <v>0.28</v>
       </c>
       <c r="H269" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9107,7 +9125,7 @@
         <v>0.22</v>
       </c>
       <c r="H270" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9133,7 +9151,7 @@
         <v>0.68</v>
       </c>
       <c r="H271" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9159,7 +9177,7 @@
         <v>0.72</v>
       </c>
       <c r="H272" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9185,7 +9203,7 @@
         <v>0.38</v>
       </c>
       <c r="H273" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9211,7 +9229,7 @@
         <v>0.18</v>
       </c>
       <c r="H274" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9237,7 +9255,7 @@
         <v>0.62</v>
       </c>
       <c r="H275" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9263,7 +9281,7 @@
         <v>0.58</v>
       </c>
       <c r="H276" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9289,7 +9307,7 @@
         <v>0.74</v>
       </c>
       <c r="H277" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9315,7 +9333,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H278" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9341,7 +9359,7 @@
         <v>0.2</v>
       </c>
       <c r="H279" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9367,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9393,7 +9411,7 @@
         <v>0.46</v>
       </c>
       <c r="H281" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9419,7 +9437,7 @@
         <v>0.16</v>
       </c>
       <c r="H282" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9445,7 +9463,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9471,7 +9489,7 @@
         <v>0.54</v>
       </c>
       <c r="H284" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9497,7 +9515,7 @@
         <v>0.98</v>
       </c>
       <c r="H285" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9523,7 +9541,7 @@
         <v>0.22</v>
       </c>
       <c r="H286" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9549,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9575,7 +9593,7 @@
         <v>0.76</v>
       </c>
       <c r="H288" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9601,7 +9619,7 @@
         <v>1</v>
       </c>
       <c r="H289" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9627,7 +9645,7 @@
         <v>0.72</v>
       </c>
       <c r="H290" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9653,7 +9671,7 @@
         <v>0.66</v>
       </c>
       <c r="H291" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9679,7 +9697,7 @@
         <v>0.62</v>
       </c>
       <c r="H292" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9705,7 +9723,7 @@
         <v>1</v>
       </c>
       <c r="H293" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9731,7 +9749,7 @@
         <v>0.36</v>
       </c>
       <c r="H294" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9757,7 +9775,7 @@
         <v>0.36</v>
       </c>
       <c r="H295" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9783,7 +9801,7 @@
         <v>0.96</v>
       </c>
       <c r="H296" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9809,7 +9827,7 @@
         <v>0.92</v>
       </c>
       <c r="H297" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9835,7 +9853,7 @@
         <v>0.04</v>
       </c>
       <c r="H298" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9861,7 +9879,7 @@
         <v>0.9</v>
       </c>
       <c r="H299" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9887,7 +9905,7 @@
         <v>0.28</v>
       </c>
       <c r="H300" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9913,7 +9931,7 @@
         <v>0.62</v>
       </c>
       <c r="H301" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9939,7 +9957,7 @@
         <v>0.9</v>
       </c>
       <c r="H302" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9965,7 +9983,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9991,7 +10009,7 @@
         <v>0.38</v>
       </c>
       <c r="H304" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10017,7 +10035,7 @@
         <v>0.4</v>
       </c>
       <c r="H305" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10043,7 +10061,7 @@
         <v>0.06</v>
       </c>
       <c r="H306" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10069,7 +10087,7 @@
         <v>0.68</v>
       </c>
       <c r="H307" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10095,7 +10113,7 @@
         <v>0.78</v>
       </c>
       <c r="H308" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10121,7 +10139,7 @@
         <v>0.06</v>
       </c>
       <c r="H309" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10147,7 +10165,7 @@
         <v>0.5</v>
       </c>
       <c r="H310" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10173,7 +10191,7 @@
         <v>0.16</v>
       </c>
       <c r="H311" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10199,7 +10217,7 @@
         <v>0.18</v>
       </c>
       <c r="H312" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10225,7 +10243,7 @@
         <v>0.96</v>
       </c>
       <c r="H313" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10251,7 +10269,7 @@
         <v>0.86</v>
       </c>
       <c r="H314" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10277,7 +10295,7 @@
         <v>0.96</v>
       </c>
       <c r="H315" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10303,7 +10321,7 @@
         <v>1</v>
       </c>
       <c r="H316" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10329,7 +10347,7 @@
         <v>0.8</v>
       </c>
       <c r="H317" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10355,7 +10373,7 @@
         <v>0.98</v>
       </c>
       <c r="H318" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10381,7 +10399,7 @@
         <v>0.34</v>
       </c>
       <c r="H319" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10407,7 +10425,7 @@
         <v>0.16</v>
       </c>
       <c r="H320" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10433,7 +10451,7 @@
         <v>0.88</v>
       </c>
       <c r="H321" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10459,7 +10477,7 @@
         <v>0.7</v>
       </c>
       <c r="H322" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10485,7 +10503,7 @@
         <v>0.68</v>
       </c>
       <c r="H323" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10511,7 +10529,7 @@
         <v>0.36</v>
       </c>
       <c r="H324" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10537,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10563,7 +10581,7 @@
         <v>0.9</v>
       </c>
       <c r="H326" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10589,7 +10607,7 @@
         <v>0.22</v>
       </c>
       <c r="H327" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10615,7 +10633,7 @@
         <v>0.42</v>
       </c>
       <c r="H328" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10641,7 +10659,7 @@
         <v>0.2</v>
       </c>
       <c r="H329" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10667,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10693,7 +10711,7 @@
         <v>0.6</v>
       </c>
       <c r="H331" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10719,7 +10737,7 @@
         <v>0.88</v>
       </c>
       <c r="H332" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10745,7 +10763,7 @@
         <v>0.06</v>
       </c>
       <c r="H333" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10771,7 +10789,7 @@
         <v>0.82</v>
       </c>
       <c r="H334" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10797,7 +10815,7 @@
         <v>1</v>
       </c>
       <c r="H335" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10823,7 +10841,7 @@
         <v>0.06</v>
       </c>
       <c r="H336" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10849,7 +10867,7 @@
         <v>0.28</v>
       </c>
       <c r="H337" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10875,7 +10893,7 @@
         <v>0.58</v>
       </c>
       <c r="H338" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10901,7 +10919,7 @@
         <v>0.36</v>
       </c>
       <c r="H339" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10927,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10953,7 +10971,7 @@
         <v>0.34</v>
       </c>
       <c r="H341" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10979,7 +10997,7 @@
         <v>0.9</v>
       </c>
       <c r="H342" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11005,7 +11023,7 @@
         <v>0.8</v>
       </c>
       <c r="H343" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11031,7 +11049,7 @@
         <v>0.4</v>
       </c>
       <c r="H344" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11057,7 +11075,7 @@
         <v>0.22</v>
       </c>
       <c r="H345" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11083,7 +11101,7 @@
         <v>0.7</v>
       </c>
       <c r="H346" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11109,7 +11127,7 @@
         <v>0.76</v>
       </c>
       <c r="H347" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11135,7 +11153,7 @@
         <v>0.96</v>
       </c>
       <c r="H348" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11161,7 +11179,7 @@
         <v>0.38</v>
       </c>
       <c r="H349" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11187,7 +11205,7 @@
         <v>0.7</v>
       </c>
       <c r="H350" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11213,7 +11231,7 @@
         <v>0.92</v>
       </c>
       <c r="H351" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11239,7 +11257,7 @@
         <v>0.22</v>
       </c>
       <c r="H352" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11265,7 +11283,7 @@
         <v>1</v>
       </c>
       <c r="H353" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11291,7 +11309,7 @@
         <v>0.36</v>
       </c>
       <c r="H354" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11317,7 +11335,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11343,7 +11361,7 @@
         <v>0.7</v>
       </c>
       <c r="H356" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11369,7 +11387,7 @@
         <v>0.38</v>
       </c>
       <c r="H357" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11395,7 +11413,7 @@
         <v>0.02</v>
       </c>
       <c r="H358" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11421,7 +11439,7 @@
         <v>0.66</v>
       </c>
       <c r="H359" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11447,7 +11465,7 @@
         <v>0.14</v>
       </c>
       <c r="H360" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11473,7 +11491,7 @@
         <v>0.96</v>
       </c>
       <c r="H361" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11499,7 +11517,7 @@
         <v>0.96</v>
       </c>
       <c r="H362" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11525,7 +11543,7 @@
         <v>0.16</v>
       </c>
       <c r="H363" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11551,7 +11569,7 @@
         <v>0.26</v>
       </c>
       <c r="H364" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11577,7 +11595,7 @@
         <v>0.22</v>
       </c>
       <c r="H365" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11603,7 +11621,7 @@
         <v>0.96</v>
       </c>
       <c r="H366" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11629,7 +11647,7 @@
         <v>0.12</v>
       </c>
       <c r="H367" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11655,7 +11673,7 @@
         <v>0.84</v>
       </c>
       <c r="H368" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11681,7 +11699,7 @@
         <v>0.86</v>
       </c>
       <c r="H369" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11707,7 +11725,7 @@
         <v>0.88</v>
       </c>
       <c r="H370" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11733,7 +11751,7 @@
         <v>0.84</v>
       </c>
       <c r="H371" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11759,7 +11777,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11785,7 +11803,7 @@
         <v>0.72</v>
       </c>
       <c r="H373" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11811,7 +11829,7 @@
         <v>0.8</v>
       </c>
       <c r="H374" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11837,7 +11855,7 @@
         <v>0.7</v>
       </c>
       <c r="H375" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11863,7 +11881,7 @@
         <v>0.7</v>
       </c>
       <c r="H376" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11889,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11915,7 +11933,7 @@
         <v>0.1</v>
       </c>
       <c r="H378" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11941,7 +11959,7 @@
         <v>0.16</v>
       </c>
       <c r="H379" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11967,7 +11985,7 @@
         <v>0.04</v>
       </c>
       <c r="H380" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11993,7 +12011,7 @@
         <v>0.14</v>
       </c>
       <c r="H381" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12019,7 +12037,7 @@
         <v>0.12</v>
       </c>
       <c r="H382" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12045,7 +12063,7 @@
         <v>0.04</v>
       </c>
       <c r="H383" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12071,7 +12089,7 @@
         <v>0.9</v>
       </c>
       <c r="H384" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12097,7 +12115,7 @@
         <v>0.14</v>
       </c>
       <c r="H385" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12123,7 +12141,7 @@
         <v>0.76</v>
       </c>
       <c r="H386" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12149,7 +12167,7 @@
         <v>0.66</v>
       </c>
       <c r="H387" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12175,7 +12193,7 @@
         <v>0.68</v>
       </c>
       <c r="H388" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12201,7 +12219,7 @@
         <v>0.76</v>
       </c>
       <c r="H389" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12227,7 +12245,7 @@
         <v>1</v>
       </c>
       <c r="H390" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12253,7 +12271,7 @@
         <v>0.06</v>
       </c>
       <c r="H391" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12279,7 +12297,7 @@
         <v>0.76</v>
       </c>
       <c r="H392" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12305,7 +12323,7 @@
         <v>0.06</v>
       </c>
       <c r="H393" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12331,7 +12349,7 @@
         <v>0.3</v>
       </c>
       <c r="H394" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12357,7 +12375,7 @@
         <v>0.3</v>
       </c>
       <c r="H395" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12383,7 +12401,7 @@
         <v>0.74</v>
       </c>
       <c r="H396" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12409,7 +12427,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12435,7 +12453,7 @@
         <v>0.14</v>
       </c>
       <c r="H398" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12461,7 +12479,7 @@
         <v>0.74</v>
       </c>
       <c r="H399" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12487,7 +12505,7 @@
         <v>0.8</v>
       </c>
       <c r="H400" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12513,7 +12531,7 @@
         <v>0.74</v>
       </c>
       <c r="H401" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12539,7 +12557,7 @@
         <v>0.84</v>
       </c>
       <c r="H402" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12565,7 +12583,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12591,7 +12609,7 @@
         <v>0.26</v>
       </c>
       <c r="H404" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12617,7 +12635,7 @@
         <v>0.16</v>
       </c>
       <c r="H405" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12643,7 +12661,7 @@
         <v>0.84</v>
       </c>
       <c r="H406" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12669,7 +12687,7 @@
         <v>0.76</v>
       </c>
       <c r="H407" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12695,7 +12713,7 @@
         <v>0.18</v>
       </c>
       <c r="H408" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12721,7 +12739,7 @@
         <v>0.98</v>
       </c>
       <c r="H409" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12747,7 +12765,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12773,7 +12791,7 @@
         <v>0.98</v>
       </c>
       <c r="H411" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12799,7 +12817,7 @@
         <v>0.98</v>
       </c>
       <c r="H412" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12825,7 +12843,7 @@
         <v>1</v>
       </c>
       <c r="H413" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12851,7 +12869,7 @@
         <v>0.84</v>
       </c>
       <c r="H414" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12877,7 +12895,7 @@
         <v>0.78</v>
       </c>
       <c r="H415" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12903,7 +12921,7 @@
         <v>0.68</v>
       </c>
       <c r="H416" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12929,7 +12947,7 @@
         <v>0.66</v>
       </c>
       <c r="H417" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12955,7 +12973,7 @@
         <v>0.88</v>
       </c>
       <c r="H418" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12981,7 +12999,7 @@
         <v>0.82</v>
       </c>
       <c r="H419" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13007,7 +13025,7 @@
         <v>0.96</v>
       </c>
       <c r="H420" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13033,7 +13051,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13059,7 +13077,7 @@
         <v>0.38</v>
       </c>
       <c r="H422" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13085,7 +13103,7 @@
         <v>0.7</v>
       </c>
       <c r="H423" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13111,7 +13129,7 @@
         <v>0.14</v>
       </c>
       <c r="H424" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13137,7 +13155,7 @@
         <v>0.3</v>
       </c>
       <c r="H425" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13163,7 +13181,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13189,7 +13207,7 @@
         <v>0.36</v>
       </c>
       <c r="H427" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13215,7 +13233,7 @@
         <v>0.64</v>
       </c>
       <c r="H428" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13241,7 +13259,7 @@
         <v>0.24</v>
       </c>
       <c r="H429" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13267,7 +13285,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13293,7 +13311,7 @@
         <v>0.96</v>
       </c>
       <c r="H431" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13319,7 +13337,7 @@
         <v>0.36</v>
       </c>
       <c r="H432" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13345,7 +13363,7 @@
         <v>0.54</v>
       </c>
       <c r="H433" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13371,7 +13389,7 @@
         <v>0.7</v>
       </c>
       <c r="H434" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13397,7 +13415,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H435" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13423,7 +13441,7 @@
         <v>0.08</v>
       </c>
       <c r="H436" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13449,7 +13467,7 @@
         <v>0.4</v>
       </c>
       <c r="H437" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13475,7 +13493,7 @@
         <v>0.34</v>
       </c>
       <c r="H438" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13501,7 +13519,7 @@
         <v>0.04</v>
       </c>
       <c r="H439" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13527,7 +13545,7 @@
         <v>0.34</v>
       </c>
       <c r="H440" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13553,7 +13571,7 @@
         <v>0.36</v>
       </c>
       <c r="H441" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13579,7 +13597,7 @@
         <v>0.68</v>
       </c>
       <c r="H442" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13605,7 +13623,7 @@
         <v>0.38</v>
       </c>
       <c r="H443" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13631,7 +13649,7 @@
         <v>0.64</v>
       </c>
       <c r="H444" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13657,7 +13675,7 @@
         <v>0.86</v>
       </c>
       <c r="H445" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13683,7 +13701,7 @@
         <v>0.64</v>
       </c>
       <c r="H446" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13709,7 +13727,7 @@
         <v>0.88</v>
       </c>
       <c r="H447" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13735,7 +13753,7 @@
         <v>0.96</v>
       </c>
       <c r="H448" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13761,7 +13779,7 @@
         <v>0.1</v>
       </c>
       <c r="H449" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13787,7 +13805,7 @@
         <v>0.12</v>
       </c>
       <c r="H450" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13813,7 +13831,7 @@
         <v>0.92</v>
       </c>
       <c r="H451" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13839,7 +13857,7 @@
         <v>0.98</v>
       </c>
       <c r="H452" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13865,7 +13883,7 @@
         <v>0.92</v>
       </c>
       <c r="H453" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13891,7 +13909,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13917,7 +13935,7 @@
         <v>0.74</v>
       </c>
       <c r="H455" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13943,7 +13961,7 @@
         <v>0.84</v>
       </c>
       <c r="H456" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13969,7 +13987,7 @@
         <v>0.18</v>
       </c>
       <c r="H457" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -13995,7 +14013,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H458" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14021,7 +14039,7 @@
         <v>0.12</v>
       </c>
       <c r="H459" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14047,7 +14065,7 @@
         <v>1</v>
       </c>
       <c r="H460" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14073,7 +14091,7 @@
         <v>0.96</v>
       </c>
       <c r="H461" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14099,7 +14117,7 @@
         <v>0.9</v>
       </c>
       <c r="H462" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14125,7 +14143,7 @@
         <v>0.62</v>
       </c>
       <c r="H463" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14151,7 +14169,7 @@
         <v>0.16</v>
       </c>
       <c r="H464" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14177,7 +14195,7 @@
         <v>0.4</v>
       </c>
       <c r="H465" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14203,7 +14221,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14229,7 +14247,7 @@
         <v>0.84</v>
       </c>
       <c r="H467" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14255,7 +14273,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H468" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14281,7 +14299,7 @@
         <v>0.9</v>
       </c>
       <c r="H469" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14307,7 +14325,7 @@
         <v>0.24</v>
       </c>
       <c r="H470" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14333,7 +14351,7 @@
         <v>0.26</v>
       </c>
       <c r="H471" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14359,7 +14377,7 @@
         <v>0.74</v>
       </c>
       <c r="H472" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14385,7 +14403,7 @@
         <v>0.4</v>
       </c>
       <c r="H473" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14411,7 +14429,7 @@
         <v>1</v>
       </c>
       <c r="H474" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14437,7 +14455,7 @@
         <v>0.86</v>
       </c>
       <c r="H475" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14463,7 +14481,7 @@
         <v>0.7491891891891892</v>
       </c>
       <c r="H476" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14489,7 +14507,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H477" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14515,7 +14533,7 @@
         <v>0.02</v>
       </c>
       <c r="H478" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14541,7 +14559,7 @@
         <v>0.66</v>
       </c>
       <c r="H479" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14567,7 +14585,7 @@
         <v>0.26</v>
       </c>
       <c r="H480" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14593,7 +14611,7 @@
         <v>0.76</v>
       </c>
       <c r="H481" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14619,7 +14637,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14645,7 +14663,7 @@
         <v>0.76</v>
       </c>
       <c r="H483" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14671,7 +14689,7 @@
         <v>0.08</v>
       </c>
       <c r="H484" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14697,7 +14715,7 @@
         <v>0.96</v>
       </c>
       <c r="H485" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14723,7 +14741,7 @@
         <v>0.98</v>
       </c>
       <c r="H486" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14749,7 +14767,7 @@
         <v>0.36</v>
       </c>
       <c r="H487" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14775,7 +14793,7 @@
         <v>0.2</v>
       </c>
       <c r="H488" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14801,7 +14819,7 @@
         <v>0.12</v>
       </c>
       <c r="H489" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14827,7 +14845,7 @@
         <v>0.9</v>
       </c>
       <c r="H490" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14853,7 +14871,7 @@
         <v>0.24</v>
       </c>
       <c r="H491" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14879,7 +14897,7 @@
         <v>0.9</v>
       </c>
       <c r="H492" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14905,7 +14923,7 @@
         <v>0.7</v>
       </c>
       <c r="H493" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14931,7 +14949,7 @@
         <v>0.68</v>
       </c>
       <c r="H494" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14957,7 +14975,7 @@
         <v>0.12</v>
       </c>
       <c r="H495" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -14983,7 +15001,7 @@
         <v>0.68</v>
       </c>
       <c r="H496" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15009,7 +15027,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15035,7 +15053,7 @@
         <v>0.68</v>
       </c>
       <c r="H498" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15061,7 +15079,7 @@
         <v>0.96</v>
       </c>
       <c r="H499" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15087,7 +15105,7 @@
         <v>0.18</v>
       </c>
       <c r="H500" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15113,7 +15131,7 @@
         <v>0.88</v>
       </c>
       <c r="H501" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15139,7 +15157,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15165,7 +15183,7 @@
         <v>0.04</v>
       </c>
       <c r="H503" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15191,7 +15209,7 @@
         <v>0.08</v>
       </c>
       <c r="H504" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15217,7 +15235,7 @@
         <v>0.22</v>
       </c>
       <c r="H505" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15243,7 +15261,7 @@
         <v>0.24</v>
       </c>
       <c r="H506" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15269,7 +15287,7 @@
         <v>0.62</v>
       </c>
       <c r="H507" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15295,7 +15313,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H508" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15321,7 +15339,7 @@
         <v>0.62</v>
       </c>
       <c r="H509" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15347,7 +15365,7 @@
         <v>0.36</v>
       </c>
       <c r="H510" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15373,7 +15391,7 @@
         <v>0.54</v>
       </c>
       <c r="H511" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15399,7 +15417,7 @@
         <v>0.76</v>
       </c>
       <c r="H512" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15425,7 +15443,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15451,7 +15469,7 @@
         <v>0.28</v>
       </c>
       <c r="H514" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15477,7 +15495,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15503,7 +15521,7 @@
         <v>0.38</v>
       </c>
       <c r="H516" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15529,7 +15547,7 @@
         <v>0.3</v>
       </c>
       <c r="H517" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15555,7 +15573,7 @@
         <v>0.36</v>
       </c>
       <c r="H518" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15581,7 +15599,7 @@
         <v>0.8</v>
       </c>
       <c r="H519" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15607,7 +15625,7 @@
         <v>0.22</v>
       </c>
       <c r="H520" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15633,7 +15651,7 @@
         <v>0.32</v>
       </c>
       <c r="H521" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15659,7 +15677,7 @@
         <v>0.32</v>
       </c>
       <c r="H522" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15685,7 +15703,7 @@
         <v>0.52</v>
       </c>
       <c r="H523" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15711,7 +15729,7 @@
         <v>0.92</v>
       </c>
       <c r="H524" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15737,7 +15755,7 @@
         <v>0.96</v>
       </c>
       <c r="H525" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15763,7 +15781,7 @@
         <v>0.16</v>
       </c>
       <c r="H526" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15789,7 +15807,7 @@
         <v>0.66</v>
       </c>
       <c r="H527" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15815,7 +15833,7 @@
         <v>0.04</v>
       </c>
       <c r="H528" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15841,7 +15859,7 @@
         <v>0.02</v>
       </c>
       <c r="H529" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15867,7 +15885,7 @@
         <v>0.36</v>
       </c>
       <c r="H530" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15893,7 +15911,7 @@
         <v>0.14</v>
       </c>
       <c r="H531" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15919,7 +15937,7 @@
         <v>0.64</v>
       </c>
       <c r="H532" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15945,7 +15963,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15971,7 +15989,7 @@
         <v>0.08</v>
       </c>
       <c r="H534" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -15997,7 +16015,7 @@
         <v>0.06</v>
       </c>
       <c r="H535" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16007,8 +16025,14 @@
       <c r="B536" t="s">
         <v>541</v>
       </c>
+      <c r="C536">
+        <v>0</v>
+      </c>
       <c r="D536">
         <v>0</v>
+      </c>
+      <c r="E536">
+        <v>1</v>
       </c>
       <c r="F536">
         <v>0.66</v>
@@ -16017,7 +16041,157 @@
         <v>0.34</v>
       </c>
       <c r="H536" t="s">
-        <v>549</v>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8">
+      <c r="A537" s="1">
+        <v>535</v>
+      </c>
+      <c r="B537" t="s">
+        <v>542</v>
+      </c>
+      <c r="C537">
+        <v>1</v>
+      </c>
+      <c r="D537">
+        <v>0</v>
+      </c>
+      <c r="E537">
+        <v>0</v>
+      </c>
+      <c r="F537">
+        <v>0.72</v>
+      </c>
+      <c r="G537">
+        <v>0.28</v>
+      </c>
+      <c r="H537" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8">
+      <c r="A538" s="1">
+        <v>536</v>
+      </c>
+      <c r="B538" t="s">
+        <v>543</v>
+      </c>
+      <c r="C538">
+        <v>0</v>
+      </c>
+      <c r="D538">
+        <v>1</v>
+      </c>
+      <c r="E538">
+        <v>0</v>
+      </c>
+      <c r="F538">
+        <v>0.08</v>
+      </c>
+      <c r="G538">
+        <v>0.92</v>
+      </c>
+      <c r="H538" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8">
+      <c r="A539" s="1">
+        <v>537</v>
+      </c>
+      <c r="B539" t="s">
+        <v>544</v>
+      </c>
+      <c r="C539">
+        <v>1</v>
+      </c>
+      <c r="D539">
+        <v>0</v>
+      </c>
+      <c r="E539">
+        <v>0</v>
+      </c>
+      <c r="F539">
+        <v>0.92</v>
+      </c>
+      <c r="G539">
+        <v>0.08</v>
+      </c>
+      <c r="H539" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8">
+      <c r="A540" s="1">
+        <v>538</v>
+      </c>
+      <c r="B540" t="s">
+        <v>545</v>
+      </c>
+      <c r="C540">
+        <v>0</v>
+      </c>
+      <c r="D540">
+        <v>1</v>
+      </c>
+      <c r="E540">
+        <v>0</v>
+      </c>
+      <c r="F540">
+        <v>0.36</v>
+      </c>
+      <c r="G540">
+        <v>0.64</v>
+      </c>
+      <c r="H540" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8">
+      <c r="A541" s="1">
+        <v>539</v>
+      </c>
+      <c r="B541" t="s">
+        <v>546</v>
+      </c>
+      <c r="C541">
+        <v>1</v>
+      </c>
+      <c r="D541">
+        <v>0</v>
+      </c>
+      <c r="E541">
+        <v>0</v>
+      </c>
+      <c r="F541">
+        <v>1</v>
+      </c>
+      <c r="G541">
+        <v>0</v>
+      </c>
+      <c r="H541" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8">
+      <c r="A542" s="1">
+        <v>540</v>
+      </c>
+      <c r="B542" t="s">
+        <v>547</v>
+      </c>
+      <c r="D542">
+        <v>0</v>
+      </c>
+      <c r="F542">
+        <v>0.82</v>
+      </c>
+      <c r="G542">
+        <v>0.18</v>
+      </c>
+      <c r="H542" t="s">
+        <v>553</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyOOC.xlsx
+++ b/firebase_data_from_spyOOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="581">
   <si>
     <t>date</t>
   </si>
@@ -1658,6 +1658,15 @@
   </si>
   <si>
     <t>2025-08-11</t>
+  </si>
+  <si>
+    <t>2025-08-12</t>
+  </si>
+  <si>
+    <t>2025-08-13</t>
+  </si>
+  <si>
+    <t>2025-08-14</t>
   </si>
   <si>
     <t>96.00</t>
@@ -2105,7 +2114,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H542"/>
+  <dimension ref="A1:H545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2157,7 +2166,7 @@
         <v>0.96</v>
       </c>
       <c r="H2" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2183,7 +2192,7 @@
         <v>0.98</v>
       </c>
       <c r="H3" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2209,7 +2218,7 @@
         <v>0.4</v>
       </c>
       <c r="H4" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2235,7 +2244,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H5" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2261,7 +2270,7 @@
         <v>0.22</v>
       </c>
       <c r="H6" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2287,7 +2296,7 @@
         <v>0.18</v>
       </c>
       <c r="H7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2313,7 +2322,7 @@
         <v>0.78</v>
       </c>
       <c r="H8" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2339,7 +2348,7 @@
         <v>0.36</v>
       </c>
       <c r="H9" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2365,7 +2374,7 @@
         <v>0.66</v>
       </c>
       <c r="H10" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2391,7 +2400,7 @@
         <v>0.32</v>
       </c>
       <c r="H11" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2417,7 +2426,7 @@
         <v>0.7</v>
       </c>
       <c r="H12" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2443,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2469,7 +2478,7 @@
         <v>0.92</v>
       </c>
       <c r="H14" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2495,7 +2504,7 @@
         <v>0.7</v>
       </c>
       <c r="H15" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2521,7 +2530,7 @@
         <v>0.3</v>
       </c>
       <c r="H16" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2547,7 +2556,7 @@
         <v>0.3</v>
       </c>
       <c r="H17" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2573,7 +2582,7 @@
         <v>0.02</v>
       </c>
       <c r="H18" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2599,7 +2608,7 @@
         <v>0.72</v>
       </c>
       <c r="H19" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2625,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2651,7 +2660,7 @@
         <v>0.98</v>
       </c>
       <c r="H21" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2677,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2703,7 +2712,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2729,7 +2738,7 @@
         <v>0.32</v>
       </c>
       <c r="H24" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2755,7 +2764,7 @@
         <v>0.26</v>
       </c>
       <c r="H25" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2781,7 +2790,7 @@
         <v>0.34</v>
       </c>
       <c r="H26" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2807,7 +2816,7 @@
         <v>0.04</v>
       </c>
       <c r="H27" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2833,7 +2842,7 @@
         <v>0.02</v>
       </c>
       <c r="H28" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2859,7 +2868,7 @@
         <v>0.84</v>
       </c>
       <c r="H29" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2885,7 +2894,7 @@
         <v>0.96</v>
       </c>
       <c r="H30" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2911,7 +2920,7 @@
         <v>0.8</v>
       </c>
       <c r="H31" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2937,7 +2946,7 @@
         <v>0.92</v>
       </c>
       <c r="H32" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2963,7 +2972,7 @@
         <v>0.98</v>
       </c>
       <c r="H33" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2989,7 +2998,7 @@
         <v>0.98</v>
       </c>
       <c r="H34" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3015,7 +3024,7 @@
         <v>0.46</v>
       </c>
       <c r="H35" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3041,7 +3050,7 @@
         <v>0.2</v>
       </c>
       <c r="H36" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3067,7 +3076,7 @@
         <v>0.3</v>
       </c>
       <c r="H37" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3093,7 +3102,7 @@
         <v>0.04</v>
       </c>
       <c r="H38" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3119,7 +3128,7 @@
         <v>0.68</v>
       </c>
       <c r="H39" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3145,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3171,7 +3180,7 @@
         <v>0.34</v>
       </c>
       <c r="H41" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3197,7 +3206,7 @@
         <v>0.34</v>
       </c>
       <c r="H42" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3223,7 +3232,7 @@
         <v>0.44</v>
       </c>
       <c r="H43" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3249,7 +3258,7 @@
         <v>0.36</v>
       </c>
       <c r="H44" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3275,7 +3284,7 @@
         <v>0.58</v>
       </c>
       <c r="H45" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3301,7 +3310,7 @@
         <v>0.72</v>
       </c>
       <c r="H46" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3327,7 +3336,7 @@
         <v>0.74</v>
       </c>
       <c r="H47" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3353,7 +3362,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H48" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3379,7 +3388,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H49" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3405,7 +3414,7 @@
         <v>0.96</v>
       </c>
       <c r="H50" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3431,7 +3440,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3457,7 +3466,7 @@
         <v>0.96</v>
       </c>
       <c r="H52" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3483,7 +3492,7 @@
         <v>0.74</v>
       </c>
       <c r="H53" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3509,7 +3518,7 @@
         <v>0.74</v>
       </c>
       <c r="H54" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3535,7 +3544,7 @@
         <v>0.14</v>
       </c>
       <c r="H55" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3561,7 +3570,7 @@
         <v>0.86</v>
       </c>
       <c r="H56" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3587,7 +3596,7 @@
         <v>0.12</v>
       </c>
       <c r="H57" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3613,7 +3622,7 @@
         <v>0.1</v>
       </c>
       <c r="H58" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3639,7 +3648,7 @@
         <v>0.84</v>
       </c>
       <c r="H59" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3665,7 +3674,7 @@
         <v>0.74</v>
       </c>
       <c r="H60" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3691,7 +3700,7 @@
         <v>0.76</v>
       </c>
       <c r="H61" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3717,7 +3726,7 @@
         <v>0.66</v>
       </c>
       <c r="H62" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3743,7 +3752,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H63" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3769,7 +3778,7 @@
         <v>0.74</v>
       </c>
       <c r="H64" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3795,7 +3804,7 @@
         <v>0.6</v>
       </c>
       <c r="H65" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3821,7 +3830,7 @@
         <v>0.2</v>
       </c>
       <c r="H66" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3847,7 +3856,7 @@
         <v>0.06</v>
       </c>
       <c r="H67" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3873,7 +3882,7 @@
         <v>0.98</v>
       </c>
       <c r="H68" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3899,7 +3908,7 @@
         <v>0.38</v>
       </c>
       <c r="H69" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3925,7 +3934,7 @@
         <v>0.02</v>
       </c>
       <c r="H70" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3951,7 +3960,7 @@
         <v>0.8</v>
       </c>
       <c r="H71" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3977,7 +3986,7 @@
         <v>0.7</v>
       </c>
       <c r="H72" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4003,7 +4012,7 @@
         <v>0.72</v>
       </c>
       <c r="H73" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4029,7 +4038,7 @@
         <v>0.2</v>
       </c>
       <c r="H74" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4055,7 +4064,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H75" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4081,7 +4090,7 @@
         <v>0.38</v>
       </c>
       <c r="H76" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4107,7 +4116,7 @@
         <v>0.08</v>
       </c>
       <c r="H77" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4133,7 +4142,7 @@
         <v>0.06</v>
       </c>
       <c r="H78" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4159,7 +4168,7 @@
         <v>0.96</v>
       </c>
       <c r="H79" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4185,7 +4194,7 @@
         <v>0.6</v>
       </c>
       <c r="H80" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4211,7 +4220,7 @@
         <v>0.92</v>
       </c>
       <c r="H81" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4237,7 +4246,7 @@
         <v>0.9</v>
       </c>
       <c r="H82" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4263,7 +4272,7 @@
         <v>0.08</v>
       </c>
       <c r="H83" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4289,7 +4298,7 @@
         <v>0.74</v>
       </c>
       <c r="H84" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4315,7 +4324,7 @@
         <v>0.28</v>
       </c>
       <c r="H85" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4341,7 +4350,7 @@
         <v>0.42</v>
       </c>
       <c r="H86" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4367,7 +4376,7 @@
         <v>0.9</v>
       </c>
       <c r="H87" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4393,7 +4402,7 @@
         <v>0.98</v>
       </c>
       <c r="H88" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4419,7 +4428,7 @@
         <v>0.74</v>
       </c>
       <c r="H89" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4445,7 +4454,7 @@
         <v>0.22</v>
       </c>
       <c r="H90" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4471,7 +4480,7 @@
         <v>0.74</v>
       </c>
       <c r="H91" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4497,7 +4506,7 @@
         <v>0.68</v>
       </c>
       <c r="H92" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4523,7 +4532,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4549,7 +4558,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H94" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4575,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4601,7 +4610,7 @@
         <v>0.76</v>
       </c>
       <c r="H96" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4627,7 +4636,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H97" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4653,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4679,7 +4688,7 @@
         <v>0.96</v>
       </c>
       <c r="H99" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4705,7 +4714,7 @@
         <v>0.88</v>
       </c>
       <c r="H100" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4731,7 +4740,7 @@
         <v>0.82</v>
       </c>
       <c r="H101" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4757,7 +4766,7 @@
         <v>0.24</v>
       </c>
       <c r="H102" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4783,7 +4792,7 @@
         <v>0.7</v>
       </c>
       <c r="H103" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4809,7 +4818,7 @@
         <v>0.28</v>
       </c>
       <c r="H104" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4835,7 +4844,7 @@
         <v>0.3</v>
       </c>
       <c r="H105" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4861,7 +4870,7 @@
         <v>0.24</v>
       </c>
       <c r="H106" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4887,7 +4896,7 @@
         <v>0.86</v>
       </c>
       <c r="H107" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4913,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4939,7 +4948,7 @@
         <v>0.28</v>
       </c>
       <c r="H109" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4965,7 +4974,7 @@
         <v>0.98</v>
       </c>
       <c r="H110" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4991,7 +5000,7 @@
         <v>0.26</v>
       </c>
       <c r="H111" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5017,7 +5026,7 @@
         <v>0.44</v>
       </c>
       <c r="H112" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5043,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5069,7 +5078,7 @@
         <v>0.98</v>
       </c>
       <c r="H114" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5095,7 +5104,7 @@
         <v>0.04</v>
       </c>
       <c r="H115" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5121,7 +5130,7 @@
         <v>0.06</v>
       </c>
       <c r="H116" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5147,7 +5156,7 @@
         <v>0.22</v>
       </c>
       <c r="H117" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5173,7 +5182,7 @@
         <v>0.24</v>
       </c>
       <c r="H118" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5199,7 +5208,7 @@
         <v>0.3</v>
       </c>
       <c r="H119" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5225,7 +5234,7 @@
         <v>0.34</v>
       </c>
       <c r="H120" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5251,7 +5260,7 @@
         <v>0.32</v>
       </c>
       <c r="H121" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5277,7 +5286,7 @@
         <v>0.04</v>
       </c>
       <c r="H122" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5303,7 +5312,7 @@
         <v>0.06</v>
       </c>
       <c r="H123" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5329,7 +5338,7 @@
         <v>0.04</v>
       </c>
       <c r="H124" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5355,7 +5364,7 @@
         <v>0.96</v>
       </c>
       <c r="H125" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5381,7 +5390,7 @@
         <v>0.66</v>
       </c>
       <c r="H126" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5407,7 +5416,7 @@
         <v>0.04</v>
       </c>
       <c r="H127" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5433,7 +5442,7 @@
         <v>0.9</v>
       </c>
       <c r="H128" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5459,7 +5468,7 @@
         <v>0.84</v>
       </c>
       <c r="H129" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5485,7 +5494,7 @@
         <v>0.34</v>
       </c>
       <c r="H130" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5511,7 +5520,7 @@
         <v>0.64</v>
       </c>
       <c r="H131" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5537,7 +5546,7 @@
         <v>0.04</v>
       </c>
       <c r="H132" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5563,7 +5572,7 @@
         <v>0.86</v>
       </c>
       <c r="H133" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5589,7 +5598,7 @@
         <v>0.9</v>
       </c>
       <c r="H134" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5615,7 +5624,7 @@
         <v>0.52</v>
       </c>
       <c r="H135" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5641,7 +5650,7 @@
         <v>0.42</v>
       </c>
       <c r="H136" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5667,7 +5676,7 @@
         <v>0.76</v>
       </c>
       <c r="H137" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5693,7 +5702,7 @@
         <v>0.06</v>
       </c>
       <c r="H138" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5719,7 +5728,7 @@
         <v>0.98</v>
       </c>
       <c r="H139" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5745,7 +5754,7 @@
         <v>0.28</v>
       </c>
       <c r="H140" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5771,7 +5780,7 @@
         <v>0.16</v>
       </c>
       <c r="H141" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5797,7 +5806,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5823,7 +5832,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5849,7 +5858,7 @@
         <v>0.66</v>
       </c>
       <c r="H144" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5875,7 +5884,7 @@
         <v>0.42</v>
       </c>
       <c r="H145" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5901,7 +5910,7 @@
         <v>0.32</v>
       </c>
       <c r="H146" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5927,7 +5936,7 @@
         <v>0.34</v>
       </c>
       <c r="H147" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5953,7 +5962,7 @@
         <v>0.02</v>
       </c>
       <c r="H148" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5979,7 +5988,7 @@
         <v>0.16</v>
       </c>
       <c r="H149" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6005,7 +6014,7 @@
         <v>0.76</v>
       </c>
       <c r="H150" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6031,7 +6040,7 @@
         <v>0.24</v>
       </c>
       <c r="H151" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6057,7 +6066,7 @@
         <v>0.04</v>
       </c>
       <c r="H152" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6083,7 +6092,7 @@
         <v>0.3</v>
       </c>
       <c r="H153" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6109,7 +6118,7 @@
         <v>0.98</v>
       </c>
       <c r="H154" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6135,7 +6144,7 @@
         <v>0.76</v>
       </c>
       <c r="H155" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6161,7 +6170,7 @@
         <v>0.28</v>
       </c>
       <c r="H156" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6187,7 +6196,7 @@
         <v>0.84</v>
       </c>
       <c r="H157" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6213,7 +6222,7 @@
         <v>0.64</v>
       </c>
       <c r="H158" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6239,7 +6248,7 @@
         <v>0.32</v>
       </c>
       <c r="H159" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6265,7 +6274,7 @@
         <v>0.72</v>
       </c>
       <c r="H160" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6291,7 +6300,7 @@
         <v>0.3</v>
       </c>
       <c r="H161" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6317,7 +6326,7 @@
         <v>0.68</v>
       </c>
       <c r="H162" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6343,7 +6352,7 @@
         <v>0.32</v>
       </c>
       <c r="H163" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6369,7 +6378,7 @@
         <v>0.72</v>
       </c>
       <c r="H164" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6395,7 +6404,7 @@
         <v>0.36</v>
       </c>
       <c r="H165" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6421,7 +6430,7 @@
         <v>0.86</v>
       </c>
       <c r="H166" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6447,7 +6456,7 @@
         <v>0.58</v>
       </c>
       <c r="H167" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6473,7 +6482,7 @@
         <v>0.78</v>
       </c>
       <c r="H168" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6499,7 +6508,7 @@
         <v>0.98</v>
       </c>
       <c r="H169" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6525,7 +6534,7 @@
         <v>0.86</v>
       </c>
       <c r="H170" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6551,7 +6560,7 @@
         <v>0.08</v>
       </c>
       <c r="H171" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6577,7 +6586,7 @@
         <v>0.88</v>
       </c>
       <c r="H172" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6603,7 +6612,7 @@
         <v>0.68</v>
       </c>
       <c r="H173" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6629,7 +6638,7 @@
         <v>0.74</v>
       </c>
       <c r="H174" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6655,7 +6664,7 @@
         <v>0.58</v>
       </c>
       <c r="H175" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6681,7 +6690,7 @@
         <v>0.22</v>
       </c>
       <c r="H176" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6707,7 +6716,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6733,7 +6742,7 @@
         <v>0.64</v>
       </c>
       <c r="H178" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6759,7 +6768,7 @@
         <v>0.26</v>
       </c>
       <c r="H179" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6785,7 +6794,7 @@
         <v>0.6</v>
       </c>
       <c r="H180" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6811,7 +6820,7 @@
         <v>0.98</v>
       </c>
       <c r="H181" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6837,7 +6846,7 @@
         <v>0.3517053405853769</v>
       </c>
       <c r="H182" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6863,7 +6872,7 @@
         <v>0.84</v>
       </c>
       <c r="H183" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6889,7 +6898,7 @@
         <v>0.48</v>
       </c>
       <c r="H184" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6915,7 +6924,7 @@
         <v>0.08</v>
       </c>
       <c r="H185" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6941,7 +6950,7 @@
         <v>0.6</v>
       </c>
       <c r="H186" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6967,7 +6976,7 @@
         <v>0.9</v>
       </c>
       <c r="H187" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6993,7 +7002,7 @@
         <v>0.8</v>
       </c>
       <c r="H188" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7019,7 +7028,7 @@
         <v>0.34</v>
       </c>
       <c r="H189" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7045,7 +7054,7 @@
         <v>0.16</v>
       </c>
       <c r="H190" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7071,7 +7080,7 @@
         <v>0.1</v>
       </c>
       <c r="H191" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7097,7 +7106,7 @@
         <v>0.7</v>
       </c>
       <c r="H192" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7123,7 +7132,7 @@
         <v>0.72</v>
       </c>
       <c r="H193" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7149,7 +7158,7 @@
         <v>0.04</v>
       </c>
       <c r="H194" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7175,7 +7184,7 @@
         <v>0.008304498269896196</v>
       </c>
       <c r="H195" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7201,7 +7210,7 @@
         <v>0.26</v>
       </c>
       <c r="H196" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7227,7 +7236,7 @@
         <v>0.4</v>
       </c>
       <c r="H197" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7253,7 +7262,7 @@
         <v>0.64</v>
       </c>
       <c r="H198" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7279,7 +7288,7 @@
         <v>0.24</v>
       </c>
       <c r="H199" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7305,7 +7314,7 @@
         <v>0.4</v>
       </c>
       <c r="H200" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7331,7 +7340,7 @@
         <v>0.32</v>
       </c>
       <c r="H201" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7357,7 +7366,7 @@
         <v>0.38</v>
       </c>
       <c r="H202" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7383,7 +7392,7 @@
         <v>0.72</v>
       </c>
       <c r="H203" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7409,7 +7418,7 @@
         <v>0.68</v>
       </c>
       <c r="H204" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7435,7 +7444,7 @@
         <v>0.32</v>
       </c>
       <c r="H205" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7461,7 +7470,7 @@
         <v>0.32</v>
       </c>
       <c r="H206" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7487,7 +7496,7 @@
         <v>0.2</v>
       </c>
       <c r="H207" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7513,7 +7522,7 @@
         <v>0.3</v>
       </c>
       <c r="H208" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7539,7 +7548,7 @@
         <v>0.78</v>
       </c>
       <c r="H209" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7565,7 +7574,7 @@
         <v>0.26</v>
       </c>
       <c r="H210" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7591,7 +7600,7 @@
         <v>0.32</v>
       </c>
       <c r="H211" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7617,7 +7626,7 @@
         <v>0.3</v>
       </c>
       <c r="H212" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7643,7 +7652,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H213" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7669,7 +7678,7 @@
         <v>0.88</v>
       </c>
       <c r="H214" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7695,7 +7704,7 @@
         <v>0.74</v>
       </c>
       <c r="H215" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7721,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7747,7 +7756,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7773,7 +7782,7 @@
         <v>0.2</v>
       </c>
       <c r="H218" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7799,7 +7808,7 @@
         <v>0.22</v>
       </c>
       <c r="H219" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7825,7 +7834,7 @@
         <v>0.78</v>
       </c>
       <c r="H220" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7851,7 +7860,7 @@
         <v>0.98</v>
       </c>
       <c r="H221" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7877,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7903,7 +7912,7 @@
         <v>0.4381603474151185</v>
       </c>
       <c r="H223" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7929,7 +7938,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H224" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7955,7 +7964,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H225" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7981,7 +7990,7 @@
         <v>0.58</v>
       </c>
       <c r="H226" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8007,7 +8016,7 @@
         <v>0.14</v>
       </c>
       <c r="H227" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8033,7 +8042,7 @@
         <v>0.18</v>
       </c>
       <c r="H228" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8059,7 +8068,7 @@
         <v>0.02</v>
       </c>
       <c r="H229" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8085,7 +8094,7 @@
         <v>0.02</v>
       </c>
       <c r="H230" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8111,7 +8120,7 @@
         <v>0.98</v>
       </c>
       <c r="H231" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8137,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8163,7 +8172,7 @@
         <v>0.04</v>
       </c>
       <c r="H233" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8189,7 +8198,7 @@
         <v>0.88</v>
       </c>
       <c r="H234" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8215,7 +8224,7 @@
         <v>0.62</v>
       </c>
       <c r="H235" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8241,7 +8250,7 @@
         <v>0.14</v>
       </c>
       <c r="H236" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8267,7 +8276,7 @@
         <v>0.66</v>
       </c>
       <c r="H237" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8293,7 +8302,7 @@
         <v>0.92</v>
       </c>
       <c r="H238" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8319,7 +8328,7 @@
         <v>0.38</v>
       </c>
       <c r="H239" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8345,7 +8354,7 @@
         <v>0.4</v>
       </c>
       <c r="H240" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8371,7 +8380,7 @@
         <v>0.1</v>
       </c>
       <c r="H241" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8397,7 +8406,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8423,7 +8432,7 @@
         <v>0.04</v>
       </c>
       <c r="H243" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8449,7 +8458,7 @@
         <v>0.96</v>
       </c>
       <c r="H244" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8475,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8501,7 +8510,7 @@
         <v>0.28</v>
       </c>
       <c r="H246" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8527,7 +8536,7 @@
         <v>0.96</v>
       </c>
       <c r="H247" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8553,7 +8562,7 @@
         <v>0.04</v>
       </c>
       <c r="H248" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8579,7 +8588,7 @@
         <v>0.4</v>
       </c>
       <c r="H249" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8605,7 +8614,7 @@
         <v>0.78</v>
       </c>
       <c r="H250" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8631,7 +8640,7 @@
         <v>0.62</v>
       </c>
       <c r="H251" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8657,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8683,7 +8692,7 @@
         <v>0.46</v>
       </c>
       <c r="H253" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8709,7 +8718,7 @@
         <v>0.4</v>
       </c>
       <c r="H254" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8735,7 +8744,7 @@
         <v>0.14</v>
       </c>
       <c r="H255" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8761,7 +8770,7 @@
         <v>0.72</v>
       </c>
       <c r="H256" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8787,7 +8796,7 @@
         <v>0.8</v>
       </c>
       <c r="H257" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8813,7 +8822,7 @@
         <v>0.88</v>
       </c>
       <c r="H258" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8839,7 +8848,7 @@
         <v>0.02</v>
       </c>
       <c r="H259" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8865,7 +8874,7 @@
         <v>0.26</v>
       </c>
       <c r="H260" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8891,7 +8900,7 @@
         <v>0.4</v>
       </c>
       <c r="H261" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8917,7 +8926,7 @@
         <v>0.74</v>
       </c>
       <c r="H262" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8943,7 +8952,7 @@
         <v>0.08</v>
       </c>
       <c r="H263" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8969,7 +8978,7 @@
         <v>0.96</v>
       </c>
       <c r="H264" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8995,7 +9004,7 @@
         <v>0.96</v>
       </c>
       <c r="H265" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9021,7 +9030,7 @@
         <v>0.4</v>
       </c>
       <c r="H266" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9047,7 +9056,7 @@
         <v>0.28</v>
       </c>
       <c r="H267" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9073,7 +9082,7 @@
         <v>0.12</v>
       </c>
       <c r="H268" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9099,7 +9108,7 @@
         <v>0.28</v>
       </c>
       <c r="H269" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9125,7 +9134,7 @@
         <v>0.22</v>
       </c>
       <c r="H270" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9151,7 +9160,7 @@
         <v>0.68</v>
       </c>
       <c r="H271" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9177,7 +9186,7 @@
         <v>0.72</v>
       </c>
       <c r="H272" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9203,7 +9212,7 @@
         <v>0.38</v>
       </c>
       <c r="H273" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9229,7 +9238,7 @@
         <v>0.18</v>
       </c>
       <c r="H274" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9255,7 +9264,7 @@
         <v>0.62</v>
       </c>
       <c r="H275" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9281,7 +9290,7 @@
         <v>0.58</v>
       </c>
       <c r="H276" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9307,7 +9316,7 @@
         <v>0.74</v>
       </c>
       <c r="H277" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9333,7 +9342,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H278" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9359,7 +9368,7 @@
         <v>0.2</v>
       </c>
       <c r="H279" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9385,7 +9394,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9411,7 +9420,7 @@
         <v>0.46</v>
       </c>
       <c r="H281" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9437,7 +9446,7 @@
         <v>0.16</v>
       </c>
       <c r="H282" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9463,7 +9472,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9489,7 +9498,7 @@
         <v>0.54</v>
       </c>
       <c r="H284" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9515,7 +9524,7 @@
         <v>0.98</v>
       </c>
       <c r="H285" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9541,7 +9550,7 @@
         <v>0.22</v>
       </c>
       <c r="H286" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9567,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9593,7 +9602,7 @@
         <v>0.76</v>
       </c>
       <c r="H288" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9619,7 +9628,7 @@
         <v>1</v>
       </c>
       <c r="H289" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9645,7 +9654,7 @@
         <v>0.72</v>
       </c>
       <c r="H290" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9671,7 +9680,7 @@
         <v>0.66</v>
       </c>
       <c r="H291" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9697,7 +9706,7 @@
         <v>0.62</v>
       </c>
       <c r="H292" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9723,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="H293" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9749,7 +9758,7 @@
         <v>0.36</v>
       </c>
       <c r="H294" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9775,7 +9784,7 @@
         <v>0.36</v>
       </c>
       <c r="H295" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9801,7 +9810,7 @@
         <v>0.96</v>
       </c>
       <c r="H296" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9827,7 +9836,7 @@
         <v>0.92</v>
       </c>
       <c r="H297" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9853,7 +9862,7 @@
         <v>0.04</v>
       </c>
       <c r="H298" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9879,7 +9888,7 @@
         <v>0.9</v>
       </c>
       <c r="H299" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9905,7 +9914,7 @@
         <v>0.28</v>
       </c>
       <c r="H300" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9931,7 +9940,7 @@
         <v>0.62</v>
       </c>
       <c r="H301" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9957,7 +9966,7 @@
         <v>0.9</v>
       </c>
       <c r="H302" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9983,7 +9992,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10009,7 +10018,7 @@
         <v>0.38</v>
       </c>
       <c r="H304" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10035,7 +10044,7 @@
         <v>0.4</v>
       </c>
       <c r="H305" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10061,7 +10070,7 @@
         <v>0.06</v>
       </c>
       <c r="H306" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10087,7 +10096,7 @@
         <v>0.68</v>
       </c>
       <c r="H307" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10113,7 +10122,7 @@
         <v>0.78</v>
       </c>
       <c r="H308" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10139,7 +10148,7 @@
         <v>0.06</v>
       </c>
       <c r="H309" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10165,7 +10174,7 @@
         <v>0.5</v>
       </c>
       <c r="H310" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10191,7 +10200,7 @@
         <v>0.16</v>
       </c>
       <c r="H311" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10217,7 +10226,7 @@
         <v>0.18</v>
       </c>
       <c r="H312" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10243,7 +10252,7 @@
         <v>0.96</v>
       </c>
       <c r="H313" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10269,7 +10278,7 @@
         <v>0.86</v>
       </c>
       <c r="H314" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10295,7 +10304,7 @@
         <v>0.96</v>
       </c>
       <c r="H315" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10321,7 +10330,7 @@
         <v>1</v>
       </c>
       <c r="H316" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10347,7 +10356,7 @@
         <v>0.8</v>
       </c>
       <c r="H317" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10373,7 +10382,7 @@
         <v>0.98</v>
       </c>
       <c r="H318" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10399,7 +10408,7 @@
         <v>0.34</v>
       </c>
       <c r="H319" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10425,7 +10434,7 @@
         <v>0.16</v>
       </c>
       <c r="H320" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10451,7 +10460,7 @@
         <v>0.88</v>
       </c>
       <c r="H321" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10477,7 +10486,7 @@
         <v>0.7</v>
       </c>
       <c r="H322" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10503,7 +10512,7 @@
         <v>0.68</v>
       </c>
       <c r="H323" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10529,7 +10538,7 @@
         <v>0.36</v>
       </c>
       <c r="H324" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10555,7 +10564,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10581,7 +10590,7 @@
         <v>0.9</v>
       </c>
       <c r="H326" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10607,7 +10616,7 @@
         <v>0.22</v>
       </c>
       <c r="H327" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10633,7 +10642,7 @@
         <v>0.42</v>
       </c>
       <c r="H328" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10659,7 +10668,7 @@
         <v>0.2</v>
       </c>
       <c r="H329" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10685,7 +10694,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10711,7 +10720,7 @@
         <v>0.6</v>
       </c>
       <c r="H331" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10737,7 +10746,7 @@
         <v>0.88</v>
       </c>
       <c r="H332" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10763,7 +10772,7 @@
         <v>0.06</v>
       </c>
       <c r="H333" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10789,7 +10798,7 @@
         <v>0.82</v>
       </c>
       <c r="H334" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10815,7 +10824,7 @@
         <v>1</v>
       </c>
       <c r="H335" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10841,7 +10850,7 @@
         <v>0.06</v>
       </c>
       <c r="H336" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10867,7 +10876,7 @@
         <v>0.28</v>
       </c>
       <c r="H337" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10893,7 +10902,7 @@
         <v>0.58</v>
       </c>
       <c r="H338" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10919,7 +10928,7 @@
         <v>0.36</v>
       </c>
       <c r="H339" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10945,7 +10954,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10971,7 +10980,7 @@
         <v>0.34</v>
       </c>
       <c r="H341" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10997,7 +11006,7 @@
         <v>0.9</v>
       </c>
       <c r="H342" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11023,7 +11032,7 @@
         <v>0.8</v>
       </c>
       <c r="H343" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11049,7 +11058,7 @@
         <v>0.4</v>
       </c>
       <c r="H344" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11075,7 +11084,7 @@
         <v>0.22</v>
       </c>
       <c r="H345" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11101,7 +11110,7 @@
         <v>0.7</v>
       </c>
       <c r="H346" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11127,7 +11136,7 @@
         <v>0.76</v>
       </c>
       <c r="H347" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11153,7 +11162,7 @@
         <v>0.96</v>
       </c>
       <c r="H348" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11179,7 +11188,7 @@
         <v>0.38</v>
       </c>
       <c r="H349" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11205,7 +11214,7 @@
         <v>0.7</v>
       </c>
       <c r="H350" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11231,7 +11240,7 @@
         <v>0.92</v>
       </c>
       <c r="H351" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11257,7 +11266,7 @@
         <v>0.22</v>
       </c>
       <c r="H352" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11283,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="H353" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11309,7 +11318,7 @@
         <v>0.36</v>
       </c>
       <c r="H354" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11335,7 +11344,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11361,7 +11370,7 @@
         <v>0.7</v>
       </c>
       <c r="H356" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11387,7 +11396,7 @@
         <v>0.38</v>
       </c>
       <c r="H357" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11413,7 +11422,7 @@
         <v>0.02</v>
       </c>
       <c r="H358" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11439,7 +11448,7 @@
         <v>0.66</v>
       </c>
       <c r="H359" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11465,7 +11474,7 @@
         <v>0.14</v>
       </c>
       <c r="H360" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11491,7 +11500,7 @@
         <v>0.96</v>
       </c>
       <c r="H361" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11517,7 +11526,7 @@
         <v>0.96</v>
       </c>
       <c r="H362" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11543,7 +11552,7 @@
         <v>0.16</v>
       </c>
       <c r="H363" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11569,7 +11578,7 @@
         <v>0.26</v>
       </c>
       <c r="H364" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11595,7 +11604,7 @@
         <v>0.22</v>
       </c>
       <c r="H365" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11621,7 +11630,7 @@
         <v>0.96</v>
       </c>
       <c r="H366" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11647,7 +11656,7 @@
         <v>0.12</v>
       </c>
       <c r="H367" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11673,7 +11682,7 @@
         <v>0.84</v>
       </c>
       <c r="H368" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11699,7 +11708,7 @@
         <v>0.86</v>
       </c>
       <c r="H369" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11725,7 +11734,7 @@
         <v>0.88</v>
       </c>
       <c r="H370" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11751,7 +11760,7 @@
         <v>0.84</v>
       </c>
       <c r="H371" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11777,7 +11786,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11803,7 +11812,7 @@
         <v>0.72</v>
       </c>
       <c r="H373" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11829,7 +11838,7 @@
         <v>0.8</v>
       </c>
       <c r="H374" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11855,7 +11864,7 @@
         <v>0.7</v>
       </c>
       <c r="H375" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11881,7 +11890,7 @@
         <v>0.7</v>
       </c>
       <c r="H376" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11907,7 +11916,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11933,7 +11942,7 @@
         <v>0.1</v>
       </c>
       <c r="H378" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11959,7 +11968,7 @@
         <v>0.16</v>
       </c>
       <c r="H379" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11985,7 +11994,7 @@
         <v>0.04</v>
       </c>
       <c r="H380" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12011,7 +12020,7 @@
         <v>0.14</v>
       </c>
       <c r="H381" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12037,7 +12046,7 @@
         <v>0.12</v>
       </c>
       <c r="H382" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12063,7 +12072,7 @@
         <v>0.04</v>
       </c>
       <c r="H383" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12089,7 +12098,7 @@
         <v>0.9</v>
       </c>
       <c r="H384" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12115,7 +12124,7 @@
         <v>0.14</v>
       </c>
       <c r="H385" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12141,7 +12150,7 @@
         <v>0.76</v>
       </c>
       <c r="H386" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12167,7 +12176,7 @@
         <v>0.66</v>
       </c>
       <c r="H387" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12193,7 +12202,7 @@
         <v>0.68</v>
       </c>
       <c r="H388" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12219,7 +12228,7 @@
         <v>0.76</v>
       </c>
       <c r="H389" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12245,7 +12254,7 @@
         <v>1</v>
       </c>
       <c r="H390" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12271,7 +12280,7 @@
         <v>0.06</v>
       </c>
       <c r="H391" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12297,7 +12306,7 @@
         <v>0.76</v>
       </c>
       <c r="H392" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12323,7 +12332,7 @@
         <v>0.06</v>
       </c>
       <c r="H393" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12349,7 +12358,7 @@
         <v>0.3</v>
       </c>
       <c r="H394" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12375,7 +12384,7 @@
         <v>0.3</v>
       </c>
       <c r="H395" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12401,7 +12410,7 @@
         <v>0.74</v>
       </c>
       <c r="H396" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12427,7 +12436,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12453,7 +12462,7 @@
         <v>0.14</v>
       </c>
       <c r="H398" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12479,7 +12488,7 @@
         <v>0.74</v>
       </c>
       <c r="H399" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12505,7 +12514,7 @@
         <v>0.8</v>
       </c>
       <c r="H400" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12531,7 +12540,7 @@
         <v>0.74</v>
       </c>
       <c r="H401" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12557,7 +12566,7 @@
         <v>0.84</v>
       </c>
       <c r="H402" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12583,7 +12592,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12609,7 +12618,7 @@
         <v>0.26</v>
       </c>
       <c r="H404" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12635,7 +12644,7 @@
         <v>0.16</v>
       </c>
       <c r="H405" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12661,7 +12670,7 @@
         <v>0.84</v>
       </c>
       <c r="H406" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12687,7 +12696,7 @@
         <v>0.76</v>
       </c>
       <c r="H407" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12713,7 +12722,7 @@
         <v>0.18</v>
       </c>
       <c r="H408" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12739,7 +12748,7 @@
         <v>0.98</v>
       </c>
       <c r="H409" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12765,7 +12774,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12791,7 +12800,7 @@
         <v>0.98</v>
       </c>
       <c r="H411" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12817,7 +12826,7 @@
         <v>0.98</v>
       </c>
       <c r="H412" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12843,7 +12852,7 @@
         <v>1</v>
       </c>
       <c r="H413" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12869,7 +12878,7 @@
         <v>0.84</v>
       </c>
       <c r="H414" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12895,7 +12904,7 @@
         <v>0.78</v>
       </c>
       <c r="H415" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12921,7 +12930,7 @@
         <v>0.68</v>
       </c>
       <c r="H416" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12947,7 +12956,7 @@
         <v>0.66</v>
       </c>
       <c r="H417" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12973,7 +12982,7 @@
         <v>0.88</v>
       </c>
       <c r="H418" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12999,7 +13008,7 @@
         <v>0.82</v>
       </c>
       <c r="H419" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13025,7 +13034,7 @@
         <v>0.96</v>
       </c>
       <c r="H420" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13051,7 +13060,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13077,7 +13086,7 @@
         <v>0.38</v>
       </c>
       <c r="H422" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13103,7 +13112,7 @@
         <v>0.7</v>
       </c>
       <c r="H423" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13129,7 +13138,7 @@
         <v>0.14</v>
       </c>
       <c r="H424" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13155,7 +13164,7 @@
         <v>0.3</v>
       </c>
       <c r="H425" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13181,7 +13190,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13207,7 +13216,7 @@
         <v>0.36</v>
       </c>
       <c r="H427" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13233,7 +13242,7 @@
         <v>0.64</v>
       </c>
       <c r="H428" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13259,7 +13268,7 @@
         <v>0.24</v>
       </c>
       <c r="H429" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13285,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13311,7 +13320,7 @@
         <v>0.96</v>
       </c>
       <c r="H431" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13337,7 +13346,7 @@
         <v>0.36</v>
       </c>
       <c r="H432" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13363,7 +13372,7 @@
         <v>0.54</v>
       </c>
       <c r="H433" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13389,7 +13398,7 @@
         <v>0.7</v>
       </c>
       <c r="H434" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13415,7 +13424,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H435" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13441,7 +13450,7 @@
         <v>0.08</v>
       </c>
       <c r="H436" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13467,7 +13476,7 @@
         <v>0.4</v>
       </c>
       <c r="H437" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13493,7 +13502,7 @@
         <v>0.34</v>
       </c>
       <c r="H438" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13519,7 +13528,7 @@
         <v>0.04</v>
       </c>
       <c r="H439" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13545,7 +13554,7 @@
         <v>0.34</v>
       </c>
       <c r="H440" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13571,7 +13580,7 @@
         <v>0.36</v>
       </c>
       <c r="H441" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13597,7 +13606,7 @@
         <v>0.68</v>
       </c>
       <c r="H442" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13623,7 +13632,7 @@
         <v>0.38</v>
       </c>
       <c r="H443" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13649,7 +13658,7 @@
         <v>0.64</v>
       </c>
       <c r="H444" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13675,7 +13684,7 @@
         <v>0.86</v>
       </c>
       <c r="H445" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13701,7 +13710,7 @@
         <v>0.64</v>
       </c>
       <c r="H446" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13727,7 +13736,7 @@
         <v>0.88</v>
       </c>
       <c r="H447" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13753,7 +13762,7 @@
         <v>0.96</v>
       </c>
       <c r="H448" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13779,7 +13788,7 @@
         <v>0.1</v>
       </c>
       <c r="H449" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13805,7 +13814,7 @@
         <v>0.12</v>
       </c>
       <c r="H450" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13831,7 +13840,7 @@
         <v>0.92</v>
       </c>
       <c r="H451" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13857,7 +13866,7 @@
         <v>0.98</v>
       </c>
       <c r="H452" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13883,7 +13892,7 @@
         <v>0.92</v>
       </c>
       <c r="H453" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13909,7 +13918,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13935,7 +13944,7 @@
         <v>0.74</v>
       </c>
       <c r="H455" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13961,7 +13970,7 @@
         <v>0.84</v>
       </c>
       <c r="H456" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13987,7 +13996,7 @@
         <v>0.18</v>
       </c>
       <c r="H457" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14013,7 +14022,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H458" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14039,7 +14048,7 @@
         <v>0.12</v>
       </c>
       <c r="H459" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14065,7 +14074,7 @@
         <v>1</v>
       </c>
       <c r="H460" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14091,7 +14100,7 @@
         <v>0.96</v>
       </c>
       <c r="H461" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14117,7 +14126,7 @@
         <v>0.9</v>
       </c>
       <c r="H462" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14143,7 +14152,7 @@
         <v>0.62</v>
       </c>
       <c r="H463" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14169,7 +14178,7 @@
         <v>0.16</v>
       </c>
       <c r="H464" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14195,7 +14204,7 @@
         <v>0.4</v>
       </c>
       <c r="H465" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14221,7 +14230,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14247,7 +14256,7 @@
         <v>0.84</v>
       </c>
       <c r="H467" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14273,7 +14282,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H468" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14299,7 +14308,7 @@
         <v>0.9</v>
       </c>
       <c r="H469" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14325,7 +14334,7 @@
         <v>0.24</v>
       </c>
       <c r="H470" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14351,7 +14360,7 @@
         <v>0.26</v>
       </c>
       <c r="H471" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14377,7 +14386,7 @@
         <v>0.74</v>
       </c>
       <c r="H472" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14403,7 +14412,7 @@
         <v>0.4</v>
       </c>
       <c r="H473" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14429,7 +14438,7 @@
         <v>1</v>
       </c>
       <c r="H474" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14455,7 +14464,7 @@
         <v>0.86</v>
       </c>
       <c r="H475" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14481,7 +14490,7 @@
         <v>0.7491891891891892</v>
       </c>
       <c r="H476" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14507,7 +14516,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H477" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14533,7 +14542,7 @@
         <v>0.02</v>
       </c>
       <c r="H478" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14559,7 +14568,7 @@
         <v>0.66</v>
       </c>
       <c r="H479" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14585,7 +14594,7 @@
         <v>0.26</v>
       </c>
       <c r="H480" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14611,7 +14620,7 @@
         <v>0.76</v>
       </c>
       <c r="H481" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14637,7 +14646,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14663,7 +14672,7 @@
         <v>0.76</v>
       </c>
       <c r="H483" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14689,7 +14698,7 @@
         <v>0.08</v>
       </c>
       <c r="H484" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14715,7 +14724,7 @@
         <v>0.96</v>
       </c>
       <c r="H485" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14741,7 +14750,7 @@
         <v>0.98</v>
       </c>
       <c r="H486" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14767,7 +14776,7 @@
         <v>0.36</v>
       </c>
       <c r="H487" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14793,7 +14802,7 @@
         <v>0.2</v>
       </c>
       <c r="H488" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14819,7 +14828,7 @@
         <v>0.12</v>
       </c>
       <c r="H489" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14845,7 +14854,7 @@
         <v>0.9</v>
       </c>
       <c r="H490" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14871,7 +14880,7 @@
         <v>0.24</v>
       </c>
       <c r="H491" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14897,7 +14906,7 @@
         <v>0.9</v>
       </c>
       <c r="H492" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14923,7 +14932,7 @@
         <v>0.7</v>
       </c>
       <c r="H493" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14949,7 +14958,7 @@
         <v>0.68</v>
       </c>
       <c r="H494" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14975,7 +14984,7 @@
         <v>0.12</v>
       </c>
       <c r="H495" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15001,7 +15010,7 @@
         <v>0.68</v>
       </c>
       <c r="H496" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15027,7 +15036,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15053,7 +15062,7 @@
         <v>0.68</v>
       </c>
       <c r="H498" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15079,7 +15088,7 @@
         <v>0.96</v>
       </c>
       <c r="H499" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15105,7 +15114,7 @@
         <v>0.18</v>
       </c>
       <c r="H500" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15131,7 +15140,7 @@
         <v>0.88</v>
       </c>
       <c r="H501" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15157,7 +15166,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15183,7 +15192,7 @@
         <v>0.04</v>
       </c>
       <c r="H503" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15209,7 +15218,7 @@
         <v>0.08</v>
       </c>
       <c r="H504" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15235,7 +15244,7 @@
         <v>0.22</v>
       </c>
       <c r="H505" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15261,7 +15270,7 @@
         <v>0.24</v>
       </c>
       <c r="H506" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15287,7 +15296,7 @@
         <v>0.62</v>
       </c>
       <c r="H507" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15313,7 +15322,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H508" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15339,7 +15348,7 @@
         <v>0.62</v>
       </c>
       <c r="H509" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15365,7 +15374,7 @@
         <v>0.36</v>
       </c>
       <c r="H510" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15391,7 +15400,7 @@
         <v>0.54</v>
       </c>
       <c r="H511" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15417,7 +15426,7 @@
         <v>0.76</v>
       </c>
       <c r="H512" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15443,7 +15452,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15469,7 +15478,7 @@
         <v>0.28</v>
       </c>
       <c r="H514" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15495,7 +15504,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15521,7 +15530,7 @@
         <v>0.38</v>
       </c>
       <c r="H516" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15547,7 +15556,7 @@
         <v>0.3</v>
       </c>
       <c r="H517" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15573,7 +15582,7 @@
         <v>0.36</v>
       </c>
       <c r="H518" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15599,7 +15608,7 @@
         <v>0.8</v>
       </c>
       <c r="H519" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15625,7 +15634,7 @@
         <v>0.22</v>
       </c>
       <c r="H520" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15651,7 +15660,7 @@
         <v>0.32</v>
       </c>
       <c r="H521" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15677,7 +15686,7 @@
         <v>0.32</v>
       </c>
       <c r="H522" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15703,7 +15712,7 @@
         <v>0.52</v>
       </c>
       <c r="H523" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15729,7 +15738,7 @@
         <v>0.92</v>
       </c>
       <c r="H524" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15755,7 +15764,7 @@
         <v>0.96</v>
       </c>
       <c r="H525" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15781,7 +15790,7 @@
         <v>0.16</v>
       </c>
       <c r="H526" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15807,7 +15816,7 @@
         <v>0.66</v>
       </c>
       <c r="H527" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15833,7 +15842,7 @@
         <v>0.04</v>
       </c>
       <c r="H528" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15859,7 +15868,7 @@
         <v>0.02</v>
       </c>
       <c r="H529" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15885,7 +15894,7 @@
         <v>0.36</v>
       </c>
       <c r="H530" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15911,7 +15920,7 @@
         <v>0.14</v>
       </c>
       <c r="H531" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15937,7 +15946,7 @@
         <v>0.64</v>
       </c>
       <c r="H532" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15963,7 +15972,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15989,7 +15998,7 @@
         <v>0.08</v>
       </c>
       <c r="H534" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16015,7 +16024,7 @@
         <v>0.06</v>
       </c>
       <c r="H535" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16041,7 +16050,7 @@
         <v>0.34</v>
       </c>
       <c r="H536" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16067,7 +16076,7 @@
         <v>0.28</v>
       </c>
       <c r="H537" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16093,7 +16102,7 @@
         <v>0.92</v>
       </c>
       <c r="H538" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16119,7 +16128,7 @@
         <v>0.08</v>
       </c>
       <c r="H539" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16145,7 +16154,7 @@
         <v>0.64</v>
       </c>
       <c r="H540" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16171,7 +16180,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16181,8 +16190,14 @@
       <c r="B542" t="s">
         <v>547</v>
       </c>
+      <c r="C542">
+        <v>0</v>
+      </c>
       <c r="D542">
         <v>0</v>
+      </c>
+      <c r="E542">
+        <v>1</v>
       </c>
       <c r="F542">
         <v>0.82</v>
@@ -16191,7 +16206,79 @@
         <v>0.18</v>
       </c>
       <c r="H542" t="s">
-        <v>553</v>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8">
+      <c r="A543" s="1">
+        <v>541</v>
+      </c>
+      <c r="B543" t="s">
+        <v>548</v>
+      </c>
+      <c r="C543">
+        <v>1</v>
+      </c>
+      <c r="D543">
+        <v>0</v>
+      </c>
+      <c r="E543">
+        <v>0</v>
+      </c>
+      <c r="F543">
+        <v>0.84</v>
+      </c>
+      <c r="G543">
+        <v>0.16</v>
+      </c>
+      <c r="H543" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8">
+      <c r="A544" s="1">
+        <v>542</v>
+      </c>
+      <c r="B544" t="s">
+        <v>549</v>
+      </c>
+      <c r="C544">
+        <v>0</v>
+      </c>
+      <c r="D544">
+        <v>1</v>
+      </c>
+      <c r="E544">
+        <v>0</v>
+      </c>
+      <c r="F544">
+        <v>0.02</v>
+      </c>
+      <c r="G544">
+        <v>0.98</v>
+      </c>
+      <c r="H544" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8">
+      <c r="A545" s="1">
+        <v>543</v>
+      </c>
+      <c r="B545" t="s">
+        <v>550</v>
+      </c>
+      <c r="D545">
+        <v>0</v>
+      </c>
+      <c r="F545">
+        <v>0.86</v>
+      </c>
+      <c r="G545">
+        <v>0.14</v>
+      </c>
+      <c r="H545" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyOOC.xlsx
+++ b/firebase_data_from_spyOOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="584">
   <si>
     <t>date</t>
   </si>
@@ -1667,6 +1667,15 @@
   </si>
   <si>
     <t>2025-08-14</t>
+  </si>
+  <si>
+    <t>2025-08-15</t>
+  </si>
+  <si>
+    <t>2025-08-18</t>
+  </si>
+  <si>
+    <t>2025-08-19</t>
   </si>
   <si>
     <t>96.00</t>
@@ -2114,7 +2123,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H545"/>
+  <dimension ref="A1:H548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2166,7 +2175,7 @@
         <v>0.96</v>
       </c>
       <c r="H2" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2192,7 +2201,7 @@
         <v>0.98</v>
       </c>
       <c r="H3" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2218,7 +2227,7 @@
         <v>0.4</v>
       </c>
       <c r="H4" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2244,7 +2253,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H5" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2270,7 +2279,7 @@
         <v>0.22</v>
       </c>
       <c r="H6" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2296,7 +2305,7 @@
         <v>0.18</v>
       </c>
       <c r="H7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2322,7 +2331,7 @@
         <v>0.78</v>
       </c>
       <c r="H8" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2348,7 +2357,7 @@
         <v>0.36</v>
       </c>
       <c r="H9" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2374,7 +2383,7 @@
         <v>0.66</v>
       </c>
       <c r="H10" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2400,7 +2409,7 @@
         <v>0.32</v>
       </c>
       <c r="H11" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2426,7 +2435,7 @@
         <v>0.7</v>
       </c>
       <c r="H12" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2452,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2478,7 +2487,7 @@
         <v>0.92</v>
       </c>
       <c r="H14" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2504,7 +2513,7 @@
         <v>0.7</v>
       </c>
       <c r="H15" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2530,7 +2539,7 @@
         <v>0.3</v>
       </c>
       <c r="H16" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2556,7 +2565,7 @@
         <v>0.3</v>
       </c>
       <c r="H17" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2582,7 +2591,7 @@
         <v>0.02</v>
       </c>
       <c r="H18" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2608,7 +2617,7 @@
         <v>0.72</v>
       </c>
       <c r="H19" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2634,7 +2643,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2660,7 +2669,7 @@
         <v>0.98</v>
       </c>
       <c r="H21" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2686,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2712,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2738,7 +2747,7 @@
         <v>0.32</v>
       </c>
       <c r="H24" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2764,7 +2773,7 @@
         <v>0.26</v>
       </c>
       <c r="H25" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2790,7 +2799,7 @@
         <v>0.34</v>
       </c>
       <c r="H26" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2816,7 +2825,7 @@
         <v>0.04</v>
       </c>
       <c r="H27" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2842,7 +2851,7 @@
         <v>0.02</v>
       </c>
       <c r="H28" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2868,7 +2877,7 @@
         <v>0.84</v>
       </c>
       <c r="H29" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2894,7 +2903,7 @@
         <v>0.96</v>
       </c>
       <c r="H30" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2920,7 +2929,7 @@
         <v>0.8</v>
       </c>
       <c r="H31" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2946,7 +2955,7 @@
         <v>0.92</v>
       </c>
       <c r="H32" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2972,7 +2981,7 @@
         <v>0.98</v>
       </c>
       <c r="H33" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2998,7 +3007,7 @@
         <v>0.98</v>
       </c>
       <c r="H34" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3024,7 +3033,7 @@
         <v>0.46</v>
       </c>
       <c r="H35" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3050,7 +3059,7 @@
         <v>0.2</v>
       </c>
       <c r="H36" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3076,7 +3085,7 @@
         <v>0.3</v>
       </c>
       <c r="H37" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3102,7 +3111,7 @@
         <v>0.04</v>
       </c>
       <c r="H38" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3128,7 +3137,7 @@
         <v>0.68</v>
       </c>
       <c r="H39" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3154,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3180,7 +3189,7 @@
         <v>0.34</v>
       </c>
       <c r="H41" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3206,7 +3215,7 @@
         <v>0.34</v>
       </c>
       <c r="H42" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3232,7 +3241,7 @@
         <v>0.44</v>
       </c>
       <c r="H43" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3258,7 +3267,7 @@
         <v>0.36</v>
       </c>
       <c r="H44" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3284,7 +3293,7 @@
         <v>0.58</v>
       </c>
       <c r="H45" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3310,7 +3319,7 @@
         <v>0.72</v>
       </c>
       <c r="H46" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3336,7 +3345,7 @@
         <v>0.74</v>
       </c>
       <c r="H47" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3362,7 +3371,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H48" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3388,7 +3397,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H49" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3414,7 +3423,7 @@
         <v>0.96</v>
       </c>
       <c r="H50" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3440,7 +3449,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3466,7 +3475,7 @@
         <v>0.96</v>
       </c>
       <c r="H52" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3492,7 +3501,7 @@
         <v>0.74</v>
       </c>
       <c r="H53" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3518,7 +3527,7 @@
         <v>0.74</v>
       </c>
       <c r="H54" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3544,7 +3553,7 @@
         <v>0.14</v>
       </c>
       <c r="H55" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3570,7 +3579,7 @@
         <v>0.86</v>
       </c>
       <c r="H56" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3596,7 +3605,7 @@
         <v>0.12</v>
       </c>
       <c r="H57" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3622,7 +3631,7 @@
         <v>0.1</v>
       </c>
       <c r="H58" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3648,7 +3657,7 @@
         <v>0.84</v>
       </c>
       <c r="H59" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3674,7 +3683,7 @@
         <v>0.74</v>
       </c>
       <c r="H60" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3700,7 +3709,7 @@
         <v>0.76</v>
       </c>
       <c r="H61" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3726,7 +3735,7 @@
         <v>0.66</v>
       </c>
       <c r="H62" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3752,7 +3761,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H63" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3778,7 +3787,7 @@
         <v>0.74</v>
       </c>
       <c r="H64" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3804,7 +3813,7 @@
         <v>0.6</v>
       </c>
       <c r="H65" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3830,7 +3839,7 @@
         <v>0.2</v>
       </c>
       <c r="H66" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3856,7 +3865,7 @@
         <v>0.06</v>
       </c>
       <c r="H67" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3882,7 +3891,7 @@
         <v>0.98</v>
       </c>
       <c r="H68" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3908,7 +3917,7 @@
         <v>0.38</v>
       </c>
       <c r="H69" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3934,7 +3943,7 @@
         <v>0.02</v>
       </c>
       <c r="H70" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3960,7 +3969,7 @@
         <v>0.8</v>
       </c>
       <c r="H71" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3986,7 +3995,7 @@
         <v>0.7</v>
       </c>
       <c r="H72" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4012,7 +4021,7 @@
         <v>0.72</v>
       </c>
       <c r="H73" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4038,7 +4047,7 @@
         <v>0.2</v>
       </c>
       <c r="H74" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4064,7 +4073,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H75" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4090,7 +4099,7 @@
         <v>0.38</v>
       </c>
       <c r="H76" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4116,7 +4125,7 @@
         <v>0.08</v>
       </c>
       <c r="H77" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4142,7 +4151,7 @@
         <v>0.06</v>
       </c>
       <c r="H78" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4168,7 +4177,7 @@
         <v>0.96</v>
       </c>
       <c r="H79" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4194,7 +4203,7 @@
         <v>0.6</v>
       </c>
       <c r="H80" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4220,7 +4229,7 @@
         <v>0.92</v>
       </c>
       <c r="H81" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4246,7 +4255,7 @@
         <v>0.9</v>
       </c>
       <c r="H82" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4272,7 +4281,7 @@
         <v>0.08</v>
       </c>
       <c r="H83" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4298,7 +4307,7 @@
         <v>0.74</v>
       </c>
       <c r="H84" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4324,7 +4333,7 @@
         <v>0.28</v>
       </c>
       <c r="H85" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4350,7 +4359,7 @@
         <v>0.42</v>
       </c>
       <c r="H86" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4376,7 +4385,7 @@
         <v>0.9</v>
       </c>
       <c r="H87" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4402,7 +4411,7 @@
         <v>0.98</v>
       </c>
       <c r="H88" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4428,7 +4437,7 @@
         <v>0.74</v>
       </c>
       <c r="H89" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4454,7 +4463,7 @@
         <v>0.22</v>
       </c>
       <c r="H90" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4480,7 +4489,7 @@
         <v>0.74</v>
       </c>
       <c r="H91" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4506,7 +4515,7 @@
         <v>0.68</v>
       </c>
       <c r="H92" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4532,7 +4541,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4558,7 +4567,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H94" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4584,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4610,7 +4619,7 @@
         <v>0.76</v>
       </c>
       <c r="H96" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4636,7 +4645,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H97" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4662,7 +4671,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4688,7 +4697,7 @@
         <v>0.96</v>
       </c>
       <c r="H99" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4714,7 +4723,7 @@
         <v>0.88</v>
       </c>
       <c r="H100" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4740,7 +4749,7 @@
         <v>0.82</v>
       </c>
       <c r="H101" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4766,7 +4775,7 @@
         <v>0.24</v>
       </c>
       <c r="H102" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4792,7 +4801,7 @@
         <v>0.7</v>
       </c>
       <c r="H103" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4818,7 +4827,7 @@
         <v>0.28</v>
       </c>
       <c r="H104" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4844,7 +4853,7 @@
         <v>0.3</v>
       </c>
       <c r="H105" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4870,7 +4879,7 @@
         <v>0.24</v>
       </c>
       <c r="H106" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4896,7 +4905,7 @@
         <v>0.86</v>
       </c>
       <c r="H107" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4922,7 +4931,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4948,7 +4957,7 @@
         <v>0.28</v>
       </c>
       <c r="H109" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4974,7 +4983,7 @@
         <v>0.98</v>
       </c>
       <c r="H110" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5000,7 +5009,7 @@
         <v>0.26</v>
       </c>
       <c r="H111" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5026,7 +5035,7 @@
         <v>0.44</v>
       </c>
       <c r="H112" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5052,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5078,7 +5087,7 @@
         <v>0.98</v>
       </c>
       <c r="H114" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5104,7 +5113,7 @@
         <v>0.04</v>
       </c>
       <c r="H115" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5130,7 +5139,7 @@
         <v>0.06</v>
       </c>
       <c r="H116" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5156,7 +5165,7 @@
         <v>0.22</v>
       </c>
       <c r="H117" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5182,7 +5191,7 @@
         <v>0.24</v>
       </c>
       <c r="H118" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5208,7 +5217,7 @@
         <v>0.3</v>
       </c>
       <c r="H119" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5234,7 +5243,7 @@
         <v>0.34</v>
       </c>
       <c r="H120" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5260,7 +5269,7 @@
         <v>0.32</v>
       </c>
       <c r="H121" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5286,7 +5295,7 @@
         <v>0.04</v>
       </c>
       <c r="H122" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5312,7 +5321,7 @@
         <v>0.06</v>
       </c>
       <c r="H123" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5338,7 +5347,7 @@
         <v>0.04</v>
       </c>
       <c r="H124" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5364,7 +5373,7 @@
         <v>0.96</v>
       </c>
       <c r="H125" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5390,7 +5399,7 @@
         <v>0.66</v>
       </c>
       <c r="H126" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5416,7 +5425,7 @@
         <v>0.04</v>
       </c>
       <c r="H127" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5442,7 +5451,7 @@
         <v>0.9</v>
       </c>
       <c r="H128" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5468,7 +5477,7 @@
         <v>0.84</v>
       </c>
       <c r="H129" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5494,7 +5503,7 @@
         <v>0.34</v>
       </c>
       <c r="H130" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5520,7 +5529,7 @@
         <v>0.64</v>
       </c>
       <c r="H131" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5546,7 +5555,7 @@
         <v>0.04</v>
       </c>
       <c r="H132" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5572,7 +5581,7 @@
         <v>0.86</v>
       </c>
       <c r="H133" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5598,7 +5607,7 @@
         <v>0.9</v>
       </c>
       <c r="H134" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5624,7 +5633,7 @@
         <v>0.52</v>
       </c>
       <c r="H135" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5650,7 +5659,7 @@
         <v>0.42</v>
       </c>
       <c r="H136" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5676,7 +5685,7 @@
         <v>0.76</v>
       </c>
       <c r="H137" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5702,7 +5711,7 @@
         <v>0.06</v>
       </c>
       <c r="H138" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5728,7 +5737,7 @@
         <v>0.98</v>
       </c>
       <c r="H139" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5754,7 +5763,7 @@
         <v>0.28</v>
       </c>
       <c r="H140" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5780,7 +5789,7 @@
         <v>0.16</v>
       </c>
       <c r="H141" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5806,7 +5815,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5832,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5858,7 +5867,7 @@
         <v>0.66</v>
       </c>
       <c r="H144" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5884,7 +5893,7 @@
         <v>0.42</v>
       </c>
       <c r="H145" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5910,7 +5919,7 @@
         <v>0.32</v>
       </c>
       <c r="H146" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5936,7 +5945,7 @@
         <v>0.34</v>
       </c>
       <c r="H147" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5962,7 +5971,7 @@
         <v>0.02</v>
       </c>
       <c r="H148" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5988,7 +5997,7 @@
         <v>0.16</v>
       </c>
       <c r="H149" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6014,7 +6023,7 @@
         <v>0.76</v>
       </c>
       <c r="H150" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6040,7 +6049,7 @@
         <v>0.24</v>
       </c>
       <c r="H151" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6066,7 +6075,7 @@
         <v>0.04</v>
       </c>
       <c r="H152" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6092,7 +6101,7 @@
         <v>0.3</v>
       </c>
       <c r="H153" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6118,7 +6127,7 @@
         <v>0.98</v>
       </c>
       <c r="H154" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6144,7 +6153,7 @@
         <v>0.76</v>
       </c>
       <c r="H155" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6170,7 +6179,7 @@
         <v>0.28</v>
       </c>
       <c r="H156" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6196,7 +6205,7 @@
         <v>0.84</v>
       </c>
       <c r="H157" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6222,7 +6231,7 @@
         <v>0.64</v>
       </c>
       <c r="H158" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6248,7 +6257,7 @@
         <v>0.32</v>
       </c>
       <c r="H159" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6274,7 +6283,7 @@
         <v>0.72</v>
       </c>
       <c r="H160" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6300,7 +6309,7 @@
         <v>0.3</v>
       </c>
       <c r="H161" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6326,7 +6335,7 @@
         <v>0.68</v>
       </c>
       <c r="H162" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6352,7 +6361,7 @@
         <v>0.32</v>
       </c>
       <c r="H163" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6378,7 +6387,7 @@
         <v>0.72</v>
       </c>
       <c r="H164" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6404,7 +6413,7 @@
         <v>0.36</v>
       </c>
       <c r="H165" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6430,7 +6439,7 @@
         <v>0.86</v>
       </c>
       <c r="H166" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6456,7 +6465,7 @@
         <v>0.58</v>
       </c>
       <c r="H167" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6482,7 +6491,7 @@
         <v>0.78</v>
       </c>
       <c r="H168" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6508,7 +6517,7 @@
         <v>0.98</v>
       </c>
       <c r="H169" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6534,7 +6543,7 @@
         <v>0.86</v>
       </c>
       <c r="H170" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6560,7 +6569,7 @@
         <v>0.08</v>
       </c>
       <c r="H171" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6586,7 +6595,7 @@
         <v>0.88</v>
       </c>
       <c r="H172" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6612,7 +6621,7 @@
         <v>0.68</v>
       </c>
       <c r="H173" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6638,7 +6647,7 @@
         <v>0.74</v>
       </c>
       <c r="H174" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6664,7 +6673,7 @@
         <v>0.58</v>
       </c>
       <c r="H175" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6690,7 +6699,7 @@
         <v>0.22</v>
       </c>
       <c r="H176" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6716,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6742,7 +6751,7 @@
         <v>0.64</v>
       </c>
       <c r="H178" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6768,7 +6777,7 @@
         <v>0.26</v>
       </c>
       <c r="H179" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6794,7 +6803,7 @@
         <v>0.6</v>
       </c>
       <c r="H180" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6820,7 +6829,7 @@
         <v>0.98</v>
       </c>
       <c r="H181" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6846,7 +6855,7 @@
         <v>0.3517053405853769</v>
       </c>
       <c r="H182" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6872,7 +6881,7 @@
         <v>0.84</v>
       </c>
       <c r="H183" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6898,7 +6907,7 @@
         <v>0.48</v>
       </c>
       <c r="H184" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6924,7 +6933,7 @@
         <v>0.08</v>
       </c>
       <c r="H185" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6950,7 +6959,7 @@
         <v>0.6</v>
       </c>
       <c r="H186" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6976,7 +6985,7 @@
         <v>0.9</v>
       </c>
       <c r="H187" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7002,7 +7011,7 @@
         <v>0.8</v>
       </c>
       <c r="H188" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7028,7 +7037,7 @@
         <v>0.34</v>
       </c>
       <c r="H189" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7054,7 +7063,7 @@
         <v>0.16</v>
       </c>
       <c r="H190" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7080,7 +7089,7 @@
         <v>0.1</v>
       </c>
       <c r="H191" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7106,7 +7115,7 @@
         <v>0.7</v>
       </c>
       <c r="H192" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7132,7 +7141,7 @@
         <v>0.72</v>
       </c>
       <c r="H193" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7158,7 +7167,7 @@
         <v>0.04</v>
       </c>
       <c r="H194" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7184,7 +7193,7 @@
         <v>0.008304498269896196</v>
       </c>
       <c r="H195" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7210,7 +7219,7 @@
         <v>0.26</v>
       </c>
       <c r="H196" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7236,7 +7245,7 @@
         <v>0.4</v>
       </c>
       <c r="H197" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7262,7 +7271,7 @@
         <v>0.64</v>
       </c>
       <c r="H198" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7288,7 +7297,7 @@
         <v>0.24</v>
       </c>
       <c r="H199" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7314,7 +7323,7 @@
         <v>0.4</v>
       </c>
       <c r="H200" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7340,7 +7349,7 @@
         <v>0.32</v>
       </c>
       <c r="H201" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7366,7 +7375,7 @@
         <v>0.38</v>
       </c>
       <c r="H202" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7392,7 +7401,7 @@
         <v>0.72</v>
       </c>
       <c r="H203" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7418,7 +7427,7 @@
         <v>0.68</v>
       </c>
       <c r="H204" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7444,7 +7453,7 @@
         <v>0.32</v>
       </c>
       <c r="H205" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7470,7 +7479,7 @@
         <v>0.32</v>
       </c>
       <c r="H206" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7496,7 +7505,7 @@
         <v>0.2</v>
       </c>
       <c r="H207" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7522,7 +7531,7 @@
         <v>0.3</v>
       </c>
       <c r="H208" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7548,7 +7557,7 @@
         <v>0.78</v>
       </c>
       <c r="H209" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7574,7 +7583,7 @@
         <v>0.26</v>
       </c>
       <c r="H210" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7600,7 +7609,7 @@
         <v>0.32</v>
       </c>
       <c r="H211" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7626,7 +7635,7 @@
         <v>0.3</v>
       </c>
       <c r="H212" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7652,7 +7661,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H213" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7678,7 +7687,7 @@
         <v>0.88</v>
       </c>
       <c r="H214" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7704,7 +7713,7 @@
         <v>0.74</v>
       </c>
       <c r="H215" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7730,7 +7739,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7756,7 +7765,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7782,7 +7791,7 @@
         <v>0.2</v>
       </c>
       <c r="H218" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7808,7 +7817,7 @@
         <v>0.22</v>
       </c>
       <c r="H219" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7834,7 +7843,7 @@
         <v>0.78</v>
       </c>
       <c r="H220" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7860,7 +7869,7 @@
         <v>0.98</v>
       </c>
       <c r="H221" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7886,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7912,7 +7921,7 @@
         <v>0.4381603474151185</v>
       </c>
       <c r="H223" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7938,7 +7947,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H224" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7964,7 +7973,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H225" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7990,7 +7999,7 @@
         <v>0.58</v>
       </c>
       <c r="H226" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8016,7 +8025,7 @@
         <v>0.14</v>
       </c>
       <c r="H227" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8042,7 +8051,7 @@
         <v>0.18</v>
       </c>
       <c r="H228" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8068,7 +8077,7 @@
         <v>0.02</v>
       </c>
       <c r="H229" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8094,7 +8103,7 @@
         <v>0.02</v>
       </c>
       <c r="H230" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8120,7 +8129,7 @@
         <v>0.98</v>
       </c>
       <c r="H231" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8146,7 +8155,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8172,7 +8181,7 @@
         <v>0.04</v>
       </c>
       <c r="H233" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8198,7 +8207,7 @@
         <v>0.88</v>
       </c>
       <c r="H234" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8224,7 +8233,7 @@
         <v>0.62</v>
       </c>
       <c r="H235" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8250,7 +8259,7 @@
         <v>0.14</v>
       </c>
       <c r="H236" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8276,7 +8285,7 @@
         <v>0.66</v>
       </c>
       <c r="H237" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8302,7 +8311,7 @@
         <v>0.92</v>
       </c>
       <c r="H238" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8328,7 +8337,7 @@
         <v>0.38</v>
       </c>
       <c r="H239" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8354,7 +8363,7 @@
         <v>0.4</v>
       </c>
       <c r="H240" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8380,7 +8389,7 @@
         <v>0.1</v>
       </c>
       <c r="H241" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8406,7 +8415,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8432,7 +8441,7 @@
         <v>0.04</v>
       </c>
       <c r="H243" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8458,7 +8467,7 @@
         <v>0.96</v>
       </c>
       <c r="H244" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8484,7 +8493,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8510,7 +8519,7 @@
         <v>0.28</v>
       </c>
       <c r="H246" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8536,7 +8545,7 @@
         <v>0.96</v>
       </c>
       <c r="H247" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8562,7 +8571,7 @@
         <v>0.04</v>
       </c>
       <c r="H248" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8588,7 +8597,7 @@
         <v>0.4</v>
       </c>
       <c r="H249" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8614,7 +8623,7 @@
         <v>0.78</v>
       </c>
       <c r="H250" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8640,7 +8649,7 @@
         <v>0.62</v>
       </c>
       <c r="H251" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8666,7 +8675,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8692,7 +8701,7 @@
         <v>0.46</v>
       </c>
       <c r="H253" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8718,7 +8727,7 @@
         <v>0.4</v>
       </c>
       <c r="H254" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8744,7 +8753,7 @@
         <v>0.14</v>
       </c>
       <c r="H255" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8770,7 +8779,7 @@
         <v>0.72</v>
       </c>
       <c r="H256" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8796,7 +8805,7 @@
         <v>0.8</v>
       </c>
       <c r="H257" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8822,7 +8831,7 @@
         <v>0.88</v>
       </c>
       <c r="H258" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8848,7 +8857,7 @@
         <v>0.02</v>
       </c>
       <c r="H259" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8874,7 +8883,7 @@
         <v>0.26</v>
       </c>
       <c r="H260" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8900,7 +8909,7 @@
         <v>0.4</v>
       </c>
       <c r="H261" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8926,7 +8935,7 @@
         <v>0.74</v>
       </c>
       <c r="H262" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8952,7 +8961,7 @@
         <v>0.08</v>
       </c>
       <c r="H263" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8978,7 +8987,7 @@
         <v>0.96</v>
       </c>
       <c r="H264" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9004,7 +9013,7 @@
         <v>0.96</v>
       </c>
       <c r="H265" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9030,7 +9039,7 @@
         <v>0.4</v>
       </c>
       <c r="H266" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9056,7 +9065,7 @@
         <v>0.28</v>
       </c>
       <c r="H267" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9082,7 +9091,7 @@
         <v>0.12</v>
       </c>
       <c r="H268" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9108,7 +9117,7 @@
         <v>0.28</v>
       </c>
       <c r="H269" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9134,7 +9143,7 @@
         <v>0.22</v>
       </c>
       <c r="H270" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9160,7 +9169,7 @@
         <v>0.68</v>
       </c>
       <c r="H271" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9186,7 +9195,7 @@
         <v>0.72</v>
       </c>
       <c r="H272" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9212,7 +9221,7 @@
         <v>0.38</v>
       </c>
       <c r="H273" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9238,7 +9247,7 @@
         <v>0.18</v>
       </c>
       <c r="H274" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9264,7 +9273,7 @@
         <v>0.62</v>
       </c>
       <c r="H275" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9290,7 +9299,7 @@
         <v>0.58</v>
       </c>
       <c r="H276" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9316,7 +9325,7 @@
         <v>0.74</v>
       </c>
       <c r="H277" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9342,7 +9351,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H278" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9368,7 +9377,7 @@
         <v>0.2</v>
       </c>
       <c r="H279" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9394,7 +9403,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9420,7 +9429,7 @@
         <v>0.46</v>
       </c>
       <c r="H281" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9446,7 +9455,7 @@
         <v>0.16</v>
       </c>
       <c r="H282" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9472,7 +9481,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9498,7 +9507,7 @@
         <v>0.54</v>
       </c>
       <c r="H284" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9524,7 +9533,7 @@
         <v>0.98</v>
       </c>
       <c r="H285" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9550,7 +9559,7 @@
         <v>0.22</v>
       </c>
       <c r="H286" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9576,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9602,7 +9611,7 @@
         <v>0.76</v>
       </c>
       <c r="H288" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9628,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="H289" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9654,7 +9663,7 @@
         <v>0.72</v>
       </c>
       <c r="H290" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9680,7 +9689,7 @@
         <v>0.66</v>
       </c>
       <c r="H291" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9706,7 +9715,7 @@
         <v>0.62</v>
       </c>
       <c r="H292" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9732,7 +9741,7 @@
         <v>1</v>
       </c>
       <c r="H293" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9758,7 +9767,7 @@
         <v>0.36</v>
       </c>
       <c r="H294" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9784,7 +9793,7 @@
         <v>0.36</v>
       </c>
       <c r="H295" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9810,7 +9819,7 @@
         <v>0.96</v>
       </c>
       <c r="H296" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9836,7 +9845,7 @@
         <v>0.92</v>
       </c>
       <c r="H297" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9862,7 +9871,7 @@
         <v>0.04</v>
       </c>
       <c r="H298" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9888,7 +9897,7 @@
         <v>0.9</v>
       </c>
       <c r="H299" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9914,7 +9923,7 @@
         <v>0.28</v>
       </c>
       <c r="H300" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9940,7 +9949,7 @@
         <v>0.62</v>
       </c>
       <c r="H301" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9966,7 +9975,7 @@
         <v>0.9</v>
       </c>
       <c r="H302" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9992,7 +10001,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10018,7 +10027,7 @@
         <v>0.38</v>
       </c>
       <c r="H304" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10044,7 +10053,7 @@
         <v>0.4</v>
       </c>
       <c r="H305" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10070,7 +10079,7 @@
         <v>0.06</v>
       </c>
       <c r="H306" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10096,7 +10105,7 @@
         <v>0.68</v>
       </c>
       <c r="H307" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10122,7 +10131,7 @@
         <v>0.78</v>
       </c>
       <c r="H308" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10148,7 +10157,7 @@
         <v>0.06</v>
       </c>
       <c r="H309" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10174,7 +10183,7 @@
         <v>0.5</v>
       </c>
       <c r="H310" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10200,7 +10209,7 @@
         <v>0.16</v>
       </c>
       <c r="H311" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10226,7 +10235,7 @@
         <v>0.18</v>
       </c>
       <c r="H312" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10252,7 +10261,7 @@
         <v>0.96</v>
       </c>
       <c r="H313" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10278,7 +10287,7 @@
         <v>0.86</v>
       </c>
       <c r="H314" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10304,7 +10313,7 @@
         <v>0.96</v>
       </c>
       <c r="H315" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10330,7 +10339,7 @@
         <v>1</v>
       </c>
       <c r="H316" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10356,7 +10365,7 @@
         <v>0.8</v>
       </c>
       <c r="H317" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10382,7 +10391,7 @@
         <v>0.98</v>
       </c>
       <c r="H318" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10408,7 +10417,7 @@
         <v>0.34</v>
       </c>
       <c r="H319" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10434,7 +10443,7 @@
         <v>0.16</v>
       </c>
       <c r="H320" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10460,7 +10469,7 @@
         <v>0.88</v>
       </c>
       <c r="H321" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10486,7 +10495,7 @@
         <v>0.7</v>
       </c>
       <c r="H322" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10512,7 +10521,7 @@
         <v>0.68</v>
       </c>
       <c r="H323" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10538,7 +10547,7 @@
         <v>0.36</v>
       </c>
       <c r="H324" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10564,7 +10573,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10590,7 +10599,7 @@
         <v>0.9</v>
       </c>
       <c r="H326" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10616,7 +10625,7 @@
         <v>0.22</v>
       </c>
       <c r="H327" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10642,7 +10651,7 @@
         <v>0.42</v>
       </c>
       <c r="H328" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10668,7 +10677,7 @@
         <v>0.2</v>
       </c>
       <c r="H329" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10694,7 +10703,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10720,7 +10729,7 @@
         <v>0.6</v>
       </c>
       <c r="H331" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10746,7 +10755,7 @@
         <v>0.88</v>
       </c>
       <c r="H332" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10772,7 +10781,7 @@
         <v>0.06</v>
       </c>
       <c r="H333" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10798,7 +10807,7 @@
         <v>0.82</v>
       </c>
       <c r="H334" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10824,7 +10833,7 @@
         <v>1</v>
       </c>
       <c r="H335" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10850,7 +10859,7 @@
         <v>0.06</v>
       </c>
       <c r="H336" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10876,7 +10885,7 @@
         <v>0.28</v>
       </c>
       <c r="H337" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10902,7 +10911,7 @@
         <v>0.58</v>
       </c>
       <c r="H338" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10928,7 +10937,7 @@
         <v>0.36</v>
       </c>
       <c r="H339" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10954,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10980,7 +10989,7 @@
         <v>0.34</v>
       </c>
       <c r="H341" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11006,7 +11015,7 @@
         <v>0.9</v>
       </c>
       <c r="H342" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11032,7 +11041,7 @@
         <v>0.8</v>
       </c>
       <c r="H343" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11058,7 +11067,7 @@
         <v>0.4</v>
       </c>
       <c r="H344" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11084,7 +11093,7 @@
         <v>0.22</v>
       </c>
       <c r="H345" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11110,7 +11119,7 @@
         <v>0.7</v>
       </c>
       <c r="H346" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11136,7 +11145,7 @@
         <v>0.76</v>
       </c>
       <c r="H347" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11162,7 +11171,7 @@
         <v>0.96</v>
       </c>
       <c r="H348" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11188,7 +11197,7 @@
         <v>0.38</v>
       </c>
       <c r="H349" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11214,7 +11223,7 @@
         <v>0.7</v>
       </c>
       <c r="H350" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11240,7 +11249,7 @@
         <v>0.92</v>
       </c>
       <c r="H351" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11266,7 +11275,7 @@
         <v>0.22</v>
       </c>
       <c r="H352" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11292,7 +11301,7 @@
         <v>1</v>
       </c>
       <c r="H353" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11318,7 +11327,7 @@
         <v>0.36</v>
       </c>
       <c r="H354" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11344,7 +11353,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11370,7 +11379,7 @@
         <v>0.7</v>
       </c>
       <c r="H356" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11396,7 +11405,7 @@
         <v>0.38</v>
       </c>
       <c r="H357" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11422,7 +11431,7 @@
         <v>0.02</v>
       </c>
       <c r="H358" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11448,7 +11457,7 @@
         <v>0.66</v>
       </c>
       <c r="H359" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11474,7 +11483,7 @@
         <v>0.14</v>
       </c>
       <c r="H360" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11500,7 +11509,7 @@
         <v>0.96</v>
       </c>
       <c r="H361" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11526,7 +11535,7 @@
         <v>0.96</v>
       </c>
       <c r="H362" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11552,7 +11561,7 @@
         <v>0.16</v>
       </c>
       <c r="H363" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11578,7 +11587,7 @@
         <v>0.26</v>
       </c>
       <c r="H364" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11604,7 +11613,7 @@
         <v>0.22</v>
       </c>
       <c r="H365" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11630,7 +11639,7 @@
         <v>0.96</v>
       </c>
       <c r="H366" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11656,7 +11665,7 @@
         <v>0.12</v>
       </c>
       <c r="H367" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11682,7 +11691,7 @@
         <v>0.84</v>
       </c>
       <c r="H368" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11708,7 +11717,7 @@
         <v>0.86</v>
       </c>
       <c r="H369" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11734,7 +11743,7 @@
         <v>0.88</v>
       </c>
       <c r="H370" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11760,7 +11769,7 @@
         <v>0.84</v>
       </c>
       <c r="H371" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11786,7 +11795,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11812,7 +11821,7 @@
         <v>0.72</v>
       </c>
       <c r="H373" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11838,7 +11847,7 @@
         <v>0.8</v>
       </c>
       <c r="H374" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11864,7 +11873,7 @@
         <v>0.7</v>
       </c>
       <c r="H375" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11890,7 +11899,7 @@
         <v>0.7</v>
       </c>
       <c r="H376" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11916,7 +11925,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11942,7 +11951,7 @@
         <v>0.1</v>
       </c>
       <c r="H378" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11968,7 +11977,7 @@
         <v>0.16</v>
       </c>
       <c r="H379" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11994,7 +12003,7 @@
         <v>0.04</v>
       </c>
       <c r="H380" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12020,7 +12029,7 @@
         <v>0.14</v>
       </c>
       <c r="H381" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12046,7 +12055,7 @@
         <v>0.12</v>
       </c>
       <c r="H382" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12072,7 +12081,7 @@
         <v>0.04</v>
       </c>
       <c r="H383" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12098,7 +12107,7 @@
         <v>0.9</v>
       </c>
       <c r="H384" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12124,7 +12133,7 @@
         <v>0.14</v>
       </c>
       <c r="H385" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12150,7 +12159,7 @@
         <v>0.76</v>
       </c>
       <c r="H386" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12176,7 +12185,7 @@
         <v>0.66</v>
       </c>
       <c r="H387" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12202,7 +12211,7 @@
         <v>0.68</v>
       </c>
       <c r="H388" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12228,7 +12237,7 @@
         <v>0.76</v>
       </c>
       <c r="H389" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12254,7 +12263,7 @@
         <v>1</v>
       </c>
       <c r="H390" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12280,7 +12289,7 @@
         <v>0.06</v>
       </c>
       <c r="H391" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12306,7 +12315,7 @@
         <v>0.76</v>
       </c>
       <c r="H392" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12332,7 +12341,7 @@
         <v>0.06</v>
       </c>
       <c r="H393" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12358,7 +12367,7 @@
         <v>0.3</v>
       </c>
       <c r="H394" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12384,7 +12393,7 @@
         <v>0.3</v>
       </c>
       <c r="H395" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12410,7 +12419,7 @@
         <v>0.74</v>
       </c>
       <c r="H396" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12436,7 +12445,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12462,7 +12471,7 @@
         <v>0.14</v>
       </c>
       <c r="H398" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12488,7 +12497,7 @@
         <v>0.74</v>
       </c>
       <c r="H399" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12514,7 +12523,7 @@
         <v>0.8</v>
       </c>
       <c r="H400" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12540,7 +12549,7 @@
         <v>0.74</v>
       </c>
       <c r="H401" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12566,7 +12575,7 @@
         <v>0.84</v>
       </c>
       <c r="H402" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12592,7 +12601,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12618,7 +12627,7 @@
         <v>0.26</v>
       </c>
       <c r="H404" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12644,7 +12653,7 @@
         <v>0.16</v>
       </c>
       <c r="H405" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12670,7 +12679,7 @@
         <v>0.84</v>
       </c>
       <c r="H406" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12696,7 +12705,7 @@
         <v>0.76</v>
       </c>
       <c r="H407" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12722,7 +12731,7 @@
         <v>0.18</v>
       </c>
       <c r="H408" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12748,7 +12757,7 @@
         <v>0.98</v>
       </c>
       <c r="H409" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12774,7 +12783,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12800,7 +12809,7 @@
         <v>0.98</v>
       </c>
       <c r="H411" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12826,7 +12835,7 @@
         <v>0.98</v>
       </c>
       <c r="H412" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12852,7 +12861,7 @@
         <v>1</v>
       </c>
       <c r="H413" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12878,7 +12887,7 @@
         <v>0.84</v>
       </c>
       <c r="H414" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12904,7 +12913,7 @@
         <v>0.78</v>
       </c>
       <c r="H415" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12930,7 +12939,7 @@
         <v>0.68</v>
       </c>
       <c r="H416" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12956,7 +12965,7 @@
         <v>0.66</v>
       </c>
       <c r="H417" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -12982,7 +12991,7 @@
         <v>0.88</v>
       </c>
       <c r="H418" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13008,7 +13017,7 @@
         <v>0.82</v>
       </c>
       <c r="H419" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13034,7 +13043,7 @@
         <v>0.96</v>
       </c>
       <c r="H420" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13060,7 +13069,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13086,7 +13095,7 @@
         <v>0.38</v>
       </c>
       <c r="H422" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13112,7 +13121,7 @@
         <v>0.7</v>
       </c>
       <c r="H423" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13138,7 +13147,7 @@
         <v>0.14</v>
       </c>
       <c r="H424" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13164,7 +13173,7 @@
         <v>0.3</v>
       </c>
       <c r="H425" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13190,7 +13199,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13216,7 +13225,7 @@
         <v>0.36</v>
       </c>
       <c r="H427" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13242,7 +13251,7 @@
         <v>0.64</v>
       </c>
       <c r="H428" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13268,7 +13277,7 @@
         <v>0.24</v>
       </c>
       <c r="H429" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13294,7 +13303,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13320,7 +13329,7 @@
         <v>0.96</v>
       </c>
       <c r="H431" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13346,7 +13355,7 @@
         <v>0.36</v>
       </c>
       <c r="H432" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13372,7 +13381,7 @@
         <v>0.54</v>
       </c>
       <c r="H433" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13398,7 +13407,7 @@
         <v>0.7</v>
       </c>
       <c r="H434" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13424,7 +13433,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H435" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13450,7 +13459,7 @@
         <v>0.08</v>
       </c>
       <c r="H436" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13476,7 +13485,7 @@
         <v>0.4</v>
       </c>
       <c r="H437" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13502,7 +13511,7 @@
         <v>0.34</v>
       </c>
       <c r="H438" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13528,7 +13537,7 @@
         <v>0.04</v>
       </c>
       <c r="H439" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13554,7 +13563,7 @@
         <v>0.34</v>
       </c>
       <c r="H440" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13580,7 +13589,7 @@
         <v>0.36</v>
       </c>
       <c r="H441" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13606,7 +13615,7 @@
         <v>0.68</v>
       </c>
       <c r="H442" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13632,7 +13641,7 @@
         <v>0.38</v>
       </c>
       <c r="H443" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13658,7 +13667,7 @@
         <v>0.64</v>
       </c>
       <c r="H444" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13684,7 +13693,7 @@
         <v>0.86</v>
       </c>
       <c r="H445" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13710,7 +13719,7 @@
         <v>0.64</v>
       </c>
       <c r="H446" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13736,7 +13745,7 @@
         <v>0.88</v>
       </c>
       <c r="H447" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13762,7 +13771,7 @@
         <v>0.96</v>
       </c>
       <c r="H448" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13788,7 +13797,7 @@
         <v>0.1</v>
       </c>
       <c r="H449" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13814,7 +13823,7 @@
         <v>0.12</v>
       </c>
       <c r="H450" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13840,7 +13849,7 @@
         <v>0.92</v>
       </c>
       <c r="H451" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13866,7 +13875,7 @@
         <v>0.98</v>
       </c>
       <c r="H452" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13892,7 +13901,7 @@
         <v>0.92</v>
       </c>
       <c r="H453" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13918,7 +13927,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13944,7 +13953,7 @@
         <v>0.74</v>
       </c>
       <c r="H455" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13970,7 +13979,7 @@
         <v>0.84</v>
       </c>
       <c r="H456" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -13996,7 +14005,7 @@
         <v>0.18</v>
       </c>
       <c r="H457" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14022,7 +14031,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H458" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14048,7 +14057,7 @@
         <v>0.12</v>
       </c>
       <c r="H459" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14074,7 +14083,7 @@
         <v>1</v>
       </c>
       <c r="H460" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14100,7 +14109,7 @@
         <v>0.96</v>
       </c>
       <c r="H461" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14126,7 +14135,7 @@
         <v>0.9</v>
       </c>
       <c r="H462" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14152,7 +14161,7 @@
         <v>0.62</v>
       </c>
       <c r="H463" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14178,7 +14187,7 @@
         <v>0.16</v>
       </c>
       <c r="H464" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14204,7 +14213,7 @@
         <v>0.4</v>
       </c>
       <c r="H465" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14230,7 +14239,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14256,7 +14265,7 @@
         <v>0.84</v>
       </c>
       <c r="H467" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14282,7 +14291,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H468" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14308,7 +14317,7 @@
         <v>0.9</v>
       </c>
       <c r="H469" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14334,7 +14343,7 @@
         <v>0.24</v>
       </c>
       <c r="H470" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14360,7 +14369,7 @@
         <v>0.26</v>
       </c>
       <c r="H471" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14386,7 +14395,7 @@
         <v>0.74</v>
       </c>
       <c r="H472" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14412,7 +14421,7 @@
         <v>0.4</v>
       </c>
       <c r="H473" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14438,7 +14447,7 @@
         <v>1</v>
       </c>
       <c r="H474" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14464,7 +14473,7 @@
         <v>0.86</v>
       </c>
       <c r="H475" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14490,7 +14499,7 @@
         <v>0.7491891891891892</v>
       </c>
       <c r="H476" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14516,7 +14525,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H477" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14542,7 +14551,7 @@
         <v>0.02</v>
       </c>
       <c r="H478" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14568,7 +14577,7 @@
         <v>0.66</v>
       </c>
       <c r="H479" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14594,7 +14603,7 @@
         <v>0.26</v>
       </c>
       <c r="H480" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14620,7 +14629,7 @@
         <v>0.76</v>
       </c>
       <c r="H481" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14646,7 +14655,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14672,7 +14681,7 @@
         <v>0.76</v>
       </c>
       <c r="H483" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14698,7 +14707,7 @@
         <v>0.08</v>
       </c>
       <c r="H484" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14724,7 +14733,7 @@
         <v>0.96</v>
       </c>
       <c r="H485" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14750,7 +14759,7 @@
         <v>0.98</v>
       </c>
       <c r="H486" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14776,7 +14785,7 @@
         <v>0.36</v>
       </c>
       <c r="H487" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14802,7 +14811,7 @@
         <v>0.2</v>
       </c>
       <c r="H488" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14828,7 +14837,7 @@
         <v>0.12</v>
       </c>
       <c r="H489" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14854,7 +14863,7 @@
         <v>0.9</v>
       </c>
       <c r="H490" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14880,7 +14889,7 @@
         <v>0.24</v>
       </c>
       <c r="H491" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14906,7 +14915,7 @@
         <v>0.9</v>
       </c>
       <c r="H492" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14932,7 +14941,7 @@
         <v>0.7</v>
       </c>
       <c r="H493" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14958,7 +14967,7 @@
         <v>0.68</v>
       </c>
       <c r="H494" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -14984,7 +14993,7 @@
         <v>0.12</v>
       </c>
       <c r="H495" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15010,7 +15019,7 @@
         <v>0.68</v>
       </c>
       <c r="H496" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15036,7 +15045,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15062,7 +15071,7 @@
         <v>0.68</v>
       </c>
       <c r="H498" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15088,7 +15097,7 @@
         <v>0.96</v>
       </c>
       <c r="H499" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15114,7 +15123,7 @@
         <v>0.18</v>
       </c>
       <c r="H500" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15140,7 +15149,7 @@
         <v>0.88</v>
       </c>
       <c r="H501" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15166,7 +15175,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15192,7 +15201,7 @@
         <v>0.04</v>
       </c>
       <c r="H503" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15218,7 +15227,7 @@
         <v>0.08</v>
       </c>
       <c r="H504" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15244,7 +15253,7 @@
         <v>0.22</v>
       </c>
       <c r="H505" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15270,7 +15279,7 @@
         <v>0.24</v>
       </c>
       <c r="H506" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15296,7 +15305,7 @@
         <v>0.62</v>
       </c>
       <c r="H507" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15322,7 +15331,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H508" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15348,7 +15357,7 @@
         <v>0.62</v>
       </c>
       <c r="H509" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15374,7 +15383,7 @@
         <v>0.36</v>
       </c>
       <c r="H510" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15400,7 +15409,7 @@
         <v>0.54</v>
       </c>
       <c r="H511" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15426,7 +15435,7 @@
         <v>0.76</v>
       </c>
       <c r="H512" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15452,7 +15461,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15478,7 +15487,7 @@
         <v>0.28</v>
       </c>
       <c r="H514" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15504,7 +15513,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15530,7 +15539,7 @@
         <v>0.38</v>
       </c>
       <c r="H516" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15556,7 +15565,7 @@
         <v>0.3</v>
       </c>
       <c r="H517" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15582,7 +15591,7 @@
         <v>0.36</v>
       </c>
       <c r="H518" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15608,7 +15617,7 @@
         <v>0.8</v>
       </c>
       <c r="H519" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15634,7 +15643,7 @@
         <v>0.22</v>
       </c>
       <c r="H520" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15660,7 +15669,7 @@
         <v>0.32</v>
       </c>
       <c r="H521" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15686,7 +15695,7 @@
         <v>0.32</v>
       </c>
       <c r="H522" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15712,7 +15721,7 @@
         <v>0.52</v>
       </c>
       <c r="H523" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15738,7 +15747,7 @@
         <v>0.92</v>
       </c>
       <c r="H524" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15764,7 +15773,7 @@
         <v>0.96</v>
       </c>
       <c r="H525" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15790,7 +15799,7 @@
         <v>0.16</v>
       </c>
       <c r="H526" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15816,7 +15825,7 @@
         <v>0.66</v>
       </c>
       <c r="H527" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15842,7 +15851,7 @@
         <v>0.04</v>
       </c>
       <c r="H528" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15868,7 +15877,7 @@
         <v>0.02</v>
       </c>
       <c r="H529" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15894,7 +15903,7 @@
         <v>0.36</v>
       </c>
       <c r="H530" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15920,7 +15929,7 @@
         <v>0.14</v>
       </c>
       <c r="H531" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15946,7 +15955,7 @@
         <v>0.64</v>
       </c>
       <c r="H532" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15972,7 +15981,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -15998,7 +16007,7 @@
         <v>0.08</v>
       </c>
       <c r="H534" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16024,7 +16033,7 @@
         <v>0.06</v>
       </c>
       <c r="H535" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16050,7 +16059,7 @@
         <v>0.34</v>
       </c>
       <c r="H536" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16076,7 +16085,7 @@
         <v>0.28</v>
       </c>
       <c r="H537" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16102,7 +16111,7 @@
         <v>0.92</v>
       </c>
       <c r="H538" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16128,7 +16137,7 @@
         <v>0.08</v>
       </c>
       <c r="H539" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16154,7 +16163,7 @@
         <v>0.64</v>
       </c>
       <c r="H540" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16180,7 +16189,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16206,7 +16215,7 @@
         <v>0.18</v>
       </c>
       <c r="H542" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16232,7 +16241,7 @@
         <v>0.16</v>
       </c>
       <c r="H543" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16258,7 +16267,7 @@
         <v>0.98</v>
       </c>
       <c r="H544" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16268,7 +16277,13 @@
       <c r="B545" t="s">
         <v>550</v>
       </c>
+      <c r="C545">
+        <v>1</v>
+      </c>
       <c r="D545">
+        <v>0</v>
+      </c>
+      <c r="E545">
         <v>0</v>
       </c>
       <c r="F545">
@@ -16278,7 +16293,79 @@
         <v>0.14</v>
       </c>
       <c r="H545" t="s">
-        <v>570</v>
+        <v>573</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8">
+      <c r="A546" s="1">
+        <v>544</v>
+      </c>
+      <c r="B546" t="s">
+        <v>551</v>
+      </c>
+      <c r="C546">
+        <v>0</v>
+      </c>
+      <c r="D546">
+        <v>0</v>
+      </c>
+      <c r="E546">
+        <v>1</v>
+      </c>
+      <c r="F546">
+        <v>0.74</v>
+      </c>
+      <c r="G546">
+        <v>0.26</v>
+      </c>
+      <c r="H546" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8">
+      <c r="A547" s="1">
+        <v>545</v>
+      </c>
+      <c r="B547" t="s">
+        <v>552</v>
+      </c>
+      <c r="C547">
+        <v>1</v>
+      </c>
+      <c r="D547">
+        <v>0</v>
+      </c>
+      <c r="E547">
+        <v>0</v>
+      </c>
+      <c r="F547">
+        <v>0.98</v>
+      </c>
+      <c r="G547">
+        <v>0.02</v>
+      </c>
+      <c r="H547" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8">
+      <c r="A548" s="1">
+        <v>546</v>
+      </c>
+      <c r="B548" t="s">
+        <v>553</v>
+      </c>
+      <c r="D548">
+        <v>1</v>
+      </c>
+      <c r="F548">
+        <v>0.4</v>
+      </c>
+      <c r="G548">
+        <v>0.6</v>
+      </c>
+      <c r="H548" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyOOC.xlsx
+++ b/firebase_data_from_spyOOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="591">
   <si>
     <t>date</t>
   </si>
@@ -1688,6 +1688,15 @@
   </si>
   <si>
     <t>2025-08-25</t>
+  </si>
+  <si>
+    <t>2025-08-26</t>
+  </si>
+  <si>
+    <t>2025-08-27</t>
+  </si>
+  <si>
+    <t>2025-08-28</t>
   </si>
   <si>
     <t>96.00</t>
@@ -2135,7 +2144,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H552"/>
+  <dimension ref="A1:H555"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2187,7 +2196,7 @@
         <v>0.96</v>
       </c>
       <c r="H2" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2213,7 +2222,7 @@
         <v>0.98</v>
       </c>
       <c r="H3" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2239,7 +2248,7 @@
         <v>0.4</v>
       </c>
       <c r="H4" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2265,7 +2274,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H5" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2291,7 +2300,7 @@
         <v>0.22</v>
       </c>
       <c r="H6" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2317,7 +2326,7 @@
         <v>0.18</v>
       </c>
       <c r="H7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2343,7 +2352,7 @@
         <v>0.78</v>
       </c>
       <c r="H8" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2369,7 +2378,7 @@
         <v>0.36</v>
       </c>
       <c r="H9" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2395,7 +2404,7 @@
         <v>0.66</v>
       </c>
       <c r="H10" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2421,7 +2430,7 @@
         <v>0.32</v>
       </c>
       <c r="H11" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2447,7 +2456,7 @@
         <v>0.7</v>
       </c>
       <c r="H12" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2473,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2499,7 +2508,7 @@
         <v>0.92</v>
       </c>
       <c r="H14" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2525,7 +2534,7 @@
         <v>0.7</v>
       </c>
       <c r="H15" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2551,7 +2560,7 @@
         <v>0.3</v>
       </c>
       <c r="H16" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2577,7 +2586,7 @@
         <v>0.3</v>
       </c>
       <c r="H17" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2603,7 +2612,7 @@
         <v>0.02</v>
       </c>
       <c r="H18" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2629,7 +2638,7 @@
         <v>0.72</v>
       </c>
       <c r="H19" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2655,7 +2664,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2681,7 +2690,7 @@
         <v>0.98</v>
       </c>
       <c r="H21" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2707,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2733,7 +2742,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2759,7 +2768,7 @@
         <v>0.32</v>
       </c>
       <c r="H24" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2785,7 +2794,7 @@
         <v>0.26</v>
       </c>
       <c r="H25" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2811,7 +2820,7 @@
         <v>0.34</v>
       </c>
       <c r="H26" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2837,7 +2846,7 @@
         <v>0.04</v>
       </c>
       <c r="H27" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2863,7 +2872,7 @@
         <v>0.02</v>
       </c>
       <c r="H28" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2889,7 +2898,7 @@
         <v>0.84</v>
       </c>
       <c r="H29" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2915,7 +2924,7 @@
         <v>0.96</v>
       </c>
       <c r="H30" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2941,7 +2950,7 @@
         <v>0.8</v>
       </c>
       <c r="H31" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2967,7 +2976,7 @@
         <v>0.92</v>
       </c>
       <c r="H32" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2993,7 +3002,7 @@
         <v>0.98</v>
       </c>
       <c r="H33" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3019,7 +3028,7 @@
         <v>0.98</v>
       </c>
       <c r="H34" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3045,7 +3054,7 @@
         <v>0.46</v>
       </c>
       <c r="H35" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3071,7 +3080,7 @@
         <v>0.2</v>
       </c>
       <c r="H36" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3097,7 +3106,7 @@
         <v>0.3</v>
       </c>
       <c r="H37" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3123,7 +3132,7 @@
         <v>0.04</v>
       </c>
       <c r="H38" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3149,7 +3158,7 @@
         <v>0.68</v>
       </c>
       <c r="H39" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3175,7 +3184,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3201,7 +3210,7 @@
         <v>0.34</v>
       </c>
       <c r="H41" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3227,7 +3236,7 @@
         <v>0.34</v>
       </c>
       <c r="H42" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3253,7 +3262,7 @@
         <v>0.44</v>
       </c>
       <c r="H43" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3279,7 +3288,7 @@
         <v>0.36</v>
       </c>
       <c r="H44" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3305,7 +3314,7 @@
         <v>0.58</v>
       </c>
       <c r="H45" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3331,7 +3340,7 @@
         <v>0.72</v>
       </c>
       <c r="H46" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3357,7 +3366,7 @@
         <v>0.74</v>
       </c>
       <c r="H47" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3383,7 +3392,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H48" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3409,7 +3418,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H49" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3435,7 +3444,7 @@
         <v>0.96</v>
       </c>
       <c r="H50" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3461,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3487,7 +3496,7 @@
         <v>0.96</v>
       </c>
       <c r="H52" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3513,7 +3522,7 @@
         <v>0.74</v>
       </c>
       <c r="H53" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3539,7 +3548,7 @@
         <v>0.74</v>
       </c>
       <c r="H54" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3565,7 +3574,7 @@
         <v>0.14</v>
       </c>
       <c r="H55" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3591,7 +3600,7 @@
         <v>0.86</v>
       </c>
       <c r="H56" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3617,7 +3626,7 @@
         <v>0.12</v>
       </c>
       <c r="H57" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3643,7 +3652,7 @@
         <v>0.1</v>
       </c>
       <c r="H58" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3669,7 +3678,7 @@
         <v>0.84</v>
       </c>
       <c r="H59" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3695,7 +3704,7 @@
         <v>0.74</v>
       </c>
       <c r="H60" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3721,7 +3730,7 @@
         <v>0.76</v>
       </c>
       <c r="H61" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3747,7 +3756,7 @@
         <v>0.66</v>
       </c>
       <c r="H62" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3773,7 +3782,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H63" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3799,7 +3808,7 @@
         <v>0.74</v>
       </c>
       <c r="H64" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3825,7 +3834,7 @@
         <v>0.6</v>
       </c>
       <c r="H65" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3851,7 +3860,7 @@
         <v>0.2</v>
       </c>
       <c r="H66" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3877,7 +3886,7 @@
         <v>0.06</v>
       </c>
       <c r="H67" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3903,7 +3912,7 @@
         <v>0.98</v>
       </c>
       <c r="H68" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3929,7 +3938,7 @@
         <v>0.38</v>
       </c>
       <c r="H69" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3955,7 +3964,7 @@
         <v>0.02</v>
       </c>
       <c r="H70" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3981,7 +3990,7 @@
         <v>0.8</v>
       </c>
       <c r="H71" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4007,7 +4016,7 @@
         <v>0.7</v>
       </c>
       <c r="H72" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4033,7 +4042,7 @@
         <v>0.72</v>
       </c>
       <c r="H73" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4059,7 +4068,7 @@
         <v>0.2</v>
       </c>
       <c r="H74" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4085,7 +4094,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H75" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4111,7 +4120,7 @@
         <v>0.38</v>
       </c>
       <c r="H76" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4137,7 +4146,7 @@
         <v>0.08</v>
       </c>
       <c r="H77" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4163,7 +4172,7 @@
         <v>0.06</v>
       </c>
       <c r="H78" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4189,7 +4198,7 @@
         <v>0.96</v>
       </c>
       <c r="H79" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4215,7 +4224,7 @@
         <v>0.6</v>
       </c>
       <c r="H80" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4241,7 +4250,7 @@
         <v>0.92</v>
       </c>
       <c r="H81" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4267,7 +4276,7 @@
         <v>0.9</v>
       </c>
       <c r="H82" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4293,7 +4302,7 @@
         <v>0.08</v>
       </c>
       <c r="H83" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4319,7 +4328,7 @@
         <v>0.74</v>
       </c>
       <c r="H84" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4345,7 +4354,7 @@
         <v>0.28</v>
       </c>
       <c r="H85" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4371,7 +4380,7 @@
         <v>0.42</v>
       </c>
       <c r="H86" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4397,7 +4406,7 @@
         <v>0.9</v>
       </c>
       <c r="H87" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4423,7 +4432,7 @@
         <v>0.98</v>
       </c>
       <c r="H88" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4449,7 +4458,7 @@
         <v>0.74</v>
       </c>
       <c r="H89" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4475,7 +4484,7 @@
         <v>0.22</v>
       </c>
       <c r="H90" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4501,7 +4510,7 @@
         <v>0.74</v>
       </c>
       <c r="H91" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4527,7 +4536,7 @@
         <v>0.68</v>
       </c>
       <c r="H92" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4553,7 +4562,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4579,7 +4588,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H94" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4605,7 +4614,7 @@
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4631,7 +4640,7 @@
         <v>0.76</v>
       </c>
       <c r="H96" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4657,7 +4666,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H97" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4683,7 +4692,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4709,7 +4718,7 @@
         <v>0.96</v>
       </c>
       <c r="H99" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4735,7 +4744,7 @@
         <v>0.88</v>
       </c>
       <c r="H100" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4761,7 +4770,7 @@
         <v>0.82</v>
       </c>
       <c r="H101" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4787,7 +4796,7 @@
         <v>0.24</v>
       </c>
       <c r="H102" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4813,7 +4822,7 @@
         <v>0.7</v>
       </c>
       <c r="H103" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4839,7 +4848,7 @@
         <v>0.28</v>
       </c>
       <c r="H104" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4865,7 +4874,7 @@
         <v>0.3</v>
       </c>
       <c r="H105" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4891,7 +4900,7 @@
         <v>0.24</v>
       </c>
       <c r="H106" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4917,7 +4926,7 @@
         <v>0.86</v>
       </c>
       <c r="H107" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4943,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4969,7 +4978,7 @@
         <v>0.28</v>
       </c>
       <c r="H109" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4995,7 +5004,7 @@
         <v>0.98</v>
       </c>
       <c r="H110" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5021,7 +5030,7 @@
         <v>0.26</v>
       </c>
       <c r="H111" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5047,7 +5056,7 @@
         <v>0.44</v>
       </c>
       <c r="H112" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5073,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5099,7 +5108,7 @@
         <v>0.98</v>
       </c>
       <c r="H114" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5125,7 +5134,7 @@
         <v>0.04</v>
       </c>
       <c r="H115" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5151,7 +5160,7 @@
         <v>0.06</v>
       </c>
       <c r="H116" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5177,7 +5186,7 @@
         <v>0.22</v>
       </c>
       <c r="H117" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5203,7 +5212,7 @@
         <v>0.24</v>
       </c>
       <c r="H118" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5229,7 +5238,7 @@
         <v>0.3</v>
       </c>
       <c r="H119" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5255,7 +5264,7 @@
         <v>0.34</v>
       </c>
       <c r="H120" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5281,7 +5290,7 @@
         <v>0.32</v>
       </c>
       <c r="H121" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5307,7 +5316,7 @@
         <v>0.04</v>
       </c>
       <c r="H122" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5333,7 +5342,7 @@
         <v>0.06</v>
       </c>
       <c r="H123" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5359,7 +5368,7 @@
         <v>0.04</v>
       </c>
       <c r="H124" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5385,7 +5394,7 @@
         <v>0.96</v>
       </c>
       <c r="H125" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5411,7 +5420,7 @@
         <v>0.66</v>
       </c>
       <c r="H126" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5437,7 +5446,7 @@
         <v>0.04</v>
       </c>
       <c r="H127" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5463,7 +5472,7 @@
         <v>0.9</v>
       </c>
       <c r="H128" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5489,7 +5498,7 @@
         <v>0.84</v>
       </c>
       <c r="H129" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5515,7 +5524,7 @@
         <v>0.34</v>
       </c>
       <c r="H130" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5541,7 +5550,7 @@
         <v>0.64</v>
       </c>
       <c r="H131" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5567,7 +5576,7 @@
         <v>0.04</v>
       </c>
       <c r="H132" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5593,7 +5602,7 @@
         <v>0.86</v>
       </c>
       <c r="H133" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5619,7 +5628,7 @@
         <v>0.9</v>
       </c>
       <c r="H134" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5645,7 +5654,7 @@
         <v>0.52</v>
       </c>
       <c r="H135" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5671,7 +5680,7 @@
         <v>0.42</v>
       </c>
       <c r="H136" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5697,7 +5706,7 @@
         <v>0.76</v>
       </c>
       <c r="H137" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5723,7 +5732,7 @@
         <v>0.06</v>
       </c>
       <c r="H138" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5749,7 +5758,7 @@
         <v>0.98</v>
       </c>
       <c r="H139" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5775,7 +5784,7 @@
         <v>0.28</v>
       </c>
       <c r="H140" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5801,7 +5810,7 @@
         <v>0.16</v>
       </c>
       <c r="H141" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5827,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5853,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5879,7 +5888,7 @@
         <v>0.66</v>
       </c>
       <c r="H144" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5905,7 +5914,7 @@
         <v>0.42</v>
       </c>
       <c r="H145" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5931,7 +5940,7 @@
         <v>0.32</v>
       </c>
       <c r="H146" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5957,7 +5966,7 @@
         <v>0.34</v>
       </c>
       <c r="H147" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5983,7 +5992,7 @@
         <v>0.02</v>
       </c>
       <c r="H148" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6009,7 +6018,7 @@
         <v>0.16</v>
       </c>
       <c r="H149" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6035,7 +6044,7 @@
         <v>0.76</v>
       </c>
       <c r="H150" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6061,7 +6070,7 @@
         <v>0.24</v>
       </c>
       <c r="H151" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6087,7 +6096,7 @@
         <v>0.04</v>
       </c>
       <c r="H152" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6113,7 +6122,7 @@
         <v>0.3</v>
       </c>
       <c r="H153" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6139,7 +6148,7 @@
         <v>0.98</v>
       </c>
       <c r="H154" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6165,7 +6174,7 @@
         <v>0.76</v>
       </c>
       <c r="H155" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6191,7 +6200,7 @@
         <v>0.28</v>
       </c>
       <c r="H156" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6217,7 +6226,7 @@
         <v>0.84</v>
       </c>
       <c r="H157" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6243,7 +6252,7 @@
         <v>0.64</v>
       </c>
       <c r="H158" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6269,7 +6278,7 @@
         <v>0.32</v>
       </c>
       <c r="H159" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6295,7 +6304,7 @@
         <v>0.72</v>
       </c>
       <c r="H160" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6321,7 +6330,7 @@
         <v>0.3</v>
       </c>
       <c r="H161" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6347,7 +6356,7 @@
         <v>0.68</v>
       </c>
       <c r="H162" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6373,7 +6382,7 @@
         <v>0.32</v>
       </c>
       <c r="H163" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6399,7 +6408,7 @@
         <v>0.72</v>
       </c>
       <c r="H164" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6425,7 +6434,7 @@
         <v>0.36</v>
       </c>
       <c r="H165" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6451,7 +6460,7 @@
         <v>0.86</v>
       </c>
       <c r="H166" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6477,7 +6486,7 @@
         <v>0.58</v>
       </c>
       <c r="H167" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6503,7 +6512,7 @@
         <v>0.78</v>
       </c>
       <c r="H168" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6529,7 +6538,7 @@
         <v>0.98</v>
       </c>
       <c r="H169" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6555,7 +6564,7 @@
         <v>0.86</v>
       </c>
       <c r="H170" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6581,7 +6590,7 @@
         <v>0.08</v>
       </c>
       <c r="H171" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6607,7 +6616,7 @@
         <v>0.88</v>
       </c>
       <c r="H172" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6633,7 +6642,7 @@
         <v>0.68</v>
       </c>
       <c r="H173" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6659,7 +6668,7 @@
         <v>0.74</v>
       </c>
       <c r="H174" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6685,7 +6694,7 @@
         <v>0.58</v>
       </c>
       <c r="H175" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6711,7 +6720,7 @@
         <v>0.22</v>
       </c>
       <c r="H176" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6737,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6763,7 +6772,7 @@
         <v>0.64</v>
       </c>
       <c r="H178" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6789,7 +6798,7 @@
         <v>0.26</v>
       </c>
       <c r="H179" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6815,7 +6824,7 @@
         <v>0.6</v>
       </c>
       <c r="H180" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6841,7 +6850,7 @@
         <v>0.98</v>
       </c>
       <c r="H181" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6867,7 +6876,7 @@
         <v>0.3517053405853769</v>
       </c>
       <c r="H182" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6893,7 +6902,7 @@
         <v>0.84</v>
       </c>
       <c r="H183" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6919,7 +6928,7 @@
         <v>0.48</v>
       </c>
       <c r="H184" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6945,7 +6954,7 @@
         <v>0.08</v>
       </c>
       <c r="H185" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6971,7 +6980,7 @@
         <v>0.6</v>
       </c>
       <c r="H186" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6997,7 +7006,7 @@
         <v>0.9</v>
       </c>
       <c r="H187" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7023,7 +7032,7 @@
         <v>0.8</v>
       </c>
       <c r="H188" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7049,7 +7058,7 @@
         <v>0.34</v>
       </c>
       <c r="H189" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7075,7 +7084,7 @@
         <v>0.16</v>
       </c>
       <c r="H190" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7101,7 +7110,7 @@
         <v>0.1</v>
       </c>
       <c r="H191" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7127,7 +7136,7 @@
         <v>0.7</v>
       </c>
       <c r="H192" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7153,7 +7162,7 @@
         <v>0.72</v>
       </c>
       <c r="H193" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7179,7 +7188,7 @@
         <v>0.04</v>
       </c>
       <c r="H194" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7205,7 +7214,7 @@
         <v>0.008304498269896196</v>
       </c>
       <c r="H195" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7231,7 +7240,7 @@
         <v>0.26</v>
       </c>
       <c r="H196" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7257,7 +7266,7 @@
         <v>0.4</v>
       </c>
       <c r="H197" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7283,7 +7292,7 @@
         <v>0.64</v>
       </c>
       <c r="H198" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7309,7 +7318,7 @@
         <v>0.24</v>
       </c>
       <c r="H199" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7335,7 +7344,7 @@
         <v>0.4</v>
       </c>
       <c r="H200" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7361,7 +7370,7 @@
         <v>0.32</v>
       </c>
       <c r="H201" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7387,7 +7396,7 @@
         <v>0.38</v>
       </c>
       <c r="H202" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7413,7 +7422,7 @@
         <v>0.72</v>
       </c>
       <c r="H203" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7439,7 +7448,7 @@
         <v>0.68</v>
       </c>
       <c r="H204" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7465,7 +7474,7 @@
         <v>0.32</v>
       </c>
       <c r="H205" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7491,7 +7500,7 @@
         <v>0.32</v>
       </c>
       <c r="H206" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7517,7 +7526,7 @@
         <v>0.2</v>
       </c>
       <c r="H207" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7543,7 +7552,7 @@
         <v>0.3</v>
       </c>
       <c r="H208" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7569,7 +7578,7 @@
         <v>0.78</v>
       </c>
       <c r="H209" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7595,7 +7604,7 @@
         <v>0.26</v>
       </c>
       <c r="H210" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7621,7 +7630,7 @@
         <v>0.32</v>
       </c>
       <c r="H211" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7647,7 +7656,7 @@
         <v>0.3</v>
       </c>
       <c r="H212" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7673,7 +7682,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H213" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7699,7 +7708,7 @@
         <v>0.88</v>
       </c>
       <c r="H214" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7725,7 +7734,7 @@
         <v>0.74</v>
       </c>
       <c r="H215" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7751,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7777,7 +7786,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7803,7 +7812,7 @@
         <v>0.2</v>
       </c>
       <c r="H218" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7829,7 +7838,7 @@
         <v>0.22</v>
       </c>
       <c r="H219" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7855,7 +7864,7 @@
         <v>0.78</v>
       </c>
       <c r="H220" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7881,7 +7890,7 @@
         <v>0.98</v>
       </c>
       <c r="H221" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7907,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7933,7 +7942,7 @@
         <v>0.4381603474151185</v>
       </c>
       <c r="H223" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7959,7 +7968,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H224" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7985,7 +7994,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H225" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8011,7 +8020,7 @@
         <v>0.58</v>
       </c>
       <c r="H226" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8037,7 +8046,7 @@
         <v>0.14</v>
       </c>
       <c r="H227" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8063,7 +8072,7 @@
         <v>0.18</v>
       </c>
       <c r="H228" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8089,7 +8098,7 @@
         <v>0.02</v>
       </c>
       <c r="H229" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8115,7 +8124,7 @@
         <v>0.02</v>
       </c>
       <c r="H230" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8141,7 +8150,7 @@
         <v>0.98</v>
       </c>
       <c r="H231" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8167,7 +8176,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8193,7 +8202,7 @@
         <v>0.04</v>
       </c>
       <c r="H233" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8219,7 +8228,7 @@
         <v>0.88</v>
       </c>
       <c r="H234" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8245,7 +8254,7 @@
         <v>0.62</v>
       </c>
       <c r="H235" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8271,7 +8280,7 @@
         <v>0.14</v>
       </c>
       <c r="H236" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8297,7 +8306,7 @@
         <v>0.66</v>
       </c>
       <c r="H237" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8323,7 +8332,7 @@
         <v>0.92</v>
       </c>
       <c r="H238" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8349,7 +8358,7 @@
         <v>0.38</v>
       </c>
       <c r="H239" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8375,7 +8384,7 @@
         <v>0.4</v>
       </c>
       <c r="H240" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8401,7 +8410,7 @@
         <v>0.1</v>
       </c>
       <c r="H241" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8427,7 +8436,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8453,7 +8462,7 @@
         <v>0.04</v>
       </c>
       <c r="H243" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8479,7 +8488,7 @@
         <v>0.96</v>
       </c>
       <c r="H244" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8505,7 +8514,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8531,7 +8540,7 @@
         <v>0.28</v>
       </c>
       <c r="H246" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8557,7 +8566,7 @@
         <v>0.96</v>
       </c>
       <c r="H247" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8583,7 +8592,7 @@
         <v>0.04</v>
       </c>
       <c r="H248" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8609,7 +8618,7 @@
         <v>0.4</v>
       </c>
       <c r="H249" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8635,7 +8644,7 @@
         <v>0.78</v>
       </c>
       <c r="H250" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8661,7 +8670,7 @@
         <v>0.62</v>
       </c>
       <c r="H251" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8687,7 +8696,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8713,7 +8722,7 @@
         <v>0.46</v>
       </c>
       <c r="H253" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8739,7 +8748,7 @@
         <v>0.4</v>
       </c>
       <c r="H254" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8765,7 +8774,7 @@
         <v>0.14</v>
       </c>
       <c r="H255" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8791,7 +8800,7 @@
         <v>0.72</v>
       </c>
       <c r="H256" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8817,7 +8826,7 @@
         <v>0.8</v>
       </c>
       <c r="H257" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8843,7 +8852,7 @@
         <v>0.88</v>
       </c>
       <c r="H258" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8869,7 +8878,7 @@
         <v>0.02</v>
       </c>
       <c r="H259" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8895,7 +8904,7 @@
         <v>0.26</v>
       </c>
       <c r="H260" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8921,7 +8930,7 @@
         <v>0.4</v>
       </c>
       <c r="H261" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8947,7 +8956,7 @@
         <v>0.74</v>
       </c>
       <c r="H262" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8973,7 +8982,7 @@
         <v>0.08</v>
       </c>
       <c r="H263" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8999,7 +9008,7 @@
         <v>0.96</v>
       </c>
       <c r="H264" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9025,7 +9034,7 @@
         <v>0.96</v>
       </c>
       <c r="H265" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9051,7 +9060,7 @@
         <v>0.4</v>
       </c>
       <c r="H266" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9077,7 +9086,7 @@
         <v>0.28</v>
       </c>
       <c r="H267" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9103,7 +9112,7 @@
         <v>0.12</v>
       </c>
       <c r="H268" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9129,7 +9138,7 @@
         <v>0.28</v>
       </c>
       <c r="H269" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9155,7 +9164,7 @@
         <v>0.22</v>
       </c>
       <c r="H270" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9181,7 +9190,7 @@
         <v>0.68</v>
       </c>
       <c r="H271" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9207,7 +9216,7 @@
         <v>0.72</v>
       </c>
       <c r="H272" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9233,7 +9242,7 @@
         <v>0.38</v>
       </c>
       <c r="H273" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9259,7 +9268,7 @@
         <v>0.18</v>
       </c>
       <c r="H274" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9285,7 +9294,7 @@
         <v>0.62</v>
       </c>
       <c r="H275" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9311,7 +9320,7 @@
         <v>0.58</v>
       </c>
       <c r="H276" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9337,7 +9346,7 @@
         <v>0.74</v>
       </c>
       <c r="H277" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9363,7 +9372,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H278" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9389,7 +9398,7 @@
         <v>0.2</v>
       </c>
       <c r="H279" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9415,7 +9424,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9441,7 +9450,7 @@
         <v>0.46</v>
       </c>
       <c r="H281" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9467,7 +9476,7 @@
         <v>0.16</v>
       </c>
       <c r="H282" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9493,7 +9502,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9519,7 +9528,7 @@
         <v>0.54</v>
       </c>
       <c r="H284" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9545,7 +9554,7 @@
         <v>0.98</v>
       </c>
       <c r="H285" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9571,7 +9580,7 @@
         <v>0.22</v>
       </c>
       <c r="H286" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9597,7 +9606,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9623,7 +9632,7 @@
         <v>0.76</v>
       </c>
       <c r="H288" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9649,7 +9658,7 @@
         <v>1</v>
       </c>
       <c r="H289" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9675,7 +9684,7 @@
         <v>0.72</v>
       </c>
       <c r="H290" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9701,7 +9710,7 @@
         <v>0.66</v>
       </c>
       <c r="H291" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9727,7 +9736,7 @@
         <v>0.62</v>
       </c>
       <c r="H292" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9753,7 +9762,7 @@
         <v>1</v>
       </c>
       <c r="H293" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9779,7 +9788,7 @@
         <v>0.36</v>
       </c>
       <c r="H294" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9805,7 +9814,7 @@
         <v>0.36</v>
       </c>
       <c r="H295" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9831,7 +9840,7 @@
         <v>0.96</v>
       </c>
       <c r="H296" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9857,7 +9866,7 @@
         <v>0.92</v>
       </c>
       <c r="H297" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9883,7 +9892,7 @@
         <v>0.04</v>
       </c>
       <c r="H298" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9909,7 +9918,7 @@
         <v>0.9</v>
       </c>
       <c r="H299" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9935,7 +9944,7 @@
         <v>0.28</v>
       </c>
       <c r="H300" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9961,7 +9970,7 @@
         <v>0.62</v>
       </c>
       <c r="H301" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9987,7 +9996,7 @@
         <v>0.9</v>
       </c>
       <c r="H302" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10013,7 +10022,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10039,7 +10048,7 @@
         <v>0.38</v>
       </c>
       <c r="H304" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10065,7 +10074,7 @@
         <v>0.4</v>
       </c>
       <c r="H305" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10091,7 +10100,7 @@
         <v>0.06</v>
       </c>
       <c r="H306" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10117,7 +10126,7 @@
         <v>0.68</v>
       </c>
       <c r="H307" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10143,7 +10152,7 @@
         <v>0.78</v>
       </c>
       <c r="H308" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10169,7 +10178,7 @@
         <v>0.06</v>
       </c>
       <c r="H309" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10195,7 +10204,7 @@
         <v>0.5</v>
       </c>
       <c r="H310" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10221,7 +10230,7 @@
         <v>0.16</v>
       </c>
       <c r="H311" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10247,7 +10256,7 @@
         <v>0.18</v>
       </c>
       <c r="H312" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10273,7 +10282,7 @@
         <v>0.96</v>
       </c>
       <c r="H313" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10299,7 +10308,7 @@
         <v>0.86</v>
       </c>
       <c r="H314" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10325,7 +10334,7 @@
         <v>0.96</v>
       </c>
       <c r="H315" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10351,7 +10360,7 @@
         <v>1</v>
       </c>
       <c r="H316" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10377,7 +10386,7 @@
         <v>0.8</v>
       </c>
       <c r="H317" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10403,7 +10412,7 @@
         <v>0.98</v>
       </c>
       <c r="H318" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10429,7 +10438,7 @@
         <v>0.34</v>
       </c>
       <c r="H319" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10455,7 +10464,7 @@
         <v>0.16</v>
       </c>
       <c r="H320" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10481,7 +10490,7 @@
         <v>0.88</v>
       </c>
       <c r="H321" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10507,7 +10516,7 @@
         <v>0.7</v>
       </c>
       <c r="H322" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10533,7 +10542,7 @@
         <v>0.68</v>
       </c>
       <c r="H323" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10559,7 +10568,7 @@
         <v>0.36</v>
       </c>
       <c r="H324" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10585,7 +10594,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10611,7 +10620,7 @@
         <v>0.9</v>
       </c>
       <c r="H326" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10637,7 +10646,7 @@
         <v>0.22</v>
       </c>
       <c r="H327" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10663,7 +10672,7 @@
         <v>0.42</v>
       </c>
       <c r="H328" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10689,7 +10698,7 @@
         <v>0.2</v>
       </c>
       <c r="H329" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10715,7 +10724,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10741,7 +10750,7 @@
         <v>0.6</v>
       </c>
       <c r="H331" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10767,7 +10776,7 @@
         <v>0.88</v>
       </c>
       <c r="H332" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10793,7 +10802,7 @@
         <v>0.06</v>
       </c>
       <c r="H333" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10819,7 +10828,7 @@
         <v>0.82</v>
       </c>
       <c r="H334" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10845,7 +10854,7 @@
         <v>1</v>
       </c>
       <c r="H335" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10871,7 +10880,7 @@
         <v>0.06</v>
       </c>
       <c r="H336" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10897,7 +10906,7 @@
         <v>0.28</v>
       </c>
       <c r="H337" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10923,7 +10932,7 @@
         <v>0.58</v>
       </c>
       <c r="H338" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10949,7 +10958,7 @@
         <v>0.36</v>
       </c>
       <c r="H339" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10975,7 +10984,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11001,7 +11010,7 @@
         <v>0.34</v>
       </c>
       <c r="H341" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11027,7 +11036,7 @@
         <v>0.9</v>
       </c>
       <c r="H342" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11053,7 +11062,7 @@
         <v>0.8</v>
       </c>
       <c r="H343" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11079,7 +11088,7 @@
         <v>0.4</v>
       </c>
       <c r="H344" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11105,7 +11114,7 @@
         <v>0.22</v>
       </c>
       <c r="H345" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11131,7 +11140,7 @@
         <v>0.7</v>
       </c>
       <c r="H346" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11157,7 +11166,7 @@
         <v>0.76</v>
       </c>
       <c r="H347" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11183,7 +11192,7 @@
         <v>0.96</v>
       </c>
       <c r="H348" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11209,7 +11218,7 @@
         <v>0.38</v>
       </c>
       <c r="H349" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11235,7 +11244,7 @@
         <v>0.7</v>
       </c>
       <c r="H350" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11261,7 +11270,7 @@
         <v>0.92</v>
       </c>
       <c r="H351" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11287,7 +11296,7 @@
         <v>0.22</v>
       </c>
       <c r="H352" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11313,7 +11322,7 @@
         <v>1</v>
       </c>
       <c r="H353" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11339,7 +11348,7 @@
         <v>0.36</v>
       </c>
       <c r="H354" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11365,7 +11374,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11391,7 +11400,7 @@
         <v>0.7</v>
       </c>
       <c r="H356" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11417,7 +11426,7 @@
         <v>0.38</v>
       </c>
       <c r="H357" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11443,7 +11452,7 @@
         <v>0.02</v>
       </c>
       <c r="H358" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11469,7 +11478,7 @@
         <v>0.66</v>
       </c>
       <c r="H359" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11495,7 +11504,7 @@
         <v>0.14</v>
       </c>
       <c r="H360" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11521,7 +11530,7 @@
         <v>0.96</v>
       </c>
       <c r="H361" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11547,7 +11556,7 @@
         <v>0.96</v>
       </c>
       <c r="H362" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11573,7 +11582,7 @@
         <v>0.16</v>
       </c>
       <c r="H363" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11599,7 +11608,7 @@
         <v>0.26</v>
       </c>
       <c r="H364" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11625,7 +11634,7 @@
         <v>0.22</v>
       </c>
       <c r="H365" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11651,7 +11660,7 @@
         <v>0.96</v>
       </c>
       <c r="H366" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11677,7 +11686,7 @@
         <v>0.12</v>
       </c>
       <c r="H367" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11703,7 +11712,7 @@
         <v>0.84</v>
       </c>
       <c r="H368" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11729,7 +11738,7 @@
         <v>0.86</v>
       </c>
       <c r="H369" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11755,7 +11764,7 @@
         <v>0.88</v>
       </c>
       <c r="H370" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11781,7 +11790,7 @@
         <v>0.84</v>
       </c>
       <c r="H371" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11807,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11833,7 +11842,7 @@
         <v>0.72</v>
       </c>
       <c r="H373" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11859,7 +11868,7 @@
         <v>0.8</v>
       </c>
       <c r="H374" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11885,7 +11894,7 @@
         <v>0.7</v>
       </c>
       <c r="H375" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11911,7 +11920,7 @@
         <v>0.7</v>
       </c>
       <c r="H376" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11937,7 +11946,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11963,7 +11972,7 @@
         <v>0.1</v>
       </c>
       <c r="H378" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11989,7 +11998,7 @@
         <v>0.16</v>
       </c>
       <c r="H379" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12015,7 +12024,7 @@
         <v>0.04</v>
       </c>
       <c r="H380" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12041,7 +12050,7 @@
         <v>0.14</v>
       </c>
       <c r="H381" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12067,7 +12076,7 @@
         <v>0.12</v>
       </c>
       <c r="H382" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12093,7 +12102,7 @@
         <v>0.04</v>
       </c>
       <c r="H383" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12119,7 +12128,7 @@
         <v>0.9</v>
       </c>
       <c r="H384" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12145,7 +12154,7 @@
         <v>0.14</v>
       </c>
       <c r="H385" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12171,7 +12180,7 @@
         <v>0.76</v>
       </c>
       <c r="H386" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12197,7 +12206,7 @@
         <v>0.66</v>
       </c>
       <c r="H387" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12223,7 +12232,7 @@
         <v>0.68</v>
       </c>
       <c r="H388" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12249,7 +12258,7 @@
         <v>0.76</v>
       </c>
       <c r="H389" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12275,7 +12284,7 @@
         <v>1</v>
       </c>
       <c r="H390" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12301,7 +12310,7 @@
         <v>0.06</v>
       </c>
       <c r="H391" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12327,7 +12336,7 @@
         <v>0.76</v>
       </c>
       <c r="H392" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12353,7 +12362,7 @@
         <v>0.06</v>
       </c>
       <c r="H393" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12379,7 +12388,7 @@
         <v>0.3</v>
       </c>
       <c r="H394" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12405,7 +12414,7 @@
         <v>0.3</v>
       </c>
       <c r="H395" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12431,7 +12440,7 @@
         <v>0.74</v>
       </c>
       <c r="H396" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12457,7 +12466,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12483,7 +12492,7 @@
         <v>0.14</v>
       </c>
       <c r="H398" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12509,7 +12518,7 @@
         <v>0.74</v>
       </c>
       <c r="H399" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12535,7 +12544,7 @@
         <v>0.8</v>
       </c>
       <c r="H400" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12561,7 +12570,7 @@
         <v>0.74</v>
       </c>
       <c r="H401" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12587,7 +12596,7 @@
         <v>0.84</v>
       </c>
       <c r="H402" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12613,7 +12622,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12639,7 +12648,7 @@
         <v>0.26</v>
       </c>
       <c r="H404" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12665,7 +12674,7 @@
         <v>0.16</v>
       </c>
       <c r="H405" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12691,7 +12700,7 @@
         <v>0.84</v>
       </c>
       <c r="H406" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12717,7 +12726,7 @@
         <v>0.76</v>
       </c>
       <c r="H407" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12743,7 +12752,7 @@
         <v>0.18</v>
       </c>
       <c r="H408" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12769,7 +12778,7 @@
         <v>0.98</v>
       </c>
       <c r="H409" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12795,7 +12804,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12821,7 +12830,7 @@
         <v>0.98</v>
       </c>
       <c r="H411" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12847,7 +12856,7 @@
         <v>0.98</v>
       </c>
       <c r="H412" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12873,7 +12882,7 @@
         <v>1</v>
       </c>
       <c r="H413" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12899,7 +12908,7 @@
         <v>0.84</v>
       </c>
       <c r="H414" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12925,7 +12934,7 @@
         <v>0.78</v>
       </c>
       <c r="H415" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12951,7 +12960,7 @@
         <v>0.68</v>
       </c>
       <c r="H416" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12977,7 +12986,7 @@
         <v>0.66</v>
       </c>
       <c r="H417" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13003,7 +13012,7 @@
         <v>0.88</v>
       </c>
       <c r="H418" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13029,7 +13038,7 @@
         <v>0.82</v>
       </c>
       <c r="H419" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13055,7 +13064,7 @@
         <v>0.96</v>
       </c>
       <c r="H420" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13081,7 +13090,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13107,7 +13116,7 @@
         <v>0.38</v>
       </c>
       <c r="H422" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13133,7 +13142,7 @@
         <v>0.7</v>
       </c>
       <c r="H423" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13159,7 +13168,7 @@
         <v>0.14</v>
       </c>
       <c r="H424" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13185,7 +13194,7 @@
         <v>0.3</v>
       </c>
       <c r="H425" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13211,7 +13220,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13237,7 +13246,7 @@
         <v>0.36</v>
       </c>
       <c r="H427" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13263,7 +13272,7 @@
         <v>0.64</v>
       </c>
       <c r="H428" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13289,7 +13298,7 @@
         <v>0.24</v>
       </c>
       <c r="H429" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13315,7 +13324,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13341,7 +13350,7 @@
         <v>0.96</v>
       </c>
       <c r="H431" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13367,7 +13376,7 @@
         <v>0.36</v>
       </c>
       <c r="H432" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13393,7 +13402,7 @@
         <v>0.54</v>
       </c>
       <c r="H433" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13419,7 +13428,7 @@
         <v>0.7</v>
       </c>
       <c r="H434" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13445,7 +13454,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H435" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13471,7 +13480,7 @@
         <v>0.08</v>
       </c>
       <c r="H436" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13497,7 +13506,7 @@
         <v>0.4</v>
       </c>
       <c r="H437" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13523,7 +13532,7 @@
         <v>0.34</v>
       </c>
       <c r="H438" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13549,7 +13558,7 @@
         <v>0.04</v>
       </c>
       <c r="H439" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13575,7 +13584,7 @@
         <v>0.34</v>
       </c>
       <c r="H440" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13601,7 +13610,7 @@
         <v>0.36</v>
       </c>
       <c r="H441" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13627,7 +13636,7 @@
         <v>0.68</v>
       </c>
       <c r="H442" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13653,7 +13662,7 @@
         <v>0.38</v>
       </c>
       <c r="H443" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13679,7 +13688,7 @@
         <v>0.64</v>
       </c>
       <c r="H444" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13705,7 +13714,7 @@
         <v>0.86</v>
       </c>
       <c r="H445" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13731,7 +13740,7 @@
         <v>0.64</v>
       </c>
       <c r="H446" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13757,7 +13766,7 @@
         <v>0.88</v>
       </c>
       <c r="H447" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13783,7 +13792,7 @@
         <v>0.96</v>
       </c>
       <c r="H448" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13809,7 +13818,7 @@
         <v>0.1</v>
       </c>
       <c r="H449" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13835,7 +13844,7 @@
         <v>0.12</v>
       </c>
       <c r="H450" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13861,7 +13870,7 @@
         <v>0.92</v>
       </c>
       <c r="H451" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13887,7 +13896,7 @@
         <v>0.98</v>
       </c>
       <c r="H452" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13913,7 +13922,7 @@
         <v>0.92</v>
       </c>
       <c r="H453" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13939,7 +13948,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13965,7 +13974,7 @@
         <v>0.74</v>
       </c>
       <c r="H455" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13991,7 +14000,7 @@
         <v>0.84</v>
       </c>
       <c r="H456" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14017,7 +14026,7 @@
         <v>0.18</v>
       </c>
       <c r="H457" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14043,7 +14052,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H458" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14069,7 +14078,7 @@
         <v>0.12</v>
       </c>
       <c r="H459" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14095,7 +14104,7 @@
         <v>1</v>
       </c>
       <c r="H460" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14121,7 +14130,7 @@
         <v>0.96</v>
       </c>
       <c r="H461" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14147,7 +14156,7 @@
         <v>0.9</v>
       </c>
       <c r="H462" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14173,7 +14182,7 @@
         <v>0.62</v>
       </c>
       <c r="H463" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14199,7 +14208,7 @@
         <v>0.16</v>
       </c>
       <c r="H464" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14225,7 +14234,7 @@
         <v>0.4</v>
       </c>
       <c r="H465" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14251,7 +14260,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14277,7 +14286,7 @@
         <v>0.84</v>
       </c>
       <c r="H467" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14303,7 +14312,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H468" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14329,7 +14338,7 @@
         <v>0.9</v>
       </c>
       <c r="H469" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14355,7 +14364,7 @@
         <v>0.24</v>
       </c>
       <c r="H470" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14381,7 +14390,7 @@
         <v>0.26</v>
       </c>
       <c r="H471" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14407,7 +14416,7 @@
         <v>0.74</v>
       </c>
       <c r="H472" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14433,7 +14442,7 @@
         <v>0.4</v>
       </c>
       <c r="H473" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14459,7 +14468,7 @@
         <v>1</v>
       </c>
       <c r="H474" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14485,7 +14494,7 @@
         <v>0.86</v>
       </c>
       <c r="H475" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14511,7 +14520,7 @@
         <v>0.7491891891891892</v>
       </c>
       <c r="H476" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14537,7 +14546,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H477" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14563,7 +14572,7 @@
         <v>0.02</v>
       </c>
       <c r="H478" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14589,7 +14598,7 @@
         <v>0.66</v>
       </c>
       <c r="H479" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14615,7 +14624,7 @@
         <v>0.26</v>
       </c>
       <c r="H480" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14641,7 +14650,7 @@
         <v>0.76</v>
       </c>
       <c r="H481" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14667,7 +14676,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14693,7 +14702,7 @@
         <v>0.76</v>
       </c>
       <c r="H483" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14719,7 +14728,7 @@
         <v>0.08</v>
       </c>
       <c r="H484" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14745,7 +14754,7 @@
         <v>0.96</v>
       </c>
       <c r="H485" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14771,7 +14780,7 @@
         <v>0.98</v>
       </c>
       <c r="H486" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14797,7 +14806,7 @@
         <v>0.36</v>
       </c>
       <c r="H487" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14823,7 +14832,7 @@
         <v>0.2</v>
       </c>
       <c r="H488" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14849,7 +14858,7 @@
         <v>0.12</v>
       </c>
       <c r="H489" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14875,7 +14884,7 @@
         <v>0.9</v>
       </c>
       <c r="H490" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14901,7 +14910,7 @@
         <v>0.24</v>
       </c>
       <c r="H491" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14927,7 +14936,7 @@
         <v>0.9</v>
       </c>
       <c r="H492" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14953,7 +14962,7 @@
         <v>0.7</v>
       </c>
       <c r="H493" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14979,7 +14988,7 @@
         <v>0.68</v>
       </c>
       <c r="H494" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15005,7 +15014,7 @@
         <v>0.12</v>
       </c>
       <c r="H495" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15031,7 +15040,7 @@
         <v>0.68</v>
       </c>
       <c r="H496" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15057,7 +15066,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15083,7 +15092,7 @@
         <v>0.68</v>
       </c>
       <c r="H498" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15109,7 +15118,7 @@
         <v>0.96</v>
       </c>
       <c r="H499" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15135,7 +15144,7 @@
         <v>0.18</v>
       </c>
       <c r="H500" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15161,7 +15170,7 @@
         <v>0.88</v>
       </c>
       <c r="H501" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15187,7 +15196,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15213,7 +15222,7 @@
         <v>0.04</v>
       </c>
       <c r="H503" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15239,7 +15248,7 @@
         <v>0.08</v>
       </c>
       <c r="H504" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15265,7 +15274,7 @@
         <v>0.22</v>
       </c>
       <c r="H505" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15291,7 +15300,7 @@
         <v>0.24</v>
       </c>
       <c r="H506" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15317,7 +15326,7 @@
         <v>0.62</v>
       </c>
       <c r="H507" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15343,7 +15352,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H508" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15369,7 +15378,7 @@
         <v>0.62</v>
       </c>
       <c r="H509" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15395,7 +15404,7 @@
         <v>0.36</v>
       </c>
       <c r="H510" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15421,7 +15430,7 @@
         <v>0.54</v>
       </c>
       <c r="H511" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15447,7 +15456,7 @@
         <v>0.76</v>
       </c>
       <c r="H512" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15473,7 +15482,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15499,7 +15508,7 @@
         <v>0.28</v>
       </c>
       <c r="H514" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15525,7 +15534,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15551,7 +15560,7 @@
         <v>0.38</v>
       </c>
       <c r="H516" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15577,7 +15586,7 @@
         <v>0.3</v>
       </c>
       <c r="H517" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15603,7 +15612,7 @@
         <v>0.36</v>
       </c>
       <c r="H518" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15629,7 +15638,7 @@
         <v>0.8</v>
       </c>
       <c r="H519" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15655,7 +15664,7 @@
         <v>0.22</v>
       </c>
       <c r="H520" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15681,7 +15690,7 @@
         <v>0.32</v>
       </c>
       <c r="H521" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15707,7 +15716,7 @@
         <v>0.32</v>
       </c>
       <c r="H522" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15733,7 +15742,7 @@
         <v>0.52</v>
       </c>
       <c r="H523" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15759,7 +15768,7 @@
         <v>0.92</v>
       </c>
       <c r="H524" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15785,7 +15794,7 @@
         <v>0.96</v>
       </c>
       <c r="H525" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15811,7 +15820,7 @@
         <v>0.16</v>
       </c>
       <c r="H526" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15837,7 +15846,7 @@
         <v>0.66</v>
       </c>
       <c r="H527" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15863,7 +15872,7 @@
         <v>0.04</v>
       </c>
       <c r="H528" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15889,7 +15898,7 @@
         <v>0.02</v>
       </c>
       <c r="H529" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15915,7 +15924,7 @@
         <v>0.36</v>
       </c>
       <c r="H530" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15941,7 +15950,7 @@
         <v>0.14</v>
       </c>
       <c r="H531" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15967,7 +15976,7 @@
         <v>0.64</v>
       </c>
       <c r="H532" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -15993,7 +16002,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16019,7 +16028,7 @@
         <v>0.08</v>
       </c>
       <c r="H534" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16045,7 +16054,7 @@
         <v>0.06</v>
       </c>
       <c r="H535" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16071,7 +16080,7 @@
         <v>0.34</v>
       </c>
       <c r="H536" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16097,7 +16106,7 @@
         <v>0.28</v>
       </c>
       <c r="H537" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16123,7 +16132,7 @@
         <v>0.92</v>
       </c>
       <c r="H538" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16149,7 +16158,7 @@
         <v>0.08</v>
       </c>
       <c r="H539" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16175,7 +16184,7 @@
         <v>0.64</v>
       </c>
       <c r="H540" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16201,7 +16210,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16227,7 +16236,7 @@
         <v>0.18</v>
       </c>
       <c r="H542" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16253,7 +16262,7 @@
         <v>0.16</v>
       </c>
       <c r="H543" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16279,7 +16288,7 @@
         <v>0.98</v>
       </c>
       <c r="H544" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16305,7 +16314,7 @@
         <v>0.14</v>
       </c>
       <c r="H545" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16331,7 +16340,7 @@
         <v>0.26</v>
       </c>
       <c r="H546" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16357,7 +16366,7 @@
         <v>0.02</v>
       </c>
       <c r="H547" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16383,7 +16392,7 @@
         <v>0.6</v>
       </c>
       <c r="H548" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16409,7 +16418,7 @@
         <v>1</v>
       </c>
       <c r="H549" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16435,7 +16444,7 @@
         <v>0.96</v>
       </c>
       <c r="H550" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16461,7 +16470,7 @@
         <v>0.32</v>
       </c>
       <c r="H551" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16471,8 +16480,14 @@
       <c r="B552" t="s">
         <v>557</v>
       </c>
+      <c r="C552">
+        <v>0</v>
+      </c>
       <c r="D552">
         <v>0</v>
+      </c>
+      <c r="E552">
+        <v>1</v>
       </c>
       <c r="F552">
         <v>0.78</v>
@@ -16481,7 +16496,79 @@
         <v>0.22</v>
       </c>
       <c r="H552" t="s">
-        <v>562</v>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8">
+      <c r="A553" s="1">
+        <v>551</v>
+      </c>
+      <c r="B553" t="s">
+        <v>558</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+      <c r="D553">
+        <v>1</v>
+      </c>
+      <c r="E553">
+        <v>1</v>
+      </c>
+      <c r="F553">
+        <v>0.4</v>
+      </c>
+      <c r="G553">
+        <v>0.6</v>
+      </c>
+      <c r="H553" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8">
+      <c r="A554" s="1">
+        <v>552</v>
+      </c>
+      <c r="B554" t="s">
+        <v>559</v>
+      </c>
+      <c r="C554">
+        <v>1</v>
+      </c>
+      <c r="D554">
+        <v>1</v>
+      </c>
+      <c r="E554">
+        <v>1</v>
+      </c>
+      <c r="F554">
+        <v>0.04</v>
+      </c>
+      <c r="G554">
+        <v>0.96</v>
+      </c>
+      <c r="H554" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8">
+      <c r="A555" s="1">
+        <v>553</v>
+      </c>
+      <c r="B555" t="s">
+        <v>560</v>
+      </c>
+      <c r="D555">
+        <v>1</v>
+      </c>
+      <c r="F555">
+        <v>0</v>
+      </c>
+      <c r="G555">
+        <v>1</v>
+      </c>
+      <c r="H555" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyOOC.xlsx
+++ b/firebase_data_from_spyOOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="592">
   <si>
     <t>date</t>
   </si>
@@ -1697,6 +1697,9 @@
   </si>
   <si>
     <t>2025-08-28</t>
+  </si>
+  <si>
+    <t>2025-08-29</t>
   </si>
   <si>
     <t>96.00</t>
@@ -2144,7 +2147,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H555"/>
+  <dimension ref="A1:H556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2196,7 +2199,7 @@
         <v>0.96</v>
       </c>
       <c r="H2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2222,7 +2225,7 @@
         <v>0.98</v>
       </c>
       <c r="H3" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2248,7 +2251,7 @@
         <v>0.4</v>
       </c>
       <c r="H4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2274,7 +2277,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2300,7 +2303,7 @@
         <v>0.22</v>
       </c>
       <c r="H6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2326,7 +2329,7 @@
         <v>0.18</v>
       </c>
       <c r="H7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2352,7 +2355,7 @@
         <v>0.78</v>
       </c>
       <c r="H8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2378,7 +2381,7 @@
         <v>0.36</v>
       </c>
       <c r="H9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2404,7 +2407,7 @@
         <v>0.66</v>
       </c>
       <c r="H10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2430,7 +2433,7 @@
         <v>0.32</v>
       </c>
       <c r="H11" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2456,7 +2459,7 @@
         <v>0.7</v>
       </c>
       <c r="H12" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2482,7 +2485,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2508,7 +2511,7 @@
         <v>0.92</v>
       </c>
       <c r="H14" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2534,7 +2537,7 @@
         <v>0.7</v>
       </c>
       <c r="H15" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2560,7 +2563,7 @@
         <v>0.3</v>
       </c>
       <c r="H16" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2586,7 +2589,7 @@
         <v>0.3</v>
       </c>
       <c r="H17" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2612,7 +2615,7 @@
         <v>0.02</v>
       </c>
       <c r="H18" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2638,7 +2641,7 @@
         <v>0.72</v>
       </c>
       <c r="H19" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2664,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2690,7 +2693,7 @@
         <v>0.98</v>
       </c>
       <c r="H21" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2716,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2742,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2768,7 +2771,7 @@
         <v>0.32</v>
       </c>
       <c r="H24" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2794,7 +2797,7 @@
         <v>0.26</v>
       </c>
       <c r="H25" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2820,7 +2823,7 @@
         <v>0.34</v>
       </c>
       <c r="H26" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2846,7 +2849,7 @@
         <v>0.04</v>
       </c>
       <c r="H27" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2872,7 +2875,7 @@
         <v>0.02</v>
       </c>
       <c r="H28" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2898,7 +2901,7 @@
         <v>0.84</v>
       </c>
       <c r="H29" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2924,7 +2927,7 @@
         <v>0.96</v>
       </c>
       <c r="H30" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2950,7 +2953,7 @@
         <v>0.8</v>
       </c>
       <c r="H31" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2976,7 +2979,7 @@
         <v>0.92</v>
       </c>
       <c r="H32" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3002,7 +3005,7 @@
         <v>0.98</v>
       </c>
       <c r="H33" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3028,7 +3031,7 @@
         <v>0.98</v>
       </c>
       <c r="H34" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3054,7 +3057,7 @@
         <v>0.46</v>
       </c>
       <c r="H35" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3080,7 +3083,7 @@
         <v>0.2</v>
       </c>
       <c r="H36" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3106,7 +3109,7 @@
         <v>0.3</v>
       </c>
       <c r="H37" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3132,7 +3135,7 @@
         <v>0.04</v>
       </c>
       <c r="H38" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3158,7 +3161,7 @@
         <v>0.68</v>
       </c>
       <c r="H39" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3184,7 +3187,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3210,7 +3213,7 @@
         <v>0.34</v>
       </c>
       <c r="H41" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3236,7 +3239,7 @@
         <v>0.34</v>
       </c>
       <c r="H42" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3262,7 +3265,7 @@
         <v>0.44</v>
       </c>
       <c r="H43" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3288,7 +3291,7 @@
         <v>0.36</v>
       </c>
       <c r="H44" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3314,7 +3317,7 @@
         <v>0.58</v>
       </c>
       <c r="H45" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3340,7 +3343,7 @@
         <v>0.72</v>
       </c>
       <c r="H46" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3366,7 +3369,7 @@
         <v>0.74</v>
       </c>
       <c r="H47" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3392,7 +3395,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H48" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3418,7 +3421,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H49" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3444,7 +3447,7 @@
         <v>0.96</v>
       </c>
       <c r="H50" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3470,7 +3473,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3496,7 +3499,7 @@
         <v>0.96</v>
       </c>
       <c r="H52" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3522,7 +3525,7 @@
         <v>0.74</v>
       </c>
       <c r="H53" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3548,7 +3551,7 @@
         <v>0.74</v>
       </c>
       <c r="H54" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3574,7 +3577,7 @@
         <v>0.14</v>
       </c>
       <c r="H55" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3600,7 +3603,7 @@
         <v>0.86</v>
       </c>
       <c r="H56" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3626,7 +3629,7 @@
         <v>0.12</v>
       </c>
       <c r="H57" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3652,7 +3655,7 @@
         <v>0.1</v>
       </c>
       <c r="H58" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3678,7 +3681,7 @@
         <v>0.84</v>
       </c>
       <c r="H59" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3704,7 +3707,7 @@
         <v>0.74</v>
       </c>
       <c r="H60" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3730,7 +3733,7 @@
         <v>0.76</v>
       </c>
       <c r="H61" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3756,7 +3759,7 @@
         <v>0.66</v>
       </c>
       <c r="H62" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3782,7 +3785,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H63" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3808,7 +3811,7 @@
         <v>0.74</v>
       </c>
       <c r="H64" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3834,7 +3837,7 @@
         <v>0.6</v>
       </c>
       <c r="H65" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3860,7 +3863,7 @@
         <v>0.2</v>
       </c>
       <c r="H66" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3886,7 +3889,7 @@
         <v>0.06</v>
       </c>
       <c r="H67" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3912,7 +3915,7 @@
         <v>0.98</v>
       </c>
       <c r="H68" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3938,7 +3941,7 @@
         <v>0.38</v>
       </c>
       <c r="H69" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3964,7 +3967,7 @@
         <v>0.02</v>
       </c>
       <c r="H70" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3990,7 +3993,7 @@
         <v>0.8</v>
       </c>
       <c r="H71" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4016,7 +4019,7 @@
         <v>0.7</v>
       </c>
       <c r="H72" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4042,7 +4045,7 @@
         <v>0.72</v>
       </c>
       <c r="H73" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4068,7 +4071,7 @@
         <v>0.2</v>
       </c>
       <c r="H74" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4094,7 +4097,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H75" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4120,7 +4123,7 @@
         <v>0.38</v>
       </c>
       <c r="H76" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4146,7 +4149,7 @@
         <v>0.08</v>
       </c>
       <c r="H77" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4172,7 +4175,7 @@
         <v>0.06</v>
       </c>
       <c r="H78" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4198,7 +4201,7 @@
         <v>0.96</v>
       </c>
       <c r="H79" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4224,7 +4227,7 @@
         <v>0.6</v>
       </c>
       <c r="H80" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4250,7 +4253,7 @@
         <v>0.92</v>
       </c>
       <c r="H81" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4276,7 +4279,7 @@
         <v>0.9</v>
       </c>
       <c r="H82" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4302,7 +4305,7 @@
         <v>0.08</v>
       </c>
       <c r="H83" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4328,7 +4331,7 @@
         <v>0.74</v>
       </c>
       <c r="H84" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4354,7 +4357,7 @@
         <v>0.28</v>
       </c>
       <c r="H85" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4380,7 +4383,7 @@
         <v>0.42</v>
       </c>
       <c r="H86" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4406,7 +4409,7 @@
         <v>0.9</v>
       </c>
       <c r="H87" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4432,7 +4435,7 @@
         <v>0.98</v>
       </c>
       <c r="H88" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4458,7 +4461,7 @@
         <v>0.74</v>
       </c>
       <c r="H89" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4484,7 +4487,7 @@
         <v>0.22</v>
       </c>
       <c r="H90" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4510,7 +4513,7 @@
         <v>0.74</v>
       </c>
       <c r="H91" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4536,7 +4539,7 @@
         <v>0.68</v>
       </c>
       <c r="H92" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4562,7 +4565,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4588,7 +4591,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H94" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4614,7 +4617,7 @@
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4640,7 +4643,7 @@
         <v>0.76</v>
       </c>
       <c r="H96" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4666,7 +4669,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H97" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4692,7 +4695,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4718,7 +4721,7 @@
         <v>0.96</v>
       </c>
       <c r="H99" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4744,7 +4747,7 @@
         <v>0.88</v>
       </c>
       <c r="H100" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4770,7 +4773,7 @@
         <v>0.82</v>
       </c>
       <c r="H101" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4796,7 +4799,7 @@
         <v>0.24</v>
       </c>
       <c r="H102" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4822,7 +4825,7 @@
         <v>0.7</v>
       </c>
       <c r="H103" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4848,7 +4851,7 @@
         <v>0.28</v>
       </c>
       <c r="H104" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4874,7 +4877,7 @@
         <v>0.3</v>
       </c>
       <c r="H105" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4900,7 +4903,7 @@
         <v>0.24</v>
       </c>
       <c r="H106" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4926,7 +4929,7 @@
         <v>0.86</v>
       </c>
       <c r="H107" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4952,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4978,7 +4981,7 @@
         <v>0.28</v>
       </c>
       <c r="H109" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5004,7 +5007,7 @@
         <v>0.98</v>
       </c>
       <c r="H110" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5030,7 +5033,7 @@
         <v>0.26</v>
       </c>
       <c r="H111" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5056,7 +5059,7 @@
         <v>0.44</v>
       </c>
       <c r="H112" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5082,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5108,7 +5111,7 @@
         <v>0.98</v>
       </c>
       <c r="H114" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5134,7 +5137,7 @@
         <v>0.04</v>
       </c>
       <c r="H115" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5160,7 +5163,7 @@
         <v>0.06</v>
       </c>
       <c r="H116" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5186,7 +5189,7 @@
         <v>0.22</v>
       </c>
       <c r="H117" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5212,7 +5215,7 @@
         <v>0.24</v>
       </c>
       <c r="H118" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5238,7 +5241,7 @@
         <v>0.3</v>
       </c>
       <c r="H119" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5264,7 +5267,7 @@
         <v>0.34</v>
       </c>
       <c r="H120" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5290,7 +5293,7 @@
         <v>0.32</v>
       </c>
       <c r="H121" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5316,7 +5319,7 @@
         <v>0.04</v>
       </c>
       <c r="H122" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5342,7 +5345,7 @@
         <v>0.06</v>
       </c>
       <c r="H123" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5368,7 +5371,7 @@
         <v>0.04</v>
       </c>
       <c r="H124" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5394,7 +5397,7 @@
         <v>0.96</v>
       </c>
       <c r="H125" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5420,7 +5423,7 @@
         <v>0.66</v>
       </c>
       <c r="H126" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5446,7 +5449,7 @@
         <v>0.04</v>
       </c>
       <c r="H127" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5472,7 +5475,7 @@
         <v>0.9</v>
       </c>
       <c r="H128" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5498,7 +5501,7 @@
         <v>0.84</v>
       </c>
       <c r="H129" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5524,7 +5527,7 @@
         <v>0.34</v>
       </c>
       <c r="H130" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5550,7 +5553,7 @@
         <v>0.64</v>
       </c>
       <c r="H131" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5576,7 +5579,7 @@
         <v>0.04</v>
       </c>
       <c r="H132" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5602,7 +5605,7 @@
         <v>0.86</v>
       </c>
       <c r="H133" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5628,7 +5631,7 @@
         <v>0.9</v>
       </c>
       <c r="H134" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5654,7 +5657,7 @@
         <v>0.52</v>
       </c>
       <c r="H135" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5680,7 +5683,7 @@
         <v>0.42</v>
       </c>
       <c r="H136" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5706,7 +5709,7 @@
         <v>0.76</v>
       </c>
       <c r="H137" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5732,7 +5735,7 @@
         <v>0.06</v>
       </c>
       <c r="H138" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5758,7 +5761,7 @@
         <v>0.98</v>
       </c>
       <c r="H139" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5784,7 +5787,7 @@
         <v>0.28</v>
       </c>
       <c r="H140" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5810,7 +5813,7 @@
         <v>0.16</v>
       </c>
       <c r="H141" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5836,7 +5839,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5862,7 +5865,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5888,7 +5891,7 @@
         <v>0.66</v>
       </c>
       <c r="H144" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5914,7 +5917,7 @@
         <v>0.42</v>
       </c>
       <c r="H145" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5940,7 +5943,7 @@
         <v>0.32</v>
       </c>
       <c r="H146" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5966,7 +5969,7 @@
         <v>0.34</v>
       </c>
       <c r="H147" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5992,7 +5995,7 @@
         <v>0.02</v>
       </c>
       <c r="H148" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6018,7 +6021,7 @@
         <v>0.16</v>
       </c>
       <c r="H149" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6044,7 +6047,7 @@
         <v>0.76</v>
       </c>
       <c r="H150" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6070,7 +6073,7 @@
         <v>0.24</v>
       </c>
       <c r="H151" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6096,7 +6099,7 @@
         <v>0.04</v>
       </c>
       <c r="H152" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6122,7 +6125,7 @@
         <v>0.3</v>
       </c>
       <c r="H153" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6148,7 +6151,7 @@
         <v>0.98</v>
       </c>
       <c r="H154" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6174,7 +6177,7 @@
         <v>0.76</v>
       </c>
       <c r="H155" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6200,7 +6203,7 @@
         <v>0.28</v>
       </c>
       <c r="H156" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6226,7 +6229,7 @@
         <v>0.84</v>
       </c>
       <c r="H157" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6252,7 +6255,7 @@
         <v>0.64</v>
       </c>
       <c r="H158" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6278,7 +6281,7 @@
         <v>0.32</v>
       </c>
       <c r="H159" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6304,7 +6307,7 @@
         <v>0.72</v>
       </c>
       <c r="H160" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6330,7 +6333,7 @@
         <v>0.3</v>
       </c>
       <c r="H161" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6356,7 +6359,7 @@
         <v>0.68</v>
       </c>
       <c r="H162" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6382,7 +6385,7 @@
         <v>0.32</v>
       </c>
       <c r="H163" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6408,7 +6411,7 @@
         <v>0.72</v>
       </c>
       <c r="H164" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6434,7 +6437,7 @@
         <v>0.36</v>
       </c>
       <c r="H165" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6460,7 +6463,7 @@
         <v>0.86</v>
       </c>
       <c r="H166" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6486,7 +6489,7 @@
         <v>0.58</v>
       </c>
       <c r="H167" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6512,7 +6515,7 @@
         <v>0.78</v>
       </c>
       <c r="H168" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6538,7 +6541,7 @@
         <v>0.98</v>
       </c>
       <c r="H169" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6564,7 +6567,7 @@
         <v>0.86</v>
       </c>
       <c r="H170" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6590,7 +6593,7 @@
         <v>0.08</v>
       </c>
       <c r="H171" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6616,7 +6619,7 @@
         <v>0.88</v>
       </c>
       <c r="H172" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6642,7 +6645,7 @@
         <v>0.68</v>
       </c>
       <c r="H173" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6668,7 +6671,7 @@
         <v>0.74</v>
       </c>
       <c r="H174" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6694,7 +6697,7 @@
         <v>0.58</v>
       </c>
       <c r="H175" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6720,7 +6723,7 @@
         <v>0.22</v>
       </c>
       <c r="H176" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6746,7 +6749,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6772,7 +6775,7 @@
         <v>0.64</v>
       </c>
       <c r="H178" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6798,7 +6801,7 @@
         <v>0.26</v>
       </c>
       <c r="H179" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6824,7 +6827,7 @@
         <v>0.6</v>
       </c>
       <c r="H180" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6850,7 +6853,7 @@
         <v>0.98</v>
       </c>
       <c r="H181" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6876,7 +6879,7 @@
         <v>0.3517053405853769</v>
       </c>
       <c r="H182" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6902,7 +6905,7 @@
         <v>0.84</v>
       </c>
       <c r="H183" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6928,7 +6931,7 @@
         <v>0.48</v>
       </c>
       <c r="H184" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6954,7 +6957,7 @@
         <v>0.08</v>
       </c>
       <c r="H185" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6980,7 +6983,7 @@
         <v>0.6</v>
       </c>
       <c r="H186" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7006,7 +7009,7 @@
         <v>0.9</v>
       </c>
       <c r="H187" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7032,7 +7035,7 @@
         <v>0.8</v>
       </c>
       <c r="H188" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7058,7 +7061,7 @@
         <v>0.34</v>
       </c>
       <c r="H189" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7084,7 +7087,7 @@
         <v>0.16</v>
       </c>
       <c r="H190" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7110,7 +7113,7 @@
         <v>0.1</v>
       </c>
       <c r="H191" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7136,7 +7139,7 @@
         <v>0.7</v>
       </c>
       <c r="H192" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7162,7 +7165,7 @@
         <v>0.72</v>
       </c>
       <c r="H193" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7188,7 +7191,7 @@
         <v>0.04</v>
       </c>
       <c r="H194" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7214,7 +7217,7 @@
         <v>0.008304498269896196</v>
       </c>
       <c r="H195" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7240,7 +7243,7 @@
         <v>0.26</v>
       </c>
       <c r="H196" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7266,7 +7269,7 @@
         <v>0.4</v>
       </c>
       <c r="H197" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7292,7 +7295,7 @@
         <v>0.64</v>
       </c>
       <c r="H198" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7318,7 +7321,7 @@
         <v>0.24</v>
       </c>
       <c r="H199" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7344,7 +7347,7 @@
         <v>0.4</v>
       </c>
       <c r="H200" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7370,7 +7373,7 @@
         <v>0.32</v>
       </c>
       <c r="H201" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7396,7 +7399,7 @@
         <v>0.38</v>
       </c>
       <c r="H202" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7422,7 +7425,7 @@
         <v>0.72</v>
       </c>
       <c r="H203" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7448,7 +7451,7 @@
         <v>0.68</v>
       </c>
       <c r="H204" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7474,7 +7477,7 @@
         <v>0.32</v>
       </c>
       <c r="H205" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7500,7 +7503,7 @@
         <v>0.32</v>
       </c>
       <c r="H206" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7526,7 +7529,7 @@
         <v>0.2</v>
       </c>
       <c r="H207" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7552,7 +7555,7 @@
         <v>0.3</v>
       </c>
       <c r="H208" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7578,7 +7581,7 @@
         <v>0.78</v>
       </c>
       <c r="H209" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7604,7 +7607,7 @@
         <v>0.26</v>
       </c>
       <c r="H210" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7630,7 +7633,7 @@
         <v>0.32</v>
       </c>
       <c r="H211" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7656,7 +7659,7 @@
         <v>0.3</v>
       </c>
       <c r="H212" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7682,7 +7685,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H213" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7708,7 +7711,7 @@
         <v>0.88</v>
       </c>
       <c r="H214" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7734,7 +7737,7 @@
         <v>0.74</v>
       </c>
       <c r="H215" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7760,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7786,7 +7789,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7812,7 +7815,7 @@
         <v>0.2</v>
       </c>
       <c r="H218" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7838,7 +7841,7 @@
         <v>0.22</v>
       </c>
       <c r="H219" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7864,7 +7867,7 @@
         <v>0.78</v>
       </c>
       <c r="H220" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7890,7 +7893,7 @@
         <v>0.98</v>
       </c>
       <c r="H221" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7916,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7942,7 +7945,7 @@
         <v>0.4381603474151185</v>
       </c>
       <c r="H223" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7968,7 +7971,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H224" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7994,7 +7997,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H225" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8020,7 +8023,7 @@
         <v>0.58</v>
       </c>
       <c r="H226" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8046,7 +8049,7 @@
         <v>0.14</v>
       </c>
       <c r="H227" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8072,7 +8075,7 @@
         <v>0.18</v>
       </c>
       <c r="H228" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8098,7 +8101,7 @@
         <v>0.02</v>
       </c>
       <c r="H229" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8124,7 +8127,7 @@
         <v>0.02</v>
       </c>
       <c r="H230" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8150,7 +8153,7 @@
         <v>0.98</v>
       </c>
       <c r="H231" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8176,7 +8179,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8202,7 +8205,7 @@
         <v>0.04</v>
       </c>
       <c r="H233" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8228,7 +8231,7 @@
         <v>0.88</v>
       </c>
       <c r="H234" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8254,7 +8257,7 @@
         <v>0.62</v>
       </c>
       <c r="H235" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8280,7 +8283,7 @@
         <v>0.14</v>
       </c>
       <c r="H236" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8306,7 +8309,7 @@
         <v>0.66</v>
       </c>
       <c r="H237" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8332,7 +8335,7 @@
         <v>0.92</v>
       </c>
       <c r="H238" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8358,7 +8361,7 @@
         <v>0.38</v>
       </c>
       <c r="H239" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8384,7 +8387,7 @@
         <v>0.4</v>
       </c>
       <c r="H240" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8410,7 +8413,7 @@
         <v>0.1</v>
       </c>
       <c r="H241" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8436,7 +8439,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8462,7 +8465,7 @@
         <v>0.04</v>
       </c>
       <c r="H243" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8488,7 +8491,7 @@
         <v>0.96</v>
       </c>
       <c r="H244" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8514,7 +8517,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8540,7 +8543,7 @@
         <v>0.28</v>
       </c>
       <c r="H246" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8566,7 +8569,7 @@
         <v>0.96</v>
       </c>
       <c r="H247" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8592,7 +8595,7 @@
         <v>0.04</v>
       </c>
       <c r="H248" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8618,7 +8621,7 @@
         <v>0.4</v>
       </c>
       <c r="H249" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8644,7 +8647,7 @@
         <v>0.78</v>
       </c>
       <c r="H250" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8670,7 +8673,7 @@
         <v>0.62</v>
       </c>
       <c r="H251" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8696,7 +8699,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8722,7 +8725,7 @@
         <v>0.46</v>
       </c>
       <c r="H253" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8748,7 +8751,7 @@
         <v>0.4</v>
       </c>
       <c r="H254" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8774,7 +8777,7 @@
         <v>0.14</v>
       </c>
       <c r="H255" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8800,7 +8803,7 @@
         <v>0.72</v>
       </c>
       <c r="H256" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8826,7 +8829,7 @@
         <v>0.8</v>
       </c>
       <c r="H257" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8852,7 +8855,7 @@
         <v>0.88</v>
       </c>
       <c r="H258" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8878,7 +8881,7 @@
         <v>0.02</v>
       </c>
       <c r="H259" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8904,7 +8907,7 @@
         <v>0.26</v>
       </c>
       <c r="H260" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8930,7 +8933,7 @@
         <v>0.4</v>
       </c>
       <c r="H261" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8956,7 +8959,7 @@
         <v>0.74</v>
       </c>
       <c r="H262" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8982,7 +8985,7 @@
         <v>0.08</v>
       </c>
       <c r="H263" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9008,7 +9011,7 @@
         <v>0.96</v>
       </c>
       <c r="H264" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9034,7 +9037,7 @@
         <v>0.96</v>
       </c>
       <c r="H265" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9060,7 +9063,7 @@
         <v>0.4</v>
       </c>
       <c r="H266" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9086,7 +9089,7 @@
         <v>0.28</v>
       </c>
       <c r="H267" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9112,7 +9115,7 @@
         <v>0.12</v>
       </c>
       <c r="H268" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9138,7 +9141,7 @@
         <v>0.28</v>
       </c>
       <c r="H269" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9164,7 +9167,7 @@
         <v>0.22</v>
       </c>
       <c r="H270" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9190,7 +9193,7 @@
         <v>0.68</v>
       </c>
       <c r="H271" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9216,7 +9219,7 @@
         <v>0.72</v>
       </c>
       <c r="H272" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9242,7 +9245,7 @@
         <v>0.38</v>
       </c>
       <c r="H273" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9268,7 +9271,7 @@
         <v>0.18</v>
       </c>
       <c r="H274" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9294,7 +9297,7 @@
         <v>0.62</v>
       </c>
       <c r="H275" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9320,7 +9323,7 @@
         <v>0.58</v>
       </c>
       <c r="H276" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9346,7 +9349,7 @@
         <v>0.74</v>
       </c>
       <c r="H277" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9372,7 +9375,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H278" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9398,7 +9401,7 @@
         <v>0.2</v>
       </c>
       <c r="H279" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9424,7 +9427,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9450,7 +9453,7 @@
         <v>0.46</v>
       </c>
       <c r="H281" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9476,7 +9479,7 @@
         <v>0.16</v>
       </c>
       <c r="H282" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9502,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9528,7 +9531,7 @@
         <v>0.54</v>
       </c>
       <c r="H284" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9554,7 +9557,7 @@
         <v>0.98</v>
       </c>
       <c r="H285" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9580,7 +9583,7 @@
         <v>0.22</v>
       </c>
       <c r="H286" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9606,7 +9609,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9632,7 +9635,7 @@
         <v>0.76</v>
       </c>
       <c r="H288" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9658,7 +9661,7 @@
         <v>1</v>
       </c>
       <c r="H289" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9684,7 +9687,7 @@
         <v>0.72</v>
       </c>
       <c r="H290" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9710,7 +9713,7 @@
         <v>0.66</v>
       </c>
       <c r="H291" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9736,7 +9739,7 @@
         <v>0.62</v>
       </c>
       <c r="H292" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9762,7 +9765,7 @@
         <v>1</v>
       </c>
       <c r="H293" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9788,7 +9791,7 @@
         <v>0.36</v>
       </c>
       <c r="H294" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9814,7 +9817,7 @@
         <v>0.36</v>
       </c>
       <c r="H295" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9840,7 +9843,7 @@
         <v>0.96</v>
       </c>
       <c r="H296" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9866,7 +9869,7 @@
         <v>0.92</v>
       </c>
       <c r="H297" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9892,7 +9895,7 @@
         <v>0.04</v>
       </c>
       <c r="H298" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9918,7 +9921,7 @@
         <v>0.9</v>
       </c>
       <c r="H299" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9944,7 +9947,7 @@
         <v>0.28</v>
       </c>
       <c r="H300" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9970,7 +9973,7 @@
         <v>0.62</v>
       </c>
       <c r="H301" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9996,7 +9999,7 @@
         <v>0.9</v>
       </c>
       <c r="H302" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10022,7 +10025,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10048,7 +10051,7 @@
         <v>0.38</v>
       </c>
       <c r="H304" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10074,7 +10077,7 @@
         <v>0.4</v>
       </c>
       <c r="H305" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10100,7 +10103,7 @@
         <v>0.06</v>
       </c>
       <c r="H306" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10126,7 +10129,7 @@
         <v>0.68</v>
       </c>
       <c r="H307" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10152,7 +10155,7 @@
         <v>0.78</v>
       </c>
       <c r="H308" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10178,7 +10181,7 @@
         <v>0.06</v>
       </c>
       <c r="H309" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10204,7 +10207,7 @@
         <v>0.5</v>
       </c>
       <c r="H310" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10230,7 +10233,7 @@
         <v>0.16</v>
       </c>
       <c r="H311" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10256,7 +10259,7 @@
         <v>0.18</v>
       </c>
       <c r="H312" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10282,7 +10285,7 @@
         <v>0.96</v>
       </c>
       <c r="H313" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10308,7 +10311,7 @@
         <v>0.86</v>
       </c>
       <c r="H314" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10334,7 +10337,7 @@
         <v>0.96</v>
       </c>
       <c r="H315" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10360,7 +10363,7 @@
         <v>1</v>
       </c>
       <c r="H316" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10386,7 +10389,7 @@
         <v>0.8</v>
       </c>
       <c r="H317" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10412,7 +10415,7 @@
         <v>0.98</v>
       </c>
       <c r="H318" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10438,7 +10441,7 @@
         <v>0.34</v>
       </c>
       <c r="H319" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10464,7 +10467,7 @@
         <v>0.16</v>
       </c>
       <c r="H320" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10490,7 +10493,7 @@
         <v>0.88</v>
       </c>
       <c r="H321" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10516,7 +10519,7 @@
         <v>0.7</v>
       </c>
       <c r="H322" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10542,7 +10545,7 @@
         <v>0.68</v>
       </c>
       <c r="H323" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10568,7 +10571,7 @@
         <v>0.36</v>
       </c>
       <c r="H324" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10594,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10620,7 +10623,7 @@
         <v>0.9</v>
       </c>
       <c r="H326" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10646,7 +10649,7 @@
         <v>0.22</v>
       </c>
       <c r="H327" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10672,7 +10675,7 @@
         <v>0.42</v>
       </c>
       <c r="H328" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10698,7 +10701,7 @@
         <v>0.2</v>
       </c>
       <c r="H329" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10724,7 +10727,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10750,7 +10753,7 @@
         <v>0.6</v>
       </c>
       <c r="H331" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10776,7 +10779,7 @@
         <v>0.88</v>
       </c>
       <c r="H332" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10802,7 +10805,7 @@
         <v>0.06</v>
       </c>
       <c r="H333" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10828,7 +10831,7 @@
         <v>0.82</v>
       </c>
       <c r="H334" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10854,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="H335" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10880,7 +10883,7 @@
         <v>0.06</v>
       </c>
       <c r="H336" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10906,7 +10909,7 @@
         <v>0.28</v>
       </c>
       <c r="H337" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10932,7 +10935,7 @@
         <v>0.58</v>
       </c>
       <c r="H338" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10958,7 +10961,7 @@
         <v>0.36</v>
       </c>
       <c r="H339" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10984,7 +10987,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11010,7 +11013,7 @@
         <v>0.34</v>
       </c>
       <c r="H341" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11036,7 +11039,7 @@
         <v>0.9</v>
       </c>
       <c r="H342" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11062,7 +11065,7 @@
         <v>0.8</v>
       </c>
       <c r="H343" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11088,7 +11091,7 @@
         <v>0.4</v>
       </c>
       <c r="H344" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11114,7 +11117,7 @@
         <v>0.22</v>
       </c>
       <c r="H345" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11140,7 +11143,7 @@
         <v>0.7</v>
       </c>
       <c r="H346" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11166,7 +11169,7 @@
         <v>0.76</v>
       </c>
       <c r="H347" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11192,7 +11195,7 @@
         <v>0.96</v>
       </c>
       <c r="H348" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11218,7 +11221,7 @@
         <v>0.38</v>
       </c>
       <c r="H349" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11244,7 +11247,7 @@
         <v>0.7</v>
       </c>
       <c r="H350" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11270,7 +11273,7 @@
         <v>0.92</v>
       </c>
       <c r="H351" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11296,7 +11299,7 @@
         <v>0.22</v>
       </c>
       <c r="H352" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11322,7 +11325,7 @@
         <v>1</v>
       </c>
       <c r="H353" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11348,7 +11351,7 @@
         <v>0.36</v>
       </c>
       <c r="H354" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11374,7 +11377,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11400,7 +11403,7 @@
         <v>0.7</v>
       </c>
       <c r="H356" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11426,7 +11429,7 @@
         <v>0.38</v>
       </c>
       <c r="H357" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11452,7 +11455,7 @@
         <v>0.02</v>
       </c>
       <c r="H358" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11478,7 +11481,7 @@
         <v>0.66</v>
       </c>
       <c r="H359" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11504,7 +11507,7 @@
         <v>0.14</v>
       </c>
       <c r="H360" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11530,7 +11533,7 @@
         <v>0.96</v>
       </c>
       <c r="H361" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11556,7 +11559,7 @@
         <v>0.96</v>
       </c>
       <c r="H362" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11582,7 +11585,7 @@
         <v>0.16</v>
       </c>
       <c r="H363" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11608,7 +11611,7 @@
         <v>0.26</v>
       </c>
       <c r="H364" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11634,7 +11637,7 @@
         <v>0.22</v>
       </c>
       <c r="H365" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11660,7 +11663,7 @@
         <v>0.96</v>
       </c>
       <c r="H366" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11686,7 +11689,7 @@
         <v>0.12</v>
       </c>
       <c r="H367" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11712,7 +11715,7 @@
         <v>0.84</v>
       </c>
       <c r="H368" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11738,7 +11741,7 @@
         <v>0.86</v>
       </c>
       <c r="H369" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11764,7 +11767,7 @@
         <v>0.88</v>
       </c>
       <c r="H370" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11790,7 +11793,7 @@
         <v>0.84</v>
       </c>
       <c r="H371" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11816,7 +11819,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11842,7 +11845,7 @@
         <v>0.72</v>
       </c>
       <c r="H373" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11868,7 +11871,7 @@
         <v>0.8</v>
       </c>
       <c r="H374" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11894,7 +11897,7 @@
         <v>0.7</v>
       </c>
       <c r="H375" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11920,7 +11923,7 @@
         <v>0.7</v>
       </c>
       <c r="H376" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11946,7 +11949,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11972,7 +11975,7 @@
         <v>0.1</v>
       </c>
       <c r="H378" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11998,7 +12001,7 @@
         <v>0.16</v>
       </c>
       <c r="H379" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12024,7 +12027,7 @@
         <v>0.04</v>
       </c>
       <c r="H380" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12050,7 +12053,7 @@
         <v>0.14</v>
       </c>
       <c r="H381" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12076,7 +12079,7 @@
         <v>0.12</v>
       </c>
       <c r="H382" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12102,7 +12105,7 @@
         <v>0.04</v>
       </c>
       <c r="H383" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12128,7 +12131,7 @@
         <v>0.9</v>
       </c>
       <c r="H384" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12154,7 +12157,7 @@
         <v>0.14</v>
       </c>
       <c r="H385" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12180,7 +12183,7 @@
         <v>0.76</v>
       </c>
       <c r="H386" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12206,7 +12209,7 @@
         <v>0.66</v>
       </c>
       <c r="H387" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12232,7 +12235,7 @@
         <v>0.68</v>
       </c>
       <c r="H388" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12258,7 +12261,7 @@
         <v>0.76</v>
       </c>
       <c r="H389" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12284,7 +12287,7 @@
         <v>1</v>
       </c>
       <c r="H390" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12310,7 +12313,7 @@
         <v>0.06</v>
       </c>
       <c r="H391" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12336,7 +12339,7 @@
         <v>0.76</v>
       </c>
       <c r="H392" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12362,7 +12365,7 @@
         <v>0.06</v>
       </c>
       <c r="H393" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12388,7 +12391,7 @@
         <v>0.3</v>
       </c>
       <c r="H394" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12414,7 +12417,7 @@
         <v>0.3</v>
       </c>
       <c r="H395" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12440,7 +12443,7 @@
         <v>0.74</v>
       </c>
       <c r="H396" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12466,7 +12469,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12492,7 +12495,7 @@
         <v>0.14</v>
       </c>
       <c r="H398" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12518,7 +12521,7 @@
         <v>0.74</v>
       </c>
       <c r="H399" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12544,7 +12547,7 @@
         <v>0.8</v>
       </c>
       <c r="H400" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12570,7 +12573,7 @@
         <v>0.74</v>
       </c>
       <c r="H401" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12596,7 +12599,7 @@
         <v>0.84</v>
       </c>
       <c r="H402" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12622,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12648,7 +12651,7 @@
         <v>0.26</v>
       </c>
       <c r="H404" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12674,7 +12677,7 @@
         <v>0.16</v>
       </c>
       <c r="H405" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12700,7 +12703,7 @@
         <v>0.84</v>
       </c>
       <c r="H406" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12726,7 +12729,7 @@
         <v>0.76</v>
       </c>
       <c r="H407" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12752,7 +12755,7 @@
         <v>0.18</v>
       </c>
       <c r="H408" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12778,7 +12781,7 @@
         <v>0.98</v>
       </c>
       <c r="H409" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12804,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12830,7 +12833,7 @@
         <v>0.98</v>
       </c>
       <c r="H411" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12856,7 +12859,7 @@
         <v>0.98</v>
       </c>
       <c r="H412" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12882,7 +12885,7 @@
         <v>1</v>
       </c>
       <c r="H413" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12908,7 +12911,7 @@
         <v>0.84</v>
       </c>
       <c r="H414" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12934,7 +12937,7 @@
         <v>0.78</v>
       </c>
       <c r="H415" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12960,7 +12963,7 @@
         <v>0.68</v>
       </c>
       <c r="H416" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12986,7 +12989,7 @@
         <v>0.66</v>
       </c>
       <c r="H417" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13012,7 +13015,7 @@
         <v>0.88</v>
       </c>
       <c r="H418" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13038,7 +13041,7 @@
         <v>0.82</v>
       </c>
       <c r="H419" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13064,7 +13067,7 @@
         <v>0.96</v>
       </c>
       <c r="H420" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13090,7 +13093,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13116,7 +13119,7 @@
         <v>0.38</v>
       </c>
       <c r="H422" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13142,7 +13145,7 @@
         <v>0.7</v>
       </c>
       <c r="H423" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13168,7 +13171,7 @@
         <v>0.14</v>
       </c>
       <c r="H424" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13194,7 +13197,7 @@
         <v>0.3</v>
       </c>
       <c r="H425" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13220,7 +13223,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13246,7 +13249,7 @@
         <v>0.36</v>
       </c>
       <c r="H427" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13272,7 +13275,7 @@
         <v>0.64</v>
       </c>
       <c r="H428" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13298,7 +13301,7 @@
         <v>0.24</v>
       </c>
       <c r="H429" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13324,7 +13327,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13350,7 +13353,7 @@
         <v>0.96</v>
       </c>
       <c r="H431" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13376,7 +13379,7 @@
         <v>0.36</v>
       </c>
       <c r="H432" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13402,7 +13405,7 @@
         <v>0.54</v>
       </c>
       <c r="H433" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13428,7 +13431,7 @@
         <v>0.7</v>
       </c>
       <c r="H434" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13454,7 +13457,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H435" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13480,7 +13483,7 @@
         <v>0.08</v>
       </c>
       <c r="H436" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13506,7 +13509,7 @@
         <v>0.4</v>
       </c>
       <c r="H437" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13532,7 +13535,7 @@
         <v>0.34</v>
       </c>
       <c r="H438" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13558,7 +13561,7 @@
         <v>0.04</v>
       </c>
       <c r="H439" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13584,7 +13587,7 @@
         <v>0.34</v>
       </c>
       <c r="H440" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13610,7 +13613,7 @@
         <v>0.36</v>
       </c>
       <c r="H441" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13636,7 +13639,7 @@
         <v>0.68</v>
       </c>
       <c r="H442" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13662,7 +13665,7 @@
         <v>0.38</v>
       </c>
       <c r="H443" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13688,7 +13691,7 @@
         <v>0.64</v>
       </c>
       <c r="H444" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13714,7 +13717,7 @@
         <v>0.86</v>
       </c>
       <c r="H445" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13740,7 +13743,7 @@
         <v>0.64</v>
       </c>
       <c r="H446" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13766,7 +13769,7 @@
         <v>0.88</v>
       </c>
       <c r="H447" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13792,7 +13795,7 @@
         <v>0.96</v>
       </c>
       <c r="H448" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13818,7 +13821,7 @@
         <v>0.1</v>
       </c>
       <c r="H449" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13844,7 +13847,7 @@
         <v>0.12</v>
       </c>
       <c r="H450" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13870,7 +13873,7 @@
         <v>0.92</v>
       </c>
       <c r="H451" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13896,7 +13899,7 @@
         <v>0.98</v>
       </c>
       <c r="H452" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13922,7 +13925,7 @@
         <v>0.92</v>
       </c>
       <c r="H453" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13948,7 +13951,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13974,7 +13977,7 @@
         <v>0.74</v>
       </c>
       <c r="H455" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14000,7 +14003,7 @@
         <v>0.84</v>
       </c>
       <c r="H456" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14026,7 +14029,7 @@
         <v>0.18</v>
       </c>
       <c r="H457" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14052,7 +14055,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H458" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14078,7 +14081,7 @@
         <v>0.12</v>
       </c>
       <c r="H459" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14104,7 +14107,7 @@
         <v>1</v>
       </c>
       <c r="H460" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14130,7 +14133,7 @@
         <v>0.96</v>
       </c>
       <c r="H461" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14156,7 +14159,7 @@
         <v>0.9</v>
       </c>
       <c r="H462" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14182,7 +14185,7 @@
         <v>0.62</v>
       </c>
       <c r="H463" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14208,7 +14211,7 @@
         <v>0.16</v>
       </c>
       <c r="H464" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14234,7 +14237,7 @@
         <v>0.4</v>
       </c>
       <c r="H465" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14260,7 +14263,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14286,7 +14289,7 @@
         <v>0.84</v>
       </c>
       <c r="H467" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14312,7 +14315,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H468" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14338,7 +14341,7 @@
         <v>0.9</v>
       </c>
       <c r="H469" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14364,7 +14367,7 @@
         <v>0.24</v>
       </c>
       <c r="H470" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14390,7 +14393,7 @@
         <v>0.26</v>
       </c>
       <c r="H471" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14416,7 +14419,7 @@
         <v>0.74</v>
       </c>
       <c r="H472" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14442,7 +14445,7 @@
         <v>0.4</v>
       </c>
       <c r="H473" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14468,7 +14471,7 @@
         <v>1</v>
       </c>
       <c r="H474" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14494,7 +14497,7 @@
         <v>0.86</v>
       </c>
       <c r="H475" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14520,7 +14523,7 @@
         <v>0.7491891891891892</v>
       </c>
       <c r="H476" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14546,7 +14549,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H477" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14572,7 +14575,7 @@
         <v>0.02</v>
       </c>
       <c r="H478" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14598,7 +14601,7 @@
         <v>0.66</v>
       </c>
       <c r="H479" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14624,7 +14627,7 @@
         <v>0.26</v>
       </c>
       <c r="H480" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14650,7 +14653,7 @@
         <v>0.76</v>
       </c>
       <c r="H481" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14676,7 +14679,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14702,7 +14705,7 @@
         <v>0.76</v>
       </c>
       <c r="H483" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14728,7 +14731,7 @@
         <v>0.08</v>
       </c>
       <c r="H484" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14754,7 +14757,7 @@
         <v>0.96</v>
       </c>
       <c r="H485" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14780,7 +14783,7 @@
         <v>0.98</v>
       </c>
       <c r="H486" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14806,7 +14809,7 @@
         <v>0.36</v>
       </c>
       <c r="H487" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14832,7 +14835,7 @@
         <v>0.2</v>
       </c>
       <c r="H488" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14858,7 +14861,7 @@
         <v>0.12</v>
       </c>
       <c r="H489" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14884,7 +14887,7 @@
         <v>0.9</v>
       </c>
       <c r="H490" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14910,7 +14913,7 @@
         <v>0.24</v>
       </c>
       <c r="H491" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14936,7 +14939,7 @@
         <v>0.9</v>
       </c>
       <c r="H492" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14962,7 +14965,7 @@
         <v>0.7</v>
       </c>
       <c r="H493" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14988,7 +14991,7 @@
         <v>0.68</v>
       </c>
       <c r="H494" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15014,7 +15017,7 @@
         <v>0.12</v>
       </c>
       <c r="H495" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15040,7 +15043,7 @@
         <v>0.68</v>
       </c>
       <c r="H496" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15066,7 +15069,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15092,7 +15095,7 @@
         <v>0.68</v>
       </c>
       <c r="H498" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15118,7 +15121,7 @@
         <v>0.96</v>
       </c>
       <c r="H499" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15144,7 +15147,7 @@
         <v>0.18</v>
       </c>
       <c r="H500" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15170,7 +15173,7 @@
         <v>0.88</v>
       </c>
       <c r="H501" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15196,7 +15199,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15222,7 +15225,7 @@
         <v>0.04</v>
       </c>
       <c r="H503" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15248,7 +15251,7 @@
         <v>0.08</v>
       </c>
       <c r="H504" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15274,7 +15277,7 @@
         <v>0.22</v>
       </c>
       <c r="H505" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15300,7 +15303,7 @@
         <v>0.24</v>
       </c>
       <c r="H506" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15326,7 +15329,7 @@
         <v>0.62</v>
       </c>
       <c r="H507" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15352,7 +15355,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H508" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15378,7 +15381,7 @@
         <v>0.62</v>
       </c>
       <c r="H509" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15404,7 +15407,7 @@
         <v>0.36</v>
       </c>
       <c r="H510" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15430,7 +15433,7 @@
         <v>0.54</v>
       </c>
       <c r="H511" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15456,7 +15459,7 @@
         <v>0.76</v>
       </c>
       <c r="H512" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15482,7 +15485,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15508,7 +15511,7 @@
         <v>0.28</v>
       </c>
       <c r="H514" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15534,7 +15537,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15560,7 +15563,7 @@
         <v>0.38</v>
       </c>
       <c r="H516" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15586,7 +15589,7 @@
         <v>0.3</v>
       </c>
       <c r="H517" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15612,7 +15615,7 @@
         <v>0.36</v>
       </c>
       <c r="H518" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15638,7 +15641,7 @@
         <v>0.8</v>
       </c>
       <c r="H519" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15664,7 +15667,7 @@
         <v>0.22</v>
       </c>
       <c r="H520" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15690,7 +15693,7 @@
         <v>0.32</v>
       </c>
       <c r="H521" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15716,7 +15719,7 @@
         <v>0.32</v>
       </c>
       <c r="H522" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15742,7 +15745,7 @@
         <v>0.52</v>
       </c>
       <c r="H523" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15768,7 +15771,7 @@
         <v>0.92</v>
       </c>
       <c r="H524" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15794,7 +15797,7 @@
         <v>0.96</v>
       </c>
       <c r="H525" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15820,7 +15823,7 @@
         <v>0.16</v>
       </c>
       <c r="H526" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15846,7 +15849,7 @@
         <v>0.66</v>
       </c>
       <c r="H527" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15872,7 +15875,7 @@
         <v>0.04</v>
       </c>
       <c r="H528" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15898,7 +15901,7 @@
         <v>0.02</v>
       </c>
       <c r="H529" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15924,7 +15927,7 @@
         <v>0.36</v>
       </c>
       <c r="H530" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15950,7 +15953,7 @@
         <v>0.14</v>
       </c>
       <c r="H531" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15976,7 +15979,7 @@
         <v>0.64</v>
       </c>
       <c r="H532" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16002,7 +16005,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16028,7 +16031,7 @@
         <v>0.08</v>
       </c>
       <c r="H534" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16054,7 +16057,7 @@
         <v>0.06</v>
       </c>
       <c r="H535" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16080,7 +16083,7 @@
         <v>0.34</v>
       </c>
       <c r="H536" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16106,7 +16109,7 @@
         <v>0.28</v>
       </c>
       <c r="H537" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16132,7 +16135,7 @@
         <v>0.92</v>
       </c>
       <c r="H538" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16158,7 +16161,7 @@
         <v>0.08</v>
       </c>
       <c r="H539" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16184,7 +16187,7 @@
         <v>0.64</v>
       </c>
       <c r="H540" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16210,7 +16213,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16236,7 +16239,7 @@
         <v>0.18</v>
       </c>
       <c r="H542" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16262,7 +16265,7 @@
         <v>0.16</v>
       </c>
       <c r="H543" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16288,7 +16291,7 @@
         <v>0.98</v>
       </c>
       <c r="H544" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16314,7 +16317,7 @@
         <v>0.14</v>
       </c>
       <c r="H545" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16340,7 +16343,7 @@
         <v>0.26</v>
       </c>
       <c r="H546" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16366,7 +16369,7 @@
         <v>0.02</v>
       </c>
       <c r="H547" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16392,7 +16395,7 @@
         <v>0.6</v>
       </c>
       <c r="H548" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16418,7 +16421,7 @@
         <v>1</v>
       </c>
       <c r="H549" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16444,7 +16447,7 @@
         <v>0.96</v>
       </c>
       <c r="H550" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16470,7 +16473,7 @@
         <v>0.32</v>
       </c>
       <c r="H551" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16496,7 +16499,7 @@
         <v>0.22</v>
       </c>
       <c r="H552" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16522,7 +16525,7 @@
         <v>0.6</v>
       </c>
       <c r="H553" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16548,7 +16551,7 @@
         <v>0.96</v>
       </c>
       <c r="H554" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16558,9 +16561,15 @@
       <c r="B555" t="s">
         <v>560</v>
       </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
       <c r="D555">
         <v>1</v>
       </c>
+      <c r="E555">
+        <v>1</v>
+      </c>
       <c r="F555">
         <v>0</v>
       </c>
@@ -16568,7 +16577,27 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>571</v>
+        <v>572</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8">
+      <c r="A556" s="1">
+        <v>554</v>
+      </c>
+      <c r="B556" t="s">
+        <v>561</v>
+      </c>
+      <c r="D556">
+        <v>1</v>
+      </c>
+      <c r="F556">
+        <v>0</v>
+      </c>
+      <c r="G556">
+        <v>1</v>
+      </c>
+      <c r="H556" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyOOC.xlsx
+++ b/firebase_data_from_spyOOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="598">
   <si>
     <t>date</t>
   </si>
@@ -1700,6 +1700,24 @@
   </si>
   <si>
     <t>2025-08-29</t>
+  </si>
+  <si>
+    <t>2025-09-02</t>
+  </si>
+  <si>
+    <t>2025-09-03</t>
+  </si>
+  <si>
+    <t>2025-09-04</t>
+  </si>
+  <si>
+    <t>2025-09-05</t>
+  </si>
+  <si>
+    <t>2025-09-08</t>
+  </si>
+  <si>
+    <t>2025-09-09</t>
   </si>
   <si>
     <t>96.00</t>
@@ -2147,7 +2165,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H556"/>
+  <dimension ref="A1:H562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2199,7 +2217,7 @@
         <v>0.96</v>
       </c>
       <c r="H2" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2225,7 +2243,7 @@
         <v>0.98</v>
       </c>
       <c r="H3" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2251,7 +2269,7 @@
         <v>0.4</v>
       </c>
       <c r="H4" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2277,7 +2295,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H5" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2303,7 +2321,7 @@
         <v>0.22</v>
       </c>
       <c r="H6" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2329,7 +2347,7 @@
         <v>0.18</v>
       </c>
       <c r="H7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2355,7 +2373,7 @@
         <v>0.78</v>
       </c>
       <c r="H8" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2381,7 +2399,7 @@
         <v>0.36</v>
       </c>
       <c r="H9" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2407,7 +2425,7 @@
         <v>0.66</v>
       </c>
       <c r="H10" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2433,7 +2451,7 @@
         <v>0.32</v>
       </c>
       <c r="H11" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2459,7 +2477,7 @@
         <v>0.7</v>
       </c>
       <c r="H12" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2485,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2511,7 +2529,7 @@
         <v>0.92</v>
       </c>
       <c r="H14" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2537,7 +2555,7 @@
         <v>0.7</v>
       </c>
       <c r="H15" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2563,7 +2581,7 @@
         <v>0.3</v>
       </c>
       <c r="H16" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2589,7 +2607,7 @@
         <v>0.3</v>
       </c>
       <c r="H17" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2615,7 +2633,7 @@
         <v>0.02</v>
       </c>
       <c r="H18" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2641,7 +2659,7 @@
         <v>0.72</v>
       </c>
       <c r="H19" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2667,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2693,7 +2711,7 @@
         <v>0.98</v>
       </c>
       <c r="H21" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2719,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2745,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2771,7 +2789,7 @@
         <v>0.32</v>
       </c>
       <c r="H24" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2797,7 +2815,7 @@
         <v>0.26</v>
       </c>
       <c r="H25" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2823,7 +2841,7 @@
         <v>0.34</v>
       </c>
       <c r="H26" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2849,7 +2867,7 @@
         <v>0.04</v>
       </c>
       <c r="H27" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2875,7 +2893,7 @@
         <v>0.02</v>
       </c>
       <c r="H28" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2901,7 +2919,7 @@
         <v>0.84</v>
       </c>
       <c r="H29" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2927,7 +2945,7 @@
         <v>0.96</v>
       </c>
       <c r="H30" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2953,7 +2971,7 @@
         <v>0.8</v>
       </c>
       <c r="H31" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2979,7 +2997,7 @@
         <v>0.92</v>
       </c>
       <c r="H32" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3005,7 +3023,7 @@
         <v>0.98</v>
       </c>
       <c r="H33" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3031,7 +3049,7 @@
         <v>0.98</v>
       </c>
       <c r="H34" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3057,7 +3075,7 @@
         <v>0.46</v>
       </c>
       <c r="H35" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3083,7 +3101,7 @@
         <v>0.2</v>
       </c>
       <c r="H36" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3109,7 +3127,7 @@
         <v>0.3</v>
       </c>
       <c r="H37" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3135,7 +3153,7 @@
         <v>0.04</v>
       </c>
       <c r="H38" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3161,7 +3179,7 @@
         <v>0.68</v>
       </c>
       <c r="H39" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3187,7 +3205,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3213,7 +3231,7 @@
         <v>0.34</v>
       </c>
       <c r="H41" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3239,7 +3257,7 @@
         <v>0.34</v>
       </c>
       <c r="H42" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3265,7 +3283,7 @@
         <v>0.44</v>
       </c>
       <c r="H43" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3291,7 +3309,7 @@
         <v>0.36</v>
       </c>
       <c r="H44" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3317,7 +3335,7 @@
         <v>0.58</v>
       </c>
       <c r="H45" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3343,7 +3361,7 @@
         <v>0.72</v>
       </c>
       <c r="H46" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3369,7 +3387,7 @@
         <v>0.74</v>
       </c>
       <c r="H47" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3395,7 +3413,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H48" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3421,7 +3439,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H49" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3447,7 +3465,7 @@
         <v>0.96</v>
       </c>
       <c r="H50" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3473,7 +3491,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3499,7 +3517,7 @@
         <v>0.96</v>
       </c>
       <c r="H52" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3525,7 +3543,7 @@
         <v>0.74</v>
       </c>
       <c r="H53" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3551,7 +3569,7 @@
         <v>0.74</v>
       </c>
       <c r="H54" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3577,7 +3595,7 @@
         <v>0.14</v>
       </c>
       <c r="H55" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3603,7 +3621,7 @@
         <v>0.86</v>
       </c>
       <c r="H56" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3629,7 +3647,7 @@
         <v>0.12</v>
       </c>
       <c r="H57" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3655,7 +3673,7 @@
         <v>0.1</v>
       </c>
       <c r="H58" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3681,7 +3699,7 @@
         <v>0.84</v>
       </c>
       <c r="H59" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3707,7 +3725,7 @@
         <v>0.74</v>
       </c>
       <c r="H60" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3733,7 +3751,7 @@
         <v>0.76</v>
       </c>
       <c r="H61" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3759,7 +3777,7 @@
         <v>0.66</v>
       </c>
       <c r="H62" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3785,7 +3803,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H63" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3811,7 +3829,7 @@
         <v>0.74</v>
       </c>
       <c r="H64" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3837,7 +3855,7 @@
         <v>0.6</v>
       </c>
       <c r="H65" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3863,7 +3881,7 @@
         <v>0.2</v>
       </c>
       <c r="H66" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3889,7 +3907,7 @@
         <v>0.06</v>
       </c>
       <c r="H67" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3915,7 +3933,7 @@
         <v>0.98</v>
       </c>
       <c r="H68" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3941,7 +3959,7 @@
         <v>0.38</v>
       </c>
       <c r="H69" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3967,7 +3985,7 @@
         <v>0.02</v>
       </c>
       <c r="H70" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3993,7 +4011,7 @@
         <v>0.8</v>
       </c>
       <c r="H71" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4019,7 +4037,7 @@
         <v>0.7</v>
       </c>
       <c r="H72" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4045,7 +4063,7 @@
         <v>0.72</v>
       </c>
       <c r="H73" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4071,7 +4089,7 @@
         <v>0.2</v>
       </c>
       <c r="H74" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4097,7 +4115,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H75" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4123,7 +4141,7 @@
         <v>0.38</v>
       </c>
       <c r="H76" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4149,7 +4167,7 @@
         <v>0.08</v>
       </c>
       <c r="H77" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4175,7 +4193,7 @@
         <v>0.06</v>
       </c>
       <c r="H78" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4201,7 +4219,7 @@
         <v>0.96</v>
       </c>
       <c r="H79" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4227,7 +4245,7 @@
         <v>0.6</v>
       </c>
       <c r="H80" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4253,7 +4271,7 @@
         <v>0.92</v>
       </c>
       <c r="H81" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4279,7 +4297,7 @@
         <v>0.9</v>
       </c>
       <c r="H82" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4305,7 +4323,7 @@
         <v>0.08</v>
       </c>
       <c r="H83" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4331,7 +4349,7 @@
         <v>0.74</v>
       </c>
       <c r="H84" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4357,7 +4375,7 @@
         <v>0.28</v>
       </c>
       <c r="H85" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4383,7 +4401,7 @@
         <v>0.42</v>
       </c>
       <c r="H86" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4409,7 +4427,7 @@
         <v>0.9</v>
       </c>
       <c r="H87" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4435,7 +4453,7 @@
         <v>0.98</v>
       </c>
       <c r="H88" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4461,7 +4479,7 @@
         <v>0.74</v>
       </c>
       <c r="H89" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4487,7 +4505,7 @@
         <v>0.22</v>
       </c>
       <c r="H90" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4513,7 +4531,7 @@
         <v>0.74</v>
       </c>
       <c r="H91" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4539,7 +4557,7 @@
         <v>0.68</v>
       </c>
       <c r="H92" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4565,7 +4583,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4591,7 +4609,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H94" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4617,7 +4635,7 @@
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4643,7 +4661,7 @@
         <v>0.76</v>
       </c>
       <c r="H96" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4669,7 +4687,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H97" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4695,7 +4713,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4721,7 +4739,7 @@
         <v>0.96</v>
       </c>
       <c r="H99" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4747,7 +4765,7 @@
         <v>0.88</v>
       </c>
       <c r="H100" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4773,7 +4791,7 @@
         <v>0.82</v>
       </c>
       <c r="H101" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4799,7 +4817,7 @@
         <v>0.24</v>
       </c>
       <c r="H102" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4825,7 +4843,7 @@
         <v>0.7</v>
       </c>
       <c r="H103" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4851,7 +4869,7 @@
         <v>0.28</v>
       </c>
       <c r="H104" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4877,7 +4895,7 @@
         <v>0.3</v>
       </c>
       <c r="H105" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4903,7 +4921,7 @@
         <v>0.24</v>
       </c>
       <c r="H106" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4929,7 +4947,7 @@
         <v>0.86</v>
       </c>
       <c r="H107" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4955,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4981,7 +4999,7 @@
         <v>0.28</v>
       </c>
       <c r="H109" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5007,7 +5025,7 @@
         <v>0.98</v>
       </c>
       <c r="H110" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5033,7 +5051,7 @@
         <v>0.26</v>
       </c>
       <c r="H111" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5059,7 +5077,7 @@
         <v>0.44</v>
       </c>
       <c r="H112" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5085,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5111,7 +5129,7 @@
         <v>0.98</v>
       </c>
       <c r="H114" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5137,7 +5155,7 @@
         <v>0.04</v>
       </c>
       <c r="H115" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5163,7 +5181,7 @@
         <v>0.06</v>
       </c>
       <c r="H116" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5189,7 +5207,7 @@
         <v>0.22</v>
       </c>
       <c r="H117" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5215,7 +5233,7 @@
         <v>0.24</v>
       </c>
       <c r="H118" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5241,7 +5259,7 @@
         <v>0.3</v>
       </c>
       <c r="H119" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5267,7 +5285,7 @@
         <v>0.34</v>
       </c>
       <c r="H120" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5293,7 +5311,7 @@
         <v>0.32</v>
       </c>
       <c r="H121" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5319,7 +5337,7 @@
         <v>0.04</v>
       </c>
       <c r="H122" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5345,7 +5363,7 @@
         <v>0.06</v>
       </c>
       <c r="H123" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5371,7 +5389,7 @@
         <v>0.04</v>
       </c>
       <c r="H124" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5397,7 +5415,7 @@
         <v>0.96</v>
       </c>
       <c r="H125" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5423,7 +5441,7 @@
         <v>0.66</v>
       </c>
       <c r="H126" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5449,7 +5467,7 @@
         <v>0.04</v>
       </c>
       <c r="H127" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5475,7 +5493,7 @@
         <v>0.9</v>
       </c>
       <c r="H128" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5501,7 +5519,7 @@
         <v>0.84</v>
       </c>
       <c r="H129" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5527,7 +5545,7 @@
         <v>0.34</v>
       </c>
       <c r="H130" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5553,7 +5571,7 @@
         <v>0.64</v>
       </c>
       <c r="H131" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5579,7 +5597,7 @@
         <v>0.04</v>
       </c>
       <c r="H132" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5605,7 +5623,7 @@
         <v>0.86</v>
       </c>
       <c r="H133" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5631,7 +5649,7 @@
         <v>0.9</v>
       </c>
       <c r="H134" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5657,7 +5675,7 @@
         <v>0.52</v>
       </c>
       <c r="H135" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5683,7 +5701,7 @@
         <v>0.42</v>
       </c>
       <c r="H136" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5709,7 +5727,7 @@
         <v>0.76</v>
       </c>
       <c r="H137" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5735,7 +5753,7 @@
         <v>0.06</v>
       </c>
       <c r="H138" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5761,7 +5779,7 @@
         <v>0.98</v>
       </c>
       <c r="H139" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5787,7 +5805,7 @@
         <v>0.28</v>
       </c>
       <c r="H140" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5813,7 +5831,7 @@
         <v>0.16</v>
       </c>
       <c r="H141" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5839,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5865,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5891,7 +5909,7 @@
         <v>0.66</v>
       </c>
       <c r="H144" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5917,7 +5935,7 @@
         <v>0.42</v>
       </c>
       <c r="H145" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5943,7 +5961,7 @@
         <v>0.32</v>
       </c>
       <c r="H146" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5969,7 +5987,7 @@
         <v>0.34</v>
       </c>
       <c r="H147" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5995,7 +6013,7 @@
         <v>0.02</v>
       </c>
       <c r="H148" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6021,7 +6039,7 @@
         <v>0.16</v>
       </c>
       <c r="H149" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6047,7 +6065,7 @@
         <v>0.76</v>
       </c>
       <c r="H150" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6073,7 +6091,7 @@
         <v>0.24</v>
       </c>
       <c r="H151" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6099,7 +6117,7 @@
         <v>0.04</v>
       </c>
       <c r="H152" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6125,7 +6143,7 @@
         <v>0.3</v>
       </c>
       <c r="H153" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6151,7 +6169,7 @@
         <v>0.98</v>
       </c>
       <c r="H154" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6177,7 +6195,7 @@
         <v>0.76</v>
       </c>
       <c r="H155" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6203,7 +6221,7 @@
         <v>0.28</v>
       </c>
       <c r="H156" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6229,7 +6247,7 @@
         <v>0.84</v>
       </c>
       <c r="H157" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6255,7 +6273,7 @@
         <v>0.64</v>
       </c>
       <c r="H158" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6281,7 +6299,7 @@
         <v>0.32</v>
       </c>
       <c r="H159" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6307,7 +6325,7 @@
         <v>0.72</v>
       </c>
       <c r="H160" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6333,7 +6351,7 @@
         <v>0.3</v>
       </c>
       <c r="H161" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6359,7 +6377,7 @@
         <v>0.68</v>
       </c>
       <c r="H162" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6385,7 +6403,7 @@
         <v>0.32</v>
       </c>
       <c r="H163" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6411,7 +6429,7 @@
         <v>0.72</v>
       </c>
       <c r="H164" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6437,7 +6455,7 @@
         <v>0.36</v>
       </c>
       <c r="H165" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6463,7 +6481,7 @@
         <v>0.86</v>
       </c>
       <c r="H166" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6489,7 +6507,7 @@
         <v>0.58</v>
       </c>
       <c r="H167" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6515,7 +6533,7 @@
         <v>0.78</v>
       </c>
       <c r="H168" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6541,7 +6559,7 @@
         <v>0.98</v>
       </c>
       <c r="H169" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6567,7 +6585,7 @@
         <v>0.86</v>
       </c>
       <c r="H170" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6593,7 +6611,7 @@
         <v>0.08</v>
       </c>
       <c r="H171" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6619,7 +6637,7 @@
         <v>0.88</v>
       </c>
       <c r="H172" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6645,7 +6663,7 @@
         <v>0.68</v>
       </c>
       <c r="H173" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6671,7 +6689,7 @@
         <v>0.74</v>
       </c>
       <c r="H174" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6697,7 +6715,7 @@
         <v>0.58</v>
       </c>
       <c r="H175" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6723,7 +6741,7 @@
         <v>0.22</v>
       </c>
       <c r="H176" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6749,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6775,7 +6793,7 @@
         <v>0.64</v>
       </c>
       <c r="H178" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6801,7 +6819,7 @@
         <v>0.26</v>
       </c>
       <c r="H179" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6827,7 +6845,7 @@
         <v>0.6</v>
       </c>
       <c r="H180" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6853,7 +6871,7 @@
         <v>0.98</v>
       </c>
       <c r="H181" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6879,7 +6897,7 @@
         <v>0.3517053405853769</v>
       </c>
       <c r="H182" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6905,7 +6923,7 @@
         <v>0.84</v>
       </c>
       <c r="H183" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6931,7 +6949,7 @@
         <v>0.48</v>
       </c>
       <c r="H184" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6957,7 +6975,7 @@
         <v>0.08</v>
       </c>
       <c r="H185" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6983,7 +7001,7 @@
         <v>0.6</v>
       </c>
       <c r="H186" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7009,7 +7027,7 @@
         <v>0.9</v>
       </c>
       <c r="H187" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7035,7 +7053,7 @@
         <v>0.8</v>
       </c>
       <c r="H188" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7061,7 +7079,7 @@
         <v>0.34</v>
       </c>
       <c r="H189" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7087,7 +7105,7 @@
         <v>0.16</v>
       </c>
       <c r="H190" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7113,7 +7131,7 @@
         <v>0.1</v>
       </c>
       <c r="H191" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7139,7 +7157,7 @@
         <v>0.7</v>
       </c>
       <c r="H192" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7165,7 +7183,7 @@
         <v>0.72</v>
       </c>
       <c r="H193" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7191,7 +7209,7 @@
         <v>0.04</v>
       </c>
       <c r="H194" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7217,7 +7235,7 @@
         <v>0.008304498269896196</v>
       </c>
       <c r="H195" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7243,7 +7261,7 @@
         <v>0.26</v>
       </c>
       <c r="H196" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7269,7 +7287,7 @@
         <v>0.4</v>
       </c>
       <c r="H197" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7295,7 +7313,7 @@
         <v>0.64</v>
       </c>
       <c r="H198" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7321,7 +7339,7 @@
         <v>0.24</v>
       </c>
       <c r="H199" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7347,7 +7365,7 @@
         <v>0.4</v>
       </c>
       <c r="H200" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7373,7 +7391,7 @@
         <v>0.32</v>
       </c>
       <c r="H201" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7399,7 +7417,7 @@
         <v>0.38</v>
       </c>
       <c r="H202" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7425,7 +7443,7 @@
         <v>0.72</v>
       </c>
       <c r="H203" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7451,7 +7469,7 @@
         <v>0.68</v>
       </c>
       <c r="H204" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7477,7 +7495,7 @@
         <v>0.32</v>
       </c>
       <c r="H205" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7503,7 +7521,7 @@
         <v>0.32</v>
       </c>
       <c r="H206" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7529,7 +7547,7 @@
         <v>0.2</v>
       </c>
       <c r="H207" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7555,7 +7573,7 @@
         <v>0.3</v>
       </c>
       <c r="H208" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7581,7 +7599,7 @@
         <v>0.78</v>
       </c>
       <c r="H209" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7607,7 +7625,7 @@
         <v>0.26</v>
       </c>
       <c r="H210" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7633,7 +7651,7 @@
         <v>0.32</v>
       </c>
       <c r="H211" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7659,7 +7677,7 @@
         <v>0.3</v>
       </c>
       <c r="H212" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7685,7 +7703,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H213" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7711,7 +7729,7 @@
         <v>0.88</v>
       </c>
       <c r="H214" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7737,7 +7755,7 @@
         <v>0.74</v>
       </c>
       <c r="H215" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7763,7 +7781,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7789,7 +7807,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7815,7 +7833,7 @@
         <v>0.2</v>
       </c>
       <c r="H218" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7841,7 +7859,7 @@
         <v>0.22</v>
       </c>
       <c r="H219" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7867,7 +7885,7 @@
         <v>0.78</v>
       </c>
       <c r="H220" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7893,7 +7911,7 @@
         <v>0.98</v>
       </c>
       <c r="H221" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7919,7 +7937,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7945,7 +7963,7 @@
         <v>0.4381603474151185</v>
       </c>
       <c r="H223" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7971,7 +7989,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H224" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7997,7 +8015,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H225" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8023,7 +8041,7 @@
         <v>0.58</v>
       </c>
       <c r="H226" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8049,7 +8067,7 @@
         <v>0.14</v>
       </c>
       <c r="H227" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8075,7 +8093,7 @@
         <v>0.18</v>
       </c>
       <c r="H228" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8101,7 +8119,7 @@
         <v>0.02</v>
       </c>
       <c r="H229" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8127,7 +8145,7 @@
         <v>0.02</v>
       </c>
       <c r="H230" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8153,7 +8171,7 @@
         <v>0.98</v>
       </c>
       <c r="H231" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8179,7 +8197,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8205,7 +8223,7 @@
         <v>0.04</v>
       </c>
       <c r="H233" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8231,7 +8249,7 @@
         <v>0.88</v>
       </c>
       <c r="H234" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8257,7 +8275,7 @@
         <v>0.62</v>
       </c>
       <c r="H235" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8283,7 +8301,7 @@
         <v>0.14</v>
       </c>
       <c r="H236" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8309,7 +8327,7 @@
         <v>0.66</v>
       </c>
       <c r="H237" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8335,7 +8353,7 @@
         <v>0.92</v>
       </c>
       <c r="H238" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8361,7 +8379,7 @@
         <v>0.38</v>
       </c>
       <c r="H239" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8387,7 +8405,7 @@
         <v>0.4</v>
       </c>
       <c r="H240" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8413,7 +8431,7 @@
         <v>0.1</v>
       </c>
       <c r="H241" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8439,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8465,7 +8483,7 @@
         <v>0.04</v>
       </c>
       <c r="H243" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8491,7 +8509,7 @@
         <v>0.96</v>
       </c>
       <c r="H244" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8517,7 +8535,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8543,7 +8561,7 @@
         <v>0.28</v>
       </c>
       <c r="H246" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8569,7 +8587,7 @@
         <v>0.96</v>
       </c>
       <c r="H247" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8595,7 +8613,7 @@
         <v>0.04</v>
       </c>
       <c r="H248" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8621,7 +8639,7 @@
         <v>0.4</v>
       </c>
       <c r="H249" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8647,7 +8665,7 @@
         <v>0.78</v>
       </c>
       <c r="H250" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8673,7 +8691,7 @@
         <v>0.62</v>
       </c>
       <c r="H251" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8699,7 +8717,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8725,7 +8743,7 @@
         <v>0.46</v>
       </c>
       <c r="H253" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8751,7 +8769,7 @@
         <v>0.4</v>
       </c>
       <c r="H254" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8777,7 +8795,7 @@
         <v>0.14</v>
       </c>
       <c r="H255" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8803,7 +8821,7 @@
         <v>0.72</v>
       </c>
       <c r="H256" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8829,7 +8847,7 @@
         <v>0.8</v>
       </c>
       <c r="H257" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8855,7 +8873,7 @@
         <v>0.88</v>
       </c>
       <c r="H258" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8881,7 +8899,7 @@
         <v>0.02</v>
       </c>
       <c r="H259" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8907,7 +8925,7 @@
         <v>0.26</v>
       </c>
       <c r="H260" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8933,7 +8951,7 @@
         <v>0.4</v>
       </c>
       <c r="H261" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8959,7 +8977,7 @@
         <v>0.74</v>
       </c>
       <c r="H262" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8985,7 +9003,7 @@
         <v>0.08</v>
       </c>
       <c r="H263" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9011,7 +9029,7 @@
         <v>0.96</v>
       </c>
       <c r="H264" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9037,7 +9055,7 @@
         <v>0.96</v>
       </c>
       <c r="H265" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9063,7 +9081,7 @@
         <v>0.4</v>
       </c>
       <c r="H266" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9089,7 +9107,7 @@
         <v>0.28</v>
       </c>
       <c r="H267" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9115,7 +9133,7 @@
         <v>0.12</v>
       </c>
       <c r="H268" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9141,7 +9159,7 @@
         <v>0.28</v>
       </c>
       <c r="H269" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9167,7 +9185,7 @@
         <v>0.22</v>
       </c>
       <c r="H270" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9193,7 +9211,7 @@
         <v>0.68</v>
       </c>
       <c r="H271" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9219,7 +9237,7 @@
         <v>0.72</v>
       </c>
       <c r="H272" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9245,7 +9263,7 @@
         <v>0.38</v>
       </c>
       <c r="H273" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9271,7 +9289,7 @@
         <v>0.18</v>
       </c>
       <c r="H274" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9297,7 +9315,7 @@
         <v>0.62</v>
       </c>
       <c r="H275" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9323,7 +9341,7 @@
         <v>0.58</v>
       </c>
       <c r="H276" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9349,7 +9367,7 @@
         <v>0.74</v>
       </c>
       <c r="H277" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9375,7 +9393,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H278" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9401,7 +9419,7 @@
         <v>0.2</v>
       </c>
       <c r="H279" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9427,7 +9445,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9453,7 +9471,7 @@
         <v>0.46</v>
       </c>
       <c r="H281" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9479,7 +9497,7 @@
         <v>0.16</v>
       </c>
       <c r="H282" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9505,7 +9523,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9531,7 +9549,7 @@
         <v>0.54</v>
       </c>
       <c r="H284" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9557,7 +9575,7 @@
         <v>0.98</v>
       </c>
       <c r="H285" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9583,7 +9601,7 @@
         <v>0.22</v>
       </c>
       <c r="H286" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9609,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9635,7 +9653,7 @@
         <v>0.76</v>
       </c>
       <c r="H288" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9661,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="H289" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9687,7 +9705,7 @@
         <v>0.72</v>
       </c>
       <c r="H290" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9713,7 +9731,7 @@
         <v>0.66</v>
       </c>
       <c r="H291" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9739,7 +9757,7 @@
         <v>0.62</v>
       </c>
       <c r="H292" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9765,7 +9783,7 @@
         <v>1</v>
       </c>
       <c r="H293" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9791,7 +9809,7 @@
         <v>0.36</v>
       </c>
       <c r="H294" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9817,7 +9835,7 @@
         <v>0.36</v>
       </c>
       <c r="H295" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9843,7 +9861,7 @@
         <v>0.96</v>
       </c>
       <c r="H296" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9869,7 +9887,7 @@
         <v>0.92</v>
       </c>
       <c r="H297" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9895,7 +9913,7 @@
         <v>0.04</v>
       </c>
       <c r="H298" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9921,7 +9939,7 @@
         <v>0.9</v>
       </c>
       <c r="H299" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9947,7 +9965,7 @@
         <v>0.28</v>
       </c>
       <c r="H300" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9973,7 +9991,7 @@
         <v>0.62</v>
       </c>
       <c r="H301" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9999,7 +10017,7 @@
         <v>0.9</v>
       </c>
       <c r="H302" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10025,7 +10043,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10051,7 +10069,7 @@
         <v>0.38</v>
       </c>
       <c r="H304" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10077,7 +10095,7 @@
         <v>0.4</v>
       </c>
       <c r="H305" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10103,7 +10121,7 @@
         <v>0.06</v>
       </c>
       <c r="H306" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10129,7 +10147,7 @@
         <v>0.68</v>
       </c>
       <c r="H307" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10155,7 +10173,7 @@
         <v>0.78</v>
       </c>
       <c r="H308" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10181,7 +10199,7 @@
         <v>0.06</v>
       </c>
       <c r="H309" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10207,7 +10225,7 @@
         <v>0.5</v>
       </c>
       <c r="H310" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10233,7 +10251,7 @@
         <v>0.16</v>
       </c>
       <c r="H311" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10259,7 +10277,7 @@
         <v>0.18</v>
       </c>
       <c r="H312" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10285,7 +10303,7 @@
         <v>0.96</v>
       </c>
       <c r="H313" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10311,7 +10329,7 @@
         <v>0.86</v>
       </c>
       <c r="H314" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10337,7 +10355,7 @@
         <v>0.96</v>
       </c>
       <c r="H315" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10363,7 +10381,7 @@
         <v>1</v>
       </c>
       <c r="H316" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10389,7 +10407,7 @@
         <v>0.8</v>
       </c>
       <c r="H317" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10415,7 +10433,7 @@
         <v>0.98</v>
       </c>
       <c r="H318" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10441,7 +10459,7 @@
         <v>0.34</v>
       </c>
       <c r="H319" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10467,7 +10485,7 @@
         <v>0.16</v>
       </c>
       <c r="H320" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10493,7 +10511,7 @@
         <v>0.88</v>
       </c>
       <c r="H321" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10519,7 +10537,7 @@
         <v>0.7</v>
       </c>
       <c r="H322" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10545,7 +10563,7 @@
         <v>0.68</v>
       </c>
       <c r="H323" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10571,7 +10589,7 @@
         <v>0.36</v>
       </c>
       <c r="H324" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10597,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10623,7 +10641,7 @@
         <v>0.9</v>
       </c>
       <c r="H326" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10649,7 +10667,7 @@
         <v>0.22</v>
       </c>
       <c r="H327" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10675,7 +10693,7 @@
         <v>0.42</v>
       </c>
       <c r="H328" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10701,7 +10719,7 @@
         <v>0.2</v>
       </c>
       <c r="H329" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10727,7 +10745,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10753,7 +10771,7 @@
         <v>0.6</v>
       </c>
       <c r="H331" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10779,7 +10797,7 @@
         <v>0.88</v>
       </c>
       <c r="H332" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10805,7 +10823,7 @@
         <v>0.06</v>
       </c>
       <c r="H333" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10831,7 +10849,7 @@
         <v>0.82</v>
       </c>
       <c r="H334" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10857,7 +10875,7 @@
         <v>1</v>
       </c>
       <c r="H335" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10883,7 +10901,7 @@
         <v>0.06</v>
       </c>
       <c r="H336" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10909,7 +10927,7 @@
         <v>0.28</v>
       </c>
       <c r="H337" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10935,7 +10953,7 @@
         <v>0.58</v>
       </c>
       <c r="H338" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10961,7 +10979,7 @@
         <v>0.36</v>
       </c>
       <c r="H339" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10987,7 +11005,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11013,7 +11031,7 @@
         <v>0.34</v>
       </c>
       <c r="H341" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11039,7 +11057,7 @@
         <v>0.9</v>
       </c>
       <c r="H342" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11065,7 +11083,7 @@
         <v>0.8</v>
       </c>
       <c r="H343" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11091,7 +11109,7 @@
         <v>0.4</v>
       </c>
       <c r="H344" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11117,7 +11135,7 @@
         <v>0.22</v>
       </c>
       <c r="H345" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11143,7 +11161,7 @@
         <v>0.7</v>
       </c>
       <c r="H346" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11169,7 +11187,7 @@
         <v>0.76</v>
       </c>
       <c r="H347" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11195,7 +11213,7 @@
         <v>0.96</v>
       </c>
       <c r="H348" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11221,7 +11239,7 @@
         <v>0.38</v>
       </c>
       <c r="H349" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11247,7 +11265,7 @@
         <v>0.7</v>
       </c>
       <c r="H350" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11273,7 +11291,7 @@
         <v>0.92</v>
       </c>
       <c r="H351" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11299,7 +11317,7 @@
         <v>0.22</v>
       </c>
       <c r="H352" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11325,7 +11343,7 @@
         <v>1</v>
       </c>
       <c r="H353" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11351,7 +11369,7 @@
         <v>0.36</v>
       </c>
       <c r="H354" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11377,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11403,7 +11421,7 @@
         <v>0.7</v>
       </c>
       <c r="H356" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11429,7 +11447,7 @@
         <v>0.38</v>
       </c>
       <c r="H357" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11455,7 +11473,7 @@
         <v>0.02</v>
       </c>
       <c r="H358" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11481,7 +11499,7 @@
         <v>0.66</v>
       </c>
       <c r="H359" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11507,7 +11525,7 @@
         <v>0.14</v>
       </c>
       <c r="H360" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11533,7 +11551,7 @@
         <v>0.96</v>
       </c>
       <c r="H361" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11559,7 +11577,7 @@
         <v>0.96</v>
       </c>
       <c r="H362" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11585,7 +11603,7 @@
         <v>0.16</v>
       </c>
       <c r="H363" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11611,7 +11629,7 @@
         <v>0.26</v>
       </c>
       <c r="H364" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11637,7 +11655,7 @@
         <v>0.22</v>
       </c>
       <c r="H365" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11663,7 +11681,7 @@
         <v>0.96</v>
       </c>
       <c r="H366" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11689,7 +11707,7 @@
         <v>0.12</v>
       </c>
       <c r="H367" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11715,7 +11733,7 @@
         <v>0.84</v>
       </c>
       <c r="H368" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11741,7 +11759,7 @@
         <v>0.86</v>
       </c>
       <c r="H369" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11767,7 +11785,7 @@
         <v>0.88</v>
       </c>
       <c r="H370" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11793,7 +11811,7 @@
         <v>0.84</v>
       </c>
       <c r="H371" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11819,7 +11837,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11845,7 +11863,7 @@
         <v>0.72</v>
       </c>
       <c r="H373" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11871,7 +11889,7 @@
         <v>0.8</v>
       </c>
       <c r="H374" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11897,7 +11915,7 @@
         <v>0.7</v>
       </c>
       <c r="H375" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11923,7 +11941,7 @@
         <v>0.7</v>
       </c>
       <c r="H376" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11949,7 +11967,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11975,7 +11993,7 @@
         <v>0.1</v>
       </c>
       <c r="H378" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12001,7 +12019,7 @@
         <v>0.16</v>
       </c>
       <c r="H379" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12027,7 +12045,7 @@
         <v>0.04</v>
       </c>
       <c r="H380" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12053,7 +12071,7 @@
         <v>0.14</v>
       </c>
       <c r="H381" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12079,7 +12097,7 @@
         <v>0.12</v>
       </c>
       <c r="H382" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12105,7 +12123,7 @@
         <v>0.04</v>
       </c>
       <c r="H383" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12131,7 +12149,7 @@
         <v>0.9</v>
       </c>
       <c r="H384" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12157,7 +12175,7 @@
         <v>0.14</v>
       </c>
       <c r="H385" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12183,7 +12201,7 @@
         <v>0.76</v>
       </c>
       <c r="H386" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12209,7 +12227,7 @@
         <v>0.66</v>
       </c>
       <c r="H387" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12235,7 +12253,7 @@
         <v>0.68</v>
       </c>
       <c r="H388" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12261,7 +12279,7 @@
         <v>0.76</v>
       </c>
       <c r="H389" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12287,7 +12305,7 @@
         <v>1</v>
       </c>
       <c r="H390" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12313,7 +12331,7 @@
         <v>0.06</v>
       </c>
       <c r="H391" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12339,7 +12357,7 @@
         <v>0.76</v>
       </c>
       <c r="H392" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12365,7 +12383,7 @@
         <v>0.06</v>
       </c>
       <c r="H393" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12391,7 +12409,7 @@
         <v>0.3</v>
       </c>
       <c r="H394" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12417,7 +12435,7 @@
         <v>0.3</v>
       </c>
       <c r="H395" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12443,7 +12461,7 @@
         <v>0.74</v>
       </c>
       <c r="H396" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12469,7 +12487,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12495,7 +12513,7 @@
         <v>0.14</v>
       </c>
       <c r="H398" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12521,7 +12539,7 @@
         <v>0.74</v>
       </c>
       <c r="H399" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12547,7 +12565,7 @@
         <v>0.8</v>
       </c>
       <c r="H400" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12573,7 +12591,7 @@
         <v>0.74</v>
       </c>
       <c r="H401" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12599,7 +12617,7 @@
         <v>0.84</v>
       </c>
       <c r="H402" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12625,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12651,7 +12669,7 @@
         <v>0.26</v>
       </c>
       <c r="H404" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12677,7 +12695,7 @@
         <v>0.16</v>
       </c>
       <c r="H405" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12703,7 +12721,7 @@
         <v>0.84</v>
       </c>
       <c r="H406" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12729,7 +12747,7 @@
         <v>0.76</v>
       </c>
       <c r="H407" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12755,7 +12773,7 @@
         <v>0.18</v>
       </c>
       <c r="H408" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12781,7 +12799,7 @@
         <v>0.98</v>
       </c>
       <c r="H409" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12807,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12833,7 +12851,7 @@
         <v>0.98</v>
       </c>
       <c r="H411" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12859,7 +12877,7 @@
         <v>0.98</v>
       </c>
       <c r="H412" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12885,7 +12903,7 @@
         <v>1</v>
       </c>
       <c r="H413" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12911,7 +12929,7 @@
         <v>0.84</v>
       </c>
       <c r="H414" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12937,7 +12955,7 @@
         <v>0.78</v>
       </c>
       <c r="H415" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12963,7 +12981,7 @@
         <v>0.68</v>
       </c>
       <c r="H416" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -12989,7 +13007,7 @@
         <v>0.66</v>
       </c>
       <c r="H417" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13015,7 +13033,7 @@
         <v>0.88</v>
       </c>
       <c r="H418" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13041,7 +13059,7 @@
         <v>0.82</v>
       </c>
       <c r="H419" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13067,7 +13085,7 @@
         <v>0.96</v>
       </c>
       <c r="H420" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13093,7 +13111,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13119,7 +13137,7 @@
         <v>0.38</v>
       </c>
       <c r="H422" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13145,7 +13163,7 @@
         <v>0.7</v>
       </c>
       <c r="H423" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13171,7 +13189,7 @@
         <v>0.14</v>
       </c>
       <c r="H424" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13197,7 +13215,7 @@
         <v>0.3</v>
       </c>
       <c r="H425" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13223,7 +13241,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13249,7 +13267,7 @@
         <v>0.36</v>
       </c>
       <c r="H427" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13275,7 +13293,7 @@
         <v>0.64</v>
       </c>
       <c r="H428" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13301,7 +13319,7 @@
         <v>0.24</v>
       </c>
       <c r="H429" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13327,7 +13345,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13353,7 +13371,7 @@
         <v>0.96</v>
       </c>
       <c r="H431" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13379,7 +13397,7 @@
         <v>0.36</v>
       </c>
       <c r="H432" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13405,7 +13423,7 @@
         <v>0.54</v>
       </c>
       <c r="H433" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13431,7 +13449,7 @@
         <v>0.7</v>
       </c>
       <c r="H434" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13457,7 +13475,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H435" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13483,7 +13501,7 @@
         <v>0.08</v>
       </c>
       <c r="H436" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13509,7 +13527,7 @@
         <v>0.4</v>
       </c>
       <c r="H437" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13535,7 +13553,7 @@
         <v>0.34</v>
       </c>
       <c r="H438" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13561,7 +13579,7 @@
         <v>0.04</v>
       </c>
       <c r="H439" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13587,7 +13605,7 @@
         <v>0.34</v>
       </c>
       <c r="H440" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13613,7 +13631,7 @@
         <v>0.36</v>
       </c>
       <c r="H441" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13639,7 +13657,7 @@
         <v>0.68</v>
       </c>
       <c r="H442" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13665,7 +13683,7 @@
         <v>0.38</v>
       </c>
       <c r="H443" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13691,7 +13709,7 @@
         <v>0.64</v>
       </c>
       <c r="H444" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13717,7 +13735,7 @@
         <v>0.86</v>
       </c>
       <c r="H445" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13743,7 +13761,7 @@
         <v>0.64</v>
       </c>
       <c r="H446" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13769,7 +13787,7 @@
         <v>0.88</v>
       </c>
       <c r="H447" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13795,7 +13813,7 @@
         <v>0.96</v>
       </c>
       <c r="H448" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13821,7 +13839,7 @@
         <v>0.1</v>
       </c>
       <c r="H449" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13847,7 +13865,7 @@
         <v>0.12</v>
       </c>
       <c r="H450" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13873,7 +13891,7 @@
         <v>0.92</v>
       </c>
       <c r="H451" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13899,7 +13917,7 @@
         <v>0.98</v>
       </c>
       <c r="H452" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13925,7 +13943,7 @@
         <v>0.92</v>
       </c>
       <c r="H453" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13951,7 +13969,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13977,7 +13995,7 @@
         <v>0.74</v>
       </c>
       <c r="H455" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14003,7 +14021,7 @@
         <v>0.84</v>
       </c>
       <c r="H456" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14029,7 +14047,7 @@
         <v>0.18</v>
       </c>
       <c r="H457" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14055,7 +14073,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H458" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14081,7 +14099,7 @@
         <v>0.12</v>
       </c>
       <c r="H459" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14107,7 +14125,7 @@
         <v>1</v>
       </c>
       <c r="H460" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14133,7 +14151,7 @@
         <v>0.96</v>
       </c>
       <c r="H461" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14159,7 +14177,7 @@
         <v>0.9</v>
       </c>
       <c r="H462" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14185,7 +14203,7 @@
         <v>0.62</v>
       </c>
       <c r="H463" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14211,7 +14229,7 @@
         <v>0.16</v>
       </c>
       <c r="H464" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14237,7 +14255,7 @@
         <v>0.4</v>
       </c>
       <c r="H465" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14263,7 +14281,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14289,7 +14307,7 @@
         <v>0.84</v>
       </c>
       <c r="H467" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14315,7 +14333,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H468" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14341,7 +14359,7 @@
         <v>0.9</v>
       </c>
       <c r="H469" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14367,7 +14385,7 @@
         <v>0.24</v>
       </c>
       <c r="H470" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14393,7 +14411,7 @@
         <v>0.26</v>
       </c>
       <c r="H471" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14419,7 +14437,7 @@
         <v>0.74</v>
       </c>
       <c r="H472" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14445,7 +14463,7 @@
         <v>0.4</v>
       </c>
       <c r="H473" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14471,7 +14489,7 @@
         <v>1</v>
       </c>
       <c r="H474" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14497,7 +14515,7 @@
         <v>0.86</v>
       </c>
       <c r="H475" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14523,7 +14541,7 @@
         <v>0.7491891891891892</v>
       </c>
       <c r="H476" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14549,7 +14567,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H477" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14575,7 +14593,7 @@
         <v>0.02</v>
       </c>
       <c r="H478" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14601,7 +14619,7 @@
         <v>0.66</v>
       </c>
       <c r="H479" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14627,7 +14645,7 @@
         <v>0.26</v>
       </c>
       <c r="H480" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14653,7 +14671,7 @@
         <v>0.76</v>
       </c>
       <c r="H481" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14679,7 +14697,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14705,7 +14723,7 @@
         <v>0.76</v>
       </c>
       <c r="H483" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14731,7 +14749,7 @@
         <v>0.08</v>
       </c>
       <c r="H484" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14757,7 +14775,7 @@
         <v>0.96</v>
       </c>
       <c r="H485" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14783,7 +14801,7 @@
         <v>0.98</v>
       </c>
       <c r="H486" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14809,7 +14827,7 @@
         <v>0.36</v>
       </c>
       <c r="H487" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14835,7 +14853,7 @@
         <v>0.2</v>
       </c>
       <c r="H488" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14861,7 +14879,7 @@
         <v>0.12</v>
       </c>
       <c r="H489" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14887,7 +14905,7 @@
         <v>0.9</v>
       </c>
       <c r="H490" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14913,7 +14931,7 @@
         <v>0.24</v>
       </c>
       <c r="H491" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14939,7 +14957,7 @@
         <v>0.9</v>
       </c>
       <c r="H492" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14965,7 +14983,7 @@
         <v>0.7</v>
       </c>
       <c r="H493" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -14991,7 +15009,7 @@
         <v>0.68</v>
       </c>
       <c r="H494" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15017,7 +15035,7 @@
         <v>0.12</v>
       </c>
       <c r="H495" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15043,7 +15061,7 @@
         <v>0.68</v>
       </c>
       <c r="H496" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15069,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15095,7 +15113,7 @@
         <v>0.68</v>
       </c>
       <c r="H498" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15121,7 +15139,7 @@
         <v>0.96</v>
       </c>
       <c r="H499" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15147,7 +15165,7 @@
         <v>0.18</v>
       </c>
       <c r="H500" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15173,7 +15191,7 @@
         <v>0.88</v>
       </c>
       <c r="H501" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15199,7 +15217,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15225,7 +15243,7 @@
         <v>0.04</v>
       </c>
       <c r="H503" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15251,7 +15269,7 @@
         <v>0.08</v>
       </c>
       <c r="H504" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15277,7 +15295,7 @@
         <v>0.22</v>
       </c>
       <c r="H505" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15303,7 +15321,7 @@
         <v>0.24</v>
       </c>
       <c r="H506" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15329,7 +15347,7 @@
         <v>0.62</v>
       </c>
       <c r="H507" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15355,7 +15373,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H508" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15381,7 +15399,7 @@
         <v>0.62</v>
       </c>
       <c r="H509" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15407,7 +15425,7 @@
         <v>0.36</v>
       </c>
       <c r="H510" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15433,7 +15451,7 @@
         <v>0.54</v>
       </c>
       <c r="H511" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15459,7 +15477,7 @@
         <v>0.76</v>
       </c>
       <c r="H512" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15485,7 +15503,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15511,7 +15529,7 @@
         <v>0.28</v>
       </c>
       <c r="H514" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15537,7 +15555,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15563,7 +15581,7 @@
         <v>0.38</v>
       </c>
       <c r="H516" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15589,7 +15607,7 @@
         <v>0.3</v>
       </c>
       <c r="H517" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15615,7 +15633,7 @@
         <v>0.36</v>
       </c>
       <c r="H518" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15641,7 +15659,7 @@
         <v>0.8</v>
       </c>
       <c r="H519" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15667,7 +15685,7 @@
         <v>0.22</v>
       </c>
       <c r="H520" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15693,7 +15711,7 @@
         <v>0.32</v>
       </c>
       <c r="H521" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15719,7 +15737,7 @@
         <v>0.32</v>
       </c>
       <c r="H522" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15745,7 +15763,7 @@
         <v>0.52</v>
       </c>
       <c r="H523" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15771,7 +15789,7 @@
         <v>0.92</v>
       </c>
       <c r="H524" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15797,7 +15815,7 @@
         <v>0.96</v>
       </c>
       <c r="H525" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15823,7 +15841,7 @@
         <v>0.16</v>
       </c>
       <c r="H526" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15849,7 +15867,7 @@
         <v>0.66</v>
       </c>
       <c r="H527" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15875,7 +15893,7 @@
         <v>0.04</v>
       </c>
       <c r="H528" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15901,7 +15919,7 @@
         <v>0.02</v>
       </c>
       <c r="H529" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15927,7 +15945,7 @@
         <v>0.36</v>
       </c>
       <c r="H530" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15953,7 +15971,7 @@
         <v>0.14</v>
       </c>
       <c r="H531" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15979,7 +15997,7 @@
         <v>0.64</v>
       </c>
       <c r="H532" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16005,7 +16023,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16031,7 +16049,7 @@
         <v>0.08</v>
       </c>
       <c r="H534" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16057,7 +16075,7 @@
         <v>0.06</v>
       </c>
       <c r="H535" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16083,7 +16101,7 @@
         <v>0.34</v>
       </c>
       <c r="H536" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16109,7 +16127,7 @@
         <v>0.28</v>
       </c>
       <c r="H537" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16135,7 +16153,7 @@
         <v>0.92</v>
       </c>
       <c r="H538" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16161,7 +16179,7 @@
         <v>0.08</v>
       </c>
       <c r="H539" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16187,7 +16205,7 @@
         <v>0.64</v>
       </c>
       <c r="H540" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16213,7 +16231,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16239,7 +16257,7 @@
         <v>0.18</v>
       </c>
       <c r="H542" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16265,7 +16283,7 @@
         <v>0.16</v>
       </c>
       <c r="H543" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16291,7 +16309,7 @@
         <v>0.98</v>
       </c>
       <c r="H544" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16317,7 +16335,7 @@
         <v>0.14</v>
       </c>
       <c r="H545" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16343,7 +16361,7 @@
         <v>0.26</v>
       </c>
       <c r="H546" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16369,7 +16387,7 @@
         <v>0.02</v>
       </c>
       <c r="H547" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16395,7 +16413,7 @@
         <v>0.6</v>
       </c>
       <c r="H548" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16421,7 +16439,7 @@
         <v>1</v>
       </c>
       <c r="H549" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16447,7 +16465,7 @@
         <v>0.96</v>
       </c>
       <c r="H550" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16473,7 +16491,7 @@
         <v>0.32</v>
       </c>
       <c r="H551" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16499,7 +16517,7 @@
         <v>0.22</v>
       </c>
       <c r="H552" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16525,7 +16543,7 @@
         <v>0.6</v>
       </c>
       <c r="H553" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16551,7 +16569,7 @@
         <v>0.96</v>
       </c>
       <c r="H554" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16577,7 +16595,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16587,9 +16605,15 @@
       <c r="B556" t="s">
         <v>561</v>
       </c>
+      <c r="C556">
+        <v>0</v>
+      </c>
       <c r="D556">
         <v>1</v>
       </c>
+      <c r="E556">
+        <v>0</v>
+      </c>
       <c r="F556">
         <v>0</v>
       </c>
@@ -16597,7 +16621,157 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>572</v>
+        <v>578</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8">
+      <c r="A557" s="1">
+        <v>555</v>
+      </c>
+      <c r="B557" t="s">
+        <v>562</v>
+      </c>
+      <c r="C557">
+        <v>1</v>
+      </c>
+      <c r="D557">
+        <v>0</v>
+      </c>
+      <c r="E557">
+        <v>0</v>
+      </c>
+      <c r="F557">
+        <v>1</v>
+      </c>
+      <c r="G557">
+        <v>0</v>
+      </c>
+      <c r="H557" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8">
+      <c r="A558" s="1">
+        <v>556</v>
+      </c>
+      <c r="B558" t="s">
+        <v>563</v>
+      </c>
+      <c r="C558">
+        <v>1</v>
+      </c>
+      <c r="D558">
+        <v>1</v>
+      </c>
+      <c r="E558">
+        <v>1</v>
+      </c>
+      <c r="F558">
+        <v>0.34</v>
+      </c>
+      <c r="G558">
+        <v>0.66</v>
+      </c>
+      <c r="H558" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8">
+      <c r="A559" s="1">
+        <v>557</v>
+      </c>
+      <c r="B559" t="s">
+        <v>564</v>
+      </c>
+      <c r="C559">
+        <v>1</v>
+      </c>
+      <c r="D559">
+        <v>1</v>
+      </c>
+      <c r="E559">
+        <v>1</v>
+      </c>
+      <c r="F559">
+        <v>0.36</v>
+      </c>
+      <c r="G559">
+        <v>0.64</v>
+      </c>
+      <c r="H559" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8">
+      <c r="A560" s="1">
+        <v>558</v>
+      </c>
+      <c r="B560" t="s">
+        <v>565</v>
+      </c>
+      <c r="C560">
+        <v>0</v>
+      </c>
+      <c r="D560">
+        <v>0</v>
+      </c>
+      <c r="E560">
+        <v>1</v>
+      </c>
+      <c r="F560">
+        <v>0.58</v>
+      </c>
+      <c r="G560">
+        <v>0.42</v>
+      </c>
+      <c r="H560" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8">
+      <c r="A561" s="1">
+        <v>559</v>
+      </c>
+      <c r="B561" t="s">
+        <v>566</v>
+      </c>
+      <c r="C561">
+        <v>1</v>
+      </c>
+      <c r="D561">
+        <v>0</v>
+      </c>
+      <c r="E561">
+        <v>0</v>
+      </c>
+      <c r="F561">
+        <v>0.84</v>
+      </c>
+      <c r="G561">
+        <v>0.16</v>
+      </c>
+      <c r="H561" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8">
+      <c r="A562" s="1">
+        <v>560</v>
+      </c>
+      <c r="B562" t="s">
+        <v>567</v>
+      </c>
+      <c r="D562">
+        <v>1</v>
+      </c>
+      <c r="F562">
+        <v>0.4</v>
+      </c>
+      <c r="G562">
+        <v>0.6</v>
+      </c>
+      <c r="H562" t="s">
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyOOC.xlsx
+++ b/firebase_data_from_spyOOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="601">
   <si>
     <t>date</t>
   </si>
@@ -1718,6 +1718,15 @@
   </si>
   <si>
     <t>2025-09-09</t>
+  </si>
+  <si>
+    <t>2025-09-10</t>
+  </si>
+  <si>
+    <t>2025-09-11</t>
+  </si>
+  <si>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>96.00</t>
@@ -2165,7 +2174,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H562"/>
+  <dimension ref="A1:H565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2217,7 +2226,7 @@
         <v>0.96</v>
       </c>
       <c r="H2" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2243,7 +2252,7 @@
         <v>0.98</v>
       </c>
       <c r="H3" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2269,7 +2278,7 @@
         <v>0.4</v>
       </c>
       <c r="H4" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2295,7 +2304,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H5" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2321,7 +2330,7 @@
         <v>0.22</v>
       </c>
       <c r="H6" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2347,7 +2356,7 @@
         <v>0.18</v>
       </c>
       <c r="H7" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2373,7 +2382,7 @@
         <v>0.78</v>
       </c>
       <c r="H8" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2399,7 +2408,7 @@
         <v>0.36</v>
       </c>
       <c r="H9" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2425,7 +2434,7 @@
         <v>0.66</v>
       </c>
       <c r="H10" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2451,7 +2460,7 @@
         <v>0.32</v>
       </c>
       <c r="H11" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2477,7 +2486,7 @@
         <v>0.7</v>
       </c>
       <c r="H12" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2503,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2529,7 +2538,7 @@
         <v>0.92</v>
       </c>
       <c r="H14" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2555,7 +2564,7 @@
         <v>0.7</v>
       </c>
       <c r="H15" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2581,7 +2590,7 @@
         <v>0.3</v>
       </c>
       <c r="H16" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2607,7 +2616,7 @@
         <v>0.3</v>
       </c>
       <c r="H17" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2633,7 +2642,7 @@
         <v>0.02</v>
       </c>
       <c r="H18" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2659,7 +2668,7 @@
         <v>0.72</v>
       </c>
       <c r="H19" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2685,7 +2694,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2711,7 +2720,7 @@
         <v>0.98</v>
       </c>
       <c r="H21" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2737,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2763,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2789,7 +2798,7 @@
         <v>0.32</v>
       </c>
       <c r="H24" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2815,7 +2824,7 @@
         <v>0.26</v>
       </c>
       <c r="H25" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2841,7 +2850,7 @@
         <v>0.34</v>
       </c>
       <c r="H26" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2867,7 +2876,7 @@
         <v>0.04</v>
       </c>
       <c r="H27" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2893,7 +2902,7 @@
         <v>0.02</v>
       </c>
       <c r="H28" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2919,7 +2928,7 @@
         <v>0.84</v>
       </c>
       <c r="H29" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2945,7 +2954,7 @@
         <v>0.96</v>
       </c>
       <c r="H30" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2971,7 +2980,7 @@
         <v>0.8</v>
       </c>
       <c r="H31" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2997,7 +3006,7 @@
         <v>0.92</v>
       </c>
       <c r="H32" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3023,7 +3032,7 @@
         <v>0.98</v>
       </c>
       <c r="H33" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3049,7 +3058,7 @@
         <v>0.98</v>
       </c>
       <c r="H34" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3075,7 +3084,7 @@
         <v>0.46</v>
       </c>
       <c r="H35" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3101,7 +3110,7 @@
         <v>0.2</v>
       </c>
       <c r="H36" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3127,7 +3136,7 @@
         <v>0.3</v>
       </c>
       <c r="H37" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3153,7 +3162,7 @@
         <v>0.04</v>
       </c>
       <c r="H38" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3179,7 +3188,7 @@
         <v>0.68</v>
       </c>
       <c r="H39" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3205,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3231,7 +3240,7 @@
         <v>0.34</v>
       </c>
       <c r="H41" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3257,7 +3266,7 @@
         <v>0.34</v>
       </c>
       <c r="H42" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3283,7 +3292,7 @@
         <v>0.44</v>
       </c>
       <c r="H43" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3309,7 +3318,7 @@
         <v>0.36</v>
       </c>
       <c r="H44" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3335,7 +3344,7 @@
         <v>0.58</v>
       </c>
       <c r="H45" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3361,7 +3370,7 @@
         <v>0.72</v>
       </c>
       <c r="H46" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3387,7 +3396,7 @@
         <v>0.74</v>
       </c>
       <c r="H47" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3413,7 +3422,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H48" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3439,7 +3448,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H49" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3465,7 +3474,7 @@
         <v>0.96</v>
       </c>
       <c r="H50" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3491,7 +3500,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3517,7 +3526,7 @@
         <v>0.96</v>
       </c>
       <c r="H52" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3543,7 +3552,7 @@
         <v>0.74</v>
       </c>
       <c r="H53" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3569,7 +3578,7 @@
         <v>0.74</v>
       </c>
       <c r="H54" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3595,7 +3604,7 @@
         <v>0.14</v>
       </c>
       <c r="H55" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3621,7 +3630,7 @@
         <v>0.86</v>
       </c>
       <c r="H56" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3647,7 +3656,7 @@
         <v>0.12</v>
       </c>
       <c r="H57" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3673,7 +3682,7 @@
         <v>0.1</v>
       </c>
       <c r="H58" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3699,7 +3708,7 @@
         <v>0.84</v>
       </c>
       <c r="H59" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3725,7 +3734,7 @@
         <v>0.74</v>
       </c>
       <c r="H60" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3751,7 +3760,7 @@
         <v>0.76</v>
       </c>
       <c r="H61" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3777,7 +3786,7 @@
         <v>0.66</v>
       </c>
       <c r="H62" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3803,7 +3812,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H63" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3829,7 +3838,7 @@
         <v>0.74</v>
       </c>
       <c r="H64" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3855,7 +3864,7 @@
         <v>0.6</v>
       </c>
       <c r="H65" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3881,7 +3890,7 @@
         <v>0.2</v>
       </c>
       <c r="H66" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3907,7 +3916,7 @@
         <v>0.06</v>
       </c>
       <c r="H67" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3933,7 +3942,7 @@
         <v>0.98</v>
       </c>
       <c r="H68" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3959,7 +3968,7 @@
         <v>0.38</v>
       </c>
       <c r="H69" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3985,7 +3994,7 @@
         <v>0.02</v>
       </c>
       <c r="H70" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4011,7 +4020,7 @@
         <v>0.8</v>
       </c>
       <c r="H71" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4037,7 +4046,7 @@
         <v>0.7</v>
       </c>
       <c r="H72" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4063,7 +4072,7 @@
         <v>0.72</v>
       </c>
       <c r="H73" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4089,7 +4098,7 @@
         <v>0.2</v>
       </c>
       <c r="H74" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4115,7 +4124,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H75" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4141,7 +4150,7 @@
         <v>0.38</v>
       </c>
       <c r="H76" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4167,7 +4176,7 @@
         <v>0.08</v>
       </c>
       <c r="H77" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4193,7 +4202,7 @@
         <v>0.06</v>
       </c>
       <c r="H78" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4219,7 +4228,7 @@
         <v>0.96</v>
       </c>
       <c r="H79" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4245,7 +4254,7 @@
         <v>0.6</v>
       </c>
       <c r="H80" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4271,7 +4280,7 @@
         <v>0.92</v>
       </c>
       <c r="H81" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4297,7 +4306,7 @@
         <v>0.9</v>
       </c>
       <c r="H82" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4323,7 +4332,7 @@
         <v>0.08</v>
       </c>
       <c r="H83" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4349,7 +4358,7 @@
         <v>0.74</v>
       </c>
       <c r="H84" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4375,7 +4384,7 @@
         <v>0.28</v>
       </c>
       <c r="H85" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4401,7 +4410,7 @@
         <v>0.42</v>
       </c>
       <c r="H86" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4427,7 +4436,7 @@
         <v>0.9</v>
       </c>
       <c r="H87" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4453,7 +4462,7 @@
         <v>0.98</v>
       </c>
       <c r="H88" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4479,7 +4488,7 @@
         <v>0.74</v>
       </c>
       <c r="H89" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4505,7 +4514,7 @@
         <v>0.22</v>
       </c>
       <c r="H90" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4531,7 +4540,7 @@
         <v>0.74</v>
       </c>
       <c r="H91" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4557,7 +4566,7 @@
         <v>0.68</v>
       </c>
       <c r="H92" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4583,7 +4592,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4609,7 +4618,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H94" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4635,7 +4644,7 @@
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4661,7 +4670,7 @@
         <v>0.76</v>
       </c>
       <c r="H96" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4687,7 +4696,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H97" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4713,7 +4722,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4739,7 +4748,7 @@
         <v>0.96</v>
       </c>
       <c r="H99" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4765,7 +4774,7 @@
         <v>0.88</v>
       </c>
       <c r="H100" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4791,7 +4800,7 @@
         <v>0.82</v>
       </c>
       <c r="H101" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4817,7 +4826,7 @@
         <v>0.24</v>
       </c>
       <c r="H102" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4843,7 +4852,7 @@
         <v>0.7</v>
       </c>
       <c r="H103" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4869,7 +4878,7 @@
         <v>0.28</v>
       </c>
       <c r="H104" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4895,7 +4904,7 @@
         <v>0.3</v>
       </c>
       <c r="H105" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4921,7 +4930,7 @@
         <v>0.24</v>
       </c>
       <c r="H106" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4947,7 +4956,7 @@
         <v>0.86</v>
       </c>
       <c r="H107" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4973,7 +4982,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4999,7 +5008,7 @@
         <v>0.28</v>
       </c>
       <c r="H109" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5025,7 +5034,7 @@
         <v>0.98</v>
       </c>
       <c r="H110" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5051,7 +5060,7 @@
         <v>0.26</v>
       </c>
       <c r="H111" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5077,7 +5086,7 @@
         <v>0.44</v>
       </c>
       <c r="H112" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5103,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5129,7 +5138,7 @@
         <v>0.98</v>
       </c>
       <c r="H114" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5155,7 +5164,7 @@
         <v>0.04</v>
       </c>
       <c r="H115" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5181,7 +5190,7 @@
         <v>0.06</v>
       </c>
       <c r="H116" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5207,7 +5216,7 @@
         <v>0.22</v>
       </c>
       <c r="H117" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5233,7 +5242,7 @@
         <v>0.24</v>
       </c>
       <c r="H118" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5259,7 +5268,7 @@
         <v>0.3</v>
       </c>
       <c r="H119" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5285,7 +5294,7 @@
         <v>0.34</v>
       </c>
       <c r="H120" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5311,7 +5320,7 @@
         <v>0.32</v>
       </c>
       <c r="H121" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5337,7 +5346,7 @@
         <v>0.04</v>
       </c>
       <c r="H122" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5363,7 +5372,7 @@
         <v>0.06</v>
       </c>
       <c r="H123" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5389,7 +5398,7 @@
         <v>0.04</v>
       </c>
       <c r="H124" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5415,7 +5424,7 @@
         <v>0.96</v>
       </c>
       <c r="H125" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5441,7 +5450,7 @@
         <v>0.66</v>
       </c>
       <c r="H126" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5467,7 +5476,7 @@
         <v>0.04</v>
       </c>
       <c r="H127" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5493,7 +5502,7 @@
         <v>0.9</v>
       </c>
       <c r="H128" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5519,7 +5528,7 @@
         <v>0.84</v>
       </c>
       <c r="H129" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5545,7 +5554,7 @@
         <v>0.34</v>
       </c>
       <c r="H130" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5571,7 +5580,7 @@
         <v>0.64</v>
       </c>
       <c r="H131" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5597,7 +5606,7 @@
         <v>0.04</v>
       </c>
       <c r="H132" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5623,7 +5632,7 @@
         <v>0.86</v>
       </c>
       <c r="H133" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5649,7 +5658,7 @@
         <v>0.9</v>
       </c>
       <c r="H134" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5675,7 +5684,7 @@
         <v>0.52</v>
       </c>
       <c r="H135" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5701,7 +5710,7 @@
         <v>0.42</v>
       </c>
       <c r="H136" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5727,7 +5736,7 @@
         <v>0.76</v>
       </c>
       <c r="H137" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5753,7 +5762,7 @@
         <v>0.06</v>
       </c>
       <c r="H138" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5779,7 +5788,7 @@
         <v>0.98</v>
       </c>
       <c r="H139" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5805,7 +5814,7 @@
         <v>0.28</v>
       </c>
       <c r="H140" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5831,7 +5840,7 @@
         <v>0.16</v>
       </c>
       <c r="H141" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5857,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5883,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5909,7 +5918,7 @@
         <v>0.66</v>
       </c>
       <c r="H144" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5935,7 +5944,7 @@
         <v>0.42</v>
       </c>
       <c r="H145" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5961,7 +5970,7 @@
         <v>0.32</v>
       </c>
       <c r="H146" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5987,7 +5996,7 @@
         <v>0.34</v>
       </c>
       <c r="H147" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6013,7 +6022,7 @@
         <v>0.02</v>
       </c>
       <c r="H148" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6039,7 +6048,7 @@
         <v>0.16</v>
       </c>
       <c r="H149" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6065,7 +6074,7 @@
         <v>0.76</v>
       </c>
       <c r="H150" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6091,7 +6100,7 @@
         <v>0.24</v>
       </c>
       <c r="H151" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6117,7 +6126,7 @@
         <v>0.04</v>
       </c>
       <c r="H152" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6143,7 +6152,7 @@
         <v>0.3</v>
       </c>
       <c r="H153" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6169,7 +6178,7 @@
         <v>0.98</v>
       </c>
       <c r="H154" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6195,7 +6204,7 @@
         <v>0.76</v>
       </c>
       <c r="H155" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6221,7 +6230,7 @@
         <v>0.28</v>
       </c>
       <c r="H156" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6247,7 +6256,7 @@
         <v>0.84</v>
       </c>
       <c r="H157" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6273,7 +6282,7 @@
         <v>0.64</v>
       </c>
       <c r="H158" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6299,7 +6308,7 @@
         <v>0.32</v>
       </c>
       <c r="H159" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6325,7 +6334,7 @@
         <v>0.72</v>
       </c>
       <c r="H160" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6351,7 +6360,7 @@
         <v>0.3</v>
       </c>
       <c r="H161" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6377,7 +6386,7 @@
         <v>0.68</v>
       </c>
       <c r="H162" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6403,7 +6412,7 @@
         <v>0.32</v>
       </c>
       <c r="H163" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6429,7 +6438,7 @@
         <v>0.72</v>
       </c>
       <c r="H164" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6455,7 +6464,7 @@
         <v>0.36</v>
       </c>
       <c r="H165" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6481,7 +6490,7 @@
         <v>0.86</v>
       </c>
       <c r="H166" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6507,7 +6516,7 @@
         <v>0.58</v>
       </c>
       <c r="H167" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6533,7 +6542,7 @@
         <v>0.78</v>
       </c>
       <c r="H168" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6559,7 +6568,7 @@
         <v>0.98</v>
       </c>
       <c r="H169" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6585,7 +6594,7 @@
         <v>0.86</v>
       </c>
       <c r="H170" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6611,7 +6620,7 @@
         <v>0.08</v>
       </c>
       <c r="H171" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6637,7 +6646,7 @@
         <v>0.88</v>
       </c>
       <c r="H172" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6663,7 +6672,7 @@
         <v>0.68</v>
       </c>
       <c r="H173" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6689,7 +6698,7 @@
         <v>0.74</v>
       </c>
       <c r="H174" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6715,7 +6724,7 @@
         <v>0.58</v>
       </c>
       <c r="H175" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6741,7 +6750,7 @@
         <v>0.22</v>
       </c>
       <c r="H176" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6767,7 +6776,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6793,7 +6802,7 @@
         <v>0.64</v>
       </c>
       <c r="H178" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6819,7 +6828,7 @@
         <v>0.26</v>
       </c>
       <c r="H179" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6845,7 +6854,7 @@
         <v>0.6</v>
       </c>
       <c r="H180" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6871,7 +6880,7 @@
         <v>0.98</v>
       </c>
       <c r="H181" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6897,7 +6906,7 @@
         <v>0.3517053405853769</v>
       </c>
       <c r="H182" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6923,7 +6932,7 @@
         <v>0.84</v>
       </c>
       <c r="H183" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6949,7 +6958,7 @@
         <v>0.48</v>
       </c>
       <c r="H184" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6975,7 +6984,7 @@
         <v>0.08</v>
       </c>
       <c r="H185" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7001,7 +7010,7 @@
         <v>0.6</v>
       </c>
       <c r="H186" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7027,7 +7036,7 @@
         <v>0.9</v>
       </c>
       <c r="H187" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7053,7 +7062,7 @@
         <v>0.8</v>
       </c>
       <c r="H188" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7079,7 +7088,7 @@
         <v>0.34</v>
       </c>
       <c r="H189" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7105,7 +7114,7 @@
         <v>0.16</v>
       </c>
       <c r="H190" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7131,7 +7140,7 @@
         <v>0.1</v>
       </c>
       <c r="H191" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7157,7 +7166,7 @@
         <v>0.7</v>
       </c>
       <c r="H192" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7183,7 +7192,7 @@
         <v>0.72</v>
       </c>
       <c r="H193" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7209,7 +7218,7 @@
         <v>0.04</v>
       </c>
       <c r="H194" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7235,7 +7244,7 @@
         <v>0.008304498269896196</v>
       </c>
       <c r="H195" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7261,7 +7270,7 @@
         <v>0.26</v>
       </c>
       <c r="H196" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7287,7 +7296,7 @@
         <v>0.4</v>
       </c>
       <c r="H197" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7313,7 +7322,7 @@
         <v>0.64</v>
       </c>
       <c r="H198" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7339,7 +7348,7 @@
         <v>0.24</v>
       </c>
       <c r="H199" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7365,7 +7374,7 @@
         <v>0.4</v>
       </c>
       <c r="H200" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7391,7 +7400,7 @@
         <v>0.32</v>
       </c>
       <c r="H201" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7417,7 +7426,7 @@
         <v>0.38</v>
       </c>
       <c r="H202" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7443,7 +7452,7 @@
         <v>0.72</v>
       </c>
       <c r="H203" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7469,7 +7478,7 @@
         <v>0.68</v>
       </c>
       <c r="H204" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7495,7 +7504,7 @@
         <v>0.32</v>
       </c>
       <c r="H205" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7521,7 +7530,7 @@
         <v>0.32</v>
       </c>
       <c r="H206" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7547,7 +7556,7 @@
         <v>0.2</v>
       </c>
       <c r="H207" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7573,7 +7582,7 @@
         <v>0.3</v>
       </c>
       <c r="H208" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7599,7 +7608,7 @@
         <v>0.78</v>
       </c>
       <c r="H209" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7625,7 +7634,7 @@
         <v>0.26</v>
       </c>
       <c r="H210" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7651,7 +7660,7 @@
         <v>0.32</v>
       </c>
       <c r="H211" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7677,7 +7686,7 @@
         <v>0.3</v>
       </c>
       <c r="H212" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7703,7 +7712,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H213" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7729,7 +7738,7 @@
         <v>0.88</v>
       </c>
       <c r="H214" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7755,7 +7764,7 @@
         <v>0.74</v>
       </c>
       <c r="H215" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7781,7 +7790,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7807,7 +7816,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7833,7 +7842,7 @@
         <v>0.2</v>
       </c>
       <c r="H218" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7859,7 +7868,7 @@
         <v>0.22</v>
       </c>
       <c r="H219" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7885,7 +7894,7 @@
         <v>0.78</v>
       </c>
       <c r="H220" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7911,7 +7920,7 @@
         <v>0.98</v>
       </c>
       <c r="H221" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7937,7 +7946,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7963,7 +7972,7 @@
         <v>0.4381603474151185</v>
       </c>
       <c r="H223" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7989,7 +7998,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H224" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8015,7 +8024,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H225" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8041,7 +8050,7 @@
         <v>0.58</v>
       </c>
       <c r="H226" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8067,7 +8076,7 @@
         <v>0.14</v>
       </c>
       <c r="H227" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8093,7 +8102,7 @@
         <v>0.18</v>
       </c>
       <c r="H228" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8119,7 +8128,7 @@
         <v>0.02</v>
       </c>
       <c r="H229" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8145,7 +8154,7 @@
         <v>0.02</v>
       </c>
       <c r="H230" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8171,7 +8180,7 @@
         <v>0.98</v>
       </c>
       <c r="H231" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8197,7 +8206,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8223,7 +8232,7 @@
         <v>0.04</v>
       </c>
       <c r="H233" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8249,7 +8258,7 @@
         <v>0.88</v>
       </c>
       <c r="H234" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8275,7 +8284,7 @@
         <v>0.62</v>
       </c>
       <c r="H235" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8301,7 +8310,7 @@
         <v>0.14</v>
       </c>
       <c r="H236" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8327,7 +8336,7 @@
         <v>0.66</v>
       </c>
       <c r="H237" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8353,7 +8362,7 @@
         <v>0.92</v>
       </c>
       <c r="H238" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8379,7 +8388,7 @@
         <v>0.38</v>
       </c>
       <c r="H239" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8405,7 +8414,7 @@
         <v>0.4</v>
       </c>
       <c r="H240" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8431,7 +8440,7 @@
         <v>0.1</v>
       </c>
       <c r="H241" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8457,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8483,7 +8492,7 @@
         <v>0.04</v>
       </c>
       <c r="H243" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8509,7 +8518,7 @@
         <v>0.96</v>
       </c>
       <c r="H244" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8535,7 +8544,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8561,7 +8570,7 @@
         <v>0.28</v>
       </c>
       <c r="H246" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8587,7 +8596,7 @@
         <v>0.96</v>
       </c>
       <c r="H247" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8613,7 +8622,7 @@
         <v>0.04</v>
       </c>
       <c r="H248" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8639,7 +8648,7 @@
         <v>0.4</v>
       </c>
       <c r="H249" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8665,7 +8674,7 @@
         <v>0.78</v>
       </c>
       <c r="H250" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8691,7 +8700,7 @@
         <v>0.62</v>
       </c>
       <c r="H251" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8717,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8743,7 +8752,7 @@
         <v>0.46</v>
       </c>
       <c r="H253" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8769,7 +8778,7 @@
         <v>0.4</v>
       </c>
       <c r="H254" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8795,7 +8804,7 @@
         <v>0.14</v>
       </c>
       <c r="H255" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8821,7 +8830,7 @@
         <v>0.72</v>
       </c>
       <c r="H256" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8847,7 +8856,7 @@
         <v>0.8</v>
       </c>
       <c r="H257" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8873,7 +8882,7 @@
         <v>0.88</v>
       </c>
       <c r="H258" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8899,7 +8908,7 @@
         <v>0.02</v>
       </c>
       <c r="H259" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8925,7 +8934,7 @@
         <v>0.26</v>
       </c>
       <c r="H260" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8951,7 +8960,7 @@
         <v>0.4</v>
       </c>
       <c r="H261" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8977,7 +8986,7 @@
         <v>0.74</v>
       </c>
       <c r="H262" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9003,7 +9012,7 @@
         <v>0.08</v>
       </c>
       <c r="H263" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9029,7 +9038,7 @@
         <v>0.96</v>
       </c>
       <c r="H264" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9055,7 +9064,7 @@
         <v>0.96</v>
       </c>
       <c r="H265" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9081,7 +9090,7 @@
         <v>0.4</v>
       </c>
       <c r="H266" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9107,7 +9116,7 @@
         <v>0.28</v>
       </c>
       <c r="H267" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9133,7 +9142,7 @@
         <v>0.12</v>
       </c>
       <c r="H268" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9159,7 +9168,7 @@
         <v>0.28</v>
       </c>
       <c r="H269" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9185,7 +9194,7 @@
         <v>0.22</v>
       </c>
       <c r="H270" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9211,7 +9220,7 @@
         <v>0.68</v>
       </c>
       <c r="H271" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9237,7 +9246,7 @@
         <v>0.72</v>
       </c>
       <c r="H272" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9263,7 +9272,7 @@
         <v>0.38</v>
       </c>
       <c r="H273" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9289,7 +9298,7 @@
         <v>0.18</v>
       </c>
       <c r="H274" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9315,7 +9324,7 @@
         <v>0.62</v>
       </c>
       <c r="H275" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9341,7 +9350,7 @@
         <v>0.58</v>
       </c>
       <c r="H276" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9367,7 +9376,7 @@
         <v>0.74</v>
       </c>
       <c r="H277" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9393,7 +9402,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H278" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9419,7 +9428,7 @@
         <v>0.2</v>
       </c>
       <c r="H279" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9445,7 +9454,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9471,7 +9480,7 @@
         <v>0.46</v>
       </c>
       <c r="H281" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9497,7 +9506,7 @@
         <v>0.16</v>
       </c>
       <c r="H282" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9523,7 +9532,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9549,7 +9558,7 @@
         <v>0.54</v>
       </c>
       <c r="H284" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9575,7 +9584,7 @@
         <v>0.98</v>
       </c>
       <c r="H285" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9601,7 +9610,7 @@
         <v>0.22</v>
       </c>
       <c r="H286" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9627,7 +9636,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9653,7 +9662,7 @@
         <v>0.76</v>
       </c>
       <c r="H288" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9679,7 +9688,7 @@
         <v>1</v>
       </c>
       <c r="H289" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9705,7 +9714,7 @@
         <v>0.72</v>
       </c>
       <c r="H290" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9731,7 +9740,7 @@
         <v>0.66</v>
       </c>
       <c r="H291" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9757,7 +9766,7 @@
         <v>0.62</v>
       </c>
       <c r="H292" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9783,7 +9792,7 @@
         <v>1</v>
       </c>
       <c r="H293" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9809,7 +9818,7 @@
         <v>0.36</v>
       </c>
       <c r="H294" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9835,7 +9844,7 @@
         <v>0.36</v>
       </c>
       <c r="H295" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9861,7 +9870,7 @@
         <v>0.96</v>
       </c>
       <c r="H296" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9887,7 +9896,7 @@
         <v>0.92</v>
       </c>
       <c r="H297" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9913,7 +9922,7 @@
         <v>0.04</v>
       </c>
       <c r="H298" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9939,7 +9948,7 @@
         <v>0.9</v>
       </c>
       <c r="H299" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9965,7 +9974,7 @@
         <v>0.28</v>
       </c>
       <c r="H300" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9991,7 +10000,7 @@
         <v>0.62</v>
       </c>
       <c r="H301" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10017,7 +10026,7 @@
         <v>0.9</v>
       </c>
       <c r="H302" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10043,7 +10052,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10069,7 +10078,7 @@
         <v>0.38</v>
       </c>
       <c r="H304" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10095,7 +10104,7 @@
         <v>0.4</v>
       </c>
       <c r="H305" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10121,7 +10130,7 @@
         <v>0.06</v>
       </c>
       <c r="H306" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10147,7 +10156,7 @@
         <v>0.68</v>
       </c>
       <c r="H307" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10173,7 +10182,7 @@
         <v>0.78</v>
       </c>
       <c r="H308" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10199,7 +10208,7 @@
         <v>0.06</v>
       </c>
       <c r="H309" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10225,7 +10234,7 @@
         <v>0.5</v>
       </c>
       <c r="H310" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10251,7 +10260,7 @@
         <v>0.16</v>
       </c>
       <c r="H311" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10277,7 +10286,7 @@
         <v>0.18</v>
       </c>
       <c r="H312" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10303,7 +10312,7 @@
         <v>0.96</v>
       </c>
       <c r="H313" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10329,7 +10338,7 @@
         <v>0.86</v>
       </c>
       <c r="H314" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10355,7 +10364,7 @@
         <v>0.96</v>
       </c>
       <c r="H315" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10381,7 +10390,7 @@
         <v>1</v>
       </c>
       <c r="H316" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10407,7 +10416,7 @@
         <v>0.8</v>
       </c>
       <c r="H317" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10433,7 +10442,7 @@
         <v>0.98</v>
       </c>
       <c r="H318" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10459,7 +10468,7 @@
         <v>0.34</v>
       </c>
       <c r="H319" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10485,7 +10494,7 @@
         <v>0.16</v>
       </c>
       <c r="H320" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10511,7 +10520,7 @@
         <v>0.88</v>
       </c>
       <c r="H321" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10537,7 +10546,7 @@
         <v>0.7</v>
       </c>
       <c r="H322" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10563,7 +10572,7 @@
         <v>0.68</v>
       </c>
       <c r="H323" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10589,7 +10598,7 @@
         <v>0.36</v>
       </c>
       <c r="H324" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10615,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10641,7 +10650,7 @@
         <v>0.9</v>
       </c>
       <c r="H326" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10667,7 +10676,7 @@
         <v>0.22</v>
       </c>
       <c r="H327" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10693,7 +10702,7 @@
         <v>0.42</v>
       </c>
       <c r="H328" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10719,7 +10728,7 @@
         <v>0.2</v>
       </c>
       <c r="H329" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10745,7 +10754,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10771,7 +10780,7 @@
         <v>0.6</v>
       </c>
       <c r="H331" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10797,7 +10806,7 @@
         <v>0.88</v>
       </c>
       <c r="H332" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10823,7 +10832,7 @@
         <v>0.06</v>
       </c>
       <c r="H333" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10849,7 +10858,7 @@
         <v>0.82</v>
       </c>
       <c r="H334" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10875,7 +10884,7 @@
         <v>1</v>
       </c>
       <c r="H335" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10901,7 +10910,7 @@
         <v>0.06</v>
       </c>
       <c r="H336" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10927,7 +10936,7 @@
         <v>0.28</v>
       </c>
       <c r="H337" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10953,7 +10962,7 @@
         <v>0.58</v>
       </c>
       <c r="H338" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10979,7 +10988,7 @@
         <v>0.36</v>
       </c>
       <c r="H339" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11005,7 +11014,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11031,7 +11040,7 @@
         <v>0.34</v>
       </c>
       <c r="H341" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11057,7 +11066,7 @@
         <v>0.9</v>
       </c>
       <c r="H342" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11083,7 +11092,7 @@
         <v>0.8</v>
       </c>
       <c r="H343" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11109,7 +11118,7 @@
         <v>0.4</v>
       </c>
       <c r="H344" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11135,7 +11144,7 @@
         <v>0.22</v>
       </c>
       <c r="H345" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11161,7 +11170,7 @@
         <v>0.7</v>
       </c>
       <c r="H346" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11187,7 +11196,7 @@
         <v>0.76</v>
       </c>
       <c r="H347" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11213,7 +11222,7 @@
         <v>0.96</v>
       </c>
       <c r="H348" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11239,7 +11248,7 @@
         <v>0.38</v>
       </c>
       <c r="H349" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11265,7 +11274,7 @@
         <v>0.7</v>
       </c>
       <c r="H350" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11291,7 +11300,7 @@
         <v>0.92</v>
       </c>
       <c r="H351" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11317,7 +11326,7 @@
         <v>0.22</v>
       </c>
       <c r="H352" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11343,7 +11352,7 @@
         <v>1</v>
       </c>
       <c r="H353" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11369,7 +11378,7 @@
         <v>0.36</v>
       </c>
       <c r="H354" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11395,7 +11404,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11421,7 +11430,7 @@
         <v>0.7</v>
       </c>
       <c r="H356" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11447,7 +11456,7 @@
         <v>0.38</v>
       </c>
       <c r="H357" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11473,7 +11482,7 @@
         <v>0.02</v>
       </c>
       <c r="H358" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11499,7 +11508,7 @@
         <v>0.66</v>
       </c>
       <c r="H359" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11525,7 +11534,7 @@
         <v>0.14</v>
       </c>
       <c r="H360" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11551,7 +11560,7 @@
         <v>0.96</v>
       </c>
       <c r="H361" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11577,7 +11586,7 @@
         <v>0.96</v>
       </c>
       <c r="H362" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11603,7 +11612,7 @@
         <v>0.16</v>
       </c>
       <c r="H363" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11629,7 +11638,7 @@
         <v>0.26</v>
       </c>
       <c r="H364" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11655,7 +11664,7 @@
         <v>0.22</v>
       </c>
       <c r="H365" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11681,7 +11690,7 @@
         <v>0.96</v>
       </c>
       <c r="H366" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11707,7 +11716,7 @@
         <v>0.12</v>
       </c>
       <c r="H367" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11733,7 +11742,7 @@
         <v>0.84</v>
       </c>
       <c r="H368" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11759,7 +11768,7 @@
         <v>0.86</v>
       </c>
       <c r="H369" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11785,7 +11794,7 @@
         <v>0.88</v>
       </c>
       <c r="H370" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11811,7 +11820,7 @@
         <v>0.84</v>
       </c>
       <c r="H371" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11837,7 +11846,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11863,7 +11872,7 @@
         <v>0.72</v>
       </c>
       <c r="H373" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11889,7 +11898,7 @@
         <v>0.8</v>
       </c>
       <c r="H374" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11915,7 +11924,7 @@
         <v>0.7</v>
       </c>
       <c r="H375" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11941,7 +11950,7 @@
         <v>0.7</v>
       </c>
       <c r="H376" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11967,7 +11976,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11993,7 +12002,7 @@
         <v>0.1</v>
       </c>
       <c r="H378" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12019,7 +12028,7 @@
         <v>0.16</v>
       </c>
       <c r="H379" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12045,7 +12054,7 @@
         <v>0.04</v>
       </c>
       <c r="H380" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12071,7 +12080,7 @@
         <v>0.14</v>
       </c>
       <c r="H381" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12097,7 +12106,7 @@
         <v>0.12</v>
       </c>
       <c r="H382" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12123,7 +12132,7 @@
         <v>0.04</v>
       </c>
       <c r="H383" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12149,7 +12158,7 @@
         <v>0.9</v>
       </c>
       <c r="H384" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12175,7 +12184,7 @@
         <v>0.14</v>
       </c>
       <c r="H385" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12201,7 +12210,7 @@
         <v>0.76</v>
       </c>
       <c r="H386" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12227,7 +12236,7 @@
         <v>0.66</v>
       </c>
       <c r="H387" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12253,7 +12262,7 @@
         <v>0.68</v>
       </c>
       <c r="H388" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12279,7 +12288,7 @@
         <v>0.76</v>
       </c>
       <c r="H389" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12305,7 +12314,7 @@
         <v>1</v>
       </c>
       <c r="H390" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12331,7 +12340,7 @@
         <v>0.06</v>
       </c>
       <c r="H391" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12357,7 +12366,7 @@
         <v>0.76</v>
       </c>
       <c r="H392" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12383,7 +12392,7 @@
         <v>0.06</v>
       </c>
       <c r="H393" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12409,7 +12418,7 @@
         <v>0.3</v>
       </c>
       <c r="H394" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12435,7 +12444,7 @@
         <v>0.3</v>
       </c>
       <c r="H395" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12461,7 +12470,7 @@
         <v>0.74</v>
       </c>
       <c r="H396" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12487,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12513,7 +12522,7 @@
         <v>0.14</v>
       </c>
       <c r="H398" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12539,7 +12548,7 @@
         <v>0.74</v>
       </c>
       <c r="H399" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12565,7 +12574,7 @@
         <v>0.8</v>
       </c>
       <c r="H400" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12591,7 +12600,7 @@
         <v>0.74</v>
       </c>
       <c r="H401" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12617,7 +12626,7 @@
         <v>0.84</v>
       </c>
       <c r="H402" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12643,7 +12652,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12669,7 +12678,7 @@
         <v>0.26</v>
       </c>
       <c r="H404" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12695,7 +12704,7 @@
         <v>0.16</v>
       </c>
       <c r="H405" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12721,7 +12730,7 @@
         <v>0.84</v>
       </c>
       <c r="H406" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12747,7 +12756,7 @@
         <v>0.76</v>
       </c>
       <c r="H407" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12773,7 +12782,7 @@
         <v>0.18</v>
       </c>
       <c r="H408" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12799,7 +12808,7 @@
         <v>0.98</v>
       </c>
       <c r="H409" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12825,7 +12834,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12851,7 +12860,7 @@
         <v>0.98</v>
       </c>
       <c r="H411" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12877,7 +12886,7 @@
         <v>0.98</v>
       </c>
       <c r="H412" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12903,7 +12912,7 @@
         <v>1</v>
       </c>
       <c r="H413" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -12929,7 +12938,7 @@
         <v>0.84</v>
       </c>
       <c r="H414" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -12955,7 +12964,7 @@
         <v>0.78</v>
       </c>
       <c r="H415" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12981,7 +12990,7 @@
         <v>0.68</v>
       </c>
       <c r="H416" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13007,7 +13016,7 @@
         <v>0.66</v>
       </c>
       <c r="H417" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13033,7 +13042,7 @@
         <v>0.88</v>
       </c>
       <c r="H418" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13059,7 +13068,7 @@
         <v>0.82</v>
       </c>
       <c r="H419" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13085,7 +13094,7 @@
         <v>0.96</v>
       </c>
       <c r="H420" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13111,7 +13120,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13137,7 +13146,7 @@
         <v>0.38</v>
       </c>
       <c r="H422" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13163,7 +13172,7 @@
         <v>0.7</v>
       </c>
       <c r="H423" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13189,7 +13198,7 @@
         <v>0.14</v>
       </c>
       <c r="H424" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13215,7 +13224,7 @@
         <v>0.3</v>
       </c>
       <c r="H425" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13241,7 +13250,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13267,7 +13276,7 @@
         <v>0.36</v>
       </c>
       <c r="H427" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13293,7 +13302,7 @@
         <v>0.64</v>
       </c>
       <c r="H428" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13319,7 +13328,7 @@
         <v>0.24</v>
       </c>
       <c r="H429" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13345,7 +13354,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13371,7 +13380,7 @@
         <v>0.96</v>
       </c>
       <c r="H431" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13397,7 +13406,7 @@
         <v>0.36</v>
       </c>
       <c r="H432" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13423,7 +13432,7 @@
         <v>0.54</v>
       </c>
       <c r="H433" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13449,7 +13458,7 @@
         <v>0.7</v>
       </c>
       <c r="H434" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13475,7 +13484,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H435" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13501,7 +13510,7 @@
         <v>0.08</v>
       </c>
       <c r="H436" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13527,7 +13536,7 @@
         <v>0.4</v>
       </c>
       <c r="H437" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13553,7 +13562,7 @@
         <v>0.34</v>
       </c>
       <c r="H438" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13579,7 +13588,7 @@
         <v>0.04</v>
       </c>
       <c r="H439" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13605,7 +13614,7 @@
         <v>0.34</v>
       </c>
       <c r="H440" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13631,7 +13640,7 @@
         <v>0.36</v>
       </c>
       <c r="H441" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13657,7 +13666,7 @@
         <v>0.68</v>
       </c>
       <c r="H442" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13683,7 +13692,7 @@
         <v>0.38</v>
       </c>
       <c r="H443" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13709,7 +13718,7 @@
         <v>0.64</v>
       </c>
       <c r="H444" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13735,7 +13744,7 @@
         <v>0.86</v>
       </c>
       <c r="H445" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13761,7 +13770,7 @@
         <v>0.64</v>
       </c>
       <c r="H446" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13787,7 +13796,7 @@
         <v>0.88</v>
       </c>
       <c r="H447" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13813,7 +13822,7 @@
         <v>0.96</v>
       </c>
       <c r="H448" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13839,7 +13848,7 @@
         <v>0.1</v>
       </c>
       <c r="H449" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13865,7 +13874,7 @@
         <v>0.12</v>
       </c>
       <c r="H450" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13891,7 +13900,7 @@
         <v>0.92</v>
       </c>
       <c r="H451" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -13917,7 +13926,7 @@
         <v>0.98</v>
       </c>
       <c r="H452" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -13943,7 +13952,7 @@
         <v>0.92</v>
       </c>
       <c r="H453" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -13969,7 +13978,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -13995,7 +14004,7 @@
         <v>0.74</v>
       </c>
       <c r="H455" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14021,7 +14030,7 @@
         <v>0.84</v>
       </c>
       <c r="H456" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14047,7 +14056,7 @@
         <v>0.18</v>
       </c>
       <c r="H457" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14073,7 +14082,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H458" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14099,7 +14108,7 @@
         <v>0.12</v>
       </c>
       <c r="H459" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14125,7 +14134,7 @@
         <v>1</v>
       </c>
       <c r="H460" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14151,7 +14160,7 @@
         <v>0.96</v>
       </c>
       <c r="H461" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14177,7 +14186,7 @@
         <v>0.9</v>
       </c>
       <c r="H462" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14203,7 +14212,7 @@
         <v>0.62</v>
       </c>
       <c r="H463" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14229,7 +14238,7 @@
         <v>0.16</v>
       </c>
       <c r="H464" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14255,7 +14264,7 @@
         <v>0.4</v>
       </c>
       <c r="H465" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14281,7 +14290,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14307,7 +14316,7 @@
         <v>0.84</v>
       </c>
       <c r="H467" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14333,7 +14342,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H468" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14359,7 +14368,7 @@
         <v>0.9</v>
       </c>
       <c r="H469" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14385,7 +14394,7 @@
         <v>0.24</v>
       </c>
       <c r="H470" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14411,7 +14420,7 @@
         <v>0.26</v>
       </c>
       <c r="H471" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14437,7 +14446,7 @@
         <v>0.74</v>
       </c>
       <c r="H472" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14463,7 +14472,7 @@
         <v>0.4</v>
       </c>
       <c r="H473" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14489,7 +14498,7 @@
         <v>1</v>
       </c>
       <c r="H474" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14515,7 +14524,7 @@
         <v>0.86</v>
       </c>
       <c r="H475" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14541,7 +14550,7 @@
         <v>0.7491891891891892</v>
       </c>
       <c r="H476" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14567,7 +14576,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H477" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14593,7 +14602,7 @@
         <v>0.02</v>
       </c>
       <c r="H478" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14619,7 +14628,7 @@
         <v>0.66</v>
       </c>
       <c r="H479" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14645,7 +14654,7 @@
         <v>0.26</v>
       </c>
       <c r="H480" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14671,7 +14680,7 @@
         <v>0.76</v>
       </c>
       <c r="H481" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14697,7 +14706,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14723,7 +14732,7 @@
         <v>0.76</v>
       </c>
       <c r="H483" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14749,7 +14758,7 @@
         <v>0.08</v>
       </c>
       <c r="H484" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14775,7 +14784,7 @@
         <v>0.96</v>
       </c>
       <c r="H485" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14801,7 +14810,7 @@
         <v>0.98</v>
       </c>
       <c r="H486" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14827,7 +14836,7 @@
         <v>0.36</v>
       </c>
       <c r="H487" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14853,7 +14862,7 @@
         <v>0.2</v>
       </c>
       <c r="H488" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14879,7 +14888,7 @@
         <v>0.12</v>
       </c>
       <c r="H489" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -14905,7 +14914,7 @@
         <v>0.9</v>
       </c>
       <c r="H490" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -14931,7 +14940,7 @@
         <v>0.24</v>
       </c>
       <c r="H491" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -14957,7 +14966,7 @@
         <v>0.9</v>
       </c>
       <c r="H492" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -14983,7 +14992,7 @@
         <v>0.7</v>
       </c>
       <c r="H493" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15009,7 +15018,7 @@
         <v>0.68</v>
       </c>
       <c r="H494" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15035,7 +15044,7 @@
         <v>0.12</v>
       </c>
       <c r="H495" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15061,7 +15070,7 @@
         <v>0.68</v>
       </c>
       <c r="H496" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15087,7 +15096,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15113,7 +15122,7 @@
         <v>0.68</v>
       </c>
       <c r="H498" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15139,7 +15148,7 @@
         <v>0.96</v>
       </c>
       <c r="H499" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15165,7 +15174,7 @@
         <v>0.18</v>
       </c>
       <c r="H500" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15191,7 +15200,7 @@
         <v>0.88</v>
       </c>
       <c r="H501" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15217,7 +15226,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15243,7 +15252,7 @@
         <v>0.04</v>
       </c>
       <c r="H503" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15269,7 +15278,7 @@
         <v>0.08</v>
       </c>
       <c r="H504" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15295,7 +15304,7 @@
         <v>0.22</v>
       </c>
       <c r="H505" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15321,7 +15330,7 @@
         <v>0.24</v>
       </c>
       <c r="H506" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15347,7 +15356,7 @@
         <v>0.62</v>
       </c>
       <c r="H507" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15373,7 +15382,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H508" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15399,7 +15408,7 @@
         <v>0.62</v>
       </c>
       <c r="H509" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15425,7 +15434,7 @@
         <v>0.36</v>
       </c>
       <c r="H510" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15451,7 +15460,7 @@
         <v>0.54</v>
       </c>
       <c r="H511" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15477,7 +15486,7 @@
         <v>0.76</v>
       </c>
       <c r="H512" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15503,7 +15512,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15529,7 +15538,7 @@
         <v>0.28</v>
       </c>
       <c r="H514" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15555,7 +15564,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15581,7 +15590,7 @@
         <v>0.38</v>
       </c>
       <c r="H516" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15607,7 +15616,7 @@
         <v>0.3</v>
       </c>
       <c r="H517" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15633,7 +15642,7 @@
         <v>0.36</v>
       </c>
       <c r="H518" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15659,7 +15668,7 @@
         <v>0.8</v>
       </c>
       <c r="H519" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15685,7 +15694,7 @@
         <v>0.22</v>
       </c>
       <c r="H520" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15711,7 +15720,7 @@
         <v>0.32</v>
       </c>
       <c r="H521" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15737,7 +15746,7 @@
         <v>0.32</v>
       </c>
       <c r="H522" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15763,7 +15772,7 @@
         <v>0.52</v>
       </c>
       <c r="H523" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15789,7 +15798,7 @@
         <v>0.92</v>
       </c>
       <c r="H524" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15815,7 +15824,7 @@
         <v>0.96</v>
       </c>
       <c r="H525" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15841,7 +15850,7 @@
         <v>0.16</v>
       </c>
       <c r="H526" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15867,7 +15876,7 @@
         <v>0.66</v>
       </c>
       <c r="H527" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15893,7 +15902,7 @@
         <v>0.04</v>
       </c>
       <c r="H528" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -15919,7 +15928,7 @@
         <v>0.02</v>
       </c>
       <c r="H529" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -15945,7 +15954,7 @@
         <v>0.36</v>
       </c>
       <c r="H530" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -15971,7 +15980,7 @@
         <v>0.14</v>
       </c>
       <c r="H531" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -15997,7 +16006,7 @@
         <v>0.64</v>
       </c>
       <c r="H532" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16023,7 +16032,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16049,7 +16058,7 @@
         <v>0.08</v>
       </c>
       <c r="H534" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16075,7 +16084,7 @@
         <v>0.06</v>
       </c>
       <c r="H535" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16101,7 +16110,7 @@
         <v>0.34</v>
       </c>
       <c r="H536" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16127,7 +16136,7 @@
         <v>0.28</v>
       </c>
       <c r="H537" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16153,7 +16162,7 @@
         <v>0.92</v>
       </c>
       <c r="H538" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16179,7 +16188,7 @@
         <v>0.08</v>
       </c>
       <c r="H539" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16205,7 +16214,7 @@
         <v>0.64</v>
       </c>
       <c r="H540" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16231,7 +16240,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16257,7 +16266,7 @@
         <v>0.18</v>
       </c>
       <c r="H542" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16283,7 +16292,7 @@
         <v>0.16</v>
       </c>
       <c r="H543" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16309,7 +16318,7 @@
         <v>0.98</v>
       </c>
       <c r="H544" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16335,7 +16344,7 @@
         <v>0.14</v>
       </c>
       <c r="H545" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16361,7 +16370,7 @@
         <v>0.26</v>
       </c>
       <c r="H546" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16387,7 +16396,7 @@
         <v>0.02</v>
       </c>
       <c r="H547" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16413,7 +16422,7 @@
         <v>0.6</v>
       </c>
       <c r="H548" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16439,7 +16448,7 @@
         <v>1</v>
       </c>
       <c r="H549" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16465,7 +16474,7 @@
         <v>0.96</v>
       </c>
       <c r="H550" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16491,7 +16500,7 @@
         <v>0.32</v>
       </c>
       <c r="H551" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16517,7 +16526,7 @@
         <v>0.22</v>
       </c>
       <c r="H552" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16543,7 +16552,7 @@
         <v>0.6</v>
       </c>
       <c r="H553" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16569,7 +16578,7 @@
         <v>0.96</v>
       </c>
       <c r="H554" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16595,7 +16604,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16621,7 +16630,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16647,7 +16656,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16673,7 +16682,7 @@
         <v>0.66</v>
       </c>
       <c r="H558" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16699,7 +16708,7 @@
         <v>0.64</v>
       </c>
       <c r="H559" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16725,7 +16734,7 @@
         <v>0.42</v>
       </c>
       <c r="H560" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16751,7 +16760,7 @@
         <v>0.16</v>
       </c>
       <c r="H561" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16761,7 +16770,13 @@
       <c r="B562" t="s">
         <v>567</v>
       </c>
+      <c r="C562">
+        <v>1</v>
+      </c>
       <c r="D562">
+        <v>1</v>
+      </c>
+      <c r="E562">
         <v>1</v>
       </c>
       <c r="F562">
@@ -16771,7 +16786,79 @@
         <v>0.6</v>
       </c>
       <c r="H562" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8">
+      <c r="A563" s="1">
+        <v>561</v>
+      </c>
+      <c r="B563" t="s">
+        <v>568</v>
+      </c>
+      <c r="C563">
+        <v>0</v>
+      </c>
+      <c r="D563">
+        <v>1</v>
+      </c>
+      <c r="E563">
+        <v>0</v>
+      </c>
+      <c r="F563">
+        <v>0.14</v>
+      </c>
+      <c r="G563">
+        <v>0.86</v>
+      </c>
+      <c r="H563" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8">
+      <c r="A564" s="1">
+        <v>562</v>
+      </c>
+      <c r="B564" t="s">
+        <v>569</v>
+      </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
+      <c r="D564">
+        <v>1</v>
+      </c>
+      <c r="E564">
+        <v>1</v>
+      </c>
+      <c r="F564">
+        <v>0.34</v>
+      </c>
+      <c r="G564">
+        <v>0.66</v>
+      </c>
+      <c r="H564" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8">
+      <c r="A565" s="1">
+        <v>563</v>
+      </c>
+      <c r="B565" t="s">
         <v>570</v>
+      </c>
+      <c r="D565">
+        <v>1</v>
+      </c>
+      <c r="F565">
+        <v>0</v>
+      </c>
+      <c r="G565">
+        <v>1</v>
+      </c>
+      <c r="H565" t="s">
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyOOC.xlsx
+++ b/firebase_data_from_spyOOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="641">
   <si>
     <t>date</t>
   </si>
@@ -1820,6 +1820,33 @@
   </si>
   <si>
     <t>2025-10-27</t>
+  </si>
+  <si>
+    <t>2025-10-28</t>
+  </si>
+  <si>
+    <t>2025-10-29</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-10-31</t>
+  </si>
+  <si>
+    <t>2025-11-03</t>
+  </si>
+  <si>
+    <t>2025-11-04</t>
+  </si>
+  <si>
+    <t>2025-11-05</t>
+  </si>
+  <si>
+    <t>2025-11-06</t>
+  </si>
+  <si>
+    <t>2025-11-07</t>
   </si>
   <si>
     <t>96.00</t>
@@ -2267,7 +2294,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H596"/>
+  <dimension ref="A1:H605"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2319,7 +2346,7 @@
         <v>0.96</v>
       </c>
       <c r="H2" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2345,7 +2372,7 @@
         <v>0.98</v>
       </c>
       <c r="H3" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2371,7 +2398,7 @@
         <v>0.4</v>
       </c>
       <c r="H4" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2397,7 +2424,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H5" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2423,7 +2450,7 @@
         <v>0.22</v>
       </c>
       <c r="H6" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2449,7 +2476,7 @@
         <v>0.18</v>
       </c>
       <c r="H7" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2475,7 +2502,7 @@
         <v>0.78</v>
       </c>
       <c r="H8" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2501,7 +2528,7 @@
         <v>0.36</v>
       </c>
       <c r="H9" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2527,7 +2554,7 @@
         <v>0.66</v>
       </c>
       <c r="H10" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2553,7 +2580,7 @@
         <v>0.32</v>
       </c>
       <c r="H11" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2579,7 +2606,7 @@
         <v>0.7</v>
       </c>
       <c r="H12" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2605,7 +2632,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2631,7 +2658,7 @@
         <v>0.92</v>
       </c>
       <c r="H14" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2657,7 +2684,7 @@
         <v>0.7</v>
       </c>
       <c r="H15" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2683,7 +2710,7 @@
         <v>0.3</v>
       </c>
       <c r="H16" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2709,7 +2736,7 @@
         <v>0.3</v>
       </c>
       <c r="H17" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2735,7 +2762,7 @@
         <v>0.02</v>
       </c>
       <c r="H18" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2761,7 +2788,7 @@
         <v>0.72</v>
       </c>
       <c r="H19" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2787,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2813,7 +2840,7 @@
         <v>0.98</v>
       </c>
       <c r="H21" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2839,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2865,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2891,7 +2918,7 @@
         <v>0.32</v>
       </c>
       <c r="H24" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2917,7 +2944,7 @@
         <v>0.26</v>
       </c>
       <c r="H25" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2943,7 +2970,7 @@
         <v>0.34</v>
       </c>
       <c r="H26" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2969,7 +2996,7 @@
         <v>0.04</v>
       </c>
       <c r="H27" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2995,7 +3022,7 @@
         <v>0.02</v>
       </c>
       <c r="H28" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3021,7 +3048,7 @@
         <v>0.84</v>
       </c>
       <c r="H29" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3047,7 +3074,7 @@
         <v>0.96</v>
       </c>
       <c r="H30" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3073,7 +3100,7 @@
         <v>0.8</v>
       </c>
       <c r="H31" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3099,7 +3126,7 @@
         <v>0.92</v>
       </c>
       <c r="H32" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3125,7 +3152,7 @@
         <v>0.98</v>
       </c>
       <c r="H33" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3151,7 +3178,7 @@
         <v>0.98</v>
       </c>
       <c r="H34" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3177,7 +3204,7 @@
         <v>0.46</v>
       </c>
       <c r="H35" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3203,7 +3230,7 @@
         <v>0.2</v>
       </c>
       <c r="H36" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3229,7 +3256,7 @@
         <v>0.3</v>
       </c>
       <c r="H37" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3255,7 +3282,7 @@
         <v>0.04</v>
       </c>
       <c r="H38" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3281,7 +3308,7 @@
         <v>0.68</v>
       </c>
       <c r="H39" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3307,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3333,7 +3360,7 @@
         <v>0.34</v>
       </c>
       <c r="H41" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3359,7 +3386,7 @@
         <v>0.34</v>
       </c>
       <c r="H42" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3385,7 +3412,7 @@
         <v>0.44</v>
       </c>
       <c r="H43" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3411,7 +3438,7 @@
         <v>0.36</v>
       </c>
       <c r="H44" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3437,7 +3464,7 @@
         <v>0.58</v>
       </c>
       <c r="H45" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3463,7 +3490,7 @@
         <v>0.72</v>
       </c>
       <c r="H46" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3489,7 +3516,7 @@
         <v>0.74</v>
       </c>
       <c r="H47" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3515,7 +3542,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H48" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3541,7 +3568,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H49" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3567,7 +3594,7 @@
         <v>0.96</v>
       </c>
       <c r="H50" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3593,7 +3620,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3619,7 +3646,7 @@
         <v>0.96</v>
       </c>
       <c r="H52" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3645,7 +3672,7 @@
         <v>0.74</v>
       </c>
       <c r="H53" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3671,7 +3698,7 @@
         <v>0.74</v>
       </c>
       <c r="H54" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3697,7 +3724,7 @@
         <v>0.14</v>
       </c>
       <c r="H55" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3723,7 +3750,7 @@
         <v>0.86</v>
       </c>
       <c r="H56" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3749,7 +3776,7 @@
         <v>0.12</v>
       </c>
       <c r="H57" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3775,7 +3802,7 @@
         <v>0.1</v>
       </c>
       <c r="H58" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3801,7 +3828,7 @@
         <v>0.84</v>
       </c>
       <c r="H59" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3827,7 +3854,7 @@
         <v>0.74</v>
       </c>
       <c r="H60" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3853,7 +3880,7 @@
         <v>0.76</v>
       </c>
       <c r="H61" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3879,7 +3906,7 @@
         <v>0.66</v>
       </c>
       <c r="H62" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3905,7 +3932,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H63" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3931,7 +3958,7 @@
         <v>0.74</v>
       </c>
       <c r="H64" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3957,7 +3984,7 @@
         <v>0.6</v>
       </c>
       <c r="H65" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3983,7 +4010,7 @@
         <v>0.2</v>
       </c>
       <c r="H66" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4009,7 +4036,7 @@
         <v>0.06</v>
       </c>
       <c r="H67" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4035,7 +4062,7 @@
         <v>0.98</v>
       </c>
       <c r="H68" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4061,7 +4088,7 @@
         <v>0.38</v>
       </c>
       <c r="H69" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4087,7 +4114,7 @@
         <v>0.02</v>
       </c>
       <c r="H70" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4113,7 +4140,7 @@
         <v>0.8</v>
       </c>
       <c r="H71" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4139,7 +4166,7 @@
         <v>0.7</v>
       </c>
       <c r="H72" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4165,7 +4192,7 @@
         <v>0.72</v>
       </c>
       <c r="H73" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4191,7 +4218,7 @@
         <v>0.2</v>
       </c>
       <c r="H74" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4217,7 +4244,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H75" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4243,7 +4270,7 @@
         <v>0.38</v>
       </c>
       <c r="H76" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4269,7 +4296,7 @@
         <v>0.08</v>
       </c>
       <c r="H77" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4295,7 +4322,7 @@
         <v>0.06</v>
       </c>
       <c r="H78" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4321,7 +4348,7 @@
         <v>0.96</v>
       </c>
       <c r="H79" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4347,7 +4374,7 @@
         <v>0.6</v>
       </c>
       <c r="H80" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4373,7 +4400,7 @@
         <v>0.92</v>
       </c>
       <c r="H81" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4399,7 +4426,7 @@
         <v>0.9</v>
       </c>
       <c r="H82" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4425,7 +4452,7 @@
         <v>0.08</v>
       </c>
       <c r="H83" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4451,7 +4478,7 @@
         <v>0.74</v>
       </c>
       <c r="H84" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4477,7 +4504,7 @@
         <v>0.28</v>
       </c>
       <c r="H85" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4503,7 +4530,7 @@
         <v>0.42</v>
       </c>
       <c r="H86" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4529,7 +4556,7 @@
         <v>0.9</v>
       </c>
       <c r="H87" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4555,7 +4582,7 @@
         <v>0.98</v>
       </c>
       <c r="H88" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4581,7 +4608,7 @@
         <v>0.74</v>
       </c>
       <c r="H89" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4607,7 +4634,7 @@
         <v>0.22</v>
       </c>
       <c r="H90" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4633,7 +4660,7 @@
         <v>0.74</v>
       </c>
       <c r="H91" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4659,7 +4686,7 @@
         <v>0.68</v>
       </c>
       <c r="H92" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4685,7 +4712,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4711,7 +4738,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H94" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4737,7 +4764,7 @@
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4763,7 +4790,7 @@
         <v>0.76</v>
       </c>
       <c r="H96" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4789,7 +4816,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H97" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4815,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4841,7 +4868,7 @@
         <v>0.96</v>
       </c>
       <c r="H99" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4867,7 +4894,7 @@
         <v>0.88</v>
       </c>
       <c r="H100" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4893,7 +4920,7 @@
         <v>0.82</v>
       </c>
       <c r="H101" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4919,7 +4946,7 @@
         <v>0.24</v>
       </c>
       <c r="H102" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4945,7 +4972,7 @@
         <v>0.7</v>
       </c>
       <c r="H103" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4971,7 +4998,7 @@
         <v>0.28</v>
       </c>
       <c r="H104" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4997,7 +5024,7 @@
         <v>0.3</v>
       </c>
       <c r="H105" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5023,7 +5050,7 @@
         <v>0.24</v>
       </c>
       <c r="H106" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5049,7 +5076,7 @@
         <v>0.86</v>
       </c>
       <c r="H107" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5075,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5101,7 +5128,7 @@
         <v>0.28</v>
       </c>
       <c r="H109" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5127,7 +5154,7 @@
         <v>0.98</v>
       </c>
       <c r="H110" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5153,7 +5180,7 @@
         <v>0.26</v>
       </c>
       <c r="H111" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5179,7 +5206,7 @@
         <v>0.44</v>
       </c>
       <c r="H112" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5205,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5231,7 +5258,7 @@
         <v>0.98</v>
       </c>
       <c r="H114" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5257,7 +5284,7 @@
         <v>0.04</v>
       </c>
       <c r="H115" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5283,7 +5310,7 @@
         <v>0.06</v>
       </c>
       <c r="H116" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5309,7 +5336,7 @@
         <v>0.22</v>
       </c>
       <c r="H117" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5335,7 +5362,7 @@
         <v>0.24</v>
       </c>
       <c r="H118" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5361,7 +5388,7 @@
         <v>0.3</v>
       </c>
       <c r="H119" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5387,7 +5414,7 @@
         <v>0.34</v>
       </c>
       <c r="H120" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5413,7 +5440,7 @@
         <v>0.32</v>
       </c>
       <c r="H121" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5439,7 +5466,7 @@
         <v>0.04</v>
       </c>
       <c r="H122" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5465,7 +5492,7 @@
         <v>0.06</v>
       </c>
       <c r="H123" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5491,7 +5518,7 @@
         <v>0.04</v>
       </c>
       <c r="H124" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5517,7 +5544,7 @@
         <v>0.96</v>
       </c>
       <c r="H125" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5543,7 +5570,7 @@
         <v>0.66</v>
       </c>
       <c r="H126" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5569,7 +5596,7 @@
         <v>0.04</v>
       </c>
       <c r="H127" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5595,7 +5622,7 @@
         <v>0.9</v>
       </c>
       <c r="H128" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5621,7 +5648,7 @@
         <v>0.84</v>
       </c>
       <c r="H129" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5647,7 +5674,7 @@
         <v>0.34</v>
       </c>
       <c r="H130" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5673,7 +5700,7 @@
         <v>0.64</v>
       </c>
       <c r="H131" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5699,7 +5726,7 @@
         <v>0.04</v>
       </c>
       <c r="H132" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5725,7 +5752,7 @@
         <v>0.86</v>
       </c>
       <c r="H133" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5751,7 +5778,7 @@
         <v>0.9</v>
       </c>
       <c r="H134" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5777,7 +5804,7 @@
         <v>0.52</v>
       </c>
       <c r="H135" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5803,7 +5830,7 @@
         <v>0.42</v>
       </c>
       <c r="H136" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5829,7 +5856,7 @@
         <v>0.76</v>
       </c>
       <c r="H137" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5855,7 +5882,7 @@
         <v>0.06</v>
       </c>
       <c r="H138" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5881,7 +5908,7 @@
         <v>0.98</v>
       </c>
       <c r="H139" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5907,7 +5934,7 @@
         <v>0.28</v>
       </c>
       <c r="H140" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5933,7 +5960,7 @@
         <v>0.16</v>
       </c>
       <c r="H141" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5959,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5985,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6011,7 +6038,7 @@
         <v>0.66</v>
       </c>
       <c r="H144" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6037,7 +6064,7 @@
         <v>0.42</v>
       </c>
       <c r="H145" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6063,7 +6090,7 @@
         <v>0.32</v>
       </c>
       <c r="H146" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6089,7 +6116,7 @@
         <v>0.34</v>
       </c>
       <c r="H147" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6115,7 +6142,7 @@
         <v>0.02</v>
       </c>
       <c r="H148" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6141,7 +6168,7 @@
         <v>0.16</v>
       </c>
       <c r="H149" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6167,7 +6194,7 @@
         <v>0.76</v>
       </c>
       <c r="H150" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6193,7 +6220,7 @@
         <v>0.24</v>
       </c>
       <c r="H151" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6219,7 +6246,7 @@
         <v>0.04</v>
       </c>
       <c r="H152" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6245,7 +6272,7 @@
         <v>0.3</v>
       </c>
       <c r="H153" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6271,7 +6298,7 @@
         <v>0.98</v>
       </c>
       <c r="H154" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6297,7 +6324,7 @@
         <v>0.76</v>
       </c>
       <c r="H155" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6323,7 +6350,7 @@
         <v>0.28</v>
       </c>
       <c r="H156" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6349,7 +6376,7 @@
         <v>0.84</v>
       </c>
       <c r="H157" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6375,7 +6402,7 @@
         <v>0.64</v>
       </c>
       <c r="H158" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6401,7 +6428,7 @@
         <v>0.32</v>
       </c>
       <c r="H159" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6427,7 +6454,7 @@
         <v>0.72</v>
       </c>
       <c r="H160" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6453,7 +6480,7 @@
         <v>0.3</v>
       </c>
       <c r="H161" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6479,7 +6506,7 @@
         <v>0.68</v>
       </c>
       <c r="H162" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6505,7 +6532,7 @@
         <v>0.32</v>
       </c>
       <c r="H163" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6531,7 +6558,7 @@
         <v>0.72</v>
       </c>
       <c r="H164" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6557,7 +6584,7 @@
         <v>0.36</v>
       </c>
       <c r="H165" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6583,7 +6610,7 @@
         <v>0.86</v>
       </c>
       <c r="H166" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6609,7 +6636,7 @@
         <v>0.58</v>
       </c>
       <c r="H167" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6635,7 +6662,7 @@
         <v>0.78</v>
       </c>
       <c r="H168" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6661,7 +6688,7 @@
         <v>0.98</v>
       </c>
       <c r="H169" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6687,7 +6714,7 @@
         <v>0.86</v>
       </c>
       <c r="H170" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6713,7 +6740,7 @@
         <v>0.08</v>
       </c>
       <c r="H171" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6739,7 +6766,7 @@
         <v>0.88</v>
       </c>
       <c r="H172" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6765,7 +6792,7 @@
         <v>0.68</v>
       </c>
       <c r="H173" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6791,7 +6818,7 @@
         <v>0.74</v>
       </c>
       <c r="H174" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6817,7 +6844,7 @@
         <v>0.58</v>
       </c>
       <c r="H175" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6843,7 +6870,7 @@
         <v>0.22</v>
       </c>
       <c r="H176" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6869,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6895,7 +6922,7 @@
         <v>0.64</v>
       </c>
       <c r="H178" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6921,7 +6948,7 @@
         <v>0.26</v>
       </c>
       <c r="H179" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6947,7 +6974,7 @@
         <v>0.6</v>
       </c>
       <c r="H180" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6973,7 +7000,7 @@
         <v>0.98</v>
       </c>
       <c r="H181" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6999,7 +7026,7 @@
         <v>0.3517053405853769</v>
       </c>
       <c r="H182" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7025,7 +7052,7 @@
         <v>0.84</v>
       </c>
       <c r="H183" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7051,7 +7078,7 @@
         <v>0.48</v>
       </c>
       <c r="H184" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7077,7 +7104,7 @@
         <v>0.08</v>
       </c>
       <c r="H185" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7103,7 +7130,7 @@
         <v>0.6</v>
       </c>
       <c r="H186" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7129,7 +7156,7 @@
         <v>0.9</v>
       </c>
       <c r="H187" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7155,7 +7182,7 @@
         <v>0.8</v>
       </c>
       <c r="H188" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7181,7 +7208,7 @@
         <v>0.34</v>
       </c>
       <c r="H189" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7207,7 +7234,7 @@
         <v>0.16</v>
       </c>
       <c r="H190" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7233,7 +7260,7 @@
         <v>0.1</v>
       </c>
       <c r="H191" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7259,7 +7286,7 @@
         <v>0.7</v>
       </c>
       <c r="H192" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7285,7 +7312,7 @@
         <v>0.72</v>
       </c>
       <c r="H193" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7311,7 +7338,7 @@
         <v>0.04</v>
       </c>
       <c r="H194" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7337,7 +7364,7 @@
         <v>0.008304498269896196</v>
       </c>
       <c r="H195" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7363,7 +7390,7 @@
         <v>0.26</v>
       </c>
       <c r="H196" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7389,7 +7416,7 @@
         <v>0.4</v>
       </c>
       <c r="H197" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7415,7 +7442,7 @@
         <v>0.64</v>
       </c>
       <c r="H198" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7441,7 +7468,7 @@
         <v>0.24</v>
       </c>
       <c r="H199" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7467,7 +7494,7 @@
         <v>0.4</v>
       </c>
       <c r="H200" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7493,7 +7520,7 @@
         <v>0.32</v>
       </c>
       <c r="H201" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7519,7 +7546,7 @@
         <v>0.38</v>
       </c>
       <c r="H202" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7545,7 +7572,7 @@
         <v>0.72</v>
       </c>
       <c r="H203" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7571,7 +7598,7 @@
         <v>0.68</v>
       </c>
       <c r="H204" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7597,7 +7624,7 @@
         <v>0.32</v>
       </c>
       <c r="H205" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7623,7 +7650,7 @@
         <v>0.32</v>
       </c>
       <c r="H206" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7649,7 +7676,7 @@
         <v>0.2</v>
       </c>
       <c r="H207" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7675,7 +7702,7 @@
         <v>0.3</v>
       </c>
       <c r="H208" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7701,7 +7728,7 @@
         <v>0.78</v>
       </c>
       <c r="H209" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7727,7 +7754,7 @@
         <v>0.26</v>
       </c>
       <c r="H210" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7753,7 +7780,7 @@
         <v>0.32</v>
       </c>
       <c r="H211" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7779,7 +7806,7 @@
         <v>0.3</v>
       </c>
       <c r="H212" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7805,7 +7832,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H213" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7831,7 +7858,7 @@
         <v>0.88</v>
       </c>
       <c r="H214" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7857,7 +7884,7 @@
         <v>0.74</v>
       </c>
       <c r="H215" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7883,7 +7910,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7909,7 +7936,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7935,7 +7962,7 @@
         <v>0.2</v>
       </c>
       <c r="H218" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7961,7 +7988,7 @@
         <v>0.22</v>
       </c>
       <c r="H219" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7987,7 +8014,7 @@
         <v>0.78</v>
       </c>
       <c r="H220" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8013,7 +8040,7 @@
         <v>0.98</v>
       </c>
       <c r="H221" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8039,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8065,7 +8092,7 @@
         <v>0.4381603474151185</v>
       </c>
       <c r="H223" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8091,7 +8118,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H224" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8117,7 +8144,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H225" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8143,7 +8170,7 @@
         <v>0.58</v>
       </c>
       <c r="H226" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8169,7 +8196,7 @@
         <v>0.14</v>
       </c>
       <c r="H227" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8195,7 +8222,7 @@
         <v>0.18</v>
       </c>
       <c r="H228" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8221,7 +8248,7 @@
         <v>0.02</v>
       </c>
       <c r="H229" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8247,7 +8274,7 @@
         <v>0.02</v>
       </c>
       <c r="H230" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8273,7 +8300,7 @@
         <v>0.98</v>
       </c>
       <c r="H231" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8299,7 +8326,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8325,7 +8352,7 @@
         <v>0.04</v>
       </c>
       <c r="H233" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8351,7 +8378,7 @@
         <v>0.88</v>
       </c>
       <c r="H234" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8377,7 +8404,7 @@
         <v>0.62</v>
       </c>
       <c r="H235" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8403,7 +8430,7 @@
         <v>0.14</v>
       </c>
       <c r="H236" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8429,7 +8456,7 @@
         <v>0.66</v>
       </c>
       <c r="H237" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8455,7 +8482,7 @@
         <v>0.92</v>
       </c>
       <c r="H238" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8481,7 +8508,7 @@
         <v>0.38</v>
       </c>
       <c r="H239" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8507,7 +8534,7 @@
         <v>0.4</v>
       </c>
       <c r="H240" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8533,7 +8560,7 @@
         <v>0.1</v>
       </c>
       <c r="H241" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8559,7 +8586,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8585,7 +8612,7 @@
         <v>0.04</v>
       </c>
       <c r="H243" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8611,7 +8638,7 @@
         <v>0.96</v>
       </c>
       <c r="H244" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8637,7 +8664,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8663,7 +8690,7 @@
         <v>0.28</v>
       </c>
       <c r="H246" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8689,7 +8716,7 @@
         <v>0.96</v>
       </c>
       <c r="H247" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8715,7 +8742,7 @@
         <v>0.04</v>
       </c>
       <c r="H248" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8741,7 +8768,7 @@
         <v>0.4</v>
       </c>
       <c r="H249" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8767,7 +8794,7 @@
         <v>0.78</v>
       </c>
       <c r="H250" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8793,7 +8820,7 @@
         <v>0.62</v>
       </c>
       <c r="H251" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8819,7 +8846,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8845,7 +8872,7 @@
         <v>0.46</v>
       </c>
       <c r="H253" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8871,7 +8898,7 @@
         <v>0.4</v>
       </c>
       <c r="H254" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8897,7 +8924,7 @@
         <v>0.14</v>
       </c>
       <c r="H255" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8923,7 +8950,7 @@
         <v>0.72</v>
       </c>
       <c r="H256" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8949,7 +8976,7 @@
         <v>0.8</v>
       </c>
       <c r="H257" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8975,7 +9002,7 @@
         <v>0.88</v>
       </c>
       <c r="H258" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9001,7 +9028,7 @@
         <v>0.02</v>
       </c>
       <c r="H259" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9027,7 +9054,7 @@
         <v>0.26</v>
       </c>
       <c r="H260" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9053,7 +9080,7 @@
         <v>0.4</v>
       </c>
       <c r="H261" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9079,7 +9106,7 @@
         <v>0.74</v>
       </c>
       <c r="H262" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9105,7 +9132,7 @@
         <v>0.08</v>
       </c>
       <c r="H263" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9131,7 +9158,7 @@
         <v>0.96</v>
       </c>
       <c r="H264" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9157,7 +9184,7 @@
         <v>0.96</v>
       </c>
       <c r="H265" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9183,7 +9210,7 @@
         <v>0.4</v>
       </c>
       <c r="H266" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9209,7 +9236,7 @@
         <v>0.28</v>
       </c>
       <c r="H267" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9235,7 +9262,7 @@
         <v>0.12</v>
       </c>
       <c r="H268" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9261,7 +9288,7 @@
         <v>0.28</v>
       </c>
       <c r="H269" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9287,7 +9314,7 @@
         <v>0.22</v>
       </c>
       <c r="H270" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9313,7 +9340,7 @@
         <v>0.68</v>
       </c>
       <c r="H271" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9339,7 +9366,7 @@
         <v>0.72</v>
       </c>
       <c r="H272" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9365,7 +9392,7 @@
         <v>0.38</v>
       </c>
       <c r="H273" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9391,7 +9418,7 @@
         <v>0.18</v>
       </c>
       <c r="H274" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9417,7 +9444,7 @@
         <v>0.62</v>
       </c>
       <c r="H275" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9443,7 +9470,7 @@
         <v>0.58</v>
       </c>
       <c r="H276" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9469,7 +9496,7 @@
         <v>0.74</v>
       </c>
       <c r="H277" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9495,7 +9522,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H278" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9521,7 +9548,7 @@
         <v>0.2</v>
       </c>
       <c r="H279" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9547,7 +9574,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9573,7 +9600,7 @@
         <v>0.46</v>
       </c>
       <c r="H281" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9599,7 +9626,7 @@
         <v>0.16</v>
       </c>
       <c r="H282" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9625,7 +9652,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9651,7 +9678,7 @@
         <v>0.54</v>
       </c>
       <c r="H284" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9677,7 +9704,7 @@
         <v>0.98</v>
       </c>
       <c r="H285" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9703,7 +9730,7 @@
         <v>0.22</v>
       </c>
       <c r="H286" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9729,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9755,7 +9782,7 @@
         <v>0.76</v>
       </c>
       <c r="H288" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9781,7 +9808,7 @@
         <v>1</v>
       </c>
       <c r="H289" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9807,7 +9834,7 @@
         <v>0.72</v>
       </c>
       <c r="H290" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9833,7 +9860,7 @@
         <v>0.66</v>
       </c>
       <c r="H291" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9859,7 +9886,7 @@
         <v>0.62</v>
       </c>
       <c r="H292" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9885,7 +9912,7 @@
         <v>1</v>
       </c>
       <c r="H293" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9911,7 +9938,7 @@
         <v>0.36</v>
       </c>
       <c r="H294" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9937,7 +9964,7 @@
         <v>0.36</v>
       </c>
       <c r="H295" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9963,7 +9990,7 @@
         <v>0.96</v>
       </c>
       <c r="H296" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9989,7 +10016,7 @@
         <v>0.92</v>
       </c>
       <c r="H297" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10015,7 +10042,7 @@
         <v>0.04</v>
       </c>
       <c r="H298" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10041,7 +10068,7 @@
         <v>0.9</v>
       </c>
       <c r="H299" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10067,7 +10094,7 @@
         <v>0.28</v>
       </c>
       <c r="H300" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10093,7 +10120,7 @@
         <v>0.62</v>
       </c>
       <c r="H301" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10119,7 +10146,7 @@
         <v>0.9</v>
       </c>
       <c r="H302" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10145,7 +10172,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10171,7 +10198,7 @@
         <v>0.38</v>
       </c>
       <c r="H304" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10197,7 +10224,7 @@
         <v>0.4</v>
       </c>
       <c r="H305" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10223,7 +10250,7 @@
         <v>0.06</v>
       </c>
       <c r="H306" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10249,7 +10276,7 @@
         <v>0.68</v>
       </c>
       <c r="H307" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10275,7 +10302,7 @@
         <v>0.78</v>
       </c>
       <c r="H308" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10301,7 +10328,7 @@
         <v>0.06</v>
       </c>
       <c r="H309" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10327,7 +10354,7 @@
         <v>0.5</v>
       </c>
       <c r="H310" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10353,7 +10380,7 @@
         <v>0.16</v>
       </c>
       <c r="H311" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10379,7 +10406,7 @@
         <v>0.18</v>
       </c>
       <c r="H312" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10405,7 +10432,7 @@
         <v>0.96</v>
       </c>
       <c r="H313" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10431,7 +10458,7 @@
         <v>0.86</v>
       </c>
       <c r="H314" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10457,7 +10484,7 @@
         <v>0.96</v>
       </c>
       <c r="H315" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10483,7 +10510,7 @@
         <v>1</v>
       </c>
       <c r="H316" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10509,7 +10536,7 @@
         <v>0.8</v>
       </c>
       <c r="H317" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10535,7 +10562,7 @@
         <v>0.98</v>
       </c>
       <c r="H318" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10561,7 +10588,7 @@
         <v>0.34</v>
       </c>
       <c r="H319" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10587,7 +10614,7 @@
         <v>0.16</v>
       </c>
       <c r="H320" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10613,7 +10640,7 @@
         <v>0.88</v>
       </c>
       <c r="H321" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10639,7 +10666,7 @@
         <v>0.7</v>
       </c>
       <c r="H322" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10665,7 +10692,7 @@
         <v>0.68</v>
       </c>
       <c r="H323" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10691,7 +10718,7 @@
         <v>0.36</v>
       </c>
       <c r="H324" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10717,7 +10744,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10743,7 +10770,7 @@
         <v>0.9</v>
       </c>
       <c r="H326" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10769,7 +10796,7 @@
         <v>0.22</v>
       </c>
       <c r="H327" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10795,7 +10822,7 @@
         <v>0.42</v>
       </c>
       <c r="H328" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10821,7 +10848,7 @@
         <v>0.2</v>
       </c>
       <c r="H329" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10847,7 +10874,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10873,7 +10900,7 @@
         <v>0.6</v>
       </c>
       <c r="H331" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10899,7 +10926,7 @@
         <v>0.88</v>
       </c>
       <c r="H332" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10925,7 +10952,7 @@
         <v>0.06</v>
       </c>
       <c r="H333" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10951,7 +10978,7 @@
         <v>0.82</v>
       </c>
       <c r="H334" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10977,7 +11004,7 @@
         <v>1</v>
       </c>
       <c r="H335" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11003,7 +11030,7 @@
         <v>0.06</v>
       </c>
       <c r="H336" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11029,7 +11056,7 @@
         <v>0.28</v>
       </c>
       <c r="H337" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11055,7 +11082,7 @@
         <v>0.58</v>
       </c>
       <c r="H338" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11081,7 +11108,7 @@
         <v>0.36</v>
       </c>
       <c r="H339" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11107,7 +11134,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11133,7 +11160,7 @@
         <v>0.34</v>
       </c>
       <c r="H341" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11159,7 +11186,7 @@
         <v>0.9</v>
       </c>
       <c r="H342" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11185,7 +11212,7 @@
         <v>0.8</v>
       </c>
       <c r="H343" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11211,7 +11238,7 @@
         <v>0.4</v>
       </c>
       <c r="H344" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11237,7 +11264,7 @@
         <v>0.22</v>
       </c>
       <c r="H345" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11263,7 +11290,7 @@
         <v>0.7</v>
       </c>
       <c r="H346" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11289,7 +11316,7 @@
         <v>0.76</v>
       </c>
       <c r="H347" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11315,7 +11342,7 @@
         <v>0.96</v>
       </c>
       <c r="H348" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11341,7 +11368,7 @@
         <v>0.38</v>
       </c>
       <c r="H349" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11367,7 +11394,7 @@
         <v>0.7</v>
       </c>
       <c r="H350" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11393,7 +11420,7 @@
         <v>0.92</v>
       </c>
       <c r="H351" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11419,7 +11446,7 @@
         <v>0.22</v>
       </c>
       <c r="H352" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11445,7 +11472,7 @@
         <v>1</v>
       </c>
       <c r="H353" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11471,7 +11498,7 @@
         <v>0.36</v>
       </c>
       <c r="H354" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11497,7 +11524,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11523,7 +11550,7 @@
         <v>0.7</v>
       </c>
       <c r="H356" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11549,7 +11576,7 @@
         <v>0.38</v>
       </c>
       <c r="H357" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11575,7 +11602,7 @@
         <v>0.02</v>
       </c>
       <c r="H358" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11601,7 +11628,7 @@
         <v>0.66</v>
       </c>
       <c r="H359" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11627,7 +11654,7 @@
         <v>0.14</v>
       </c>
       <c r="H360" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11653,7 +11680,7 @@
         <v>0.96</v>
       </c>
       <c r="H361" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11679,7 +11706,7 @@
         <v>0.96</v>
       </c>
       <c r="H362" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11705,7 +11732,7 @@
         <v>0.16</v>
       </c>
       <c r="H363" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11731,7 +11758,7 @@
         <v>0.26</v>
       </c>
       <c r="H364" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11757,7 +11784,7 @@
         <v>0.22</v>
       </c>
       <c r="H365" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11783,7 +11810,7 @@
         <v>0.96</v>
       </c>
       <c r="H366" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11809,7 +11836,7 @@
         <v>0.12</v>
       </c>
       <c r="H367" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11835,7 +11862,7 @@
         <v>0.84</v>
       </c>
       <c r="H368" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11861,7 +11888,7 @@
         <v>0.86</v>
       </c>
       <c r="H369" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11887,7 +11914,7 @@
         <v>0.88</v>
       </c>
       <c r="H370" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11913,7 +11940,7 @@
         <v>0.84</v>
       </c>
       <c r="H371" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11939,7 +11966,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11965,7 +11992,7 @@
         <v>0.72</v>
       </c>
       <c r="H373" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11991,7 +12018,7 @@
         <v>0.8</v>
       </c>
       <c r="H374" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12017,7 +12044,7 @@
         <v>0.7</v>
       </c>
       <c r="H375" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12043,7 +12070,7 @@
         <v>0.7</v>
       </c>
       <c r="H376" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12069,7 +12096,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12095,7 +12122,7 @@
         <v>0.1</v>
       </c>
       <c r="H378" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12121,7 +12148,7 @@
         <v>0.16</v>
       </c>
       <c r="H379" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12147,7 +12174,7 @@
         <v>0.04</v>
       </c>
       <c r="H380" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12173,7 +12200,7 @@
         <v>0.14</v>
       </c>
       <c r="H381" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12199,7 +12226,7 @@
         <v>0.12</v>
       </c>
       <c r="H382" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12225,7 +12252,7 @@
         <v>0.04</v>
       </c>
       <c r="H383" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12251,7 +12278,7 @@
         <v>0.9</v>
       </c>
       <c r="H384" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12277,7 +12304,7 @@
         <v>0.14</v>
       </c>
       <c r="H385" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12303,7 +12330,7 @@
         <v>0.76</v>
       </c>
       <c r="H386" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12329,7 +12356,7 @@
         <v>0.66</v>
       </c>
       <c r="H387" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12355,7 +12382,7 @@
         <v>0.68</v>
       </c>
       <c r="H388" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12381,7 +12408,7 @@
         <v>0.76</v>
       </c>
       <c r="H389" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12407,7 +12434,7 @@
         <v>1</v>
       </c>
       <c r="H390" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12433,7 +12460,7 @@
         <v>0.06</v>
       </c>
       <c r="H391" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12459,7 +12486,7 @@
         <v>0.76</v>
       </c>
       <c r="H392" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12485,7 +12512,7 @@
         <v>0.06</v>
       </c>
       <c r="H393" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12511,7 +12538,7 @@
         <v>0.3</v>
       </c>
       <c r="H394" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12537,7 +12564,7 @@
         <v>0.3</v>
       </c>
       <c r="H395" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12563,7 +12590,7 @@
         <v>0.74</v>
       </c>
       <c r="H396" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12589,7 +12616,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12615,7 +12642,7 @@
         <v>0.14</v>
       </c>
       <c r="H398" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12641,7 +12668,7 @@
         <v>0.74</v>
       </c>
       <c r="H399" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12667,7 +12694,7 @@
         <v>0.8</v>
       </c>
       <c r="H400" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12693,7 +12720,7 @@
         <v>0.74</v>
       </c>
       <c r="H401" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12719,7 +12746,7 @@
         <v>0.84</v>
       </c>
       <c r="H402" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12745,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12771,7 +12798,7 @@
         <v>0.26</v>
       </c>
       <c r="H404" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12797,7 +12824,7 @@
         <v>0.16</v>
       </c>
       <c r="H405" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12823,7 +12850,7 @@
         <v>0.84</v>
       </c>
       <c r="H406" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12849,7 +12876,7 @@
         <v>0.76</v>
       </c>
       <c r="H407" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12875,7 +12902,7 @@
         <v>0.18</v>
       </c>
       <c r="H408" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12901,7 +12928,7 @@
         <v>0.98</v>
       </c>
       <c r="H409" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12927,7 +12954,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12953,7 +12980,7 @@
         <v>0.98</v>
       </c>
       <c r="H411" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12979,7 +13006,7 @@
         <v>0.98</v>
       </c>
       <c r="H412" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13005,7 +13032,7 @@
         <v>1</v>
       </c>
       <c r="H413" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13031,7 +13058,7 @@
         <v>0.84</v>
       </c>
       <c r="H414" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13057,7 +13084,7 @@
         <v>0.78</v>
       </c>
       <c r="H415" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13083,7 +13110,7 @@
         <v>0.68</v>
       </c>
       <c r="H416" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13109,7 +13136,7 @@
         <v>0.66</v>
       </c>
       <c r="H417" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13135,7 +13162,7 @@
         <v>0.88</v>
       </c>
       <c r="H418" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13161,7 +13188,7 @@
         <v>0.82</v>
       </c>
       <c r="H419" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13187,7 +13214,7 @@
         <v>0.96</v>
       </c>
       <c r="H420" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13213,7 +13240,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13239,7 +13266,7 @@
         <v>0.38</v>
       </c>
       <c r="H422" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13265,7 +13292,7 @@
         <v>0.7</v>
       </c>
       <c r="H423" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13291,7 +13318,7 @@
         <v>0.14</v>
       </c>
       <c r="H424" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13317,7 +13344,7 @@
         <v>0.3</v>
       </c>
       <c r="H425" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13343,7 +13370,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13369,7 +13396,7 @@
         <v>0.36</v>
       </c>
       <c r="H427" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13395,7 +13422,7 @@
         <v>0.64</v>
       </c>
       <c r="H428" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13421,7 +13448,7 @@
         <v>0.24</v>
       </c>
       <c r="H429" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13447,7 +13474,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13473,7 +13500,7 @@
         <v>0.96</v>
       </c>
       <c r="H431" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13499,7 +13526,7 @@
         <v>0.36</v>
       </c>
       <c r="H432" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13525,7 +13552,7 @@
         <v>0.54</v>
       </c>
       <c r="H433" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13551,7 +13578,7 @@
         <v>0.7</v>
       </c>
       <c r="H434" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13577,7 +13604,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H435" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13603,7 +13630,7 @@
         <v>0.08</v>
       </c>
       <c r="H436" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13629,7 +13656,7 @@
         <v>0.4</v>
       </c>
       <c r="H437" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13655,7 +13682,7 @@
         <v>0.34</v>
       </c>
       <c r="H438" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13681,7 +13708,7 @@
         <v>0.04</v>
       </c>
       <c r="H439" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13707,7 +13734,7 @@
         <v>0.34</v>
       </c>
       <c r="H440" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13733,7 +13760,7 @@
         <v>0.36</v>
       </c>
       <c r="H441" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13759,7 +13786,7 @@
         <v>0.68</v>
       </c>
       <c r="H442" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13785,7 +13812,7 @@
         <v>0.38</v>
       </c>
       <c r="H443" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13811,7 +13838,7 @@
         <v>0.64</v>
       </c>
       <c r="H444" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13837,7 +13864,7 @@
         <v>0.86</v>
       </c>
       <c r="H445" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13863,7 +13890,7 @@
         <v>0.64</v>
       </c>
       <c r="H446" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13889,7 +13916,7 @@
         <v>0.88</v>
       </c>
       <c r="H447" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13915,7 +13942,7 @@
         <v>0.96</v>
       </c>
       <c r="H448" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13941,7 +13968,7 @@
         <v>0.1</v>
       </c>
       <c r="H449" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13967,7 +13994,7 @@
         <v>0.12</v>
       </c>
       <c r="H450" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -13993,7 +14020,7 @@
         <v>0.92</v>
       </c>
       <c r="H451" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14019,7 +14046,7 @@
         <v>0.98</v>
       </c>
       <c r="H452" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14045,7 +14072,7 @@
         <v>0.92</v>
       </c>
       <c r="H453" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14071,7 +14098,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14097,7 +14124,7 @@
         <v>0.74</v>
       </c>
       <c r="H455" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14123,7 +14150,7 @@
         <v>0.84</v>
       </c>
       <c r="H456" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14149,7 +14176,7 @@
         <v>0.18</v>
       </c>
       <c r="H457" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14175,7 +14202,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H458" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14201,7 +14228,7 @@
         <v>0.12</v>
       </c>
       <c r="H459" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14227,7 +14254,7 @@
         <v>1</v>
       </c>
       <c r="H460" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14253,7 +14280,7 @@
         <v>0.96</v>
       </c>
       <c r="H461" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14279,7 +14306,7 @@
         <v>0.9</v>
       </c>
       <c r="H462" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14305,7 +14332,7 @@
         <v>0.62</v>
       </c>
       <c r="H463" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14331,7 +14358,7 @@
         <v>0.16</v>
       </c>
       <c r="H464" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14357,7 +14384,7 @@
         <v>0.4</v>
       </c>
       <c r="H465" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14383,7 +14410,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14409,7 +14436,7 @@
         <v>0.84</v>
       </c>
       <c r="H467" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14435,7 +14462,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H468" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14461,7 +14488,7 @@
         <v>0.9</v>
       </c>
       <c r="H469" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14487,7 +14514,7 @@
         <v>0.24</v>
       </c>
       <c r="H470" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14513,7 +14540,7 @@
         <v>0.26</v>
       </c>
       <c r="H471" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14539,7 +14566,7 @@
         <v>0.74</v>
       </c>
       <c r="H472" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14565,7 +14592,7 @@
         <v>0.4</v>
       </c>
       <c r="H473" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14591,7 +14618,7 @@
         <v>1</v>
       </c>
       <c r="H474" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14617,7 +14644,7 @@
         <v>0.86</v>
       </c>
       <c r="H475" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14643,7 +14670,7 @@
         <v>0.7491891891891892</v>
       </c>
       <c r="H476" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14669,7 +14696,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H477" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14695,7 +14722,7 @@
         <v>0.02</v>
       </c>
       <c r="H478" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14721,7 +14748,7 @@
         <v>0.66</v>
       </c>
       <c r="H479" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14747,7 +14774,7 @@
         <v>0.26</v>
       </c>
       <c r="H480" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14773,7 +14800,7 @@
         <v>0.76</v>
       </c>
       <c r="H481" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14799,7 +14826,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14825,7 +14852,7 @@
         <v>0.76</v>
       </c>
       <c r="H483" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14851,7 +14878,7 @@
         <v>0.08</v>
       </c>
       <c r="H484" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14877,7 +14904,7 @@
         <v>0.96</v>
       </c>
       <c r="H485" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14903,7 +14930,7 @@
         <v>0.98</v>
       </c>
       <c r="H486" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14929,7 +14956,7 @@
         <v>0.36</v>
       </c>
       <c r="H487" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14955,7 +14982,7 @@
         <v>0.2</v>
       </c>
       <c r="H488" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -14981,7 +15008,7 @@
         <v>0.12</v>
       </c>
       <c r="H489" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15007,7 +15034,7 @@
         <v>0.9</v>
       </c>
       <c r="H490" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15033,7 +15060,7 @@
         <v>0.24</v>
       </c>
       <c r="H491" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15059,7 +15086,7 @@
         <v>0.9</v>
       </c>
       <c r="H492" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15085,7 +15112,7 @@
         <v>0.7</v>
       </c>
       <c r="H493" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15111,7 +15138,7 @@
         <v>0.68</v>
       </c>
       <c r="H494" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15137,7 +15164,7 @@
         <v>0.12</v>
       </c>
       <c r="H495" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15163,7 +15190,7 @@
         <v>0.68</v>
       </c>
       <c r="H496" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15189,7 +15216,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15215,7 +15242,7 @@
         <v>0.68</v>
       </c>
       <c r="H498" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15241,7 +15268,7 @@
         <v>0.96</v>
       </c>
       <c r="H499" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15267,7 +15294,7 @@
         <v>0.18</v>
       </c>
       <c r="H500" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15293,7 +15320,7 @@
         <v>0.88</v>
       </c>
       <c r="H501" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15319,7 +15346,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15345,7 +15372,7 @@
         <v>0.04</v>
       </c>
       <c r="H503" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15371,7 +15398,7 @@
         <v>0.08</v>
       </c>
       <c r="H504" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15397,7 +15424,7 @@
         <v>0.22</v>
       </c>
       <c r="H505" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15423,7 +15450,7 @@
         <v>0.24</v>
       </c>
       <c r="H506" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15449,7 +15476,7 @@
         <v>0.62</v>
       </c>
       <c r="H507" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15475,7 +15502,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H508" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15501,7 +15528,7 @@
         <v>0.62</v>
       </c>
       <c r="H509" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15527,7 +15554,7 @@
         <v>0.36</v>
       </c>
       <c r="H510" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15553,7 +15580,7 @@
         <v>0.54</v>
       </c>
       <c r="H511" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15579,7 +15606,7 @@
         <v>0.76</v>
       </c>
       <c r="H512" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15605,7 +15632,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15631,7 +15658,7 @@
         <v>0.28</v>
       </c>
       <c r="H514" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15657,7 +15684,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15683,7 +15710,7 @@
         <v>0.38</v>
       </c>
       <c r="H516" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15709,7 +15736,7 @@
         <v>0.3</v>
       </c>
       <c r="H517" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15735,7 +15762,7 @@
         <v>0.36</v>
       </c>
       <c r="H518" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15761,7 +15788,7 @@
         <v>0.8</v>
       </c>
       <c r="H519" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15787,7 +15814,7 @@
         <v>0.22</v>
       </c>
       <c r="H520" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15813,7 +15840,7 @@
         <v>0.32</v>
       </c>
       <c r="H521" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15839,7 +15866,7 @@
         <v>0.32</v>
       </c>
       <c r="H522" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15865,7 +15892,7 @@
         <v>0.52</v>
       </c>
       <c r="H523" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15891,7 +15918,7 @@
         <v>0.92</v>
       </c>
       <c r="H524" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15917,7 +15944,7 @@
         <v>0.96</v>
       </c>
       <c r="H525" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15943,7 +15970,7 @@
         <v>0.16</v>
       </c>
       <c r="H526" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15969,7 +15996,7 @@
         <v>0.66</v>
       </c>
       <c r="H527" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -15995,7 +16022,7 @@
         <v>0.04</v>
       </c>
       <c r="H528" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16021,7 +16048,7 @@
         <v>0.02</v>
       </c>
       <c r="H529" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16047,7 +16074,7 @@
         <v>0.36</v>
       </c>
       <c r="H530" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16073,7 +16100,7 @@
         <v>0.14</v>
       </c>
       <c r="H531" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16099,7 +16126,7 @@
         <v>0.64</v>
       </c>
       <c r="H532" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16125,7 +16152,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16151,7 +16178,7 @@
         <v>0.08</v>
       </c>
       <c r="H534" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16177,7 +16204,7 @@
         <v>0.06</v>
       </c>
       <c r="H535" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16203,7 +16230,7 @@
         <v>0.34</v>
       </c>
       <c r="H536" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16229,7 +16256,7 @@
         <v>0.28</v>
       </c>
       <c r="H537" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16255,7 +16282,7 @@
         <v>0.92</v>
       </c>
       <c r="H538" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16281,7 +16308,7 @@
         <v>0.08</v>
       </c>
       <c r="H539" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16307,7 +16334,7 @@
         <v>0.64</v>
       </c>
       <c r="H540" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16333,7 +16360,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16359,7 +16386,7 @@
         <v>0.18</v>
       </c>
       <c r="H542" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16385,7 +16412,7 @@
         <v>0.16</v>
       </c>
       <c r="H543" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16411,7 +16438,7 @@
         <v>0.98</v>
       </c>
       <c r="H544" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16437,7 +16464,7 @@
         <v>0.14</v>
       </c>
       <c r="H545" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16463,7 +16490,7 @@
         <v>0.26</v>
       </c>
       <c r="H546" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16489,7 +16516,7 @@
         <v>0.02</v>
       </c>
       <c r="H547" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16515,7 +16542,7 @@
         <v>0.6</v>
       </c>
       <c r="H548" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16541,7 +16568,7 @@
         <v>1</v>
       </c>
       <c r="H549" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16567,7 +16594,7 @@
         <v>0.96</v>
       </c>
       <c r="H550" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16593,7 +16620,7 @@
         <v>0.32</v>
       </c>
       <c r="H551" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16619,7 +16646,7 @@
         <v>0.22</v>
       </c>
       <c r="H552" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16645,7 +16672,7 @@
         <v>0.6</v>
       </c>
       <c r="H553" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16671,7 +16698,7 @@
         <v>0.96</v>
       </c>
       <c r="H554" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16697,7 +16724,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16723,7 +16750,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16749,7 +16776,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16775,7 +16802,7 @@
         <v>0.66</v>
       </c>
       <c r="H558" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16801,7 +16828,7 @@
         <v>0.64</v>
       </c>
       <c r="H559" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16827,7 +16854,7 @@
         <v>0.42</v>
       </c>
       <c r="H560" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16853,7 +16880,7 @@
         <v>0.16</v>
       </c>
       <c r="H561" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16879,7 +16906,7 @@
         <v>0.6</v>
       </c>
       <c r="H562" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16905,7 +16932,7 @@
         <v>0.86</v>
       </c>
       <c r="H563" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16931,7 +16958,7 @@
         <v>0.66</v>
       </c>
       <c r="H564" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16957,7 +16984,7 @@
         <v>1</v>
       </c>
       <c r="H565" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -16983,7 +17010,7 @@
         <v>0.62</v>
       </c>
       <c r="H566" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -17009,7 +17036,7 @@
         <v>0.24</v>
       </c>
       <c r="H567" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17035,7 +17062,7 @@
         <v>0.26</v>
       </c>
       <c r="H568" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17061,7 +17088,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="H569" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17087,7 +17114,7 @@
         <v>0.1</v>
       </c>
       <c r="H570" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17113,7 +17140,7 @@
         <v>0.14</v>
       </c>
       <c r="H571" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17139,7 +17166,7 @@
         <v>0.5</v>
       </c>
       <c r="H572" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -17165,7 +17192,7 @@
         <v>0.1</v>
       </c>
       <c r="H573" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -17191,7 +17218,7 @@
         <v>0.12</v>
       </c>
       <c r="H574" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -17217,7 +17244,7 @@
         <v>0.76</v>
       </c>
       <c r="H575" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -17243,7 +17270,7 @@
         <v>0.26</v>
       </c>
       <c r="H576" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -17269,7 +17296,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H577" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -17295,7 +17322,7 @@
         <v>0.92</v>
       </c>
       <c r="H578" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -17321,7 +17348,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H579" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -17347,7 +17374,7 @@
         <v>0.98</v>
       </c>
       <c r="H580" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -17373,7 +17400,7 @@
         <v>0.76</v>
       </c>
       <c r="H581" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -17399,7 +17426,7 @@
         <v>0.98</v>
       </c>
       <c r="H582" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -17425,7 +17452,7 @@
         <v>0.3</v>
       </c>
       <c r="H583" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -17451,7 +17478,7 @@
         <v>0.96</v>
       </c>
       <c r="H584" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -17477,7 +17504,7 @@
         <v>0.14</v>
       </c>
       <c r="H585" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -17503,7 +17530,7 @@
         <v>0.92</v>
       </c>
       <c r="H586" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -17529,7 +17556,7 @@
         <v>0.68</v>
       </c>
       <c r="H587" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -17555,7 +17582,7 @@
         <v>0.34</v>
       </c>
       <c r="H588" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -17581,7 +17608,7 @@
         <v>0.68</v>
       </c>
       <c r="H589" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -17607,7 +17634,7 @@
         <v>0.04</v>
       </c>
       <c r="H590" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -17633,7 +17660,7 @@
         <v>0.98</v>
       </c>
       <c r="H591" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -17659,7 +17686,7 @@
         <v>0.34</v>
       </c>
       <c r="H592" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -17685,7 +17712,7 @@
         <v>0.28</v>
       </c>
       <c r="H593" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -17711,7 +17738,7 @@
         <v>0.98</v>
       </c>
       <c r="H594" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -17737,7 +17764,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -17747,7 +17774,13 @@
       <c r="B596" t="s">
         <v>601</v>
       </c>
+      <c r="C596">
+        <v>1</v>
+      </c>
       <c r="D596">
+        <v>1</v>
+      </c>
+      <c r="E596">
         <v>1</v>
       </c>
       <c r="F596">
@@ -17757,7 +17790,235 @@
         <v>0.92</v>
       </c>
       <c r="H596" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8">
+      <c r="A597" s="1">
+        <v>595</v>
+      </c>
+      <c r="B597" t="s">
+        <v>602</v>
+      </c>
+      <c r="C597">
+        <v>1</v>
+      </c>
+      <c r="D597">
+        <v>1</v>
+      </c>
+      <c r="E597">
+        <v>1</v>
+      </c>
+      <c r="F597">
+        <v>0.28</v>
+      </c>
+      <c r="G597">
+        <v>0.72</v>
+      </c>
+      <c r="H597" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8">
+      <c r="A598" s="1">
+        <v>596</v>
+      </c>
+      <c r="B598" t="s">
+        <v>603</v>
+      </c>
+      <c r="C598">
+        <v>0</v>
+      </c>
+      <c r="D598">
+        <v>0</v>
+      </c>
+      <c r="E598">
+        <v>1</v>
+      </c>
+      <c r="F598">
+        <v>0.96</v>
+      </c>
+      <c r="G598">
+        <v>0.04</v>
+      </c>
+      <c r="H598" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8">
+      <c r="A599" s="1">
+        <v>597</v>
+      </c>
+      <c r="B599" t="s">
+        <v>604</v>
+      </c>
+      <c r="C599">
+        <v>0</v>
+      </c>
+      <c r="D599">
+        <v>1</v>
+      </c>
+      <c r="E599">
+        <v>0</v>
+      </c>
+      <c r="F599">
+        <v>0.1</v>
+      </c>
+      <c r="G599">
+        <v>0.9</v>
+      </c>
+      <c r="H599" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8">
+      <c r="A600" s="1">
+        <v>598</v>
+      </c>
+      <c r="B600" t="s">
+        <v>605</v>
+      </c>
+      <c r="C600">
+        <v>0</v>
+      </c>
+      <c r="D600">
+        <v>0</v>
+      </c>
+      <c r="E600">
+        <v>1</v>
+      </c>
+      <c r="F600">
+        <v>0.76</v>
+      </c>
+      <c r="G600">
+        <v>0.24</v>
+      </c>
+      <c r="H600" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8">
+      <c r="A601" s="1">
+        <v>599</v>
+      </c>
+      <c r="B601" t="s">
+        <v>606</v>
+      </c>
+      <c r="C601">
+        <v>0</v>
+      </c>
+      <c r="D601">
+        <v>1</v>
+      </c>
+      <c r="E601">
+        <v>0</v>
+      </c>
+      <c r="F601">
+        <v>0.12</v>
+      </c>
+      <c r="G601">
+        <v>0.88</v>
+      </c>
+      <c r="H601" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8">
+      <c r="A602" s="1">
+        <v>600</v>
+      </c>
+      <c r="B602" t="s">
+        <v>607</v>
+      </c>
+      <c r="C602">
+        <v>0</v>
+      </c>
+      <c r="D602">
+        <v>1</v>
+      </c>
+      <c r="E602">
+        <v>0</v>
+      </c>
+      <c r="F602">
+        <v>0.4</v>
+      </c>
+      <c r="G602">
+        <v>0.6</v>
+      </c>
+      <c r="H602" t="s">
         <v>613</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8">
+      <c r="A603" s="1">
+        <v>601</v>
+      </c>
+      <c r="B603" t="s">
+        <v>608</v>
+      </c>
+      <c r="C603">
+        <v>1</v>
+      </c>
+      <c r="D603">
+        <v>1</v>
+      </c>
+      <c r="E603">
+        <v>1</v>
+      </c>
+      <c r="F603">
+        <v>0</v>
+      </c>
+      <c r="G603">
+        <v>1</v>
+      </c>
+      <c r="H603" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8">
+      <c r="A604" s="1">
+        <v>602</v>
+      </c>
+      <c r="B604" t="s">
+        <v>609</v>
+      </c>
+      <c r="C604">
+        <v>0</v>
+      </c>
+      <c r="D604">
+        <v>1</v>
+      </c>
+      <c r="E604">
+        <v>0</v>
+      </c>
+      <c r="F604">
+        <v>0.04</v>
+      </c>
+      <c r="G604">
+        <v>0.96</v>
+      </c>
+      <c r="H604" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8">
+      <c r="A605" s="1">
+        <v>603</v>
+      </c>
+      <c r="B605" t="s">
+        <v>610</v>
+      </c>
+      <c r="D605">
+        <v>1</v>
+      </c>
+      <c r="F605">
+        <v>0.18</v>
+      </c>
+      <c r="G605">
+        <v>0.82</v>
+      </c>
+      <c r="H605" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyOOC.xlsx
+++ b/firebase_data_from_spyOOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="646">
   <si>
     <t>date</t>
   </si>
@@ -1847,6 +1847,21 @@
   </si>
   <si>
     <t>2025-11-07</t>
+  </si>
+  <si>
+    <t>2025-11-10</t>
+  </si>
+  <si>
+    <t>2025-11-11</t>
+  </si>
+  <si>
+    <t>2025-11-12</t>
+  </si>
+  <si>
+    <t>2025-11-13</t>
+  </si>
+  <si>
+    <t>2025-11-14</t>
   </si>
   <si>
     <t>96.00</t>
@@ -2294,7 +2309,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H605"/>
+  <dimension ref="A1:H610"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2346,7 +2361,7 @@
         <v>0.96</v>
       </c>
       <c r="H2" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2372,7 +2387,7 @@
         <v>0.98</v>
       </c>
       <c r="H3" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2398,7 +2413,7 @@
         <v>0.4</v>
       </c>
       <c r="H4" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2424,7 +2439,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H5" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2450,7 +2465,7 @@
         <v>0.22</v>
       </c>
       <c r="H6" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2476,7 +2491,7 @@
         <v>0.18</v>
       </c>
       <c r="H7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2502,7 +2517,7 @@
         <v>0.78</v>
       </c>
       <c r="H8" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2528,7 +2543,7 @@
         <v>0.36</v>
       </c>
       <c r="H9" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2554,7 +2569,7 @@
         <v>0.66</v>
       </c>
       <c r="H10" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2580,7 +2595,7 @@
         <v>0.32</v>
       </c>
       <c r="H11" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2606,7 +2621,7 @@
         <v>0.7</v>
       </c>
       <c r="H12" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2632,7 +2647,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2658,7 +2673,7 @@
         <v>0.92</v>
       </c>
       <c r="H14" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2684,7 +2699,7 @@
         <v>0.7</v>
       </c>
       <c r="H15" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2710,7 +2725,7 @@
         <v>0.3</v>
       </c>
       <c r="H16" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2736,7 +2751,7 @@
         <v>0.3</v>
       </c>
       <c r="H17" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2762,7 +2777,7 @@
         <v>0.02</v>
       </c>
       <c r="H18" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2788,7 +2803,7 @@
         <v>0.72</v>
       </c>
       <c r="H19" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2814,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2840,7 +2855,7 @@
         <v>0.98</v>
       </c>
       <c r="H21" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2866,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2892,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2918,7 +2933,7 @@
         <v>0.32</v>
       </c>
       <c r="H24" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2944,7 +2959,7 @@
         <v>0.26</v>
       </c>
       <c r="H25" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2970,7 +2985,7 @@
         <v>0.34</v>
       </c>
       <c r="H26" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2996,7 +3011,7 @@
         <v>0.04</v>
       </c>
       <c r="H27" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3022,7 +3037,7 @@
         <v>0.02</v>
       </c>
       <c r="H28" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3048,7 +3063,7 @@
         <v>0.84</v>
       </c>
       <c r="H29" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3074,7 +3089,7 @@
         <v>0.96</v>
       </c>
       <c r="H30" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3100,7 +3115,7 @@
         <v>0.8</v>
       </c>
       <c r="H31" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3126,7 +3141,7 @@
         <v>0.92</v>
       </c>
       <c r="H32" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3152,7 +3167,7 @@
         <v>0.98</v>
       </c>
       <c r="H33" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3178,7 +3193,7 @@
         <v>0.98</v>
       </c>
       <c r="H34" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3204,7 +3219,7 @@
         <v>0.46</v>
       </c>
       <c r="H35" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3230,7 +3245,7 @@
         <v>0.2</v>
       </c>
       <c r="H36" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3256,7 +3271,7 @@
         <v>0.3</v>
       </c>
       <c r="H37" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3282,7 +3297,7 @@
         <v>0.04</v>
       </c>
       <c r="H38" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3308,7 +3323,7 @@
         <v>0.68</v>
       </c>
       <c r="H39" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3334,7 +3349,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3360,7 +3375,7 @@
         <v>0.34</v>
       </c>
       <c r="H41" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3386,7 +3401,7 @@
         <v>0.34</v>
       </c>
       <c r="H42" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3412,7 +3427,7 @@
         <v>0.44</v>
       </c>
       <c r="H43" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3438,7 +3453,7 @@
         <v>0.36</v>
       </c>
       <c r="H44" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3464,7 +3479,7 @@
         <v>0.58</v>
       </c>
       <c r="H45" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3490,7 +3505,7 @@
         <v>0.72</v>
       </c>
       <c r="H46" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3516,7 +3531,7 @@
         <v>0.74</v>
       </c>
       <c r="H47" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3542,7 +3557,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H48" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3568,7 +3583,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H49" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3594,7 +3609,7 @@
         <v>0.96</v>
       </c>
       <c r="H50" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3620,7 +3635,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3646,7 +3661,7 @@
         <v>0.96</v>
       </c>
       <c r="H52" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3672,7 +3687,7 @@
         <v>0.74</v>
       </c>
       <c r="H53" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3698,7 +3713,7 @@
         <v>0.74</v>
       </c>
       <c r="H54" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3724,7 +3739,7 @@
         <v>0.14</v>
       </c>
       <c r="H55" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3750,7 +3765,7 @@
         <v>0.86</v>
       </c>
       <c r="H56" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3776,7 +3791,7 @@
         <v>0.12</v>
       </c>
       <c r="H57" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3802,7 +3817,7 @@
         <v>0.1</v>
       </c>
       <c r="H58" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3828,7 +3843,7 @@
         <v>0.84</v>
       </c>
       <c r="H59" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3854,7 +3869,7 @@
         <v>0.74</v>
       </c>
       <c r="H60" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3880,7 +3895,7 @@
         <v>0.76</v>
       </c>
       <c r="H61" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3906,7 +3921,7 @@
         <v>0.66</v>
       </c>
       <c r="H62" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3932,7 +3947,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H63" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3958,7 +3973,7 @@
         <v>0.74</v>
       </c>
       <c r="H64" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3984,7 +3999,7 @@
         <v>0.6</v>
       </c>
       <c r="H65" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4010,7 +4025,7 @@
         <v>0.2</v>
       </c>
       <c r="H66" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4036,7 +4051,7 @@
         <v>0.06</v>
       </c>
       <c r="H67" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4062,7 +4077,7 @@
         <v>0.98</v>
       </c>
       <c r="H68" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4088,7 +4103,7 @@
         <v>0.38</v>
       </c>
       <c r="H69" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4114,7 +4129,7 @@
         <v>0.02</v>
       </c>
       <c r="H70" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4140,7 +4155,7 @@
         <v>0.8</v>
       </c>
       <c r="H71" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4166,7 +4181,7 @@
         <v>0.7</v>
       </c>
       <c r="H72" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4192,7 +4207,7 @@
         <v>0.72</v>
       </c>
       <c r="H73" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4218,7 +4233,7 @@
         <v>0.2</v>
       </c>
       <c r="H74" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4244,7 +4259,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H75" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4270,7 +4285,7 @@
         <v>0.38</v>
       </c>
       <c r="H76" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4296,7 +4311,7 @@
         <v>0.08</v>
       </c>
       <c r="H77" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4322,7 +4337,7 @@
         <v>0.06</v>
       </c>
       <c r="H78" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4348,7 +4363,7 @@
         <v>0.96</v>
       </c>
       <c r="H79" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4374,7 +4389,7 @@
         <v>0.6</v>
       </c>
       <c r="H80" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4400,7 +4415,7 @@
         <v>0.92</v>
       </c>
       <c r="H81" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4426,7 +4441,7 @@
         <v>0.9</v>
       </c>
       <c r="H82" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4452,7 +4467,7 @@
         <v>0.08</v>
       </c>
       <c r="H83" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4478,7 +4493,7 @@
         <v>0.74</v>
       </c>
       <c r="H84" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4504,7 +4519,7 @@
         <v>0.28</v>
       </c>
       <c r="H85" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4530,7 +4545,7 @@
         <v>0.42</v>
       </c>
       <c r="H86" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4556,7 +4571,7 @@
         <v>0.9</v>
       </c>
       <c r="H87" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4582,7 +4597,7 @@
         <v>0.98</v>
       </c>
       <c r="H88" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4608,7 +4623,7 @@
         <v>0.74</v>
       </c>
       <c r="H89" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4634,7 +4649,7 @@
         <v>0.22</v>
       </c>
       <c r="H90" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4660,7 +4675,7 @@
         <v>0.74</v>
       </c>
       <c r="H91" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4686,7 +4701,7 @@
         <v>0.68</v>
       </c>
       <c r="H92" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4712,7 +4727,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4738,7 +4753,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H94" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4764,7 +4779,7 @@
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4790,7 +4805,7 @@
         <v>0.76</v>
       </c>
       <c r="H96" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4816,7 +4831,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H97" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4842,7 +4857,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4868,7 +4883,7 @@
         <v>0.96</v>
       </c>
       <c r="H99" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4894,7 +4909,7 @@
         <v>0.88</v>
       </c>
       <c r="H100" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4920,7 +4935,7 @@
         <v>0.82</v>
       </c>
       <c r="H101" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4946,7 +4961,7 @@
         <v>0.24</v>
       </c>
       <c r="H102" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4972,7 +4987,7 @@
         <v>0.7</v>
       </c>
       <c r="H103" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4998,7 +5013,7 @@
         <v>0.28</v>
       </c>
       <c r="H104" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5024,7 +5039,7 @@
         <v>0.3</v>
       </c>
       <c r="H105" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5050,7 +5065,7 @@
         <v>0.24</v>
       </c>
       <c r="H106" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5076,7 +5091,7 @@
         <v>0.86</v>
       </c>
       <c r="H107" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5102,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5128,7 +5143,7 @@
         <v>0.28</v>
       </c>
       <c r="H109" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5154,7 +5169,7 @@
         <v>0.98</v>
       </c>
       <c r="H110" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5180,7 +5195,7 @@
         <v>0.26</v>
       </c>
       <c r="H111" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5206,7 +5221,7 @@
         <v>0.44</v>
       </c>
       <c r="H112" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5232,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5258,7 +5273,7 @@
         <v>0.98</v>
       </c>
       <c r="H114" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5284,7 +5299,7 @@
         <v>0.04</v>
       </c>
       <c r="H115" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5310,7 +5325,7 @@
         <v>0.06</v>
       </c>
       <c r="H116" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5336,7 +5351,7 @@
         <v>0.22</v>
       </c>
       <c r="H117" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5362,7 +5377,7 @@
         <v>0.24</v>
       </c>
       <c r="H118" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5388,7 +5403,7 @@
         <v>0.3</v>
       </c>
       <c r="H119" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5414,7 +5429,7 @@
         <v>0.34</v>
       </c>
       <c r="H120" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5440,7 +5455,7 @@
         <v>0.32</v>
       </c>
       <c r="H121" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5466,7 +5481,7 @@
         <v>0.04</v>
       </c>
       <c r="H122" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5492,7 +5507,7 @@
         <v>0.06</v>
       </c>
       <c r="H123" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5518,7 +5533,7 @@
         <v>0.04</v>
       </c>
       <c r="H124" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5544,7 +5559,7 @@
         <v>0.96</v>
       </c>
       <c r="H125" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5570,7 +5585,7 @@
         <v>0.66</v>
       </c>
       <c r="H126" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5596,7 +5611,7 @@
         <v>0.04</v>
       </c>
       <c r="H127" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5622,7 +5637,7 @@
         <v>0.9</v>
       </c>
       <c r="H128" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5648,7 +5663,7 @@
         <v>0.84</v>
       </c>
       <c r="H129" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5674,7 +5689,7 @@
         <v>0.34</v>
       </c>
       <c r="H130" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5700,7 +5715,7 @@
         <v>0.64</v>
       </c>
       <c r="H131" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5726,7 +5741,7 @@
         <v>0.04</v>
       </c>
       <c r="H132" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5752,7 +5767,7 @@
         <v>0.86</v>
       </c>
       <c r="H133" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5778,7 +5793,7 @@
         <v>0.9</v>
       </c>
       <c r="H134" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5804,7 +5819,7 @@
         <v>0.52</v>
       </c>
       <c r="H135" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5830,7 +5845,7 @@
         <v>0.42</v>
       </c>
       <c r="H136" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5856,7 +5871,7 @@
         <v>0.76</v>
       </c>
       <c r="H137" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5882,7 +5897,7 @@
         <v>0.06</v>
       </c>
       <c r="H138" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5908,7 +5923,7 @@
         <v>0.98</v>
       </c>
       <c r="H139" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5934,7 +5949,7 @@
         <v>0.28</v>
       </c>
       <c r="H140" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5960,7 +5975,7 @@
         <v>0.16</v>
       </c>
       <c r="H141" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5986,7 +6001,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6012,7 +6027,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6038,7 +6053,7 @@
         <v>0.66</v>
       </c>
       <c r="H144" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6064,7 +6079,7 @@
         <v>0.42</v>
       </c>
       <c r="H145" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6090,7 +6105,7 @@
         <v>0.32</v>
       </c>
       <c r="H146" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6116,7 +6131,7 @@
         <v>0.34</v>
       </c>
       <c r="H147" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6142,7 +6157,7 @@
         <v>0.02</v>
       </c>
       <c r="H148" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6168,7 +6183,7 @@
         <v>0.16</v>
       </c>
       <c r="H149" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6194,7 +6209,7 @@
         <v>0.76</v>
       </c>
       <c r="H150" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6220,7 +6235,7 @@
         <v>0.24</v>
       </c>
       <c r="H151" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6246,7 +6261,7 @@
         <v>0.04</v>
       </c>
       <c r="H152" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6272,7 +6287,7 @@
         <v>0.3</v>
       </c>
       <c r="H153" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6298,7 +6313,7 @@
         <v>0.98</v>
       </c>
       <c r="H154" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6324,7 +6339,7 @@
         <v>0.76</v>
       </c>
       <c r="H155" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6350,7 +6365,7 @@
         <v>0.28</v>
       </c>
       <c r="H156" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6376,7 +6391,7 @@
         <v>0.84</v>
       </c>
       <c r="H157" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6402,7 +6417,7 @@
         <v>0.64</v>
       </c>
       <c r="H158" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6428,7 +6443,7 @@
         <v>0.32</v>
       </c>
       <c r="H159" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6454,7 +6469,7 @@
         <v>0.72</v>
       </c>
       <c r="H160" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6480,7 +6495,7 @@
         <v>0.3</v>
       </c>
       <c r="H161" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6506,7 +6521,7 @@
         <v>0.68</v>
       </c>
       <c r="H162" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6532,7 +6547,7 @@
         <v>0.32</v>
       </c>
       <c r="H163" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6558,7 +6573,7 @@
         <v>0.72</v>
       </c>
       <c r="H164" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6584,7 +6599,7 @@
         <v>0.36</v>
       </c>
       <c r="H165" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6610,7 +6625,7 @@
         <v>0.86</v>
       </c>
       <c r="H166" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6636,7 +6651,7 @@
         <v>0.58</v>
       </c>
       <c r="H167" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6662,7 +6677,7 @@
         <v>0.78</v>
       </c>
       <c r="H168" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6688,7 +6703,7 @@
         <v>0.98</v>
       </c>
       <c r="H169" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6714,7 +6729,7 @@
         <v>0.86</v>
       </c>
       <c r="H170" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6740,7 +6755,7 @@
         <v>0.08</v>
       </c>
       <c r="H171" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6766,7 +6781,7 @@
         <v>0.88</v>
       </c>
       <c r="H172" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6792,7 +6807,7 @@
         <v>0.68</v>
       </c>
       <c r="H173" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6818,7 +6833,7 @@
         <v>0.74</v>
       </c>
       <c r="H174" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6844,7 +6859,7 @@
         <v>0.58</v>
       </c>
       <c r="H175" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6870,7 +6885,7 @@
         <v>0.22</v>
       </c>
       <c r="H176" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6896,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6922,7 +6937,7 @@
         <v>0.64</v>
       </c>
       <c r="H178" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6948,7 +6963,7 @@
         <v>0.26</v>
       </c>
       <c r="H179" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6974,7 +6989,7 @@
         <v>0.6</v>
       </c>
       <c r="H180" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7000,7 +7015,7 @@
         <v>0.98</v>
       </c>
       <c r="H181" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7026,7 +7041,7 @@
         <v>0.3517053405853769</v>
       </c>
       <c r="H182" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7052,7 +7067,7 @@
         <v>0.84</v>
       </c>
       <c r="H183" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7078,7 +7093,7 @@
         <v>0.48</v>
       </c>
       <c r="H184" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7104,7 +7119,7 @@
         <v>0.08</v>
       </c>
       <c r="H185" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7130,7 +7145,7 @@
         <v>0.6</v>
       </c>
       <c r="H186" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7156,7 +7171,7 @@
         <v>0.9</v>
       </c>
       <c r="H187" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7182,7 +7197,7 @@
         <v>0.8</v>
       </c>
       <c r="H188" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7208,7 +7223,7 @@
         <v>0.34</v>
       </c>
       <c r="H189" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7234,7 +7249,7 @@
         <v>0.16</v>
       </c>
       <c r="H190" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7260,7 +7275,7 @@
         <v>0.1</v>
       </c>
       <c r="H191" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7286,7 +7301,7 @@
         <v>0.7</v>
       </c>
       <c r="H192" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7312,7 +7327,7 @@
         <v>0.72</v>
       </c>
       <c r="H193" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7338,7 +7353,7 @@
         <v>0.04</v>
       </c>
       <c r="H194" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7364,7 +7379,7 @@
         <v>0.008304498269896196</v>
       </c>
       <c r="H195" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7390,7 +7405,7 @@
         <v>0.26</v>
       </c>
       <c r="H196" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7416,7 +7431,7 @@
         <v>0.4</v>
       </c>
       <c r="H197" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7442,7 +7457,7 @@
         <v>0.64</v>
       </c>
       <c r="H198" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7468,7 +7483,7 @@
         <v>0.24</v>
       </c>
       <c r="H199" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7494,7 +7509,7 @@
         <v>0.4</v>
       </c>
       <c r="H200" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7520,7 +7535,7 @@
         <v>0.32</v>
       </c>
       <c r="H201" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7546,7 +7561,7 @@
         <v>0.38</v>
       </c>
       <c r="H202" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7572,7 +7587,7 @@
         <v>0.72</v>
       </c>
       <c r="H203" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7598,7 +7613,7 @@
         <v>0.68</v>
       </c>
       <c r="H204" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7624,7 +7639,7 @@
         <v>0.32</v>
       </c>
       <c r="H205" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7650,7 +7665,7 @@
         <v>0.32</v>
       </c>
       <c r="H206" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7676,7 +7691,7 @@
         <v>0.2</v>
       </c>
       <c r="H207" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7702,7 +7717,7 @@
         <v>0.3</v>
       </c>
       <c r="H208" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7728,7 +7743,7 @@
         <v>0.78</v>
       </c>
       <c r="H209" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7754,7 +7769,7 @@
         <v>0.26</v>
       </c>
       <c r="H210" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7780,7 +7795,7 @@
         <v>0.32</v>
       </c>
       <c r="H211" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7806,7 +7821,7 @@
         <v>0.3</v>
       </c>
       <c r="H212" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7832,7 +7847,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H213" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7858,7 +7873,7 @@
         <v>0.88</v>
       </c>
       <c r="H214" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7884,7 +7899,7 @@
         <v>0.74</v>
       </c>
       <c r="H215" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7910,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7936,7 +7951,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7962,7 +7977,7 @@
         <v>0.2</v>
       </c>
       <c r="H218" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7988,7 +8003,7 @@
         <v>0.22</v>
       </c>
       <c r="H219" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8014,7 +8029,7 @@
         <v>0.78</v>
       </c>
       <c r="H220" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8040,7 +8055,7 @@
         <v>0.98</v>
       </c>
       <c r="H221" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8066,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8092,7 +8107,7 @@
         <v>0.4381603474151185</v>
       </c>
       <c r="H223" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8118,7 +8133,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H224" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8144,7 +8159,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H225" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8170,7 +8185,7 @@
         <v>0.58</v>
       </c>
       <c r="H226" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8196,7 +8211,7 @@
         <v>0.14</v>
       </c>
       <c r="H227" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8222,7 +8237,7 @@
         <v>0.18</v>
       </c>
       <c r="H228" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8248,7 +8263,7 @@
         <v>0.02</v>
       </c>
       <c r="H229" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8274,7 +8289,7 @@
         <v>0.02</v>
       </c>
       <c r="H230" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8300,7 +8315,7 @@
         <v>0.98</v>
       </c>
       <c r="H231" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8326,7 +8341,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8352,7 +8367,7 @@
         <v>0.04</v>
       </c>
       <c r="H233" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8378,7 +8393,7 @@
         <v>0.88</v>
       </c>
       <c r="H234" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8404,7 +8419,7 @@
         <v>0.62</v>
       </c>
       <c r="H235" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8430,7 +8445,7 @@
         <v>0.14</v>
       </c>
       <c r="H236" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8456,7 +8471,7 @@
         <v>0.66</v>
       </c>
       <c r="H237" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8482,7 +8497,7 @@
         <v>0.92</v>
       </c>
       <c r="H238" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8508,7 +8523,7 @@
         <v>0.38</v>
       </c>
       <c r="H239" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8534,7 +8549,7 @@
         <v>0.4</v>
       </c>
       <c r="H240" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8560,7 +8575,7 @@
         <v>0.1</v>
       </c>
       <c r="H241" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8586,7 +8601,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8612,7 +8627,7 @@
         <v>0.04</v>
       </c>
       <c r="H243" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8638,7 +8653,7 @@
         <v>0.96</v>
       </c>
       <c r="H244" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8664,7 +8679,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8690,7 +8705,7 @@
         <v>0.28</v>
       </c>
       <c r="H246" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8716,7 +8731,7 @@
         <v>0.96</v>
       </c>
       <c r="H247" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8742,7 +8757,7 @@
         <v>0.04</v>
       </c>
       <c r="H248" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8768,7 +8783,7 @@
         <v>0.4</v>
       </c>
       <c r="H249" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8794,7 +8809,7 @@
         <v>0.78</v>
       </c>
       <c r="H250" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8820,7 +8835,7 @@
         <v>0.62</v>
       </c>
       <c r="H251" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8846,7 +8861,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8872,7 +8887,7 @@
         <v>0.46</v>
       </c>
       <c r="H253" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8898,7 +8913,7 @@
         <v>0.4</v>
       </c>
       <c r="H254" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8924,7 +8939,7 @@
         <v>0.14</v>
       </c>
       <c r="H255" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8950,7 +8965,7 @@
         <v>0.72</v>
       </c>
       <c r="H256" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8976,7 +8991,7 @@
         <v>0.8</v>
       </c>
       <c r="H257" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9002,7 +9017,7 @@
         <v>0.88</v>
       </c>
       <c r="H258" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9028,7 +9043,7 @@
         <v>0.02</v>
       </c>
       <c r="H259" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9054,7 +9069,7 @@
         <v>0.26</v>
       </c>
       <c r="H260" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9080,7 +9095,7 @@
         <v>0.4</v>
       </c>
       <c r="H261" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9106,7 +9121,7 @@
         <v>0.74</v>
       </c>
       <c r="H262" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9132,7 +9147,7 @@
         <v>0.08</v>
       </c>
       <c r="H263" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9158,7 +9173,7 @@
         <v>0.96</v>
       </c>
       <c r="H264" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9184,7 +9199,7 @@
         <v>0.96</v>
       </c>
       <c r="H265" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9210,7 +9225,7 @@
         <v>0.4</v>
       </c>
       <c r="H266" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9236,7 +9251,7 @@
         <v>0.28</v>
       </c>
       <c r="H267" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9262,7 +9277,7 @@
         <v>0.12</v>
       </c>
       <c r="H268" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9288,7 +9303,7 @@
         <v>0.28</v>
       </c>
       <c r="H269" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9314,7 +9329,7 @@
         <v>0.22</v>
       </c>
       <c r="H270" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9340,7 +9355,7 @@
         <v>0.68</v>
       </c>
       <c r="H271" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9366,7 +9381,7 @@
         <v>0.72</v>
       </c>
       <c r="H272" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9392,7 +9407,7 @@
         <v>0.38</v>
       </c>
       <c r="H273" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9418,7 +9433,7 @@
         <v>0.18</v>
       </c>
       <c r="H274" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9444,7 +9459,7 @@
         <v>0.62</v>
       </c>
       <c r="H275" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9470,7 +9485,7 @@
         <v>0.58</v>
       </c>
       <c r="H276" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9496,7 +9511,7 @@
         <v>0.74</v>
       </c>
       <c r="H277" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9522,7 +9537,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H278" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9548,7 +9563,7 @@
         <v>0.2</v>
       </c>
       <c r="H279" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9574,7 +9589,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9600,7 +9615,7 @@
         <v>0.46</v>
       </c>
       <c r="H281" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9626,7 +9641,7 @@
         <v>0.16</v>
       </c>
       <c r="H282" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9652,7 +9667,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9678,7 +9693,7 @@
         <v>0.54</v>
       </c>
       <c r="H284" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9704,7 +9719,7 @@
         <v>0.98</v>
       </c>
       <c r="H285" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9730,7 +9745,7 @@
         <v>0.22</v>
       </c>
       <c r="H286" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9756,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9782,7 +9797,7 @@
         <v>0.76</v>
       </c>
       <c r="H288" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9808,7 +9823,7 @@
         <v>1</v>
       </c>
       <c r="H289" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9834,7 +9849,7 @@
         <v>0.72</v>
       </c>
       <c r="H290" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9860,7 +9875,7 @@
         <v>0.66</v>
       </c>
       <c r="H291" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9886,7 +9901,7 @@
         <v>0.62</v>
       </c>
       <c r="H292" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9912,7 +9927,7 @@
         <v>1</v>
       </c>
       <c r="H293" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9938,7 +9953,7 @@
         <v>0.36</v>
       </c>
       <c r="H294" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9964,7 +9979,7 @@
         <v>0.36</v>
       </c>
       <c r="H295" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9990,7 +10005,7 @@
         <v>0.96</v>
       </c>
       <c r="H296" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10016,7 +10031,7 @@
         <v>0.92</v>
       </c>
       <c r="H297" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10042,7 +10057,7 @@
         <v>0.04</v>
       </c>
       <c r="H298" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10068,7 +10083,7 @@
         <v>0.9</v>
       </c>
       <c r="H299" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10094,7 +10109,7 @@
         <v>0.28</v>
       </c>
       <c r="H300" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10120,7 +10135,7 @@
         <v>0.62</v>
       </c>
       <c r="H301" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10146,7 +10161,7 @@
         <v>0.9</v>
       </c>
       <c r="H302" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10172,7 +10187,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10198,7 +10213,7 @@
         <v>0.38</v>
       </c>
       <c r="H304" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10224,7 +10239,7 @@
         <v>0.4</v>
       </c>
       <c r="H305" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10250,7 +10265,7 @@
         <v>0.06</v>
       </c>
       <c r="H306" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10276,7 +10291,7 @@
         <v>0.68</v>
       </c>
       <c r="H307" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10302,7 +10317,7 @@
         <v>0.78</v>
       </c>
       <c r="H308" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10328,7 +10343,7 @@
         <v>0.06</v>
       </c>
       <c r="H309" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10354,7 +10369,7 @@
         <v>0.5</v>
       </c>
       <c r="H310" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10380,7 +10395,7 @@
         <v>0.16</v>
       </c>
       <c r="H311" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10406,7 +10421,7 @@
         <v>0.18</v>
       </c>
       <c r="H312" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10432,7 +10447,7 @@
         <v>0.96</v>
       </c>
       <c r="H313" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10458,7 +10473,7 @@
         <v>0.86</v>
       </c>
       <c r="H314" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10484,7 +10499,7 @@
         <v>0.96</v>
       </c>
       <c r="H315" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10510,7 +10525,7 @@
         <v>1</v>
       </c>
       <c r="H316" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10536,7 +10551,7 @@
         <v>0.8</v>
       </c>
       <c r="H317" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10562,7 +10577,7 @@
         <v>0.98</v>
       </c>
       <c r="H318" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10588,7 +10603,7 @@
         <v>0.34</v>
       </c>
       <c r="H319" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10614,7 +10629,7 @@
         <v>0.16</v>
       </c>
       <c r="H320" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10640,7 +10655,7 @@
         <v>0.88</v>
       </c>
       <c r="H321" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10666,7 +10681,7 @@
         <v>0.7</v>
       </c>
       <c r="H322" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10692,7 +10707,7 @@
         <v>0.68</v>
       </c>
       <c r="H323" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10718,7 +10733,7 @@
         <v>0.36</v>
       </c>
       <c r="H324" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10744,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10770,7 +10785,7 @@
         <v>0.9</v>
       </c>
       <c r="H326" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10796,7 +10811,7 @@
         <v>0.22</v>
       </c>
       <c r="H327" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10822,7 +10837,7 @@
         <v>0.42</v>
       </c>
       <c r="H328" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10848,7 +10863,7 @@
         <v>0.2</v>
       </c>
       <c r="H329" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10874,7 +10889,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10900,7 +10915,7 @@
         <v>0.6</v>
       </c>
       <c r="H331" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10926,7 +10941,7 @@
         <v>0.88</v>
       </c>
       <c r="H332" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10952,7 +10967,7 @@
         <v>0.06</v>
       </c>
       <c r="H333" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10978,7 +10993,7 @@
         <v>0.82</v>
       </c>
       <c r="H334" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11004,7 +11019,7 @@
         <v>1</v>
       </c>
       <c r="H335" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11030,7 +11045,7 @@
         <v>0.06</v>
       </c>
       <c r="H336" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11056,7 +11071,7 @@
         <v>0.28</v>
       </c>
       <c r="H337" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11082,7 +11097,7 @@
         <v>0.58</v>
       </c>
       <c r="H338" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11108,7 +11123,7 @@
         <v>0.36</v>
       </c>
       <c r="H339" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11134,7 +11149,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11160,7 +11175,7 @@
         <v>0.34</v>
       </c>
       <c r="H341" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11186,7 +11201,7 @@
         <v>0.9</v>
       </c>
       <c r="H342" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11212,7 +11227,7 @@
         <v>0.8</v>
       </c>
       <c r="H343" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11238,7 +11253,7 @@
         <v>0.4</v>
       </c>
       <c r="H344" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11264,7 +11279,7 @@
         <v>0.22</v>
       </c>
       <c r="H345" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11290,7 +11305,7 @@
         <v>0.7</v>
       </c>
       <c r="H346" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11316,7 +11331,7 @@
         <v>0.76</v>
       </c>
       <c r="H347" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11342,7 +11357,7 @@
         <v>0.96</v>
       </c>
       <c r="H348" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11368,7 +11383,7 @@
         <v>0.38</v>
       </c>
       <c r="H349" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11394,7 +11409,7 @@
         <v>0.7</v>
       </c>
       <c r="H350" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11420,7 +11435,7 @@
         <v>0.92</v>
       </c>
       <c r="H351" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11446,7 +11461,7 @@
         <v>0.22</v>
       </c>
       <c r="H352" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11472,7 +11487,7 @@
         <v>1</v>
       </c>
       <c r="H353" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11498,7 +11513,7 @@
         <v>0.36</v>
       </c>
       <c r="H354" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11524,7 +11539,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11550,7 +11565,7 @@
         <v>0.7</v>
       </c>
       <c r="H356" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11576,7 +11591,7 @@
         <v>0.38</v>
       </c>
       <c r="H357" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11602,7 +11617,7 @@
         <v>0.02</v>
       </c>
       <c r="H358" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11628,7 +11643,7 @@
         <v>0.66</v>
       </c>
       <c r="H359" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11654,7 +11669,7 @@
         <v>0.14</v>
       </c>
       <c r="H360" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11680,7 +11695,7 @@
         <v>0.96</v>
       </c>
       <c r="H361" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11706,7 +11721,7 @@
         <v>0.96</v>
       </c>
       <c r="H362" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11732,7 +11747,7 @@
         <v>0.16</v>
       </c>
       <c r="H363" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11758,7 +11773,7 @@
         <v>0.26</v>
       </c>
       <c r="H364" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11784,7 +11799,7 @@
         <v>0.22</v>
       </c>
       <c r="H365" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11810,7 +11825,7 @@
         <v>0.96</v>
       </c>
       <c r="H366" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11836,7 +11851,7 @@
         <v>0.12</v>
       </c>
       <c r="H367" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11862,7 +11877,7 @@
         <v>0.84</v>
       </c>
       <c r="H368" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11888,7 +11903,7 @@
         <v>0.86</v>
       </c>
       <c r="H369" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11914,7 +11929,7 @@
         <v>0.88</v>
       </c>
       <c r="H370" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11940,7 +11955,7 @@
         <v>0.84</v>
       </c>
       <c r="H371" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11966,7 +11981,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11992,7 +12007,7 @@
         <v>0.72</v>
       </c>
       <c r="H373" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12018,7 +12033,7 @@
         <v>0.8</v>
       </c>
       <c r="H374" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12044,7 +12059,7 @@
         <v>0.7</v>
       </c>
       <c r="H375" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12070,7 +12085,7 @@
         <v>0.7</v>
       </c>
       <c r="H376" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12096,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12122,7 +12137,7 @@
         <v>0.1</v>
       </c>
       <c r="H378" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12148,7 +12163,7 @@
         <v>0.16</v>
       </c>
       <c r="H379" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12174,7 +12189,7 @@
         <v>0.04</v>
       </c>
       <c r="H380" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12200,7 +12215,7 @@
         <v>0.14</v>
       </c>
       <c r="H381" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12226,7 +12241,7 @@
         <v>0.12</v>
       </c>
       <c r="H382" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12252,7 +12267,7 @@
         <v>0.04</v>
       </c>
       <c r="H383" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12278,7 +12293,7 @@
         <v>0.9</v>
       </c>
       <c r="H384" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12304,7 +12319,7 @@
         <v>0.14</v>
       </c>
       <c r="H385" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12330,7 +12345,7 @@
         <v>0.76</v>
       </c>
       <c r="H386" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12356,7 +12371,7 @@
         <v>0.66</v>
       </c>
       <c r="H387" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12382,7 +12397,7 @@
         <v>0.68</v>
       </c>
       <c r="H388" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12408,7 +12423,7 @@
         <v>0.76</v>
       </c>
       <c r="H389" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12434,7 +12449,7 @@
         <v>1</v>
       </c>
       <c r="H390" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12460,7 +12475,7 @@
         <v>0.06</v>
       </c>
       <c r="H391" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12486,7 +12501,7 @@
         <v>0.76</v>
       </c>
       <c r="H392" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12512,7 +12527,7 @@
         <v>0.06</v>
       </c>
       <c r="H393" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12538,7 +12553,7 @@
         <v>0.3</v>
       </c>
       <c r="H394" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12564,7 +12579,7 @@
         <v>0.3</v>
       </c>
       <c r="H395" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12590,7 +12605,7 @@
         <v>0.74</v>
       </c>
       <c r="H396" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12616,7 +12631,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12642,7 +12657,7 @@
         <v>0.14</v>
       </c>
       <c r="H398" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12668,7 +12683,7 @@
         <v>0.74</v>
       </c>
       <c r="H399" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12694,7 +12709,7 @@
         <v>0.8</v>
       </c>
       <c r="H400" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12720,7 +12735,7 @@
         <v>0.74</v>
       </c>
       <c r="H401" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12746,7 +12761,7 @@
         <v>0.84</v>
       </c>
       <c r="H402" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12772,7 +12787,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12798,7 +12813,7 @@
         <v>0.26</v>
       </c>
       <c r="H404" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12824,7 +12839,7 @@
         <v>0.16</v>
       </c>
       <c r="H405" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12850,7 +12865,7 @@
         <v>0.84</v>
       </c>
       <c r="H406" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12876,7 +12891,7 @@
         <v>0.76</v>
       </c>
       <c r="H407" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12902,7 +12917,7 @@
         <v>0.18</v>
       </c>
       <c r="H408" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12928,7 +12943,7 @@
         <v>0.98</v>
       </c>
       <c r="H409" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12954,7 +12969,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12980,7 +12995,7 @@
         <v>0.98</v>
       </c>
       <c r="H411" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13006,7 +13021,7 @@
         <v>0.98</v>
       </c>
       <c r="H412" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13032,7 +13047,7 @@
         <v>1</v>
       </c>
       <c r="H413" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13058,7 +13073,7 @@
         <v>0.84</v>
       </c>
       <c r="H414" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13084,7 +13099,7 @@
         <v>0.78</v>
       </c>
       <c r="H415" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13110,7 +13125,7 @@
         <v>0.68</v>
       </c>
       <c r="H416" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13136,7 +13151,7 @@
         <v>0.66</v>
       </c>
       <c r="H417" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13162,7 +13177,7 @@
         <v>0.88</v>
       </c>
       <c r="H418" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13188,7 +13203,7 @@
         <v>0.82</v>
       </c>
       <c r="H419" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13214,7 +13229,7 @@
         <v>0.96</v>
       </c>
       <c r="H420" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13240,7 +13255,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13266,7 +13281,7 @@
         <v>0.38</v>
       </c>
       <c r="H422" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13292,7 +13307,7 @@
         <v>0.7</v>
       </c>
       <c r="H423" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13318,7 +13333,7 @@
         <v>0.14</v>
       </c>
       <c r="H424" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13344,7 +13359,7 @@
         <v>0.3</v>
       </c>
       <c r="H425" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13370,7 +13385,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13396,7 +13411,7 @@
         <v>0.36</v>
       </c>
       <c r="H427" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13422,7 +13437,7 @@
         <v>0.64</v>
       </c>
       <c r="H428" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13448,7 +13463,7 @@
         <v>0.24</v>
       </c>
       <c r="H429" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13474,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13500,7 +13515,7 @@
         <v>0.96</v>
       </c>
       <c r="H431" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13526,7 +13541,7 @@
         <v>0.36</v>
       </c>
       <c r="H432" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13552,7 +13567,7 @@
         <v>0.54</v>
       </c>
       <c r="H433" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13578,7 +13593,7 @@
         <v>0.7</v>
       </c>
       <c r="H434" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13604,7 +13619,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H435" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13630,7 +13645,7 @@
         <v>0.08</v>
       </c>
       <c r="H436" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13656,7 +13671,7 @@
         <v>0.4</v>
       </c>
       <c r="H437" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13682,7 +13697,7 @@
         <v>0.34</v>
       </c>
       <c r="H438" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13708,7 +13723,7 @@
         <v>0.04</v>
       </c>
       <c r="H439" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13734,7 +13749,7 @@
         <v>0.34</v>
       </c>
       <c r="H440" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13760,7 +13775,7 @@
         <v>0.36</v>
       </c>
       <c r="H441" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13786,7 +13801,7 @@
         <v>0.68</v>
       </c>
       <c r="H442" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13812,7 +13827,7 @@
         <v>0.38</v>
       </c>
       <c r="H443" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13838,7 +13853,7 @@
         <v>0.64</v>
       </c>
       <c r="H444" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13864,7 +13879,7 @@
         <v>0.86</v>
       </c>
       <c r="H445" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13890,7 +13905,7 @@
         <v>0.64</v>
       </c>
       <c r="H446" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13916,7 +13931,7 @@
         <v>0.88</v>
       </c>
       <c r="H447" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13942,7 +13957,7 @@
         <v>0.96</v>
       </c>
       <c r="H448" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13968,7 +13983,7 @@
         <v>0.1</v>
       </c>
       <c r="H449" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -13994,7 +14009,7 @@
         <v>0.12</v>
       </c>
       <c r="H450" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14020,7 +14035,7 @@
         <v>0.92</v>
       </c>
       <c r="H451" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14046,7 +14061,7 @@
         <v>0.98</v>
       </c>
       <c r="H452" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14072,7 +14087,7 @@
         <v>0.92</v>
       </c>
       <c r="H453" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14098,7 +14113,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14124,7 +14139,7 @@
         <v>0.74</v>
       </c>
       <c r="H455" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14150,7 +14165,7 @@
         <v>0.84</v>
       </c>
       <c r="H456" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14176,7 +14191,7 @@
         <v>0.18</v>
       </c>
       <c r="H457" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14202,7 +14217,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H458" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14228,7 +14243,7 @@
         <v>0.12</v>
       </c>
       <c r="H459" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14254,7 +14269,7 @@
         <v>1</v>
       </c>
       <c r="H460" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14280,7 +14295,7 @@
         <v>0.96</v>
       </c>
       <c r="H461" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14306,7 +14321,7 @@
         <v>0.9</v>
       </c>
       <c r="H462" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14332,7 +14347,7 @@
         <v>0.62</v>
       </c>
       <c r="H463" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14358,7 +14373,7 @@
         <v>0.16</v>
       </c>
       <c r="H464" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14384,7 +14399,7 @@
         <v>0.4</v>
       </c>
       <c r="H465" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14410,7 +14425,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14436,7 +14451,7 @@
         <v>0.84</v>
       </c>
       <c r="H467" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14462,7 +14477,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H468" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14488,7 +14503,7 @@
         <v>0.9</v>
       </c>
       <c r="H469" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14514,7 +14529,7 @@
         <v>0.24</v>
       </c>
       <c r="H470" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14540,7 +14555,7 @@
         <v>0.26</v>
       </c>
       <c r="H471" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14566,7 +14581,7 @@
         <v>0.74</v>
       </c>
       <c r="H472" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14592,7 +14607,7 @@
         <v>0.4</v>
       </c>
       <c r="H473" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14618,7 +14633,7 @@
         <v>1</v>
       </c>
       <c r="H474" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14644,7 +14659,7 @@
         <v>0.86</v>
       </c>
       <c r="H475" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14670,7 +14685,7 @@
         <v>0.7491891891891892</v>
       </c>
       <c r="H476" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14696,7 +14711,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H477" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14722,7 +14737,7 @@
         <v>0.02</v>
       </c>
       <c r="H478" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14748,7 +14763,7 @@
         <v>0.66</v>
       </c>
       <c r="H479" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14774,7 +14789,7 @@
         <v>0.26</v>
       </c>
       <c r="H480" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14800,7 +14815,7 @@
         <v>0.76</v>
       </c>
       <c r="H481" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14826,7 +14841,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14852,7 +14867,7 @@
         <v>0.76</v>
       </c>
       <c r="H483" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14878,7 +14893,7 @@
         <v>0.08</v>
       </c>
       <c r="H484" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14904,7 +14919,7 @@
         <v>0.96</v>
       </c>
       <c r="H485" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14930,7 +14945,7 @@
         <v>0.98</v>
       </c>
       <c r="H486" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14956,7 +14971,7 @@
         <v>0.36</v>
       </c>
       <c r="H487" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14982,7 +14997,7 @@
         <v>0.2</v>
       </c>
       <c r="H488" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15008,7 +15023,7 @@
         <v>0.12</v>
       </c>
       <c r="H489" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15034,7 +15049,7 @@
         <v>0.9</v>
       </c>
       <c r="H490" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15060,7 +15075,7 @@
         <v>0.24</v>
       </c>
       <c r="H491" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15086,7 +15101,7 @@
         <v>0.9</v>
       </c>
       <c r="H492" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15112,7 +15127,7 @@
         <v>0.7</v>
       </c>
       <c r="H493" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15138,7 +15153,7 @@
         <v>0.68</v>
       </c>
       <c r="H494" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15164,7 +15179,7 @@
         <v>0.12</v>
       </c>
       <c r="H495" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15190,7 +15205,7 @@
         <v>0.68</v>
       </c>
       <c r="H496" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15216,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15242,7 +15257,7 @@
         <v>0.68</v>
       </c>
       <c r="H498" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15268,7 +15283,7 @@
         <v>0.96</v>
       </c>
       <c r="H499" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15294,7 +15309,7 @@
         <v>0.18</v>
       </c>
       <c r="H500" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15320,7 +15335,7 @@
         <v>0.88</v>
       </c>
       <c r="H501" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15346,7 +15361,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15372,7 +15387,7 @@
         <v>0.04</v>
       </c>
       <c r="H503" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15398,7 +15413,7 @@
         <v>0.08</v>
       </c>
       <c r="H504" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15424,7 +15439,7 @@
         <v>0.22</v>
       </c>
       <c r="H505" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15450,7 +15465,7 @@
         <v>0.24</v>
       </c>
       <c r="H506" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15476,7 +15491,7 @@
         <v>0.62</v>
       </c>
       <c r="H507" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15502,7 +15517,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H508" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15528,7 +15543,7 @@
         <v>0.62</v>
       </c>
       <c r="H509" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15554,7 +15569,7 @@
         <v>0.36</v>
       </c>
       <c r="H510" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15580,7 +15595,7 @@
         <v>0.54</v>
       </c>
       <c r="H511" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15606,7 +15621,7 @@
         <v>0.76</v>
       </c>
       <c r="H512" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15632,7 +15647,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15658,7 +15673,7 @@
         <v>0.28</v>
       </c>
       <c r="H514" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15684,7 +15699,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15710,7 +15725,7 @@
         <v>0.38</v>
       </c>
       <c r="H516" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15736,7 +15751,7 @@
         <v>0.3</v>
       </c>
       <c r="H517" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15762,7 +15777,7 @@
         <v>0.36</v>
       </c>
       <c r="H518" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15788,7 +15803,7 @@
         <v>0.8</v>
       </c>
       <c r="H519" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15814,7 +15829,7 @@
         <v>0.22</v>
       </c>
       <c r="H520" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15840,7 +15855,7 @@
         <v>0.32</v>
       </c>
       <c r="H521" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15866,7 +15881,7 @@
         <v>0.32</v>
       </c>
       <c r="H522" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15892,7 +15907,7 @@
         <v>0.52</v>
       </c>
       <c r="H523" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15918,7 +15933,7 @@
         <v>0.92</v>
       </c>
       <c r="H524" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15944,7 +15959,7 @@
         <v>0.96</v>
       </c>
       <c r="H525" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15970,7 +15985,7 @@
         <v>0.16</v>
       </c>
       <c r="H526" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -15996,7 +16011,7 @@
         <v>0.66</v>
       </c>
       <c r="H527" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16022,7 +16037,7 @@
         <v>0.04</v>
       </c>
       <c r="H528" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16048,7 +16063,7 @@
         <v>0.02</v>
       </c>
       <c r="H529" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16074,7 +16089,7 @@
         <v>0.36</v>
       </c>
       <c r="H530" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16100,7 +16115,7 @@
         <v>0.14</v>
       </c>
       <c r="H531" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16126,7 +16141,7 @@
         <v>0.64</v>
       </c>
       <c r="H532" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16152,7 +16167,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16178,7 +16193,7 @@
         <v>0.08</v>
       </c>
       <c r="H534" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16204,7 +16219,7 @@
         <v>0.06</v>
       </c>
       <c r="H535" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16230,7 +16245,7 @@
         <v>0.34</v>
       </c>
       <c r="H536" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16256,7 +16271,7 @@
         <v>0.28</v>
       </c>
       <c r="H537" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16282,7 +16297,7 @@
         <v>0.92</v>
       </c>
       <c r="H538" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16308,7 +16323,7 @@
         <v>0.08</v>
       </c>
       <c r="H539" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16334,7 +16349,7 @@
         <v>0.64</v>
       </c>
       <c r="H540" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16360,7 +16375,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16386,7 +16401,7 @@
         <v>0.18</v>
       </c>
       <c r="H542" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16412,7 +16427,7 @@
         <v>0.16</v>
       </c>
       <c r="H543" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16438,7 +16453,7 @@
         <v>0.98</v>
       </c>
       <c r="H544" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16464,7 +16479,7 @@
         <v>0.14</v>
       </c>
       <c r="H545" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16490,7 +16505,7 @@
         <v>0.26</v>
       </c>
       <c r="H546" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16516,7 +16531,7 @@
         <v>0.02</v>
       </c>
       <c r="H547" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16542,7 +16557,7 @@
         <v>0.6</v>
       </c>
       <c r="H548" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16568,7 +16583,7 @@
         <v>1</v>
       </c>
       <c r="H549" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16594,7 +16609,7 @@
         <v>0.96</v>
       </c>
       <c r="H550" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16620,7 +16635,7 @@
         <v>0.32</v>
       </c>
       <c r="H551" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16646,7 +16661,7 @@
         <v>0.22</v>
       </c>
       <c r="H552" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16672,7 +16687,7 @@
         <v>0.6</v>
       </c>
       <c r="H553" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16698,7 +16713,7 @@
         <v>0.96</v>
       </c>
       <c r="H554" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16724,7 +16739,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16750,7 +16765,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16776,7 +16791,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16802,7 +16817,7 @@
         <v>0.66</v>
       </c>
       <c r="H558" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16828,7 +16843,7 @@
         <v>0.64</v>
       </c>
       <c r="H559" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16854,7 +16869,7 @@
         <v>0.42</v>
       </c>
       <c r="H560" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16880,7 +16895,7 @@
         <v>0.16</v>
       </c>
       <c r="H561" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16906,7 +16921,7 @@
         <v>0.6</v>
       </c>
       <c r="H562" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16932,7 +16947,7 @@
         <v>0.86</v>
       </c>
       <c r="H563" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16958,7 +16973,7 @@
         <v>0.66</v>
       </c>
       <c r="H564" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16984,7 +16999,7 @@
         <v>1</v>
       </c>
       <c r="H565" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -17010,7 +17025,7 @@
         <v>0.62</v>
       </c>
       <c r="H566" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -17036,7 +17051,7 @@
         <v>0.24</v>
       </c>
       <c r="H567" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17062,7 +17077,7 @@
         <v>0.26</v>
       </c>
       <c r="H568" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17088,7 +17103,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="H569" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17114,7 +17129,7 @@
         <v>0.1</v>
       </c>
       <c r="H570" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17140,7 +17155,7 @@
         <v>0.14</v>
       </c>
       <c r="H571" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17166,7 +17181,7 @@
         <v>0.5</v>
       </c>
       <c r="H572" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -17192,7 +17207,7 @@
         <v>0.1</v>
       </c>
       <c r="H573" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -17218,7 +17233,7 @@
         <v>0.12</v>
       </c>
       <c r="H574" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -17244,7 +17259,7 @@
         <v>0.76</v>
       </c>
       <c r="H575" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -17270,7 +17285,7 @@
         <v>0.26</v>
       </c>
       <c r="H576" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -17296,7 +17311,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H577" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -17322,7 +17337,7 @@
         <v>0.92</v>
       </c>
       <c r="H578" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -17348,7 +17363,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H579" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -17374,7 +17389,7 @@
         <v>0.98</v>
       </c>
       <c r="H580" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -17400,7 +17415,7 @@
         <v>0.76</v>
       </c>
       <c r="H581" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -17426,7 +17441,7 @@
         <v>0.98</v>
       </c>
       <c r="H582" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -17452,7 +17467,7 @@
         <v>0.3</v>
       </c>
       <c r="H583" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -17478,7 +17493,7 @@
         <v>0.96</v>
       </c>
       <c r="H584" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -17504,7 +17519,7 @@
         <v>0.14</v>
       </c>
       <c r="H585" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -17530,7 +17545,7 @@
         <v>0.92</v>
       </c>
       <c r="H586" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -17556,7 +17571,7 @@
         <v>0.68</v>
       </c>
       <c r="H587" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -17582,7 +17597,7 @@
         <v>0.34</v>
       </c>
       <c r="H588" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -17608,7 +17623,7 @@
         <v>0.68</v>
       </c>
       <c r="H589" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -17634,7 +17649,7 @@
         <v>0.04</v>
       </c>
       <c r="H590" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -17660,7 +17675,7 @@
         <v>0.98</v>
       </c>
       <c r="H591" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -17686,7 +17701,7 @@
         <v>0.34</v>
       </c>
       <c r="H592" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -17712,7 +17727,7 @@
         <v>0.28</v>
       </c>
       <c r="H593" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -17738,7 +17753,7 @@
         <v>0.98</v>
       </c>
       <c r="H594" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -17764,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -17790,7 +17805,7 @@
         <v>0.92</v>
       </c>
       <c r="H596" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -17816,7 +17831,7 @@
         <v>0.72</v>
       </c>
       <c r="H597" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -17842,7 +17857,7 @@
         <v>0.04</v>
       </c>
       <c r="H598" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -17868,7 +17883,7 @@
         <v>0.9</v>
       </c>
       <c r="H599" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -17894,7 +17909,7 @@
         <v>0.24</v>
       </c>
       <c r="H600" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -17920,7 +17935,7 @@
         <v>0.88</v>
       </c>
       <c r="H601" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -17946,7 +17961,7 @@
         <v>0.6</v>
       </c>
       <c r="H602" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -17972,7 +17987,7 @@
         <v>1</v>
       </c>
       <c r="H603" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -17998,7 +18013,7 @@
         <v>0.96</v>
       </c>
       <c r="H604" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -18008,7 +18023,13 @@
       <c r="B605" t="s">
         <v>610</v>
       </c>
+      <c r="C605">
+        <v>1</v>
+      </c>
       <c r="D605">
+        <v>1</v>
+      </c>
+      <c r="E605">
         <v>1</v>
       </c>
       <c r="F605">
@@ -18018,7 +18039,131 @@
         <v>0.82</v>
       </c>
       <c r="H605" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8">
+      <c r="A606" s="1">
+        <v>604</v>
+      </c>
+      <c r="B606" t="s">
+        <v>611</v>
+      </c>
+      <c r="C606">
+        <v>1</v>
+      </c>
+      <c r="D606">
+        <v>0</v>
+      </c>
+      <c r="E606">
+        <v>0</v>
+      </c>
+      <c r="F606">
+        <v>0.96</v>
+      </c>
+      <c r="G606">
+        <v>0.04</v>
+      </c>
+      <c r="H606" t="s">
         <v>616</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8">
+      <c r="A607" s="1">
+        <v>605</v>
+      </c>
+      <c r="B607" t="s">
+        <v>612</v>
+      </c>
+      <c r="C607">
+        <v>1</v>
+      </c>
+      <c r="D607">
+        <v>1</v>
+      </c>
+      <c r="E607">
+        <v>1</v>
+      </c>
+      <c r="F607">
+        <v>0.04</v>
+      </c>
+      <c r="G607">
+        <v>0.96</v>
+      </c>
+      <c r="H607" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8">
+      <c r="A608" s="1">
+        <v>606</v>
+      </c>
+      <c r="B608" t="s">
+        <v>613</v>
+      </c>
+      <c r="C608">
+        <v>0</v>
+      </c>
+      <c r="D608">
+        <v>1</v>
+      </c>
+      <c r="E608">
+        <v>0</v>
+      </c>
+      <c r="F608">
+        <v>0.44</v>
+      </c>
+      <c r="G608">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="H608" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8">
+      <c r="A609" s="1">
+        <v>607</v>
+      </c>
+      <c r="B609" t="s">
+        <v>614</v>
+      </c>
+      <c r="C609">
+        <v>0</v>
+      </c>
+      <c r="D609">
+        <v>1</v>
+      </c>
+      <c r="E609">
+        <v>0</v>
+      </c>
+      <c r="F609">
+        <v>0</v>
+      </c>
+      <c r="G609">
+        <v>1</v>
+      </c>
+      <c r="H609" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8">
+      <c r="A610" s="1">
+        <v>608</v>
+      </c>
+      <c r="B610" t="s">
+        <v>615</v>
+      </c>
+      <c r="D610">
+        <v>1</v>
+      </c>
+      <c r="F610">
+        <v>0</v>
+      </c>
+      <c r="G610">
+        <v>1</v>
+      </c>
+      <c r="H610" t="s">
+        <v>626</v>
       </c>
     </row>
   </sheetData>

--- a/firebase_data_from_spyOOC.xlsx
+++ b/firebase_data_from_spyOOC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="655">
   <si>
     <t>date</t>
   </si>
@@ -1864,6 +1864,30 @@
     <t>2025-11-14</t>
   </si>
   <si>
+    <t>2025-11-17</t>
+  </si>
+  <si>
+    <t>2025-11-18</t>
+  </si>
+  <si>
+    <t>2025-11-19</t>
+  </si>
+  <si>
+    <t>2025-11-20</t>
+  </si>
+  <si>
+    <t>2025-11-21</t>
+  </si>
+  <si>
+    <t>2025-11-24</t>
+  </si>
+  <si>
+    <t>2025-11-25</t>
+  </si>
+  <si>
+    <t>2025-11-26</t>
+  </si>
+  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -1952,6 +1976,9 @@
   </si>
   <si>
     <t>74.92</t>
+  </si>
+  <si>
+    <t>60.88</t>
   </si>
 </sst>
 </file>
@@ -2309,7 +2336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H610"/>
+  <dimension ref="A1:H618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2361,7 +2388,7 @@
         <v>0.96</v>
       </c>
       <c r="H2" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2387,7 +2414,7 @@
         <v>0.98</v>
       </c>
       <c r="H3" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2413,7 +2440,7 @@
         <v>0.4</v>
       </c>
       <c r="H4" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2439,7 +2466,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H5" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2465,7 +2492,7 @@
         <v>0.22</v>
       </c>
       <c r="H6" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2491,7 +2518,7 @@
         <v>0.18</v>
       </c>
       <c r="H7" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2517,7 +2544,7 @@
         <v>0.78</v>
       </c>
       <c r="H8" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2543,7 +2570,7 @@
         <v>0.36</v>
       </c>
       <c r="H9" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2569,7 +2596,7 @@
         <v>0.66</v>
       </c>
       <c r="H10" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2595,7 +2622,7 @@
         <v>0.32</v>
       </c>
       <c r="H11" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2621,7 +2648,7 @@
         <v>0.7</v>
       </c>
       <c r="H12" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2647,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2673,7 +2700,7 @@
         <v>0.92</v>
       </c>
       <c r="H14" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2699,7 +2726,7 @@
         <v>0.7</v>
       </c>
       <c r="H15" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2725,7 +2752,7 @@
         <v>0.3</v>
       </c>
       <c r="H16" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2751,7 +2778,7 @@
         <v>0.3</v>
       </c>
       <c r="H17" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2777,7 +2804,7 @@
         <v>0.02</v>
       </c>
       <c r="H18" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2803,7 +2830,7 @@
         <v>0.72</v>
       </c>
       <c r="H19" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2829,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2855,7 +2882,7 @@
         <v>0.98</v>
       </c>
       <c r="H21" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2881,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2907,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2933,7 +2960,7 @@
         <v>0.32</v>
       </c>
       <c r="H24" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2959,7 +2986,7 @@
         <v>0.26</v>
       </c>
       <c r="H25" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2985,7 +3012,7 @@
         <v>0.34</v>
       </c>
       <c r="H26" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3011,7 +3038,7 @@
         <v>0.04</v>
       </c>
       <c r="H27" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3037,7 +3064,7 @@
         <v>0.02</v>
       </c>
       <c r="H28" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3063,7 +3090,7 @@
         <v>0.84</v>
       </c>
       <c r="H29" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3089,7 +3116,7 @@
         <v>0.96</v>
       </c>
       <c r="H30" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3115,7 +3142,7 @@
         <v>0.8</v>
       </c>
       <c r="H31" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3141,7 +3168,7 @@
         <v>0.92</v>
       </c>
       <c r="H32" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3167,7 +3194,7 @@
         <v>0.98</v>
       </c>
       <c r="H33" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3193,7 +3220,7 @@
         <v>0.98</v>
       </c>
       <c r="H34" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3219,7 +3246,7 @@
         <v>0.46</v>
       </c>
       <c r="H35" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3245,7 +3272,7 @@
         <v>0.2</v>
       </c>
       <c r="H36" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3271,7 +3298,7 @@
         <v>0.3</v>
       </c>
       <c r="H37" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3297,7 +3324,7 @@
         <v>0.04</v>
       </c>
       <c r="H38" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3323,7 +3350,7 @@
         <v>0.68</v>
       </c>
       <c r="H39" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3349,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3375,7 +3402,7 @@
         <v>0.34</v>
       </c>
       <c r="H41" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3401,7 +3428,7 @@
         <v>0.34</v>
       </c>
       <c r="H42" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3427,7 +3454,7 @@
         <v>0.44</v>
       </c>
       <c r="H43" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3453,7 +3480,7 @@
         <v>0.36</v>
       </c>
       <c r="H44" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3479,7 +3506,7 @@
         <v>0.58</v>
       </c>
       <c r="H45" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3505,7 +3532,7 @@
         <v>0.72</v>
       </c>
       <c r="H46" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3531,7 +3558,7 @@
         <v>0.74</v>
       </c>
       <c r="H47" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3557,7 +3584,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H48" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3583,7 +3610,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H49" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3609,7 +3636,7 @@
         <v>0.96</v>
       </c>
       <c r="H50" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3635,7 +3662,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3661,7 +3688,7 @@
         <v>0.96</v>
       </c>
       <c r="H52" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3687,7 +3714,7 @@
         <v>0.74</v>
       </c>
       <c r="H53" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3713,7 +3740,7 @@
         <v>0.74</v>
       </c>
       <c r="H54" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3739,7 +3766,7 @@
         <v>0.14</v>
       </c>
       <c r="H55" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3765,7 +3792,7 @@
         <v>0.86</v>
       </c>
       <c r="H56" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3791,7 +3818,7 @@
         <v>0.12</v>
       </c>
       <c r="H57" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3817,7 +3844,7 @@
         <v>0.1</v>
       </c>
       <c r="H58" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3843,7 +3870,7 @@
         <v>0.84</v>
       </c>
       <c r="H59" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3869,7 +3896,7 @@
         <v>0.74</v>
       </c>
       <c r="H60" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3895,7 +3922,7 @@
         <v>0.76</v>
       </c>
       <c r="H61" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3921,7 +3948,7 @@
         <v>0.66</v>
       </c>
       <c r="H62" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3947,7 +3974,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H63" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3973,7 +4000,7 @@
         <v>0.74</v>
       </c>
       <c r="H64" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3999,7 +4026,7 @@
         <v>0.6</v>
       </c>
       <c r="H65" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4025,7 +4052,7 @@
         <v>0.2</v>
       </c>
       <c r="H66" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -4051,7 +4078,7 @@
         <v>0.06</v>
       </c>
       <c r="H67" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -4077,7 +4104,7 @@
         <v>0.98</v>
       </c>
       <c r="H68" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -4103,7 +4130,7 @@
         <v>0.38</v>
       </c>
       <c r="H69" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -4129,7 +4156,7 @@
         <v>0.02</v>
       </c>
       <c r="H70" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -4155,7 +4182,7 @@
         <v>0.8</v>
       </c>
       <c r="H71" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -4181,7 +4208,7 @@
         <v>0.7</v>
       </c>
       <c r="H72" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -4207,7 +4234,7 @@
         <v>0.72</v>
       </c>
       <c r="H73" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -4233,7 +4260,7 @@
         <v>0.2</v>
       </c>
       <c r="H74" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -4259,7 +4286,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H75" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -4285,7 +4312,7 @@
         <v>0.38</v>
       </c>
       <c r="H76" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -4311,7 +4338,7 @@
         <v>0.08</v>
       </c>
       <c r="H77" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -4337,7 +4364,7 @@
         <v>0.06</v>
       </c>
       <c r="H78" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -4363,7 +4390,7 @@
         <v>0.96</v>
       </c>
       <c r="H79" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -4389,7 +4416,7 @@
         <v>0.6</v>
       </c>
       <c r="H80" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4415,7 +4442,7 @@
         <v>0.92</v>
       </c>
       <c r="H81" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -4441,7 +4468,7 @@
         <v>0.9</v>
       </c>
       <c r="H82" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -4467,7 +4494,7 @@
         <v>0.08</v>
       </c>
       <c r="H83" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -4493,7 +4520,7 @@
         <v>0.74</v>
       </c>
       <c r="H84" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4519,7 +4546,7 @@
         <v>0.28</v>
       </c>
       <c r="H85" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -4545,7 +4572,7 @@
         <v>0.42</v>
       </c>
       <c r="H86" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4571,7 +4598,7 @@
         <v>0.9</v>
       </c>
       <c r="H87" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4597,7 +4624,7 @@
         <v>0.98</v>
       </c>
       <c r="H88" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4623,7 +4650,7 @@
         <v>0.74</v>
       </c>
       <c r="H89" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4649,7 +4676,7 @@
         <v>0.22</v>
       </c>
       <c r="H90" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4675,7 +4702,7 @@
         <v>0.74</v>
       </c>
       <c r="H91" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4701,7 +4728,7 @@
         <v>0.68</v>
       </c>
       <c r="H92" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4727,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4753,7 +4780,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H94" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4779,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4805,7 +4832,7 @@
         <v>0.76</v>
       </c>
       <c r="H96" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4831,7 +4858,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H97" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4857,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4883,7 +4910,7 @@
         <v>0.96</v>
       </c>
       <c r="H99" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4909,7 +4936,7 @@
         <v>0.88</v>
       </c>
       <c r="H100" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4935,7 +4962,7 @@
         <v>0.82</v>
       </c>
       <c r="H101" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4961,7 +4988,7 @@
         <v>0.24</v>
       </c>
       <c r="H102" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4987,7 +5014,7 @@
         <v>0.7</v>
       </c>
       <c r="H103" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -5013,7 +5040,7 @@
         <v>0.28</v>
       </c>
       <c r="H104" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -5039,7 +5066,7 @@
         <v>0.3</v>
       </c>
       <c r="H105" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -5065,7 +5092,7 @@
         <v>0.24</v>
       </c>
       <c r="H106" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -5091,7 +5118,7 @@
         <v>0.86</v>
       </c>
       <c r="H107" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -5117,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -5143,7 +5170,7 @@
         <v>0.28</v>
       </c>
       <c r="H109" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -5169,7 +5196,7 @@
         <v>0.98</v>
       </c>
       <c r="H110" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -5195,7 +5222,7 @@
         <v>0.26</v>
       </c>
       <c r="H111" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -5221,7 +5248,7 @@
         <v>0.44</v>
       </c>
       <c r="H112" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -5247,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -5273,7 +5300,7 @@
         <v>0.98</v>
       </c>
       <c r="H114" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -5299,7 +5326,7 @@
         <v>0.04</v>
       </c>
       <c r="H115" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -5325,7 +5352,7 @@
         <v>0.06</v>
       </c>
       <c r="H116" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -5351,7 +5378,7 @@
         <v>0.22</v>
       </c>
       <c r="H117" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -5377,7 +5404,7 @@
         <v>0.24</v>
       </c>
       <c r="H118" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -5403,7 +5430,7 @@
         <v>0.3</v>
       </c>
       <c r="H119" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -5429,7 +5456,7 @@
         <v>0.34</v>
       </c>
       <c r="H120" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -5455,7 +5482,7 @@
         <v>0.32</v>
       </c>
       <c r="H121" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -5481,7 +5508,7 @@
         <v>0.04</v>
       </c>
       <c r="H122" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -5507,7 +5534,7 @@
         <v>0.06</v>
       </c>
       <c r="H123" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -5533,7 +5560,7 @@
         <v>0.04</v>
       </c>
       <c r="H124" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -5559,7 +5586,7 @@
         <v>0.96</v>
       </c>
       <c r="H125" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5585,7 +5612,7 @@
         <v>0.66</v>
       </c>
       <c r="H126" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5611,7 +5638,7 @@
         <v>0.04</v>
       </c>
       <c r="H127" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5637,7 +5664,7 @@
         <v>0.9</v>
       </c>
       <c r="H128" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5663,7 +5690,7 @@
         <v>0.84</v>
       </c>
       <c r="H129" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5689,7 +5716,7 @@
         <v>0.34</v>
       </c>
       <c r="H130" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5715,7 +5742,7 @@
         <v>0.64</v>
       </c>
       <c r="H131" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5741,7 +5768,7 @@
         <v>0.04</v>
       </c>
       <c r="H132" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5767,7 +5794,7 @@
         <v>0.86</v>
       </c>
       <c r="H133" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5793,7 +5820,7 @@
         <v>0.9</v>
       </c>
       <c r="H134" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5819,7 +5846,7 @@
         <v>0.52</v>
       </c>
       <c r="H135" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5845,7 +5872,7 @@
         <v>0.42</v>
       </c>
       <c r="H136" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5871,7 +5898,7 @@
         <v>0.76</v>
       </c>
       <c r="H137" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5897,7 +5924,7 @@
         <v>0.06</v>
       </c>
       <c r="H138" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5923,7 +5950,7 @@
         <v>0.98</v>
       </c>
       <c r="H139" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5949,7 +5976,7 @@
         <v>0.28</v>
       </c>
       <c r="H140" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5975,7 +6002,7 @@
         <v>0.16</v>
       </c>
       <c r="H141" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6001,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6027,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6053,7 +6080,7 @@
         <v>0.66</v>
       </c>
       <c r="H144" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -6079,7 +6106,7 @@
         <v>0.42</v>
       </c>
       <c r="H145" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -6105,7 +6132,7 @@
         <v>0.32</v>
       </c>
       <c r="H146" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -6131,7 +6158,7 @@
         <v>0.34</v>
       </c>
       <c r="H147" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -6157,7 +6184,7 @@
         <v>0.02</v>
       </c>
       <c r="H148" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -6183,7 +6210,7 @@
         <v>0.16</v>
       </c>
       <c r="H149" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -6209,7 +6236,7 @@
         <v>0.76</v>
       </c>
       <c r="H150" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -6235,7 +6262,7 @@
         <v>0.24</v>
       </c>
       <c r="H151" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -6261,7 +6288,7 @@
         <v>0.04</v>
       </c>
       <c r="H152" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -6287,7 +6314,7 @@
         <v>0.3</v>
       </c>
       <c r="H153" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -6313,7 +6340,7 @@
         <v>0.98</v>
       </c>
       <c r="H154" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -6339,7 +6366,7 @@
         <v>0.76</v>
       </c>
       <c r="H155" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -6365,7 +6392,7 @@
         <v>0.28</v>
       </c>
       <c r="H156" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6391,7 +6418,7 @@
         <v>0.84</v>
       </c>
       <c r="H157" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -6417,7 +6444,7 @@
         <v>0.64</v>
       </c>
       <c r="H158" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -6443,7 +6470,7 @@
         <v>0.32</v>
       </c>
       <c r="H159" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6469,7 +6496,7 @@
         <v>0.72</v>
       </c>
       <c r="H160" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -6495,7 +6522,7 @@
         <v>0.3</v>
       </c>
       <c r="H161" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -6521,7 +6548,7 @@
         <v>0.68</v>
       </c>
       <c r="H162" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -6547,7 +6574,7 @@
         <v>0.32</v>
       </c>
       <c r="H163" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6573,7 +6600,7 @@
         <v>0.72</v>
       </c>
       <c r="H164" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6599,7 +6626,7 @@
         <v>0.36</v>
       </c>
       <c r="H165" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6625,7 +6652,7 @@
         <v>0.86</v>
       </c>
       <c r="H166" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6651,7 +6678,7 @@
         <v>0.58</v>
       </c>
       <c r="H167" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6677,7 +6704,7 @@
         <v>0.78</v>
       </c>
       <c r="H168" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6703,7 +6730,7 @@
         <v>0.98</v>
       </c>
       <c r="H169" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6729,7 +6756,7 @@
         <v>0.86</v>
       </c>
       <c r="H170" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6755,7 +6782,7 @@
         <v>0.08</v>
       </c>
       <c r="H171" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6781,7 +6808,7 @@
         <v>0.88</v>
       </c>
       <c r="H172" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6807,7 +6834,7 @@
         <v>0.68</v>
       </c>
       <c r="H173" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6833,7 +6860,7 @@
         <v>0.74</v>
       </c>
       <c r="H174" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6859,7 +6886,7 @@
         <v>0.58</v>
       </c>
       <c r="H175" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6885,7 +6912,7 @@
         <v>0.22</v>
       </c>
       <c r="H176" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6911,7 +6938,7 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6937,7 +6964,7 @@
         <v>0.64</v>
       </c>
       <c r="H178" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6963,7 +6990,7 @@
         <v>0.26</v>
       </c>
       <c r="H179" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6989,7 +7016,7 @@
         <v>0.6</v>
       </c>
       <c r="H180" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -7015,7 +7042,7 @@
         <v>0.98</v>
       </c>
       <c r="H181" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -7041,7 +7068,7 @@
         <v>0.3517053405853769</v>
       </c>
       <c r="H182" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -7067,7 +7094,7 @@
         <v>0.84</v>
       </c>
       <c r="H183" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -7093,7 +7120,7 @@
         <v>0.48</v>
       </c>
       <c r="H184" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -7119,7 +7146,7 @@
         <v>0.08</v>
       </c>
       <c r="H185" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -7145,7 +7172,7 @@
         <v>0.6</v>
       </c>
       <c r="H186" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -7171,7 +7198,7 @@
         <v>0.9</v>
       </c>
       <c r="H187" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -7197,7 +7224,7 @@
         <v>0.8</v>
       </c>
       <c r="H188" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -7223,7 +7250,7 @@
         <v>0.34</v>
       </c>
       <c r="H189" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -7249,7 +7276,7 @@
         <v>0.16</v>
       </c>
       <c r="H190" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -7275,7 +7302,7 @@
         <v>0.1</v>
       </c>
       <c r="H191" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -7301,7 +7328,7 @@
         <v>0.7</v>
       </c>
       <c r="H192" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7327,7 +7354,7 @@
         <v>0.72</v>
       </c>
       <c r="H193" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -7353,7 +7380,7 @@
         <v>0.04</v>
       </c>
       <c r="H194" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -7379,7 +7406,7 @@
         <v>0.008304498269896196</v>
       </c>
       <c r="H195" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -7405,7 +7432,7 @@
         <v>0.26</v>
       </c>
       <c r="H196" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -7431,7 +7458,7 @@
         <v>0.4</v>
       </c>
       <c r="H197" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -7457,7 +7484,7 @@
         <v>0.64</v>
       </c>
       <c r="H198" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -7483,7 +7510,7 @@
         <v>0.24</v>
       </c>
       <c r="H199" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -7509,7 +7536,7 @@
         <v>0.4</v>
       </c>
       <c r="H200" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -7535,7 +7562,7 @@
         <v>0.32</v>
       </c>
       <c r="H201" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -7561,7 +7588,7 @@
         <v>0.38</v>
       </c>
       <c r="H202" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7587,7 +7614,7 @@
         <v>0.72</v>
       </c>
       <c r="H203" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7613,7 +7640,7 @@
         <v>0.68</v>
       </c>
       <c r="H204" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7639,7 +7666,7 @@
         <v>0.32</v>
       </c>
       <c r="H205" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7665,7 +7692,7 @@
         <v>0.32</v>
       </c>
       <c r="H206" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7691,7 +7718,7 @@
         <v>0.2</v>
       </c>
       <c r="H207" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7717,7 +7744,7 @@
         <v>0.3</v>
       </c>
       <c r="H208" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7743,7 +7770,7 @@
         <v>0.78</v>
       </c>
       <c r="H209" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7769,7 +7796,7 @@
         <v>0.26</v>
       </c>
       <c r="H210" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7795,7 +7822,7 @@
         <v>0.32</v>
       </c>
       <c r="H211" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7821,7 +7848,7 @@
         <v>0.3</v>
       </c>
       <c r="H212" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7847,7 +7874,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H213" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7873,7 +7900,7 @@
         <v>0.88</v>
       </c>
       <c r="H214" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7899,7 +7926,7 @@
         <v>0.74</v>
       </c>
       <c r="H215" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7925,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="H216" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7951,7 +7978,7 @@
         <v>1</v>
       </c>
       <c r="H217" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7977,7 +8004,7 @@
         <v>0.2</v>
       </c>
       <c r="H218" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -8003,7 +8030,7 @@
         <v>0.22</v>
       </c>
       <c r="H219" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -8029,7 +8056,7 @@
         <v>0.78</v>
       </c>
       <c r="H220" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -8055,7 +8082,7 @@
         <v>0.98</v>
       </c>
       <c r="H221" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -8081,7 +8108,7 @@
         <v>0</v>
       </c>
       <c r="H222" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -8107,7 +8134,7 @@
         <v>0.4381603474151185</v>
       </c>
       <c r="H223" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -8133,7 +8160,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H224" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -8159,7 +8186,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H225" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -8185,7 +8212,7 @@
         <v>0.58</v>
       </c>
       <c r="H226" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -8211,7 +8238,7 @@
         <v>0.14</v>
       </c>
       <c r="H227" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -8237,7 +8264,7 @@
         <v>0.18</v>
       </c>
       <c r="H228" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -8263,7 +8290,7 @@
         <v>0.02</v>
       </c>
       <c r="H229" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -8289,7 +8316,7 @@
         <v>0.02</v>
       </c>
       <c r="H230" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -8315,7 +8342,7 @@
         <v>0.98</v>
       </c>
       <c r="H231" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -8341,7 +8368,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -8367,7 +8394,7 @@
         <v>0.04</v>
       </c>
       <c r="H233" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8393,7 +8420,7 @@
         <v>0.88</v>
       </c>
       <c r="H234" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -8419,7 +8446,7 @@
         <v>0.62</v>
       </c>
       <c r="H235" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -8445,7 +8472,7 @@
         <v>0.14</v>
       </c>
       <c r="H236" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -8471,7 +8498,7 @@
         <v>0.66</v>
       </c>
       <c r="H237" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -8497,7 +8524,7 @@
         <v>0.92</v>
       </c>
       <c r="H238" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8523,7 +8550,7 @@
         <v>0.38</v>
       </c>
       <c r="H239" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -8549,7 +8576,7 @@
         <v>0.4</v>
       </c>
       <c r="H240" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8575,7 +8602,7 @@
         <v>0.1</v>
       </c>
       <c r="H241" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8601,7 +8628,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8627,7 +8654,7 @@
         <v>0.04</v>
       </c>
       <c r="H243" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8653,7 +8680,7 @@
         <v>0.96</v>
       </c>
       <c r="H244" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8679,7 +8706,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8705,7 +8732,7 @@
         <v>0.28</v>
       </c>
       <c r="H246" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8731,7 +8758,7 @@
         <v>0.96</v>
       </c>
       <c r="H247" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8757,7 +8784,7 @@
         <v>0.04</v>
       </c>
       <c r="H248" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8783,7 +8810,7 @@
         <v>0.4</v>
       </c>
       <c r="H249" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8809,7 +8836,7 @@
         <v>0.78</v>
       </c>
       <c r="H250" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8835,7 +8862,7 @@
         <v>0.62</v>
       </c>
       <c r="H251" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8861,7 +8888,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8887,7 +8914,7 @@
         <v>0.46</v>
       </c>
       <c r="H253" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8913,7 +8940,7 @@
         <v>0.4</v>
       </c>
       <c r="H254" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8939,7 +8966,7 @@
         <v>0.14</v>
       </c>
       <c r="H255" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8965,7 +8992,7 @@
         <v>0.72</v>
       </c>
       <c r="H256" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8991,7 +9018,7 @@
         <v>0.8</v>
       </c>
       <c r="H257" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -9017,7 +9044,7 @@
         <v>0.88</v>
       </c>
       <c r="H258" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -9043,7 +9070,7 @@
         <v>0.02</v>
       </c>
       <c r="H259" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -9069,7 +9096,7 @@
         <v>0.26</v>
       </c>
       <c r="H260" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -9095,7 +9122,7 @@
         <v>0.4</v>
       </c>
       <c r="H261" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -9121,7 +9148,7 @@
         <v>0.74</v>
       </c>
       <c r="H262" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -9147,7 +9174,7 @@
         <v>0.08</v>
       </c>
       <c r="H263" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -9173,7 +9200,7 @@
         <v>0.96</v>
       </c>
       <c r="H264" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -9199,7 +9226,7 @@
         <v>0.96</v>
       </c>
       <c r="H265" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -9225,7 +9252,7 @@
         <v>0.4</v>
       </c>
       <c r="H266" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -9251,7 +9278,7 @@
         <v>0.28</v>
       </c>
       <c r="H267" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -9277,7 +9304,7 @@
         <v>0.12</v>
       </c>
       <c r="H268" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -9303,7 +9330,7 @@
         <v>0.28</v>
       </c>
       <c r="H269" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -9329,7 +9356,7 @@
         <v>0.22</v>
       </c>
       <c r="H270" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -9355,7 +9382,7 @@
         <v>0.68</v>
       </c>
       <c r="H271" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -9381,7 +9408,7 @@
         <v>0.72</v>
       </c>
       <c r="H272" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -9407,7 +9434,7 @@
         <v>0.38</v>
       </c>
       <c r="H273" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -9433,7 +9460,7 @@
         <v>0.18</v>
       </c>
       <c r="H274" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -9459,7 +9486,7 @@
         <v>0.62</v>
       </c>
       <c r="H275" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9485,7 +9512,7 @@
         <v>0.58</v>
       </c>
       <c r="H276" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -9511,7 +9538,7 @@
         <v>0.74</v>
       </c>
       <c r="H277" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -9537,7 +9564,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H278" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -9563,7 +9590,7 @@
         <v>0.2</v>
       </c>
       <c r="H279" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9589,7 +9616,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9615,7 +9642,7 @@
         <v>0.46</v>
       </c>
       <c r="H281" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9641,7 +9668,7 @@
         <v>0.16</v>
       </c>
       <c r="H282" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9667,7 +9694,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9693,7 +9720,7 @@
         <v>0.54</v>
       </c>
       <c r="H284" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9719,7 +9746,7 @@
         <v>0.98</v>
       </c>
       <c r="H285" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9745,7 +9772,7 @@
         <v>0.22</v>
       </c>
       <c r="H286" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9771,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="H287" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9797,7 +9824,7 @@
         <v>0.76</v>
       </c>
       <c r="H288" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9823,7 +9850,7 @@
         <v>1</v>
       </c>
       <c r="H289" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9849,7 +9876,7 @@
         <v>0.72</v>
       </c>
       <c r="H290" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9875,7 +9902,7 @@
         <v>0.66</v>
       </c>
       <c r="H291" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9901,7 +9928,7 @@
         <v>0.62</v>
       </c>
       <c r="H292" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9927,7 +9954,7 @@
         <v>1</v>
       </c>
       <c r="H293" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9953,7 +9980,7 @@
         <v>0.36</v>
       </c>
       <c r="H294" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9979,7 +10006,7 @@
         <v>0.36</v>
       </c>
       <c r="H295" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -10005,7 +10032,7 @@
         <v>0.96</v>
       </c>
       <c r="H296" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -10031,7 +10058,7 @@
         <v>0.92</v>
       </c>
       <c r="H297" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -10057,7 +10084,7 @@
         <v>0.04</v>
       </c>
       <c r="H298" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -10083,7 +10110,7 @@
         <v>0.9</v>
       </c>
       <c r="H299" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -10109,7 +10136,7 @@
         <v>0.28</v>
       </c>
       <c r="H300" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -10135,7 +10162,7 @@
         <v>0.62</v>
       </c>
       <c r="H301" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -10161,7 +10188,7 @@
         <v>0.9</v>
       </c>
       <c r="H302" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -10187,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="H303" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -10213,7 +10240,7 @@
         <v>0.38</v>
       </c>
       <c r="H304" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -10239,7 +10266,7 @@
         <v>0.4</v>
       </c>
       <c r="H305" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -10265,7 +10292,7 @@
         <v>0.06</v>
       </c>
       <c r="H306" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -10291,7 +10318,7 @@
         <v>0.68</v>
       </c>
       <c r="H307" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -10317,7 +10344,7 @@
         <v>0.78</v>
       </c>
       <c r="H308" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -10343,7 +10370,7 @@
         <v>0.06</v>
       </c>
       <c r="H309" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -10369,7 +10396,7 @@
         <v>0.5</v>
       </c>
       <c r="H310" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -10395,7 +10422,7 @@
         <v>0.16</v>
       </c>
       <c r="H311" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -10421,7 +10448,7 @@
         <v>0.18</v>
       </c>
       <c r="H312" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -10447,7 +10474,7 @@
         <v>0.96</v>
       </c>
       <c r="H313" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -10473,7 +10500,7 @@
         <v>0.86</v>
       </c>
       <c r="H314" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -10499,7 +10526,7 @@
         <v>0.96</v>
       </c>
       <c r="H315" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -10525,7 +10552,7 @@
         <v>1</v>
       </c>
       <c r="H316" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -10551,7 +10578,7 @@
         <v>0.8</v>
       </c>
       <c r="H317" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10577,7 +10604,7 @@
         <v>0.98</v>
       </c>
       <c r="H318" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10603,7 +10630,7 @@
         <v>0.34</v>
       </c>
       <c r="H319" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10629,7 +10656,7 @@
         <v>0.16</v>
       </c>
       <c r="H320" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10655,7 +10682,7 @@
         <v>0.88</v>
       </c>
       <c r="H321" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10681,7 +10708,7 @@
         <v>0.7</v>
       </c>
       <c r="H322" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10707,7 +10734,7 @@
         <v>0.68</v>
       </c>
       <c r="H323" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10733,7 +10760,7 @@
         <v>0.36</v>
       </c>
       <c r="H324" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10759,7 +10786,7 @@
         <v>0</v>
       </c>
       <c r="H325" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10785,7 +10812,7 @@
         <v>0.9</v>
       </c>
       <c r="H326" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10811,7 +10838,7 @@
         <v>0.22</v>
       </c>
       <c r="H327" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10837,7 +10864,7 @@
         <v>0.42</v>
       </c>
       <c r="H328" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10863,7 +10890,7 @@
         <v>0.2</v>
       </c>
       <c r="H329" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10889,7 +10916,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10915,7 +10942,7 @@
         <v>0.6</v>
       </c>
       <c r="H331" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10941,7 +10968,7 @@
         <v>0.88</v>
       </c>
       <c r="H332" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10967,7 +10994,7 @@
         <v>0.06</v>
       </c>
       <c r="H333" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10993,7 +11020,7 @@
         <v>0.82</v>
       </c>
       <c r="H334" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -11019,7 +11046,7 @@
         <v>1</v>
       </c>
       <c r="H335" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -11045,7 +11072,7 @@
         <v>0.06</v>
       </c>
       <c r="H336" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -11071,7 +11098,7 @@
         <v>0.28</v>
       </c>
       <c r="H337" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -11097,7 +11124,7 @@
         <v>0.58</v>
       </c>
       <c r="H338" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -11123,7 +11150,7 @@
         <v>0.36</v>
       </c>
       <c r="H339" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -11149,7 +11176,7 @@
         <v>1</v>
       </c>
       <c r="H340" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11175,7 +11202,7 @@
         <v>0.34</v>
       </c>
       <c r="H341" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -11201,7 +11228,7 @@
         <v>0.9</v>
       </c>
       <c r="H342" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -11227,7 +11254,7 @@
         <v>0.8</v>
       </c>
       <c r="H343" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -11253,7 +11280,7 @@
         <v>0.4</v>
       </c>
       <c r="H344" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -11279,7 +11306,7 @@
         <v>0.22</v>
       </c>
       <c r="H345" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -11305,7 +11332,7 @@
         <v>0.7</v>
       </c>
       <c r="H346" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -11331,7 +11358,7 @@
         <v>0.76</v>
       </c>
       <c r="H347" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -11357,7 +11384,7 @@
         <v>0.96</v>
       </c>
       <c r="H348" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -11383,7 +11410,7 @@
         <v>0.38</v>
       </c>
       <c r="H349" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -11409,7 +11436,7 @@
         <v>0.7</v>
       </c>
       <c r="H350" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -11435,7 +11462,7 @@
         <v>0.92</v>
       </c>
       <c r="H351" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -11461,7 +11488,7 @@
         <v>0.22</v>
       </c>
       <c r="H352" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -11487,7 +11514,7 @@
         <v>1</v>
       </c>
       <c r="H353" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -11513,7 +11540,7 @@
         <v>0.36</v>
       </c>
       <c r="H354" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -11539,7 +11566,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11565,7 +11592,7 @@
         <v>0.7</v>
       </c>
       <c r="H356" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11591,7 +11618,7 @@
         <v>0.38</v>
       </c>
       <c r="H357" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11617,7 +11644,7 @@
         <v>0.02</v>
       </c>
       <c r="H358" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11643,7 +11670,7 @@
         <v>0.66</v>
       </c>
       <c r="H359" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11669,7 +11696,7 @@
         <v>0.14</v>
       </c>
       <c r="H360" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11695,7 +11722,7 @@
         <v>0.96</v>
       </c>
       <c r="H361" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11721,7 +11748,7 @@
         <v>0.96</v>
       </c>
       <c r="H362" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11747,7 +11774,7 @@
         <v>0.16</v>
       </c>
       <c r="H363" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11773,7 +11800,7 @@
         <v>0.26</v>
       </c>
       <c r="H364" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11799,7 +11826,7 @@
         <v>0.22</v>
       </c>
       <c r="H365" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11825,7 +11852,7 @@
         <v>0.96</v>
       </c>
       <c r="H366" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11851,7 +11878,7 @@
         <v>0.12</v>
       </c>
       <c r="H367" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11877,7 +11904,7 @@
         <v>0.84</v>
       </c>
       <c r="H368" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11903,7 +11930,7 @@
         <v>0.86</v>
       </c>
       <c r="H369" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11929,7 +11956,7 @@
         <v>0.88</v>
       </c>
       <c r="H370" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11955,7 +11982,7 @@
         <v>0.84</v>
       </c>
       <c r="H371" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11981,7 +12008,7 @@
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -12007,7 +12034,7 @@
         <v>0.72</v>
       </c>
       <c r="H373" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -12033,7 +12060,7 @@
         <v>0.8</v>
       </c>
       <c r="H374" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -12059,7 +12086,7 @@
         <v>0.7</v>
       </c>
       <c r="H375" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -12085,7 +12112,7 @@
         <v>0.7</v>
       </c>
       <c r="H376" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -12111,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="H377" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -12137,7 +12164,7 @@
         <v>0.1</v>
       </c>
       <c r="H378" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -12163,7 +12190,7 @@
         <v>0.16</v>
       </c>
       <c r="H379" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -12189,7 +12216,7 @@
         <v>0.04</v>
       </c>
       <c r="H380" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -12215,7 +12242,7 @@
         <v>0.14</v>
       </c>
       <c r="H381" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -12241,7 +12268,7 @@
         <v>0.12</v>
       </c>
       <c r="H382" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -12267,7 +12294,7 @@
         <v>0.04</v>
       </c>
       <c r="H383" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -12293,7 +12320,7 @@
         <v>0.9</v>
       </c>
       <c r="H384" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -12319,7 +12346,7 @@
         <v>0.14</v>
       </c>
       <c r="H385" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -12345,7 +12372,7 @@
         <v>0.76</v>
       </c>
       <c r="H386" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -12371,7 +12398,7 @@
         <v>0.66</v>
       </c>
       <c r="H387" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -12397,7 +12424,7 @@
         <v>0.68</v>
       </c>
       <c r="H388" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -12423,7 +12450,7 @@
         <v>0.76</v>
       </c>
       <c r="H389" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -12449,7 +12476,7 @@
         <v>1</v>
       </c>
       <c r="H390" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -12475,7 +12502,7 @@
         <v>0.06</v>
       </c>
       <c r="H391" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -12501,7 +12528,7 @@
         <v>0.76</v>
       </c>
       <c r="H392" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -12527,7 +12554,7 @@
         <v>0.06</v>
       </c>
       <c r="H393" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -12553,7 +12580,7 @@
         <v>0.3</v>
       </c>
       <c r="H394" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -12579,7 +12606,7 @@
         <v>0.3</v>
       </c>
       <c r="H395" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -12605,7 +12632,7 @@
         <v>0.74</v>
       </c>
       <c r="H396" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -12631,7 +12658,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -12657,7 +12684,7 @@
         <v>0.14</v>
       </c>
       <c r="H398" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -12683,7 +12710,7 @@
         <v>0.74</v>
       </c>
       <c r="H399" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -12709,7 +12736,7 @@
         <v>0.8</v>
       </c>
       <c r="H400" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -12735,7 +12762,7 @@
         <v>0.74</v>
       </c>
       <c r="H401" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -12761,7 +12788,7 @@
         <v>0.84</v>
       </c>
       <c r="H402" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -12787,7 +12814,7 @@
         <v>0</v>
       </c>
       <c r="H403" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -12813,7 +12840,7 @@
         <v>0.26</v>
       </c>
       <c r="H404" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -12839,7 +12866,7 @@
         <v>0.16</v>
       </c>
       <c r="H405" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -12865,7 +12892,7 @@
         <v>0.84</v>
       </c>
       <c r="H406" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -12891,7 +12918,7 @@
         <v>0.76</v>
       </c>
       <c r="H407" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -12917,7 +12944,7 @@
         <v>0.18</v>
       </c>
       <c r="H408" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -12943,7 +12970,7 @@
         <v>0.98</v>
       </c>
       <c r="H409" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -12969,7 +12996,7 @@
         <v>1</v>
       </c>
       <c r="H410" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -12995,7 +13022,7 @@
         <v>0.98</v>
       </c>
       <c r="H411" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -13021,7 +13048,7 @@
         <v>0.98</v>
       </c>
       <c r="H412" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -13047,7 +13074,7 @@
         <v>1</v>
       </c>
       <c r="H413" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13073,7 +13100,7 @@
         <v>0.84</v>
       </c>
       <c r="H414" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13099,7 +13126,7 @@
         <v>0.78</v>
       </c>
       <c r="H415" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -13125,7 +13152,7 @@
         <v>0.68</v>
       </c>
       <c r="H416" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -13151,7 +13178,7 @@
         <v>0.66</v>
       </c>
       <c r="H417" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -13177,7 +13204,7 @@
         <v>0.88</v>
       </c>
       <c r="H418" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -13203,7 +13230,7 @@
         <v>0.82</v>
       </c>
       <c r="H419" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -13229,7 +13256,7 @@
         <v>0.96</v>
       </c>
       <c r="H420" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13255,7 +13282,7 @@
         <v>0</v>
       </c>
       <c r="H421" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -13281,7 +13308,7 @@
         <v>0.38</v>
       </c>
       <c r="H422" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -13307,7 +13334,7 @@
         <v>0.7</v>
       </c>
       <c r="H423" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -13333,7 +13360,7 @@
         <v>0.14</v>
       </c>
       <c r="H424" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -13359,7 +13386,7 @@
         <v>0.3</v>
       </c>
       <c r="H425" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -13385,7 +13412,7 @@
         <v>1</v>
       </c>
       <c r="H426" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -13411,7 +13438,7 @@
         <v>0.36</v>
       </c>
       <c r="H427" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -13437,7 +13464,7 @@
         <v>0.64</v>
       </c>
       <c r="H428" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -13463,7 +13490,7 @@
         <v>0.24</v>
       </c>
       <c r="H429" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -13489,7 +13516,7 @@
         <v>1</v>
       </c>
       <c r="H430" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -13515,7 +13542,7 @@
         <v>0.96</v>
       </c>
       <c r="H431" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -13541,7 +13568,7 @@
         <v>0.36</v>
       </c>
       <c r="H432" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -13567,7 +13594,7 @@
         <v>0.54</v>
       </c>
       <c r="H433" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -13593,7 +13620,7 @@
         <v>0.7</v>
       </c>
       <c r="H434" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -13619,7 +13646,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H435" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -13645,7 +13672,7 @@
         <v>0.08</v>
       </c>
       <c r="H436" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -13671,7 +13698,7 @@
         <v>0.4</v>
       </c>
       <c r="H437" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -13697,7 +13724,7 @@
         <v>0.34</v>
       </c>
       <c r="H438" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -13723,7 +13750,7 @@
         <v>0.04</v>
       </c>
       <c r="H439" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -13749,7 +13776,7 @@
         <v>0.34</v>
       </c>
       <c r="H440" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -13775,7 +13802,7 @@
         <v>0.36</v>
       </c>
       <c r="H441" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -13801,7 +13828,7 @@
         <v>0.68</v>
       </c>
       <c r="H442" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -13827,7 +13854,7 @@
         <v>0.38</v>
       </c>
       <c r="H443" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -13853,7 +13880,7 @@
         <v>0.64</v>
       </c>
       <c r="H444" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -13879,7 +13906,7 @@
         <v>0.86</v>
       </c>
       <c r="H445" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -13905,7 +13932,7 @@
         <v>0.64</v>
       </c>
       <c r="H446" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -13931,7 +13958,7 @@
         <v>0.88</v>
       </c>
       <c r="H447" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -13957,7 +13984,7 @@
         <v>0.96</v>
       </c>
       <c r="H448" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -13983,7 +14010,7 @@
         <v>0.1</v>
       </c>
       <c r="H449" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -14009,7 +14036,7 @@
         <v>0.12</v>
       </c>
       <c r="H450" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -14035,7 +14062,7 @@
         <v>0.92</v>
       </c>
       <c r="H451" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -14061,7 +14088,7 @@
         <v>0.98</v>
       </c>
       <c r="H452" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -14087,7 +14114,7 @@
         <v>0.92</v>
       </c>
       <c r="H453" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -14113,7 +14140,7 @@
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -14139,7 +14166,7 @@
         <v>0.74</v>
       </c>
       <c r="H455" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -14165,7 +14192,7 @@
         <v>0.84</v>
       </c>
       <c r="H456" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -14191,7 +14218,7 @@
         <v>0.18</v>
       </c>
       <c r="H457" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -14217,7 +14244,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H458" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -14243,7 +14270,7 @@
         <v>0.12</v>
       </c>
       <c r="H459" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -14269,7 +14296,7 @@
         <v>1</v>
       </c>
       <c r="H460" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -14295,7 +14322,7 @@
         <v>0.96</v>
       </c>
       <c r="H461" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -14321,7 +14348,7 @@
         <v>0.9</v>
       </c>
       <c r="H462" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -14347,7 +14374,7 @@
         <v>0.62</v>
       </c>
       <c r="H463" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -14373,7 +14400,7 @@
         <v>0.16</v>
       </c>
       <c r="H464" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -14399,7 +14426,7 @@
         <v>0.4</v>
       </c>
       <c r="H465" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -14425,7 +14452,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -14451,7 +14478,7 @@
         <v>0.84</v>
       </c>
       <c r="H467" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -14477,7 +14504,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H468" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -14503,7 +14530,7 @@
         <v>0.9</v>
       </c>
       <c r="H469" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -14529,7 +14556,7 @@
         <v>0.24</v>
       </c>
       <c r="H470" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -14555,7 +14582,7 @@
         <v>0.26</v>
       </c>
       <c r="H471" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -14581,7 +14608,7 @@
         <v>0.74</v>
       </c>
       <c r="H472" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -14607,7 +14634,7 @@
         <v>0.4</v>
       </c>
       <c r="H473" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -14633,7 +14660,7 @@
         <v>1</v>
       </c>
       <c r="H474" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -14659,7 +14686,7 @@
         <v>0.86</v>
       </c>
       <c r="H475" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -14685,7 +14712,7 @@
         <v>0.7491891891891892</v>
       </c>
       <c r="H476" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -14711,7 +14738,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H477" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14737,7 +14764,7 @@
         <v>0.02</v>
       </c>
       <c r="H478" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -14763,7 +14790,7 @@
         <v>0.66</v>
       </c>
       <c r="H479" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -14789,7 +14816,7 @@
         <v>0.26</v>
       </c>
       <c r="H480" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -14815,7 +14842,7 @@
         <v>0.76</v>
       </c>
       <c r="H481" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -14841,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="H482" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14867,7 +14894,7 @@
         <v>0.76</v>
       </c>
       <c r="H483" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -14893,7 +14920,7 @@
         <v>0.08</v>
       </c>
       <c r="H484" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -14919,7 +14946,7 @@
         <v>0.96</v>
       </c>
       <c r="H485" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -14945,7 +14972,7 @@
         <v>0.98</v>
       </c>
       <c r="H486" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -14971,7 +14998,7 @@
         <v>0.36</v>
       </c>
       <c r="H487" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -14997,7 +15024,7 @@
         <v>0.2</v>
       </c>
       <c r="H488" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -15023,7 +15050,7 @@
         <v>0.12</v>
       </c>
       <c r="H489" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -15049,7 +15076,7 @@
         <v>0.9</v>
       </c>
       <c r="H490" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -15075,7 +15102,7 @@
         <v>0.24</v>
       </c>
       <c r="H491" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -15101,7 +15128,7 @@
         <v>0.9</v>
       </c>
       <c r="H492" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -15127,7 +15154,7 @@
         <v>0.7</v>
       </c>
       <c r="H493" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -15153,7 +15180,7 @@
         <v>0.68</v>
       </c>
       <c r="H494" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -15179,7 +15206,7 @@
         <v>0.12</v>
       </c>
       <c r="H495" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -15205,7 +15232,7 @@
         <v>0.68</v>
       </c>
       <c r="H496" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -15231,7 +15258,7 @@
         <v>0</v>
       </c>
       <c r="H497" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -15257,7 +15284,7 @@
         <v>0.68</v>
       </c>
       <c r="H498" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -15283,7 +15310,7 @@
         <v>0.96</v>
       </c>
       <c r="H499" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -15309,7 +15336,7 @@
         <v>0.18</v>
       </c>
       <c r="H500" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -15335,7 +15362,7 @@
         <v>0.88</v>
       </c>
       <c r="H501" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -15361,7 +15388,7 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -15387,7 +15414,7 @@
         <v>0.04</v>
       </c>
       <c r="H503" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -15413,7 +15440,7 @@
         <v>0.08</v>
       </c>
       <c r="H504" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -15439,7 +15466,7 @@
         <v>0.22</v>
       </c>
       <c r="H505" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -15465,7 +15492,7 @@
         <v>0.24</v>
       </c>
       <c r="H506" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -15491,7 +15518,7 @@
         <v>0.62</v>
       </c>
       <c r="H507" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -15517,7 +15544,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H508" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -15543,7 +15570,7 @@
         <v>0.62</v>
       </c>
       <c r="H509" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -15569,7 +15596,7 @@
         <v>0.36</v>
       </c>
       <c r="H510" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -15595,7 +15622,7 @@
         <v>0.54</v>
       </c>
       <c r="H511" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -15621,7 +15648,7 @@
         <v>0.76</v>
       </c>
       <c r="H512" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -15647,7 +15674,7 @@
         <v>1</v>
       </c>
       <c r="H513" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -15673,7 +15700,7 @@
         <v>0.28</v>
       </c>
       <c r="H514" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -15699,7 +15726,7 @@
         <v>1</v>
       </c>
       <c r="H515" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -15725,7 +15752,7 @@
         <v>0.38</v>
       </c>
       <c r="H516" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -15751,7 +15778,7 @@
         <v>0.3</v>
       </c>
       <c r="H517" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -15777,7 +15804,7 @@
         <v>0.36</v>
       </c>
       <c r="H518" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -15803,7 +15830,7 @@
         <v>0.8</v>
       </c>
       <c r="H519" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -15829,7 +15856,7 @@
         <v>0.22</v>
       </c>
       <c r="H520" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -15855,7 +15882,7 @@
         <v>0.32</v>
       </c>
       <c r="H521" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -15881,7 +15908,7 @@
         <v>0.32</v>
       </c>
       <c r="H522" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -15907,7 +15934,7 @@
         <v>0.52</v>
       </c>
       <c r="H523" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -15933,7 +15960,7 @@
         <v>0.92</v>
       </c>
       <c r="H524" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -15959,7 +15986,7 @@
         <v>0.96</v>
       </c>
       <c r="H525" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -15985,7 +16012,7 @@
         <v>0.16</v>
       </c>
       <c r="H526" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -16011,7 +16038,7 @@
         <v>0.66</v>
       </c>
       <c r="H527" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -16037,7 +16064,7 @@
         <v>0.04</v>
       </c>
       <c r="H528" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -16063,7 +16090,7 @@
         <v>0.02</v>
       </c>
       <c r="H529" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -16089,7 +16116,7 @@
         <v>0.36</v>
       </c>
       <c r="H530" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -16115,7 +16142,7 @@
         <v>0.14</v>
       </c>
       <c r="H531" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -16141,7 +16168,7 @@
         <v>0.64</v>
       </c>
       <c r="H532" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -16167,7 +16194,7 @@
         <v>1</v>
       </c>
       <c r="H533" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -16193,7 +16220,7 @@
         <v>0.08</v>
       </c>
       <c r="H534" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -16219,7 +16246,7 @@
         <v>0.06</v>
       </c>
       <c r="H535" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -16245,7 +16272,7 @@
         <v>0.34</v>
       </c>
       <c r="H536" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -16271,7 +16298,7 @@
         <v>0.28</v>
       </c>
       <c r="H537" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -16297,7 +16324,7 @@
         <v>0.92</v>
       </c>
       <c r="H538" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -16323,7 +16350,7 @@
         <v>0.08</v>
       </c>
       <c r="H539" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -16349,7 +16376,7 @@
         <v>0.64</v>
       </c>
       <c r="H540" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -16375,7 +16402,7 @@
         <v>0</v>
       </c>
       <c r="H541" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -16401,7 +16428,7 @@
         <v>0.18</v>
       </c>
       <c r="H542" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -16427,7 +16454,7 @@
         <v>0.16</v>
       </c>
       <c r="H543" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -16453,7 +16480,7 @@
         <v>0.98</v>
       </c>
       <c r="H544" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16479,7 +16506,7 @@
         <v>0.14</v>
       </c>
       <c r="H545" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -16505,7 +16532,7 @@
         <v>0.26</v>
       </c>
       <c r="H546" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -16531,7 +16558,7 @@
         <v>0.02</v>
       </c>
       <c r="H547" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -16557,7 +16584,7 @@
         <v>0.6</v>
       </c>
       <c r="H548" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -16583,7 +16610,7 @@
         <v>1</v>
       </c>
       <c r="H549" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -16609,7 +16636,7 @@
         <v>0.96</v>
       </c>
       <c r="H550" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -16635,7 +16662,7 @@
         <v>0.32</v>
       </c>
       <c r="H551" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -16661,7 +16688,7 @@
         <v>0.22</v>
       </c>
       <c r="H552" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -16687,7 +16714,7 @@
         <v>0.6</v>
       </c>
       <c r="H553" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -16713,7 +16740,7 @@
         <v>0.96</v>
       </c>
       <c r="H554" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -16739,7 +16766,7 @@
         <v>1</v>
       </c>
       <c r="H555" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -16765,7 +16792,7 @@
         <v>1</v>
       </c>
       <c r="H556" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -16791,7 +16818,7 @@
         <v>0</v>
       </c>
       <c r="H557" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -16817,7 +16844,7 @@
         <v>0.66</v>
       </c>
       <c r="H558" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -16843,7 +16870,7 @@
         <v>0.64</v>
       </c>
       <c r="H559" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -16869,7 +16896,7 @@
         <v>0.42</v>
       </c>
       <c r="H560" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -16895,7 +16922,7 @@
         <v>0.16</v>
       </c>
       <c r="H561" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -16921,7 +16948,7 @@
         <v>0.6</v>
       </c>
       <c r="H562" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -16947,7 +16974,7 @@
         <v>0.86</v>
       </c>
       <c r="H563" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -16973,7 +17000,7 @@
         <v>0.66</v>
       </c>
       <c r="H564" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -16999,7 +17026,7 @@
         <v>1</v>
       </c>
       <c r="H565" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -17025,7 +17052,7 @@
         <v>0.62</v>
       </c>
       <c r="H566" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -17051,7 +17078,7 @@
         <v>0.24</v>
       </c>
       <c r="H567" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -17077,7 +17104,7 @@
         <v>0.26</v>
       </c>
       <c r="H568" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -17103,7 +17130,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="H569" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -17129,7 +17156,7 @@
         <v>0.1</v>
       </c>
       <c r="H570" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -17155,7 +17182,7 @@
         <v>0.14</v>
       </c>
       <c r="H571" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -17181,7 +17208,7 @@
         <v>0.5</v>
       </c>
       <c r="H572" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -17207,7 +17234,7 @@
         <v>0.1</v>
       </c>
       <c r="H573" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -17233,7 +17260,7 @@
         <v>0.12</v>
       </c>
       <c r="H574" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -17259,7 +17286,7 @@
         <v>0.76</v>
       </c>
       <c r="H575" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -17285,7 +17312,7 @@
         <v>0.26</v>
       </c>
       <c r="H576" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -17311,7 +17338,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H577" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -17337,7 +17364,7 @@
         <v>0.92</v>
       </c>
       <c r="H578" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -17363,7 +17390,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="H579" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -17389,7 +17416,7 @@
         <v>0.98</v>
       </c>
       <c r="H580" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -17415,7 +17442,7 @@
         <v>0.76</v>
       </c>
       <c r="H581" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -17441,7 +17468,7 @@
         <v>0.98</v>
       </c>
       <c r="H582" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -17467,7 +17494,7 @@
         <v>0.3</v>
       </c>
       <c r="H583" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -17493,7 +17520,7 @@
         <v>0.96</v>
       </c>
       <c r="H584" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -17519,7 +17546,7 @@
         <v>0.14</v>
       </c>
       <c r="H585" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -17545,7 +17572,7 @@
         <v>0.92</v>
       </c>
       <c r="H586" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -17571,7 +17598,7 @@
         <v>0.68</v>
       </c>
       <c r="H587" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -17597,7 +17624,7 @@
         <v>0.34</v>
       </c>
       <c r="H588" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -17623,7 +17650,7 @@
         <v>0.68</v>
       </c>
       <c r="H589" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -17649,7 +17676,7 @@
         <v>0.04</v>
       </c>
       <c r="H590" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -17675,7 +17702,7 @@
         <v>0.98</v>
       </c>
       <c r="H591" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -17701,7 +17728,7 @@
         <v>0.34</v>
       </c>
       <c r="H592" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -17727,7 +17754,7 @@
         <v>0.28</v>
       </c>
       <c r="H593" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -17753,7 +17780,7 @@
         <v>0.98</v>
       </c>
       <c r="H594" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -17779,7 +17806,7 @@
         <v>0</v>
       </c>
       <c r="H595" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -17805,7 +17832,7 @@
         <v>0.92</v>
       </c>
       <c r="H596" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -17831,7 +17858,7 @@
         <v>0.72</v>
       </c>
       <c r="H597" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -17857,7 +17884,7 @@
         <v>0.04</v>
       </c>
       <c r="H598" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -17883,7 +17910,7 @@
         <v>0.9</v>
       </c>
       <c r="H599" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -17909,7 +17936,7 @@
         <v>0.24</v>
       </c>
       <c r="H600" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -17935,7 +17962,7 @@
         <v>0.88</v>
       </c>
       <c r="H601" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -17961,7 +17988,7 @@
         <v>0.6</v>
       </c>
       <c r="H602" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -17987,7 +18014,7 @@
         <v>1</v>
       </c>
       <c r="H603" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -18013,7 +18040,7 @@
         <v>0.96</v>
       </c>
       <c r="H604" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -18039,7 +18066,7 @@
         <v>0.82</v>
       </c>
       <c r="H605" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -18065,7 +18092,7 @@
         <v>0.04</v>
       </c>
       <c r="H606" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -18091,7 +18118,7 @@
         <v>0.96</v>
       </c>
       <c r="H607" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -18117,7 +18144,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="H608" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -18143,7 +18170,7 @@
         <v>1</v>
       </c>
       <c r="H609" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -18153,9 +18180,15 @@
       <c r="B610" t="s">
         <v>615</v>
       </c>
+      <c r="C610">
+        <v>1</v>
+      </c>
       <c r="D610">
         <v>1</v>
       </c>
+      <c r="E610">
+        <v>1</v>
+      </c>
       <c r="F610">
         <v>0</v>
       </c>
@@ -18163,7 +18196,209 @@
         <v>1</v>
       </c>
       <c r="H610" t="s">
-        <v>626</v>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8">
+      <c r="A611" s="1">
+        <v>609</v>
+      </c>
+      <c r="B611" t="s">
+        <v>616</v>
+      </c>
+      <c r="C611">
+        <v>0</v>
+      </c>
+      <c r="D611">
+        <v>0</v>
+      </c>
+      <c r="E611">
+        <v>1</v>
+      </c>
+      <c r="F611">
+        <v>0.74</v>
+      </c>
+      <c r="G611">
+        <v>0.26</v>
+      </c>
+      <c r="H611" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8">
+      <c r="A612" s="1">
+        <v>610</v>
+      </c>
+      <c r="B612" t="s">
+        <v>617</v>
+      </c>
+      <c r="C612">
+        <v>0</v>
+      </c>
+      <c r="D612">
+        <v>0</v>
+      </c>
+      <c r="E612">
+        <v>1</v>
+      </c>
+      <c r="F612">
+        <v>0.6087713588283157</v>
+      </c>
+      <c r="G612">
+        <v>0.3912286411716843</v>
+      </c>
+      <c r="H612" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8">
+      <c r="A613" s="1">
+        <v>611</v>
+      </c>
+      <c r="B613" t="s">
+        <v>618</v>
+      </c>
+      <c r="C613">
+        <v>1</v>
+      </c>
+      <c r="D613">
+        <v>1</v>
+      </c>
+      <c r="E613">
+        <v>1</v>
+      </c>
+      <c r="F613">
+        <v>0.26</v>
+      </c>
+      <c r="G613">
+        <v>0.74</v>
+      </c>
+      <c r="H613" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8">
+      <c r="A614" s="1">
+        <v>612</v>
+      </c>
+      <c r="B614" t="s">
+        <v>619</v>
+      </c>
+      <c r="C614">
+        <v>0</v>
+      </c>
+      <c r="D614">
+        <v>1</v>
+      </c>
+      <c r="E614">
+        <v>0</v>
+      </c>
+      <c r="F614">
+        <v>0.26</v>
+      </c>
+      <c r="G614">
+        <v>0.74</v>
+      </c>
+      <c r="H614" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8">
+      <c r="A615" s="1">
+        <v>613</v>
+      </c>
+      <c r="B615" t="s">
+        <v>620</v>
+      </c>
+      <c r="C615">
+        <v>1</v>
+      </c>
+      <c r="D615">
+        <v>0</v>
+      </c>
+      <c r="E615">
+        <v>0</v>
+      </c>
+      <c r="F615">
+        <v>0.98</v>
+      </c>
+      <c r="G615">
+        <v>0.02</v>
+      </c>
+      <c r="H615" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8">
+      <c r="A616" s="1">
+        <v>614</v>
+      </c>
+      <c r="B616" t="s">
+        <v>621</v>
+      </c>
+      <c r="C616">
+        <v>1</v>
+      </c>
+      <c r="D616">
+        <v>0</v>
+      </c>
+      <c r="E616">
+        <v>0</v>
+      </c>
+      <c r="F616">
+        <v>0.78</v>
+      </c>
+      <c r="G616">
+        <v>0.22</v>
+      </c>
+      <c r="H616" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8">
+      <c r="A617" s="1">
+        <v>615</v>
+      </c>
+      <c r="B617" t="s">
+        <v>622</v>
+      </c>
+      <c r="C617">
+        <v>1</v>
+      </c>
+      <c r="D617">
+        <v>1</v>
+      </c>
+      <c r="E617">
+        <v>1</v>
+      </c>
+      <c r="F617">
+        <v>0.42</v>
+      </c>
+      <c r="G617">
+        <v>0.58</v>
+      </c>
+      <c r="H617" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8">
+      <c r="A618" s="1">
+        <v>616</v>
+      </c>
+      <c r="B618" t="s">
+        <v>623</v>
+      </c>
+      <c r="D618">
+        <v>0</v>
+      </c>
+      <c r="F618">
+        <v>0.9</v>
+      </c>
+      <c r="G618">
+        <v>0.1</v>
+      </c>
+      <c r="H618" t="s">
+        <v>645</v>
       </c>
     </row>
   </sheetData>
